--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP- monousuario\Facturador_Windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E92F344-EA0B-4145-9C2B-DAEC4E0991AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D6521C-BD95-46BB-980C-B45A18F60B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Factura" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AD$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AF$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
   <si>
     <t>Fecha</t>
   </si>
@@ -249,6 +249,30 @@
   </si>
   <si>
     <t>MARTIN BUSTOS</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Anterior</t>
+  </si>
+  <si>
+    <t>Posterior</t>
+  </si>
+  <si>
+    <t>Derecha Tipo</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Remito R</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Unidades Facturador</t>
   </si>
 </sst>
 </file>
@@ -600,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -730,6 +754,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -776,7 +813,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -791,11 +828,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1158,12 +1197,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH17"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,22 +1216,24 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" customWidth="1"/>
-    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="9.140625" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="25" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="13.7109375" customWidth="1"/>
+    <col min="37" max="37" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1254,62 +1295,80 @@
         <v>19</v>
       </c>
       <c r="U1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AG1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AL1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AM1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AN1" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44992</v>
       </c>
       <c r="B2" s="9" t="str">
-        <f t="shared" ref="B2:B17" si="0">TEXT(DATE(YEAR(C2),MONTH(C2),1),"dd/mm/aaaa")</f>
+        <f>TEXT(DATE(YEAR(C2),MONTH(C2),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C2" s="9" t="str">
-        <f t="shared" ref="C2:C17" si="1">TEXT(EOMONTH(A2,-1),"dd/mm/aaaa")</f>
+        <f>TEXT(EOMONTH(A2,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D2" s="9" t="str">
-        <f t="shared" ref="D2:D17" si="2">TEXT(A2+14,"dd/mm/aaaa")</f>
+        <f>TEXT(A2+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E2" s="2">
@@ -1319,7 +1378,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>36</v>
@@ -1328,23 +1387,23 @@
         <v>9</v>
       </c>
       <c r="J2" s="3">
-        <v>33610006189</v>
+        <v>30525390086</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B2,"mmmm"))</f>
-        <v>Honorarios Febrero</v>
+        <v>53</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="M2" s="4">
-        <v>5.04</v>
-      </c>
-      <c r="N2" s="2">
-        <v>8851.52</v>
+        <v>9.1175320000000006</v>
+      </c>
+      <c r="N2" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O2" s="5">
-        <v>44628.1</v>
+        <f>ROUND(M2*N2,6)</f>
+        <v>170247.93684800001</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>38</v>
@@ -1352,71 +1411,96 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="1" t="str">
-        <f t="shared" ref="U2" si="3">TEXT(R2,"00000")</f>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14">
+        <f>COUNTIFS($F$1:F2,F2,$K$1:K2,K2)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V2" s="14" t="str">
+        <f>SUBSTITUTE(M2,",",".")</f>
+        <v>9.117532</v>
+      </c>
+      <c r="W2" s="1" t="str">
+        <f>TEXT(R2,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="V2" s="1" t="str">
-        <f t="shared" ref="V2" si="4">TEXT(S2,"00000000")</f>
+      <c r="X2" s="1" t="str">
+        <f>TEXT(S2,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="W2" s="1" t="str">
+      <c r="Y2" s="1" t="str">
         <f>TEXT(T2,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
-      <c r="X2" s="14">
-        <f t="shared" ref="X2" si="5">ROUND(O2*P2,2)</f>
-        <v>9371.9</v>
-      </c>
-      <c r="Y2" s="14">
-        <f t="shared" ref="Y2" si="6">O2+X2</f>
-        <v>54000</v>
-      </c>
-      <c r="Z2" s="10" t="str">
-        <f>IF(F2="Factura A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(Y2,"0,00"),",","."))</f>
-        <v>44628.10</v>
-      </c>
-      <c r="AA2" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(Y2,0)-Y2,"0,00"),",",".")</f>
-        <v>0.00</v>
-      </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1">
-        <f t="shared" ref="AC2" si="7">ROW(K2)</f>
+      <c r="Z2" s="13">
+        <f>ROUND(O2*P2,2)</f>
+        <v>35752.07</v>
+      </c>
+      <c r="AA2" s="13">
+        <f>O2+Z2</f>
+        <v>206000.00684800002</v>
+      </c>
+      <c r="AB2" s="10" t="str">
+        <f>IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AA2,"0,00"),",","."))</f>
+        <v>170247.94</v>
+      </c>
+      <c r="AC2" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA2,0)-AA2,"0,00"),",",".")</f>
+        <v>0.99</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1">
+        <f>ROW(K2)</f>
         <v>2</v>
       </c>
-      <c r="AD2" s="1" t="str">
+      <c r="AF2" s="15" t="str">
         <f>J2&amp;"-"&amp;COUNTIF($J$1:J2,J2)</f>
-        <v>33610006189-1</v>
-      </c>
-      <c r="AF2" s="15">
-        <f t="shared" ref="AF2" si="8">CEILING(N2*M2*(1+P2),500)</f>
-        <v>54000</v>
-      </c>
-      <c r="AG2" s="15">
-        <f t="shared" ref="AG2" si="9">ROUND((AF2/(1+P2)),2)</f>
-        <v>44628.1</v>
-      </c>
-      <c r="AH2" s="16">
-        <f t="shared" ref="AH2" si="10">ROUND(AG2/N2,4)</f>
-        <v>5.0419</v>
+        <v>30525390086-1</v>
+      </c>
+      <c r="AG2" s="1">
+        <f>IF(K1=K2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1">
+        <f>IF(K2=K3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1" t="str">
+        <f>RIGHT(F2)</f>
+        <v>A</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f>IF(LEFT(F2,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="13">
+        <f>CEILING(N2*M2*(1+P2),500)</f>
+        <v>206500</v>
+      </c>
+      <c r="AM2" s="13">
+        <f>ROUND((AL2/(1+P2)),2)</f>
+        <v>170661.16</v>
+      </c>
+      <c r="AN2" s="18">
+        <f>ROUND(AM2/N2,6)</f>
+        <v>9.1396619999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44992</v>
       </c>
       <c r="B3" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C3),MONTH(C3),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A3,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A3+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E3" s="2">
@@ -1435,22 +1519,24 @@
         <v>9</v>
       </c>
       <c r="J3" s="3">
-        <v>33610006189</v>
+        <v>30525733870</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f>"Honorarios "&amp;PROPER(TEXT(B3,"mmmm"))</f>
+        <v>Honorarios Febrero</v>
       </c>
       <c r="M3" s="4">
-        <v>5.04</v>
-      </c>
-      <c r="N3" s="2">
-        <v>8851.52</v>
+        <v>8.0774249999999999</v>
+      </c>
+      <c r="N3" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O3" s="5">
-        <v>44628.1</v>
+        <f>ROUND(M3*N3,6)</f>
+        <v>150826.44528099999</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>38</v>
@@ -1458,71 +1544,96 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3:U17" si="11">TEXT(R3,"00000")</f>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14">
+        <f>COUNTIFS($F$1:F3,F3,$K$1:K3,K3)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V3" s="14" t="str">
+        <f>SUBSTITUTE(M3,",",".")</f>
+        <v>8.077425</v>
+      </c>
+      <c r="W3" s="1" t="str">
+        <f>TEXT(R3,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V17" si="12">TEXT(S3,"00000000")</f>
+      <c r="X3" s="1" t="str">
+        <f>TEXT(S3,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="W3" s="1" t="str">
+      <c r="Y3" s="1" t="str">
         <f>TEXT(T3,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
-      <c r="X3" s="14">
-        <f t="shared" ref="X3:X17" si="13">ROUND(O3*P3,2)</f>
-        <v>9371.9</v>
-      </c>
-      <c r="Y3" s="14">
-        <f t="shared" ref="Y3:Y17" si="14">O3+X3</f>
-        <v>54000</v>
-      </c>
-      <c r="Z3" s="10" t="str">
-        <f t="shared" ref="Z3:Z17" si="15">IF(F3="Factura A",SUBSTITUTE(TEXT(O3,"0,00"),",","."),SUBSTITUTE(TEXT(Y3,"0,00"),",","."))</f>
-        <v>44628.10</v>
-      </c>
-      <c r="AA3" s="10" t="str">
-        <f t="shared" ref="AA3:AA17" si="16">SUBSTITUTE(TEXT(ROUNDUP(Y3,0)-Y3,"0,00"),",",".")</f>
+      <c r="Z3" s="13">
+        <f>ROUND(O3*P3,2)</f>
+        <v>31673.55</v>
+      </c>
+      <c r="AA3" s="13">
+        <f>O3+Z3</f>
+        <v>182499.99528099998</v>
+      </c>
+      <c r="AB3" s="10" t="str">
+        <f>IF(RIGHT(F3,1)="A",SUBSTITUTE(TEXT(O3,"0,00"),",","."),SUBSTITUTE(TEXT(AA3,"0,00"),",","."))</f>
+        <v>150826.45</v>
+      </c>
+      <c r="AC3" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA3,0)-AA3,"0,00"),",",".")</f>
         <v>0.00</v>
       </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1">
-        <f t="shared" ref="AC3:AC17" si="17">ROW(K3)</f>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1">
+        <f>ROW(K3)</f>
         <v>3</v>
       </c>
-      <c r="AD3" s="1" t="str">
+      <c r="AF3" s="15" t="str">
         <f>J3&amp;"-"&amp;COUNTIF($J$1:J3,J3)</f>
-        <v>33610006189-2</v>
-      </c>
-      <c r="AF3" s="15">
-        <f t="shared" ref="AF3:AF17" si="18">CEILING(N3*M3*(1+P3),500)</f>
-        <v>54000</v>
-      </c>
-      <c r="AG3" s="15">
-        <f t="shared" ref="AG3:AG17" si="19">ROUND((AF3/(1+P3)),2)</f>
-        <v>44628.1</v>
-      </c>
-      <c r="AH3" s="16">
-        <f t="shared" ref="AH3:AH17" si="20">ROUND(AG3/N3,4)</f>
-        <v>5.0419</v>
+        <v>30525733870-1</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>IF(K2=K3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <f>IF(K3=K4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1" t="str">
+        <f>RIGHT(F3)</f>
+        <v>A</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>IF(LEFT(F3,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="13">
+        <f>CEILING(N3*M3*(1+P3),500)</f>
+        <v>182500</v>
+      </c>
+      <c r="AM3" s="13">
+        <f>ROUND((AL3/(1+P3)),2)</f>
+        <v>150826.45000000001</v>
+      </c>
+      <c r="AN3" s="18">
+        <f>ROUND(AM3/N3,6)</f>
+        <v>8.0774249999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44992</v>
       </c>
       <c r="B4" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C4),MONTH(C4),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A4,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D4" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A4+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E4" s="2">
@@ -1551,13 +1662,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M4" s="4">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="N4" s="2">
-        <v>8851.52</v>
+        <v>10.091248999999999</v>
+      </c>
+      <c r="N4" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O4" s="5">
-        <v>88842.97</v>
+        <f>ROUND(M4*N4,6)</f>
+        <v>188429.75516500001</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>38</v>
@@ -1565,78 +1677,103 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="14">
+        <f>COUNTIFS($F$1:F4,F4,$K$1:K4,K4)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V4" s="14" t="str">
+        <f>SUBSTITUTE(M4,",",".")</f>
+        <v>10.091249</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f>TEXT(R4,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="V4" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="X4" s="1" t="str">
+        <f>TEXT(S4,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="W4" s="1" t="str">
+      <c r="Y4" s="1" t="str">
         <f>TEXT(T4,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
-      <c r="X4" s="14">
-        <f t="shared" si="13"/>
-        <v>18657.02</v>
-      </c>
-      <c r="Y4" s="14">
-        <f t="shared" si="14"/>
-        <v>107499.99</v>
-      </c>
-      <c r="Z4" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>88842.97</v>
-      </c>
-      <c r="AA4" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>0.01</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1">
-        <f t="shared" si="17"/>
+      <c r="Z4" s="13">
+        <f>ROUND(O4*P4,2)</f>
+        <v>39570.25</v>
+      </c>
+      <c r="AA4" s="13">
+        <f>O4+Z4</f>
+        <v>228000.00516500001</v>
+      </c>
+      <c r="AB4" s="10" t="str">
+        <f>IF(RIGHT(F4,1)="A",SUBSTITUTE(TEXT(O4,"0,00"),",","."),SUBSTITUTE(TEXT(AA4,"0,00"),",","."))</f>
+        <v>188429.76</v>
+      </c>
+      <c r="AC4" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA4,0)-AA4,"0,00"),",",".")</f>
+        <v>0.99</v>
+      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1">
+        <f>ROW(K4)</f>
         <v>4</v>
       </c>
-      <c r="AD4" s="1" t="str">
+      <c r="AF4" s="15" t="str">
         <f>J4&amp;"-"&amp;COUNTIF($J$1:J4,J4)</f>
         <v>30610252334-1</v>
       </c>
-      <c r="AF4" s="15">
-        <f t="shared" si="18"/>
-        <v>108000</v>
-      </c>
-      <c r="AG4" s="15">
-        <f t="shared" si="19"/>
-        <v>89256.2</v>
-      </c>
-      <c r="AH4" s="16">
-        <f t="shared" si="20"/>
-        <v>10.0837</v>
+      <c r="AG4" s="1">
+        <f>IF(K3=K4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1">
+        <f>IF(K4=K5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1" t="str">
+        <f>RIGHT(F4)</f>
+        <v>A</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f>IF(LEFT(F4,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="13">
+        <f>CEILING(N4*M4*(1+P4),500)</f>
+        <v>228500</v>
+      </c>
+      <c r="AM4" s="13">
+        <f>ROUND((AL4/(1+P4)),2)</f>
+        <v>188842.98</v>
+      </c>
+      <c r="AN4" s="18">
+        <f>ROUND(AM4/N4,6)</f>
+        <v>10.113379</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44992</v>
       </c>
       <c r="B5" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C5),MONTH(C5),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A5,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A5+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>39</v>
@@ -1648,112 +1785,131 @@
         <v>9</v>
       </c>
       <c r="J5" s="3">
-        <v>30684125792</v>
+        <v>30710964277</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>"Honorarios "&amp;PROPER(TEXT(B5,"mmmm"))</f>
+        <v>Honorarios Febrero</v>
       </c>
       <c r="M5" s="4">
-        <v>7</v>
-      </c>
-      <c r="N5" s="2">
-        <v>8851.52</v>
+        <v>9.1175320000000006</v>
+      </c>
+      <c r="N5" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O5" s="5">
-        <v>61983.47</v>
+        <f>ROUND(M5*N5,6)</f>
+        <v>170247.93684800001</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="13">
-        <v>44816</v>
-      </c>
-      <c r="U5" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>00002</v>
-      </c>
-      <c r="V5" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>00000150</v>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="14">
+        <f>COUNTIFS($F$1:F5,F5,$K$1:K5,K5)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V5" s="14" t="str">
+        <f>SUBSTITUTE(M5,",",".")</f>
+        <v>9.117532</v>
       </c>
       <c r="W5" s="1" t="str">
+        <f>TEXT(R5,"00000")</f>
+        <v>00000</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f>TEXT(S5,"00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="Y5" s="1" t="str">
         <f>TEXT(T5,"DD/MM/aaaa")</f>
-        <v>12/09/2022</v>
-      </c>
-      <c r="X5" s="14">
-        <f t="shared" si="13"/>
-        <v>13016.53</v>
-      </c>
-      <c r="Y5" s="14">
-        <f t="shared" si="14"/>
-        <v>75000</v>
-      </c>
-      <c r="Z5" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>75000.00</v>
-      </c>
-      <c r="AA5" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>0.00</v>
-      </c>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1">
-        <f t="shared" si="17"/>
+        <v>00/01/1900</v>
+      </c>
+      <c r="Z5" s="13">
+        <f>ROUND(O5*P5,2)</f>
+        <v>35752.07</v>
+      </c>
+      <c r="AA5" s="13">
+        <f>O5+Z5</f>
+        <v>206000.00684800002</v>
+      </c>
+      <c r="AB5" s="10" t="str">
+        <f>IF(RIGHT(F5,1)="A",SUBSTITUTE(TEXT(O5,"0,00"),",","."),SUBSTITUTE(TEXT(AA5,"0,00"),",","."))</f>
+        <v>170247.94</v>
+      </c>
+      <c r="AC5" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA5,0)-AA5,"0,00"),",",".")</f>
+        <v>0.99</v>
+      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1">
+        <f>ROW(K5)</f>
         <v>5</v>
       </c>
-      <c r="AD5" s="1" t="str">
+      <c r="AF5" s="15" t="str">
         <f>J5&amp;"-"&amp;COUNTIF($J$1:J5,J5)</f>
-        <v>30684125792-1</v>
-      </c>
-      <c r="AF5" s="15">
-        <f t="shared" si="18"/>
-        <v>75000</v>
-      </c>
-      <c r="AG5" s="15">
-        <f t="shared" si="19"/>
-        <v>61983.47</v>
-      </c>
-      <c r="AH5" s="16">
-        <f t="shared" si="20"/>
-        <v>7.0026000000000002</v>
+        <v>30710964277-1</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>IF(K4=K5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <f>IF(K5=K6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1" t="str">
+        <f>RIGHT(F5)</f>
+        <v>A</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f>IF(LEFT(F5,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="13">
+        <f>CEILING(N5*M5*(1+P5),500)</f>
+        <v>206500</v>
+      </c>
+      <c r="AM5" s="13">
+        <f>ROUND((AL5/(1+P5)),2)</f>
+        <v>170661.16</v>
+      </c>
+      <c r="AN5" s="18">
+        <f>ROUND(AM5/N5,6)</f>
+        <v>9.1396619999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44992</v>
       </c>
       <c r="B6" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C6),MONTH(C6),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A6,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A6+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>36</v>
@@ -1762,102 +1918,129 @@
         <v>9</v>
       </c>
       <c r="J6" s="3">
-        <v>30684125792</v>
+        <v>33610006189</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f>"Honorarios "&amp;PROPER(TEXT(B6,"mmmm"))</f>
+        <v>Honorarios Febrero</v>
       </c>
       <c r="M6" s="4">
-        <v>7</v>
-      </c>
-      <c r="N6" s="2">
-        <v>8851.52</v>
+        <v>5.0898839999999996</v>
+      </c>
+      <c r="N6" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O6" s="5">
-        <v>61983.47</v>
+        <f>ROUND(M6*N6,6)</f>
+        <v>95041.317079999993</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>38</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="R6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="13">
+        <v>77</v>
+      </c>
+      <c r="T6" s="12">
         <v>44816</v>
       </c>
-      <c r="U6" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="U6" s="14">
+        <f>COUNTIFS($F$1:F6,F6,$K$1:K6,K6)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V6" s="14" t="str">
+        <f>SUBSTITUTE(M6,",",".")</f>
+        <v>5.089884</v>
+      </c>
+      <c r="W6" s="1" t="str">
+        <f>TEXT(R6,"00000")</f>
         <v>00002</v>
       </c>
-      <c r="V6" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>00000151</v>
-      </c>
-      <c r="W6" s="1" t="str">
+      <c r="X6" s="1" t="str">
+        <f>TEXT(S6,"00000000")</f>
+        <v>00000003</v>
+      </c>
+      <c r="Y6" s="1" t="str">
         <f>TEXT(T6,"DD/MM/aaaa")</f>
         <v>12/09/2022</v>
       </c>
-      <c r="X6" s="14">
-        <f t="shared" si="13"/>
-        <v>13016.53</v>
-      </c>
-      <c r="Y6" s="14">
-        <f t="shared" si="14"/>
-        <v>75000</v>
-      </c>
-      <c r="Z6" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>75000.00</v>
-      </c>
-      <c r="AA6" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>0.00</v>
-      </c>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1">
-        <f t="shared" si="17"/>
+      <c r="Z6" s="13">
+        <f>ROUND(O6*P6,2)</f>
+        <v>19958.68</v>
+      </c>
+      <c r="AA6" s="13">
+        <f>O6+Z6</f>
+        <v>114999.99708</v>
+      </c>
+      <c r="AB6" s="10" t="str">
+        <f>IF(RIGHT(F6,1)="A",SUBSTITUTE(TEXT(O6,"0,00"),",","."),SUBSTITUTE(TEXT(AA6,"0,00"),",","."))</f>
+        <v>95041.32</v>
+      </c>
+      <c r="AC6" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(54501-54500.002432,"0,00"),",",".")</f>
+        <v>1.00</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1">
+        <f>ROW(K6)</f>
         <v>6</v>
       </c>
-      <c r="AD6" s="1" t="str">
+      <c r="AF6" s="15" t="str">
         <f>J6&amp;"-"&amp;COUNTIF($J$1:J6,J6)</f>
-        <v>30684125792-2</v>
-      </c>
-      <c r="AF6" s="15">
-        <f t="shared" si="18"/>
-        <v>75000</v>
-      </c>
-      <c r="AG6" s="15">
-        <f t="shared" si="19"/>
-        <v>61983.47</v>
-      </c>
-      <c r="AH6" s="16">
-        <f t="shared" si="20"/>
-        <v>7.0026000000000002</v>
+        <v>33610006189-1</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>IF(K5=K6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <f>IF(K6=K7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1" t="str">
+        <f>RIGHT(F6)</f>
+        <v>A</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>IF(LEFT(F6,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="13">
+        <f>CEILING(N6*M6*(1+P6),500)</f>
+        <v>115000</v>
+      </c>
+      <c r="AM6" s="13">
+        <f>ROUND((AL6/(1+P6)),2)</f>
+        <v>95041.32</v>
+      </c>
+      <c r="AN6" s="18">
+        <f>ROUND(AM6/N6,6)</f>
+        <v>5.0898839999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44992</v>
       </c>
       <c r="B7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C7),MONTH(C7),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A7,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D7" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A7+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E7" s="2">
@@ -1876,23 +2059,23 @@
         <v>9</v>
       </c>
       <c r="J7" s="3">
-        <v>30525733870</v>
+        <v>33610006189</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B7,"mmmm"))</f>
-        <v>Honorarios Febrero</v>
+        <v>37</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="M7" s="4">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="N7" s="2">
-        <v>8851.52</v>
+        <v>5.0898839999999996</v>
+      </c>
+      <c r="N7" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O7" s="5">
-        <v>71074.38</v>
+        <f>ROUND(M7*N7,6)</f>
+        <v>95041.317079999993</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>38</v>
@@ -1900,71 +2083,96 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="14">
+        <f>COUNTIFS($F$1:F7,F7,$K$1:K7,K7)+1</f>
+        <v>3</v>
+      </c>
+      <c r="V7" s="14" t="str">
+        <f>SUBSTITUTE(M7,",",".")</f>
+        <v>5.089884</v>
+      </c>
+      <c r="W7" s="1" t="str">
+        <f>TEXT(R7,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="V7" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="X7" s="1" t="str">
+        <f>TEXT(S7,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="W7" s="1" t="str">
+      <c r="Y7" s="1" t="str">
         <f>TEXT(T7,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
-      <c r="X7" s="14">
-        <f t="shared" si="13"/>
-        <v>14925.62</v>
-      </c>
-      <c r="Y7" s="14">
-        <f t="shared" si="14"/>
-        <v>86000</v>
-      </c>
-      <c r="Z7" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>71074.38</v>
-      </c>
-      <c r="AA7" s="10" t="str">
-        <f t="shared" si="16"/>
+      <c r="Z7" s="13">
+        <f>ROUND(O7*P7,2)</f>
+        <v>19958.68</v>
+      </c>
+      <c r="AA7" s="13">
+        <f>O7+Z7</f>
+        <v>114999.99708</v>
+      </c>
+      <c r="AB7" s="10" t="str">
+        <f>IF(RIGHT(F7,1)="A",SUBSTITUTE(TEXT(O7,"0,00"),",","."),SUBSTITUTE(TEXT(AA7,"0,00"),",","."))</f>
+        <v>95041.32</v>
+      </c>
+      <c r="AC7" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA7,0)-AA7,"0,00"),",",".")</f>
         <v>0.00</v>
       </c>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1">
-        <f t="shared" si="17"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1">
+        <f>ROW(K7)</f>
         <v>7</v>
       </c>
-      <c r="AD7" s="1" t="str">
+      <c r="AF7" s="15" t="str">
         <f>J7&amp;"-"&amp;COUNTIF($J$1:J7,J7)</f>
-        <v>30525733870-1</v>
-      </c>
-      <c r="AF7" s="15">
-        <f t="shared" si="18"/>
-        <v>86500</v>
-      </c>
-      <c r="AG7" s="15">
-        <f t="shared" si="19"/>
-        <v>71487.600000000006</v>
-      </c>
-      <c r="AH7" s="16">
-        <f t="shared" si="20"/>
-        <v>8.0762999999999998</v>
+        <v>33610006189-2</v>
+      </c>
+      <c r="AG7" s="1">
+        <f>IF(K6=K7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1">
+        <f>IF(K7=K8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1" t="str">
+        <f>RIGHT(F7)</f>
+        <v>A</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f>IF(LEFT(F7,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="13">
+        <f>CEILING(N7*M7*(1+P7),500)</f>
+        <v>115000</v>
+      </c>
+      <c r="AM7" s="13">
+        <f>ROUND((AL7/(1+P7)),2)</f>
+        <v>95041.32</v>
+      </c>
+      <c r="AN7" s="18">
+        <f>ROUND(AM7/N7,6)</f>
+        <v>5.0898839999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44992</v>
       </c>
       <c r="B8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C8),MONTH(C8),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A8,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D8" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A8+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E8" s="2">
@@ -1983,23 +2191,24 @@
         <v>9</v>
       </c>
       <c r="J8" s="3">
-        <v>30710964277</v>
+        <v>33615420269</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
         <f>"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M8" s="4">
-        <v>9.01</v>
-      </c>
-      <c r="N8" s="2">
-        <v>8851.52</v>
+        <v>10.091248999999999</v>
+      </c>
+      <c r="N8" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O8" s="5">
-        <v>79752.070000000007</v>
+        <f>ROUND(M8*N8,6)</f>
+        <v>188429.75516500001</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>38</v>
@@ -2007,71 +2216,96 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="14">
+        <f>COUNTIFS($F$1:F8,F8,$K$1:K8,K8)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V8" s="14" t="str">
+        <f>SUBSTITUTE(M8,",",".")</f>
+        <v>10.091249</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f>TEXT(R8,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="V8" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="X8" s="1" t="str">
+        <f>TEXT(S8,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="W8" s="1" t="str">
+      <c r="Y8" s="1" t="str">
         <f>TEXT(T8,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
-      <c r="X8" s="14">
-        <f t="shared" si="13"/>
-        <v>16747.93</v>
-      </c>
-      <c r="Y8" s="14">
-        <f t="shared" si="14"/>
-        <v>96500</v>
-      </c>
-      <c r="Z8" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>79752.07</v>
-      </c>
-      <c r="AA8" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>0.00</v>
-      </c>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1">
-        <f t="shared" si="17"/>
+      <c r="Z8" s="13">
+        <f>ROUND(O8*P8,2)</f>
+        <v>39570.25</v>
+      </c>
+      <c r="AA8" s="13">
+        <f>O8+Z8</f>
+        <v>228000.00516500001</v>
+      </c>
+      <c r="AB8" s="10" t="str">
+        <f>IF(RIGHT(F8,1)="A",SUBSTITUTE(TEXT(O8,"0,00"),",","."),SUBSTITUTE(TEXT(AA8,"0,00"),",","."))</f>
+        <v>188429.76</v>
+      </c>
+      <c r="AC8" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA8,0)-AA8,"0,00"),",",".")</f>
+        <v>0.99</v>
+      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1">
+        <f>ROW(K8)</f>
         <v>8</v>
       </c>
-      <c r="AD8" s="1" t="str">
+      <c r="AF8" s="15" t="str">
         <f>J8&amp;"-"&amp;COUNTIF($J$1:J8,J8)</f>
-        <v>30710964277-1</v>
-      </c>
-      <c r="AF8" s="15">
-        <f t="shared" si="18"/>
-        <v>97000</v>
-      </c>
-      <c r="AG8" s="15">
-        <f t="shared" si="19"/>
-        <v>80165.289999999994</v>
-      </c>
-      <c r="AH8" s="16">
-        <f t="shared" si="20"/>
-        <v>9.0566999999999993</v>
+        <v>33615420269-1</v>
+      </c>
+      <c r="AG8" s="1">
+        <f>IF(K7=K8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <f>IF(K8=K9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1" t="str">
+        <f>RIGHT(F8)</f>
+        <v>A</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f>IF(LEFT(F8,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="13">
+        <f>CEILING(N8*M8*(1+P8),500)</f>
+        <v>228500</v>
+      </c>
+      <c r="AM8" s="13">
+        <f>ROUND((AL8/(1+P8)),2)</f>
+        <v>188842.98</v>
+      </c>
+      <c r="AN8" s="18">
+        <f>ROUND(AM8/N8,6)</f>
+        <v>10.113379</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44992</v>
       </c>
       <c r="B9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C9),MONTH(C9),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A9,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D9" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A9+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E9" s="2">
@@ -2084,29 +2318,30 @@
         <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="3">
-        <v>33615420269</v>
+      <c r="J9" s="2">
+        <v>20147130202</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>"Honorarios "&amp;PROPER(TEXT(B9,"mmmm"))</f>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M9" s="4">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="N9" s="2">
-        <v>8851.52</v>
+        <v>1.0843659999999999</v>
+      </c>
+      <c r="N9" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O9" s="5">
-        <v>88842.97</v>
+        <f>ROUND(M9*N9,6)</f>
+        <v>20247.921728000001</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>38</v>
@@ -2114,71 +2349,96 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14">
+        <f>COUNTIFS($F$1:F9,F9,$K$1:K9,K9)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V9" s="14" t="str">
+        <f>SUBSTITUTE(M9,",",".")</f>
+        <v>1.084366</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f>TEXT(R9,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="V9" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="X9" s="1" t="str">
+        <f>TEXT(S9,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="W9" s="1" t="str">
+      <c r="Y9" s="1" t="str">
         <f>TEXT(T9,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
-      <c r="X9" s="14">
-        <f t="shared" si="13"/>
-        <v>18657.02</v>
-      </c>
-      <c r="Y9" s="14">
-        <f t="shared" si="14"/>
-        <v>107499.99</v>
-      </c>
-      <c r="Z9" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>88842.97</v>
-      </c>
-      <c r="AA9" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>0.01</v>
-      </c>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1">
-        <f t="shared" si="17"/>
+      <c r="Z9" s="13">
+        <f>ROUND(O9*P9,2)</f>
+        <v>4252.0600000000004</v>
+      </c>
+      <c r="AA9" s="13">
+        <f>O9+Z9</f>
+        <v>24499.981728000002</v>
+      </c>
+      <c r="AB9" s="10" t="str">
+        <f>IF(RIGHT(F9,1)="A",SUBSTITUTE(TEXT(O9,"0,00"),",","."),SUBSTITUTE(TEXT(AA9,"0,00"),",","."))</f>
+        <v>20247.92</v>
+      </c>
+      <c r="AC9" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA9,0)-AA9,"0,00"),",",".")</f>
+        <v>0.02</v>
+      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1">
+        <f>ROW(K9)</f>
         <v>9</v>
       </c>
-      <c r="AD9" s="1" t="str">
+      <c r="AF9" s="15" t="str">
         <f>J9&amp;"-"&amp;COUNTIF($J$1:J9,J9)</f>
-        <v>33615420269-1</v>
-      </c>
-      <c r="AF9" s="15">
-        <f t="shared" si="18"/>
-        <v>108000</v>
-      </c>
-      <c r="AG9" s="15">
-        <f t="shared" si="19"/>
-        <v>89256.2</v>
-      </c>
-      <c r="AH9" s="16">
-        <f t="shared" si="20"/>
-        <v>10.0837</v>
+        <v>20147130202-1</v>
+      </c>
+      <c r="AG9" s="1">
+        <f>IF(K8=K9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <f>IF(K9=K10,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1" t="str">
+        <f>RIGHT(F9)</f>
+        <v>A</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f>IF(LEFT(F9,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="13">
+        <f>CEILING(N9*M9*(1+P9),500)</f>
+        <v>24500</v>
+      </c>
+      <c r="AM9" s="13">
+        <f>ROUND((AL9/(1+P9)),2)</f>
+        <v>20247.93</v>
+      </c>
+      <c r="AN9" s="18">
+        <f>ROUND(AM9/N9,6)</f>
+        <v>1.0843659999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44992</v>
       </c>
       <c r="B10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C10),MONTH(C10),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A10,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D10" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A10+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E10" s="2">
@@ -2191,28 +2451,30 @@
         <v>39</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="3">
-        <v>30525390086</v>
+      <c r="J10" s="2">
+        <v>20374730429</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f>"Honorarios "&amp;PROPER(TEXT(B10,"mmmm"))</f>
+        <v>Honorarios Febrero</v>
       </c>
       <c r="M10" s="4">
-        <v>9.01</v>
-      </c>
-      <c r="N10" s="2">
-        <v>8851.52</v>
+        <v>1.0843659999999999</v>
+      </c>
+      <c r="N10" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O10" s="5">
-        <v>79752.070000000007</v>
+        <f>ROUND(M10*N10,6)</f>
+        <v>20247.921728000001</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>38</v>
@@ -2220,90 +2482,115 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="14">
+        <f>COUNTIFS($F$1:F10,F10,$K$1:K10,K10)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V10" s="14" t="str">
+        <f>SUBSTITUTE(M10,",",".")</f>
+        <v>1.084366</v>
+      </c>
+      <c r="W10" s="1" t="str">
+        <f>TEXT(R10,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="V10" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="X10" s="1" t="str">
+        <f>TEXT(S10,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="W10" s="1" t="str">
+      <c r="Y10" s="1" t="str">
         <f>TEXT(T10,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
-      <c r="X10" s="14">
-        <f t="shared" si="13"/>
-        <v>16747.93</v>
-      </c>
-      <c r="Y10" s="14">
-        <f t="shared" si="14"/>
-        <v>96500</v>
-      </c>
-      <c r="Z10" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>79752.07</v>
-      </c>
-      <c r="AA10" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>0.00</v>
-      </c>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1">
-        <f t="shared" si="17"/>
+      <c r="Z10" s="13">
+        <f>ROUND(O10*P10,2)</f>
+        <v>4252.0600000000004</v>
+      </c>
+      <c r="AA10" s="13">
+        <f>O10+Z10</f>
+        <v>24499.981728000002</v>
+      </c>
+      <c r="AB10" s="10" t="str">
+        <f>IF(RIGHT(F10,1)="A",SUBSTITUTE(TEXT(O10,"0,00"),",","."),SUBSTITUTE(TEXT(AA10,"0,00"),",","."))</f>
+        <v>20247.92</v>
+      </c>
+      <c r="AC10" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA10,0)-AA10,"0,00"),",",".")</f>
+        <v>0.02</v>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1">
+        <f>ROW(K10)</f>
         <v>10</v>
       </c>
-      <c r="AD10" s="1" t="str">
+      <c r="AF10" s="15" t="str">
         <f>J10&amp;"-"&amp;COUNTIF($J$1:J10,J10)</f>
-        <v>30525390086-1</v>
-      </c>
-      <c r="AF10" s="15">
-        <f t="shared" si="18"/>
-        <v>97000</v>
-      </c>
-      <c r="AG10" s="15">
-        <f t="shared" si="19"/>
-        <v>80165.289999999994</v>
-      </c>
-      <c r="AH10" s="16">
-        <f t="shared" si="20"/>
-        <v>9.0566999999999993</v>
+        <v>20374730429-1</v>
+      </c>
+      <c r="AG10" s="1">
+        <f>IF(K9=K10,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1">
+        <f>IF(K10=K11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI10" s="1" t="str">
+        <f>RIGHT(F10)</f>
+        <v>A</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f>IF(LEFT(F10,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="13">
+        <f>CEILING(N10*M10*(1+P10),500)</f>
+        <v>24500</v>
+      </c>
+      <c r="AM10" s="13">
+        <f>ROUND((AL10/(1+P10)),2)</f>
+        <v>20247.93</v>
+      </c>
+      <c r="AN10" s="18">
+        <f>ROUND(AM10/N10,6)</f>
+        <v>1.0843659999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44992</v>
       </c>
       <c r="B11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C11),MONTH(C11),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A11,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D11" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A11+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2">
-        <v>20374730429</v>
+        <v>37473042</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>56</v>
@@ -2313,13 +2600,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M11" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N11" s="2">
-        <v>8851.52</v>
+        <v>1.0843659999999999</v>
+      </c>
+      <c r="N11" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O11" s="5">
-        <v>9090.91</v>
+        <f>ROUND(M11*N11,6)</f>
+        <v>20247.921728000001</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>38</v>
@@ -2327,106 +2615,132 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="14">
+        <f>COUNTIFS($F$1:F11,F11,$K$1:K11,K11)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V11" s="14" t="str">
+        <f>SUBSTITUTE(M11,",",".")</f>
+        <v>1.084366</v>
+      </c>
+      <c r="W11" s="1" t="str">
+        <f>TEXT(R11,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="V11" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="X11" s="1" t="str">
+        <f>TEXT(S11,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="W11" s="1" t="str">
+      <c r="Y11" s="1" t="str">
         <f>TEXT(T11,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
-      <c r="X11" s="14">
-        <f t="shared" si="13"/>
-        <v>1909.09</v>
-      </c>
-      <c r="Y11" s="14">
-        <f t="shared" si="14"/>
-        <v>11000</v>
-      </c>
-      <c r="Z11" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>9090.91</v>
-      </c>
-      <c r="AA11" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>0.00</v>
-      </c>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1">
-        <f t="shared" si="17"/>
+      <c r="Z11" s="13">
+        <f>ROUND(O11*P11,2)</f>
+        <v>4252.0600000000004</v>
+      </c>
+      <c r="AA11" s="13">
+        <f>O11+Z11</f>
+        <v>24499.981728000002</v>
+      </c>
+      <c r="AB11" s="10" t="str">
+        <f>IF(RIGHT(F11,1)="A",SUBSTITUTE(TEXT(O11,"0,00"),",","."),SUBSTITUTE(TEXT(AA11,"0,00"),",","."))</f>
+        <v>24499.98</v>
+      </c>
+      <c r="AC11" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA11,0)-AA11,"0,00"),",",".")</f>
+        <v>0.02</v>
+      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1">
+        <f>ROW(K11)</f>
         <v>11</v>
       </c>
-      <c r="AD11" s="1" t="str">
+      <c r="AF11" s="15" t="str">
         <f>J11&amp;"-"&amp;COUNTIF($J$1:J11,J11)</f>
-        <v>20374730429-1</v>
-      </c>
-      <c r="AF11" s="15">
-        <f t="shared" si="18"/>
-        <v>11500</v>
-      </c>
-      <c r="AG11" s="15">
-        <f t="shared" si="19"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH11" s="16">
-        <f t="shared" si="20"/>
-        <v>1.0737000000000001</v>
+        <v>37473042-1</v>
+      </c>
+      <c r="AG11" s="1">
+        <f>IF(K10=K11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1">
+        <f>IF(K11=K12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="1" t="str">
+        <f>RIGHT(F11)</f>
+        <v>B</v>
+      </c>
+      <c r="AJ11" s="1">
+        <f>IF(LEFT(F11,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="13">
+        <f>CEILING(N11*M11*(1+P11),500)</f>
+        <v>24500</v>
+      </c>
+      <c r="AM11" s="13">
+        <f>ROUND((AL11/(1+P11)),2)</f>
+        <v>20247.93</v>
+      </c>
+      <c r="AN11" s="18">
+        <f>ROUND(AM11/N11,6)</f>
+        <v>1.0843659999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>44992</v>
       </c>
       <c r="B12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C12),MONTH(C12),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A12,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D12" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A12+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="2">
-        <v>20147130202</v>
+        <v>30707354719</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
         <f>"Honorarios "&amp;PROPER(TEXT(B12,"mmmm"))</f>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M12" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N12" s="2">
-        <v>8851.52</v>
+        <v>1.0843659999999999</v>
+      </c>
+      <c r="N12" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O12" s="5">
-        <v>9090.91</v>
+        <f>ROUND(M12*N12,6)</f>
+        <v>20247.921728000001</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>38</v>
@@ -2434,106 +2748,130 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="14">
+        <f>COUNTIFS($F$1:F12,F12,$K$1:K12,K12)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V12" s="14" t="str">
+        <f>SUBSTITUTE(M12,",",".")</f>
+        <v>1.084366</v>
+      </c>
+      <c r="W12" s="1" t="str">
+        <f>TEXT(R12,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="V12" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="X12" s="1" t="str">
+        <f>TEXT(S12,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="W12" s="1" t="str">
+      <c r="Y12" s="1" t="str">
         <f>TEXT(T12,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
-      <c r="X12" s="14">
-        <f t="shared" si="13"/>
-        <v>1909.09</v>
-      </c>
-      <c r="Y12" s="14">
-        <f t="shared" si="14"/>
-        <v>11000</v>
-      </c>
-      <c r="Z12" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>9090.91</v>
-      </c>
-      <c r="AA12" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>0.00</v>
-      </c>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1">
-        <f t="shared" si="17"/>
+      <c r="Z12" s="13">
+        <f>ROUND(O12*P12,2)</f>
+        <v>4252.0600000000004</v>
+      </c>
+      <c r="AA12" s="13">
+        <f>O12+Z12</f>
+        <v>24499.981728000002</v>
+      </c>
+      <c r="AB12" s="10" t="str">
+        <f>IF(RIGHT(F12,1)="A",SUBSTITUTE(TEXT(O12,"0,00"),",","."),SUBSTITUTE(TEXT(AA12,"0,00"),",","."))</f>
+        <v>24499.98</v>
+      </c>
+      <c r="AC12" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA12,0)-AA12,"0,00"),",",".")</f>
+        <v>0.02</v>
+      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1">
+        <f>ROW(K12)</f>
         <v>12</v>
       </c>
-      <c r="AD12" s="1" t="str">
+      <c r="AF12" s="15" t="str">
         <f>J12&amp;"-"&amp;COUNTIF($J$1:J12,J12)</f>
-        <v>20147130202-1</v>
-      </c>
-      <c r="AF12" s="15">
-        <f t="shared" si="18"/>
-        <v>11500</v>
-      </c>
-      <c r="AG12" s="15">
-        <f t="shared" si="19"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH12" s="16">
-        <f t="shared" si="20"/>
-        <v>1.0737000000000001</v>
+        <v>30707354719-1</v>
+      </c>
+      <c r="AG12" s="1">
+        <f>IF(K11=K12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
+        <f>IF(K12=K13,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1" t="str">
+        <f>RIGHT(F12)</f>
+        <v>B</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f>IF(LEFT(F12,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="13">
+        <f>CEILING(N12*M12*(1+P12),500)</f>
+        <v>24500</v>
+      </c>
+      <c r="AM12" s="13">
+        <f>ROUND((AL12/(1+P12)),2)</f>
+        <v>20247.93</v>
+      </c>
+      <c r="AN12" s="18">
+        <f>ROUND(AM12/N12,6)</f>
+        <v>1.0843659999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>44992</v>
       </c>
       <c r="B13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C13),MONTH(C13),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A13,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D13" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A13+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="2">
-        <v>30707354719</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
         <f>"Honorarios "&amp;PROPER(TEXT(B13,"mmmm"))</f>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M13" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N13" s="2">
-        <v>8851.52</v>
+        <v>1.0843659999999999</v>
+      </c>
+      <c r="N13" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O13" s="5">
-        <v>9090.91</v>
+        <f>ROUND(M13*N13,6)</f>
+        <v>20247.921728000001</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>38</v>
@@ -2541,178 +2879,236 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="14">
+        <f>COUNTIFS($F$1:F13,F13,$K$1:K13,K13)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V13" s="14" t="str">
+        <f>SUBSTITUTE(M13,",",".")</f>
+        <v>1.084366</v>
+      </c>
+      <c r="W13" s="1" t="str">
+        <f>TEXT(R13,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="V13" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="X13" s="1" t="str">
+        <f>TEXT(S13,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="W13" s="1" t="str">
+      <c r="Y13" s="1" t="str">
         <f>TEXT(T13,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
-      <c r="X13" s="14">
-        <f t="shared" si="13"/>
-        <v>1909.09</v>
-      </c>
-      <c r="Y13" s="14">
-        <f t="shared" si="14"/>
-        <v>11000</v>
-      </c>
-      <c r="Z13" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>11000.00</v>
-      </c>
-      <c r="AA13" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>0.00</v>
-      </c>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1">
-        <f t="shared" si="17"/>
+      <c r="Z13" s="13">
+        <f>ROUND(O13*P13,2)</f>
+        <v>4252.0600000000004</v>
+      </c>
+      <c r="AA13" s="13">
+        <f>O13+Z13</f>
+        <v>24499.981728000002</v>
+      </c>
+      <c r="AB13" s="10" t="str">
+        <f>IF(RIGHT(F13,1)="A",SUBSTITUTE(TEXT(O13,"0,00"),",","."),SUBSTITUTE(TEXT(AA13,"0,00"),",","."))</f>
+        <v>24499.98</v>
+      </c>
+      <c r="AC13" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA13,0)-AA13,"0,00"),",",".")</f>
+        <v>0.02</v>
+      </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1">
+        <f>ROW(K13)</f>
         <v>13</v>
       </c>
-      <c r="AD13" s="1" t="str">
+      <c r="AF13" s="15" t="str">
         <f>J13&amp;"-"&amp;COUNTIF($J$1:J13,J13)</f>
-        <v>30707354719-1</v>
-      </c>
-      <c r="AF13" s="15">
-        <f t="shared" si="18"/>
-        <v>11500</v>
-      </c>
-      <c r="AG13" s="15">
-        <f t="shared" si="19"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH13" s="16">
-        <f t="shared" si="20"/>
-        <v>1.0737000000000001</v>
+        <v>-0</v>
+      </c>
+      <c r="AG13" s="1">
+        <f>IF(K12=K13,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f>IF(K13=K14,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1" t="str">
+        <f>RIGHT(F13)</f>
+        <v>C</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f>IF(LEFT(F13,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="13">
+        <f>CEILING(N13*M13*(1+P13),500)</f>
+        <v>24500</v>
+      </c>
+      <c r="AM13" s="13">
+        <f>ROUND((AL13/(1+P13)),2)</f>
+        <v>20247.93</v>
+      </c>
+      <c r="AN13" s="18">
+        <f>ROUND(AM13/N13,6)</f>
+        <v>1.0843659999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>44992</v>
       </c>
       <c r="B14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C14),MONTH(C14),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A14,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D14" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A14+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="2">
-        <v>37473042</v>
+        <v>9</v>
+      </c>
+      <c r="J14" s="3">
+        <v>30684125792</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B14,"mmmm"))</f>
-        <v>Honorarios Febrero</v>
+        <v>44</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="M14" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N14" s="2">
-        <v>8851.52</v>
+        <v>7.0594479999999997</v>
+      </c>
+      <c r="N14" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O14" s="5">
-        <v>9090.91</v>
+        <f>ROUND(M14*N14,6)</f>
+        <v>131818.17812999999</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>00000</v>
-      </c>
-      <c r="V14" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>00000000</v>
+      <c r="Q14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" s="12">
+        <v>44816</v>
+      </c>
+      <c r="U14" s="14">
+        <f>COUNTIFS($F$1:F14,F14,$K$1:K14,K14)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V14" s="14" t="str">
+        <f>SUBSTITUTE(M14,",",".")</f>
+        <v>7.059448</v>
       </c>
       <c r="W14" s="1" t="str">
+        <f>TEXT(R14,"00000")</f>
+        <v>00002</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f>TEXT(S14,"00000000")</f>
+        <v>00000150</v>
+      </c>
+      <c r="Y14" s="1" t="str">
         <f>TEXT(T14,"DD/MM/aaaa")</f>
-        <v>00/01/1900</v>
-      </c>
-      <c r="X14" s="14">
-        <f t="shared" si="13"/>
-        <v>1909.09</v>
-      </c>
-      <c r="Y14" s="14">
-        <f t="shared" si="14"/>
-        <v>11000</v>
-      </c>
-      <c r="Z14" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>11000.00</v>
-      </c>
-      <c r="AA14" s="10" t="str">
-        <f t="shared" si="16"/>
+        <v>12/09/2022</v>
+      </c>
+      <c r="Z14" s="13">
+        <f>ROUND(O14*P14,2)</f>
+        <v>27681.82</v>
+      </c>
+      <c r="AA14" s="13">
+        <f>O14+Z14</f>
+        <v>159499.99812999999</v>
+      </c>
+      <c r="AB14" s="10" t="str">
+        <f>IF(RIGHT(F14,1)="A",SUBSTITUTE(TEXT(O14,"0,00"),",","."),SUBSTITUTE(TEXT(AA14,"0,00"),",","."))</f>
+        <v>131818.18</v>
+      </c>
+      <c r="AC14" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA14,0)-AA14,"0,00"),",",".")</f>
         <v>0.00</v>
       </c>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1">
-        <f t="shared" si="17"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1">
+        <f>ROW(K14)</f>
         <v>14</v>
       </c>
-      <c r="AD14" s="1" t="str">
+      <c r="AF14" s="15" t="str">
         <f>J14&amp;"-"&amp;COUNTIF($J$1:J14,J14)</f>
-        <v>37473042-1</v>
-      </c>
-      <c r="AF14" s="15">
-        <f t="shared" si="18"/>
-        <v>11500</v>
-      </c>
-      <c r="AG14" s="15">
-        <f t="shared" si="19"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH14" s="16">
-        <f t="shared" si="20"/>
-        <v>1.0737000000000001</v>
+        <v>30684125792-1</v>
+      </c>
+      <c r="AG14" s="1">
+        <f>IF(K13=K14,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f>IF(K14=K15,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1" t="str">
+        <f>RIGHT(F14)</f>
+        <v>A</v>
+      </c>
+      <c r="AJ14" s="1">
+        <f>IF(LEFT(F14,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="13">
+        <f>CEILING(N14*M14*(1+P14),500)</f>
+        <v>159500</v>
+      </c>
+      <c r="AM14" s="13">
+        <f>ROUND((AL14/(1+P14)),2)</f>
+        <v>131818.18</v>
+      </c>
+      <c r="AN14" s="18">
+        <f>ROUND(AM14/N14,6)</f>
+        <v>7.0594479999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>44992</v>
       </c>
       <c r="B15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C15),MONTH(C15),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A15,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D15" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A15+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E15" s="2">
@@ -2740,13 +3136,14 @@
         <v>64</v>
       </c>
       <c r="M15" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N15" s="2">
-        <v>8851.52</v>
+        <v>1.0843659999999999</v>
+      </c>
+      <c r="N15" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O15" s="5">
-        <v>9090.91</v>
+        <f>ROUND(M15*N15,6)</f>
+        <v>20247.921728000001</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>38</v>
@@ -2760,194 +3157,245 @@
       <c r="S15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="12">
         <v>44816</v>
       </c>
-      <c r="U15" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="U15" s="14">
+        <f>COUNTIFS($F$1:F15,F15,$K$1:K15,K15)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V15" s="14" t="str">
+        <f>SUBSTITUTE(M15,",",".")</f>
+        <v>1.084366</v>
+      </c>
+      <c r="W15" s="1" t="str">
+        <f>TEXT(R15,"00000")</f>
         <v>00002</v>
       </c>
-      <c r="V15" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="X15" s="1" t="str">
+        <f>TEXT(S15,"00000000")</f>
         <v>00000152</v>
       </c>
-      <c r="W15" s="1" t="str">
+      <c r="Y15" s="1" t="str">
         <f>TEXT(T15,"DD/MM/aaaa")</f>
         <v>12/09/2022</v>
       </c>
-      <c r="X15" s="14">
-        <f t="shared" si="13"/>
-        <v>1909.09</v>
-      </c>
-      <c r="Y15" s="14">
-        <f t="shared" si="14"/>
-        <v>11000</v>
-      </c>
-      <c r="Z15" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>11000.00</v>
-      </c>
-      <c r="AA15" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>0.00</v>
-      </c>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1">
-        <f t="shared" si="17"/>
+      <c r="Z15" s="13">
+        <f>ROUND(O15*P15,2)</f>
+        <v>4252.0600000000004</v>
+      </c>
+      <c r="AA15" s="13">
+        <f>O15+Z15</f>
+        <v>24499.981728000002</v>
+      </c>
+      <c r="AB15" s="10" t="str">
+        <f>IF(RIGHT(F15,1)="A",SUBSTITUTE(TEXT(O15,"0,00"),",","."),SUBSTITUTE(TEXT(AA15,"0,00"),",","."))</f>
+        <v>24499.98</v>
+      </c>
+      <c r="AC15" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA15,0)-AA15,"0,00"),",",".")</f>
+        <v>0.02</v>
+      </c>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1">
+        <f>ROW(K15)</f>
         <v>15</v>
       </c>
-      <c r="AD15" s="1" t="str">
+      <c r="AF15" s="15" t="str">
         <f>J15&amp;"-"&amp;COUNTIF($J$1:J15,J15)</f>
         <v>30707354719-2</v>
       </c>
-      <c r="AF15" s="15">
-        <f t="shared" si="18"/>
-        <v>11500</v>
-      </c>
-      <c r="AG15" s="15">
-        <f t="shared" si="19"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH15" s="16">
-        <f t="shared" si="20"/>
-        <v>1.0737000000000001</v>
+      <c r="AG15" s="1">
+        <f>IF(K14=K15,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1">
+        <f>IF(K15=K16,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1" t="str">
+        <f>RIGHT(F15)</f>
+        <v>B</v>
+      </c>
+      <c r="AJ15" s="1">
+        <f>IF(LEFT(F15,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="13">
+        <f>CEILING(N15*M15*(1+P15),500)</f>
+        <v>24500</v>
+      </c>
+      <c r="AM15" s="13">
+        <f>ROUND((AL15/(1+P15)),2)</f>
+        <v>20247.93</v>
+      </c>
+      <c r="AN15" s="18">
+        <f>ROUND(AM15/N15,6)</f>
+        <v>1.0843659999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>44992</v>
       </c>
       <c r="B16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C16),MONTH(C16),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A16,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D16" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A16+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="2">
-        <v>37473042</v>
+        <v>9</v>
+      </c>
+      <c r="J16" s="3">
+        <v>30684125792</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="M16" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N16" s="2">
-        <v>8851.52</v>
+        <v>7.0594479999999997</v>
+      </c>
+      <c r="N16" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O16" s="5">
-        <v>9090.91</v>
+        <f>ROUND(M16*N16,6)</f>
+        <v>131818.17812999999</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>38</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="R16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="T16" s="13">
+        <v>49</v>
+      </c>
+      <c r="T16" s="12">
         <v>44816</v>
       </c>
-      <c r="U16" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="U16" s="14">
+        <f>COUNTIFS($F$1:F16,F16,$K$1:K16,K16)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V16" s="14" t="str">
+        <f>SUBSTITUTE(M16,",",".")</f>
+        <v>7.059448</v>
+      </c>
+      <c r="W16" s="1" t="str">
+        <f>TEXT(R16,"00000")</f>
         <v>00002</v>
       </c>
-      <c r="V16" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>00000153</v>
-      </c>
-      <c r="W16" s="1" t="str">
+      <c r="X16" s="1" t="str">
+        <f>TEXT(S16,"00000000")</f>
+        <v>00000151</v>
+      </c>
+      <c r="Y16" s="1" t="str">
         <f>TEXT(T16,"DD/MM/aaaa")</f>
         <v>12/09/2022</v>
       </c>
-      <c r="X16" s="14">
-        <f t="shared" si="13"/>
-        <v>1909.09</v>
-      </c>
-      <c r="Y16" s="14">
-        <f t="shared" si="14"/>
-        <v>11000</v>
-      </c>
-      <c r="Z16" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>11000.00</v>
-      </c>
-      <c r="AA16" s="10" t="str">
-        <f t="shared" si="16"/>
+      <c r="Z16" s="13">
+        <f>ROUND(O16*P16,2)</f>
+        <v>27681.82</v>
+      </c>
+      <c r="AA16" s="13">
+        <f>O16+Z16</f>
+        <v>159499.99812999999</v>
+      </c>
+      <c r="AB16" s="10" t="str">
+        <f>IF(RIGHT(F16,1)="A",SUBSTITUTE(TEXT(O16,"0,00"),",","."),SUBSTITUTE(TEXT(AA16,"0,00"),",","."))</f>
+        <v>131818.18</v>
+      </c>
+      <c r="AC16" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA16,0)-AA16,"0,00"),",",".")</f>
         <v>0.00</v>
       </c>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1">
-        <f t="shared" si="17"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1">
+        <f>ROW(K16)</f>
         <v>16</v>
       </c>
-      <c r="AD16" s="1" t="str">
+      <c r="AF16" s="15" t="str">
         <f>J16&amp;"-"&amp;COUNTIF($J$1:J16,J16)</f>
-        <v>37473042-2</v>
-      </c>
-      <c r="AF16" s="15">
-        <f t="shared" si="18"/>
-        <v>11500</v>
-      </c>
-      <c r="AG16" s="15">
-        <f t="shared" si="19"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH16" s="16">
-        <f t="shared" si="20"/>
-        <v>1.0737000000000001</v>
+        <v>30684125792-2</v>
+      </c>
+      <c r="AG16" s="1">
+        <f>IF(K15=K16,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="1">
+        <f>IF(K16=K17,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1" t="str">
+        <f>RIGHT(F16)</f>
+        <v>A</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f>IF(LEFT(F16,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="13">
+        <f>CEILING(N16*M16*(1+P16),500)</f>
+        <v>159500</v>
+      </c>
+      <c r="AM16" s="13">
+        <f>ROUND((AL16/(1+P16)),2)</f>
+        <v>131818.18</v>
+      </c>
+      <c r="AN16" s="18">
+        <f>ROUND(AM16/N16,6)</f>
+        <v>7.0594479999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>44992</v>
       </c>
       <c r="B17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(DATE(YEAR(C17),MONTH(C17),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>TEXT(EOMONTH(A17,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D17" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(A17+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>39</v>
@@ -2958,86 +3406,121 @@
       <c r="I17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <v>37473042</v>
+      </c>
       <c r="K17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B17,"mmmm"))</f>
-        <v>Honorarios Febrero</v>
+        <v>56</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="M17" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="N17" s="2">
-        <v>8851.52</v>
+        <v>1.0843659999999999</v>
+      </c>
+      <c r="N17" s="5">
+        <v>18672.59</v>
       </c>
       <c r="O17" s="5">
-        <v>0</v>
+        <f>ROUND(M17*N17,6)</f>
+        <v>20247.921728000001</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>00000</v>
-      </c>
-      <c r="V17" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>00000000</v>
+      <c r="Q17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="T17" s="12">
+        <v>44816</v>
+      </c>
+      <c r="U17" s="14">
+        <f>COUNTIFS($F$1:F17,F17,$K$1:K17,K17)+1</f>
+        <v>2</v>
+      </c>
+      <c r="V17" s="14" t="str">
+        <f>SUBSTITUTE(M17,",",".")</f>
+        <v>1.084366</v>
       </c>
       <c r="W17" s="1" t="str">
+        <f>TEXT(R17,"00000")</f>
+        <v>00002</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f>TEXT(S17,"00000000")</f>
+        <v>00000153</v>
+      </c>
+      <c r="Y17" s="1" t="str">
         <f>TEXT(T17,"DD/MM/aaaa")</f>
-        <v>00/01/1900</v>
-      </c>
-      <c r="X17" s="14">
-        <f t="shared" si="13"/>
+        <v>12/09/2022</v>
+      </c>
+      <c r="Z17" s="13">
+        <f>ROUND(O17*P17,2)</f>
+        <v>4252.0600000000004</v>
+      </c>
+      <c r="AA17" s="13">
+        <f>O17+Z17</f>
+        <v>24499.981728000002</v>
+      </c>
+      <c r="AB17" s="10" t="str">
+        <f>IF(RIGHT(F17,1)="A",SUBSTITUTE(TEXT(O17,"0,00"),",","."),SUBSTITUTE(TEXT(AA17,"0,00"),",","."))</f>
+        <v>24499.98</v>
+      </c>
+      <c r="AC17" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AA17,0)-AA17,"0,00"),",",".")</f>
+        <v>0.02</v>
+      </c>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1">
+        <f>ROW(K17)</f>
+        <v>17</v>
+      </c>
+      <c r="AF17" s="15" t="str">
+        <f>J17&amp;"-"&amp;COUNTIF($J$1:J17,J17)</f>
+        <v>37473042-2</v>
+      </c>
+      <c r="AG17" s="1">
+        <f>IF(K16=K17,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="14">
-        <f t="shared" si="14"/>
+      <c r="AH17" s="1">
+        <f>IF(K17=K18,1,0)</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="10" t="str">
-        <f t="shared" si="15"/>
-        <v>0.00</v>
-      </c>
-      <c r="AA17" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>0.00</v>
-      </c>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1">
-        <f t="shared" si="17"/>
-        <v>17</v>
-      </c>
-      <c r="AD17" s="1" t="str">
-        <f>J17&amp;"-"&amp;COUNTIF($J$1:J17,J17)</f>
-        <v>-0</v>
-      </c>
-      <c r="AF17" s="15">
-        <f t="shared" si="18"/>
-        <v>11500</v>
-      </c>
-      <c r="AG17" s="15">
-        <f t="shared" si="19"/>
-        <v>9504.1299999999992</v>
-      </c>
-      <c r="AH17" s="16">
-        <f t="shared" si="20"/>
-        <v>1.0737000000000001</v>
+      <c r="AI17" s="1" t="str">
+        <f>RIGHT(F17)</f>
+        <v>B</v>
+      </c>
+      <c r="AJ17" s="1">
+        <f>IF(LEFT(F17,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="13">
+        <f>CEILING(N17*M17*(1+P17),500)</f>
+        <v>24500</v>
+      </c>
+      <c r="AM17" s="13">
+        <f>ROUND((AL17/(1+P17)),2)</f>
+        <v>20247.93</v>
+      </c>
+      <c r="AN17" s="18">
+        <f>ROUND(AM17/N17,6)</f>
+        <v>1.0843659999999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB13">
-    <sortCondition ref="F2:F13"/>
-    <sortCondition ref="H2:H13"/>
-    <sortCondition ref="J2:J13"/>
+  <autoFilter ref="A1:AF17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN17">
+    <sortCondition ref="F2:F17"/>
+    <sortCondition ref="H2:H17"/>
+    <sortCondition ref="J2:J17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D6521C-BD95-46BB-980C-B45A18F60B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3861CB23-7A48-4C3B-A46F-2F86230F7F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,7 +813,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -835,6 +835,7 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1199,10 +1200,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,15 +1361,15 @@
         <v>44992</v>
       </c>
       <c r="B2" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C2),MONTH(C2),1),"dd/mm/aaaa")</f>
+        <f t="shared" ref="B2:B17" si="0">TEXT(DATE(YEAR(C2),MONTH(C2),1),"dd/mm/aaaa")</f>
         <v>01/02/2023</v>
       </c>
       <c r="C2" s="9" t="str">
-        <f>TEXT(EOMONTH(A2,-1),"dd/mm/aaaa")</f>
+        <f t="shared" ref="C2:C17" si="1">TEXT(EOMONTH(A2,-1),"dd/mm/aaaa")</f>
         <v>28/02/2023</v>
       </c>
       <c r="D2" s="9" t="str">
-        <f>TEXT(A2+14,"dd/mm/aaaa")</f>
+        <f t="shared" ref="D2:D17" si="2">TEXT(A2+14,"dd/mm/aaaa")</f>
         <v>21/03/2023</v>
       </c>
       <c r="E2" s="2">
@@ -1402,7 +1403,7 @@
         <v>18672.59</v>
       </c>
       <c r="O2" s="5">
-        <f>ROUND(M2*N2,6)</f>
+        <f t="shared" ref="O2:O17" si="3">ROUND(M2*N2,6)</f>
         <v>170247.93684800001</v>
       </c>
       <c r="P2" s="11" t="s">
@@ -1416,32 +1417,32 @@
         <f>COUNTIFS($F$1:F2,F2,$K$1:K2,K2)+1</f>
         <v>2</v>
       </c>
-      <c r="V2" s="14" t="str">
-        <f>SUBSTITUTE(M2,",",".")</f>
+      <c r="V2" s="19" t="str">
+        <f>SUBSTITUTE(ROUND(IF(AI2="A",M2,AA2/N2),6),",",".")</f>
         <v>9.117532</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f>TEXT(R2,"00000")</f>
+        <f t="shared" ref="W2:W17" si="4">TEXT(R2,"00000")</f>
         <v>00000</v>
       </c>
       <c r="X2" s="1" t="str">
-        <f>TEXT(S2,"00000000")</f>
+        <f t="shared" ref="X2:X17" si="5">TEXT(S2,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="Y2" s="1" t="str">
-        <f>TEXT(T2,"DD/MM/aaaa")</f>
+        <f t="shared" ref="Y2:Y17" si="6">TEXT(T2,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
       <c r="Z2" s="13">
-        <f>ROUND(O2*P2,2)</f>
+        <f t="shared" ref="Z2:Z17" si="7">ROUND(O2*P2,2)</f>
         <v>35752.07</v>
       </c>
       <c r="AA2" s="13">
-        <f>O2+Z2</f>
+        <f t="shared" ref="AA2:AA17" si="8">O2+Z2</f>
         <v>206000.00684800002</v>
       </c>
       <c r="AB2" s="10" t="str">
-        <f>IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AA2,"0,00"),",","."))</f>
+        <f t="shared" ref="AB2:AB17" si="9">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AA2,"0,00"),",","."))</f>
         <v>170247.94</v>
       </c>
       <c r="AC2" s="10" t="str">
@@ -1450,7 +1451,7 @@
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1">
-        <f>ROW(K2)</f>
+        <f t="shared" ref="AE2:AE17" si="10">ROW(K2)</f>
         <v>2</v>
       </c>
       <c r="AF2" s="15" t="str">
@@ -1458,32 +1459,32 @@
         <v>30525390086-1</v>
       </c>
       <c r="AG2" s="1">
-        <f>IF(K1=K2,1,0)</f>
+        <f t="shared" ref="AG2:AG17" si="11">IF(K1=K2,1,0)</f>
         <v>0</v>
       </c>
       <c r="AH2" s="1">
-        <f>IF(K2=K3,1,0)</f>
+        <f t="shared" ref="AH2:AH17" si="12">IF(K2=K3,1,0)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="1" t="str">
-        <f>RIGHT(F2)</f>
+        <f t="shared" ref="AI2:AI17" si="13">RIGHT(F2)</f>
         <v>A</v>
       </c>
       <c r="AJ2" s="1">
-        <f>IF(LEFT(F2,4)="Nota",0,1)</f>
+        <f t="shared" ref="AJ2:AJ17" si="14">IF(LEFT(F2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="13">
-        <f>CEILING(N2*M2*(1+P2),500)</f>
+        <f t="shared" ref="AL2:AL17" si="15">CEILING(N2*M2*(1+P2),500)</f>
         <v>206500</v>
       </c>
       <c r="AM2" s="13">
-        <f>ROUND((AL2/(1+P2)),2)</f>
+        <f t="shared" ref="AM2:AM17" si="16">ROUND((AL2/(1+P2)),2)</f>
         <v>170661.16</v>
       </c>
       <c r="AN2" s="18">
-        <f>ROUND(AM2/N2,6)</f>
+        <f t="shared" ref="AN2:AN17" si="17">ROUND(AM2/N2,6)</f>
         <v>9.1396619999999995</v>
       </c>
     </row>
@@ -1492,15 +1493,15 @@
         <v>44992</v>
       </c>
       <c r="B3" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C3),MONTH(C3),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f>TEXT(EOMONTH(A3,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>TEXT(A3+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E3" s="2">
@@ -1535,7 +1536,7 @@
         <v>18672.59</v>
       </c>
       <c r="O3" s="5">
-        <f>ROUND(M3*N3,6)</f>
+        <f t="shared" si="3"/>
         <v>150826.44528099999</v>
       </c>
       <c r="P3" s="11" t="s">
@@ -1549,32 +1550,32 @@
         <f>COUNTIFS($F$1:F3,F3,$K$1:K3,K3)+1</f>
         <v>2</v>
       </c>
-      <c r="V3" s="14" t="str">
-        <f>SUBSTITUTE(M3,",",".")</f>
+      <c r="V3" s="19" t="str">
+        <f t="shared" ref="V3:V17" si="18">SUBSTITUTE(ROUND(IF(AI3="A",M3,AA3/N3),6),",",".")</f>
         <v>8.077425</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f>TEXT(R3,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f>TEXT(S3,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Y3" s="1" t="str">
-        <f>TEXT(T3,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="Z3" s="13">
-        <f>ROUND(O3*P3,2)</f>
+        <f t="shared" si="7"/>
         <v>31673.55</v>
       </c>
       <c r="AA3" s="13">
-        <f>O3+Z3</f>
+        <f t="shared" si="8"/>
         <v>182499.99528099998</v>
       </c>
       <c r="AB3" s="10" t="str">
-        <f>IF(RIGHT(F3,1)="A",SUBSTITUTE(TEXT(O3,"0,00"),",","."),SUBSTITUTE(TEXT(AA3,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>150826.45</v>
       </c>
       <c r="AC3" s="10" t="str">
@@ -1583,7 +1584,7 @@
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1">
-        <f>ROW(K3)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AF3" s="15" t="str">
@@ -1591,32 +1592,32 @@
         <v>30525733870-1</v>
       </c>
       <c r="AG3" s="1">
-        <f>IF(K2=K3,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <f>IF(K3=K4,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI3" s="1" t="str">
-        <f>RIGHT(F3)</f>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AJ3" s="1">
-        <f>IF(LEFT(F3,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK3" s="2"/>
       <c r="AL3" s="13">
-        <f>CEILING(N3*M3*(1+P3),500)</f>
+        <f t="shared" si="15"/>
         <v>182500</v>
       </c>
       <c r="AM3" s="13">
-        <f>ROUND((AL3/(1+P3)),2)</f>
+        <f t="shared" si="16"/>
         <v>150826.45000000001</v>
       </c>
       <c r="AN3" s="18">
-        <f>ROUND(AM3/N3,6)</f>
+        <f t="shared" si="17"/>
         <v>8.0774249999999999</v>
       </c>
     </row>
@@ -1625,15 +1626,15 @@
         <v>44992</v>
       </c>
       <c r="B4" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C4),MONTH(C4),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f>TEXT(EOMONTH(A4,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D4" s="9" t="str">
-        <f>TEXT(A4+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E4" s="2">
@@ -1668,7 +1669,7 @@
         <v>18672.59</v>
       </c>
       <c r="O4" s="5">
-        <f>ROUND(M4*N4,6)</f>
+        <f t="shared" si="3"/>
         <v>188429.75516500001</v>
       </c>
       <c r="P4" s="11" t="s">
@@ -1682,32 +1683,32 @@
         <f>COUNTIFS($F$1:F4,F4,$K$1:K4,K4)+1</f>
         <v>2</v>
       </c>
-      <c r="V4" s="14" t="str">
-        <f>SUBSTITUTE(M4,",",".")</f>
+      <c r="V4" s="19" t="str">
+        <f t="shared" si="18"/>
         <v>10.091249</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f>TEXT(R4,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="X4" s="1" t="str">
-        <f>TEXT(S4,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Y4" s="1" t="str">
-        <f>TEXT(T4,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="Z4" s="13">
-        <f>ROUND(O4*P4,2)</f>
+        <f t="shared" si="7"/>
         <v>39570.25</v>
       </c>
       <c r="AA4" s="13">
-        <f>O4+Z4</f>
+        <f t="shared" si="8"/>
         <v>228000.00516500001</v>
       </c>
       <c r="AB4" s="10" t="str">
-        <f>IF(RIGHT(F4,1)="A",SUBSTITUTE(TEXT(O4,"0,00"),",","."),SUBSTITUTE(TEXT(AA4,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>188429.76</v>
       </c>
       <c r="AC4" s="10" t="str">
@@ -1716,7 +1717,7 @@
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1">
-        <f>ROW(K4)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AF4" s="15" t="str">
@@ -1724,32 +1725,32 @@
         <v>30610252334-1</v>
       </c>
       <c r="AG4" s="1">
-        <f>IF(K3=K4,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <f>IF(K4=K5,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI4" s="1" t="str">
-        <f>RIGHT(F4)</f>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AJ4" s="1">
-        <f>IF(LEFT(F4,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="13">
-        <f>CEILING(N4*M4*(1+P4),500)</f>
+        <f t="shared" si="15"/>
         <v>228500</v>
       </c>
       <c r="AM4" s="13">
-        <f>ROUND((AL4/(1+P4)),2)</f>
+        <f t="shared" si="16"/>
         <v>188842.98</v>
       </c>
       <c r="AN4" s="18">
-        <f>ROUND(AM4/N4,6)</f>
+        <f t="shared" si="17"/>
         <v>10.113379</v>
       </c>
     </row>
@@ -1758,15 +1759,15 @@
         <v>44992</v>
       </c>
       <c r="B5" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C5),MONTH(C5),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C5" s="9" t="str">
-        <f>TEXT(EOMONTH(A5,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f>TEXT(A5+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E5" s="2">
@@ -1801,7 +1802,7 @@
         <v>18672.59</v>
       </c>
       <c r="O5" s="5">
-        <f>ROUND(M5*N5,6)</f>
+        <f t="shared" si="3"/>
         <v>170247.93684800001</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -1815,32 +1816,32 @@
         <f>COUNTIFS($F$1:F5,F5,$K$1:K5,K5)+1</f>
         <v>2</v>
       </c>
-      <c r="V5" s="14" t="str">
-        <f>SUBSTITUTE(M5,",",".")</f>
+      <c r="V5" s="19" t="str">
+        <f t="shared" si="18"/>
         <v>9.117532</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f>TEXT(R5,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="X5" s="1" t="str">
-        <f>TEXT(S5,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Y5" s="1" t="str">
-        <f>TEXT(T5,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="Z5" s="13">
-        <f>ROUND(O5*P5,2)</f>
+        <f t="shared" si="7"/>
         <v>35752.07</v>
       </c>
       <c r="AA5" s="13">
-        <f>O5+Z5</f>
+        <f t="shared" si="8"/>
         <v>206000.00684800002</v>
       </c>
       <c r="AB5" s="10" t="str">
-        <f>IF(RIGHT(F5,1)="A",SUBSTITUTE(TEXT(O5,"0,00"),",","."),SUBSTITUTE(TEXT(AA5,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>170247.94</v>
       </c>
       <c r="AC5" s="10" t="str">
@@ -1849,7 +1850,7 @@
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1">
-        <f>ROW(K5)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AF5" s="15" t="str">
@@ -1857,32 +1858,32 @@
         <v>30710964277-1</v>
       </c>
       <c r="AG5" s="1">
-        <f>IF(K4=K5,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <f>IF(K5=K6,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI5" s="1" t="str">
-        <f>RIGHT(F5)</f>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AJ5" s="1">
-        <f>IF(LEFT(F5,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK5" s="2"/>
       <c r="AL5" s="13">
-        <f>CEILING(N5*M5*(1+P5),500)</f>
+        <f t="shared" si="15"/>
         <v>206500</v>
       </c>
       <c r="AM5" s="13">
-        <f>ROUND((AL5/(1+P5)),2)</f>
+        <f t="shared" si="16"/>
         <v>170661.16</v>
       </c>
       <c r="AN5" s="18">
-        <f>ROUND(AM5/N5,6)</f>
+        <f t="shared" si="17"/>
         <v>9.1396619999999995</v>
       </c>
     </row>
@@ -1891,15 +1892,15 @@
         <v>44992</v>
       </c>
       <c r="B6" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C6),MONTH(C6),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>TEXT(EOMONTH(A6,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f>TEXT(A6+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E6" s="2">
@@ -1934,7 +1935,7 @@
         <v>18672.59</v>
       </c>
       <c r="O6" s="5">
-        <f>ROUND(M6*N6,6)</f>
+        <f t="shared" si="3"/>
         <v>95041.317079999993</v>
       </c>
       <c r="P6" s="11" t="s">
@@ -1956,32 +1957,32 @@
         <f>COUNTIFS($F$1:F6,F6,$K$1:K6,K6)+1</f>
         <v>2</v>
       </c>
-      <c r="V6" s="14" t="str">
-        <f>SUBSTITUTE(M6,",",".")</f>
+      <c r="V6" s="19" t="str">
+        <f t="shared" si="18"/>
         <v>5.089884</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f>TEXT(R6,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
       <c r="X6" s="1" t="str">
-        <f>TEXT(S6,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000003</v>
       </c>
       <c r="Y6" s="1" t="str">
-        <f>TEXT(T6,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
       <c r="Z6" s="13">
-        <f>ROUND(O6*P6,2)</f>
+        <f t="shared" si="7"/>
         <v>19958.68</v>
       </c>
       <c r="AA6" s="13">
-        <f>O6+Z6</f>
+        <f t="shared" si="8"/>
         <v>114999.99708</v>
       </c>
       <c r="AB6" s="10" t="str">
-        <f>IF(RIGHT(F6,1)="A",SUBSTITUTE(TEXT(O6,"0,00"),",","."),SUBSTITUTE(TEXT(AA6,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>95041.32</v>
       </c>
       <c r="AC6" s="10" t="str">
@@ -1990,7 +1991,7 @@
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1">
-        <f>ROW(K6)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AF6" s="15" t="str">
@@ -1998,32 +1999,32 @@
         <v>33610006189-1</v>
       </c>
       <c r="AG6" s="1">
-        <f>IF(K5=K6,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH6" s="1">
-        <f>IF(K6=K7,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AI6" s="1" t="str">
-        <f>RIGHT(F6)</f>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AJ6" s="1">
-        <f>IF(LEFT(F6,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK6" s="2"/>
       <c r="AL6" s="13">
-        <f>CEILING(N6*M6*(1+P6),500)</f>
+        <f t="shared" si="15"/>
         <v>115000</v>
       </c>
       <c r="AM6" s="13">
-        <f>ROUND((AL6/(1+P6)),2)</f>
+        <f t="shared" si="16"/>
         <v>95041.32</v>
       </c>
       <c r="AN6" s="18">
-        <f>ROUND(AM6/N6,6)</f>
+        <f t="shared" si="17"/>
         <v>5.0898839999999996</v>
       </c>
     </row>
@@ -2032,15 +2033,15 @@
         <v>44992</v>
       </c>
       <c r="B7" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C7),MONTH(C7),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>TEXT(EOMONTH(A7,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D7" s="9" t="str">
-        <f>TEXT(A7+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E7" s="2">
@@ -2074,7 +2075,7 @@
         <v>18672.59</v>
       </c>
       <c r="O7" s="5">
-        <f>ROUND(M7*N7,6)</f>
+        <f t="shared" si="3"/>
         <v>95041.317079999993</v>
       </c>
       <c r="P7" s="11" t="s">
@@ -2088,41 +2089,41 @@
         <f>COUNTIFS($F$1:F7,F7,$K$1:K7,K7)+1</f>
         <v>3</v>
       </c>
-      <c r="V7" s="14" t="str">
-        <f>SUBSTITUTE(M7,",",".")</f>
+      <c r="V7" s="19" t="str">
+        <f t="shared" si="18"/>
         <v>5.089884</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f>TEXT(R7,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="X7" s="1" t="str">
-        <f>TEXT(S7,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Y7" s="1" t="str">
-        <f>TEXT(T7,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="Z7" s="13">
-        <f>ROUND(O7*P7,2)</f>
+        <f t="shared" si="7"/>
         <v>19958.68</v>
       </c>
       <c r="AA7" s="13">
-        <f>O7+Z7</f>
+        <f t="shared" si="8"/>
         <v>114999.99708</v>
       </c>
       <c r="AB7" s="10" t="str">
-        <f>IF(RIGHT(F7,1)="A",SUBSTITUTE(TEXT(O7,"0,00"),",","."),SUBSTITUTE(TEXT(AA7,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>95041.32</v>
       </c>
       <c r="AC7" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA7,0)-AA7,"0,00"),",",".")</f>
+        <f t="shared" ref="AC7:AC17" si="19">SUBSTITUTE(TEXT(ROUNDUP(AA7,0)-AA7,"0,00"),",",".")</f>
         <v>0.00</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1">
-        <f>ROW(K7)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="AF7" s="15" t="str">
@@ -2130,32 +2131,32 @@
         <v>33610006189-2</v>
       </c>
       <c r="AG7" s="1">
-        <f>IF(K6=K7,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AH7" s="1">
-        <f>IF(K7=K8,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI7" s="1" t="str">
-        <f>RIGHT(F7)</f>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AJ7" s="1">
-        <f>IF(LEFT(F7,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK7" s="2"/>
       <c r="AL7" s="13">
-        <f>CEILING(N7*M7*(1+P7),500)</f>
+        <f t="shared" si="15"/>
         <v>115000</v>
       </c>
       <c r="AM7" s="13">
-        <f>ROUND((AL7/(1+P7)),2)</f>
+        <f t="shared" si="16"/>
         <v>95041.32</v>
       </c>
       <c r="AN7" s="18">
-        <f>ROUND(AM7/N7,6)</f>
+        <f t="shared" si="17"/>
         <v>5.0898839999999996</v>
       </c>
     </row>
@@ -2164,15 +2165,15 @@
         <v>44992</v>
       </c>
       <c r="B8" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C8),MONTH(C8),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>TEXT(EOMONTH(A8,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D8" s="9" t="str">
-        <f>TEXT(A8+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E8" s="2">
@@ -2197,7 +2198,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <f t="shared" ref="L8:L13" si="20">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M8" s="4">
@@ -2207,7 +2208,7 @@
         <v>18672.59</v>
       </c>
       <c r="O8" s="5">
-        <f>ROUND(M8*N8,6)</f>
+        <f t="shared" si="3"/>
         <v>188429.75516500001</v>
       </c>
       <c r="P8" s="11" t="s">
@@ -2221,41 +2222,41 @@
         <f>COUNTIFS($F$1:F8,F8,$K$1:K8,K8)+1</f>
         <v>2</v>
       </c>
-      <c r="V8" s="14" t="str">
-        <f>SUBSTITUTE(M8,",",".")</f>
+      <c r="V8" s="19" t="str">
+        <f t="shared" si="18"/>
         <v>10.091249</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f>TEXT(R8,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="X8" s="1" t="str">
-        <f>TEXT(S8,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Y8" s="1" t="str">
-        <f>TEXT(T8,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="Z8" s="13">
-        <f>ROUND(O8*P8,2)</f>
+        <f t="shared" si="7"/>
         <v>39570.25</v>
       </c>
       <c r="AA8" s="13">
-        <f>O8+Z8</f>
+        <f t="shared" si="8"/>
         <v>228000.00516500001</v>
       </c>
       <c r="AB8" s="10" t="str">
-        <f>IF(RIGHT(F8,1)="A",SUBSTITUTE(TEXT(O8,"0,00"),",","."),SUBSTITUTE(TEXT(AA8,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>188429.76</v>
       </c>
       <c r="AC8" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA8,0)-AA8,"0,00"),",",".")</f>
+        <f t="shared" si="19"/>
         <v>0.99</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1">
-        <f>ROW(K8)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AF8" s="15" t="str">
@@ -2263,32 +2264,32 @@
         <v>33615420269-1</v>
       </c>
       <c r="AG8" s="1">
-        <f>IF(K7=K8,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <f>IF(K8=K9,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI8" s="1" t="str">
-        <f>RIGHT(F8)</f>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AJ8" s="1">
-        <f>IF(LEFT(F8,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="13">
-        <f>CEILING(N8*M8*(1+P8),500)</f>
+        <f t="shared" si="15"/>
         <v>228500</v>
       </c>
       <c r="AM8" s="13">
-        <f>ROUND((AL8/(1+P8)),2)</f>
+        <f t="shared" si="16"/>
         <v>188842.98</v>
       </c>
       <c r="AN8" s="18">
-        <f>ROUND(AM8/N8,6)</f>
+        <f t="shared" si="17"/>
         <v>10.113379</v>
       </c>
     </row>
@@ -2297,15 +2298,15 @@
         <v>44992</v>
       </c>
       <c r="B9" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C9),MONTH(C9),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>TEXT(EOMONTH(A9,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D9" s="9" t="str">
-        <f>TEXT(A9+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E9" s="2">
@@ -2330,7 +2331,7 @@
         <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B9,"mmmm"))</f>
+        <f t="shared" si="20"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M9" s="4">
@@ -2340,7 +2341,7 @@
         <v>18672.59</v>
       </c>
       <c r="O9" s="5">
-        <f>ROUND(M9*N9,6)</f>
+        <f t="shared" si="3"/>
         <v>20247.921728000001</v>
       </c>
       <c r="P9" s="11" t="s">
@@ -2354,41 +2355,41 @@
         <f>COUNTIFS($F$1:F9,F9,$K$1:K9,K9)+1</f>
         <v>2</v>
       </c>
-      <c r="V9" s="14" t="str">
-        <f>SUBSTITUTE(M9,",",".")</f>
+      <c r="V9" s="19" t="str">
+        <f t="shared" si="18"/>
         <v>1.084366</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f>TEXT(R9,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="X9" s="1" t="str">
-        <f>TEXT(S9,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Y9" s="1" t="str">
-        <f>TEXT(T9,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="Z9" s="13">
-        <f>ROUND(O9*P9,2)</f>
+        <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
       <c r="AA9" s="13">
-        <f>O9+Z9</f>
+        <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
       <c r="AB9" s="10" t="str">
-        <f>IF(RIGHT(F9,1)="A",SUBSTITUTE(TEXT(O9,"0,00"),",","."),SUBSTITUTE(TEXT(AA9,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>20247.92</v>
       </c>
       <c r="AC9" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA9,0)-AA9,"0,00"),",",".")</f>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1">
-        <f>ROW(K9)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="AF9" s="15" t="str">
@@ -2396,32 +2397,32 @@
         <v>20147130202-1</v>
       </c>
       <c r="AG9" s="1">
-        <f>IF(K8=K9,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <f>IF(K9=K10,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI9" s="1" t="str">
-        <f>RIGHT(F9)</f>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AJ9" s="1">
-        <f>IF(LEFT(F9,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK9" s="2"/>
       <c r="AL9" s="13">
-        <f>CEILING(N9*M9*(1+P9),500)</f>
+        <f t="shared" si="15"/>
         <v>24500</v>
       </c>
       <c r="AM9" s="13">
-        <f>ROUND((AL9/(1+P9)),2)</f>
+        <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
       <c r="AN9" s="18">
-        <f>ROUND(AM9/N9,6)</f>
+        <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
@@ -2430,15 +2431,15 @@
         <v>44992</v>
       </c>
       <c r="B10" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C10),MONTH(C10),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>TEXT(EOMONTH(A10,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D10" s="9" t="str">
-        <f>TEXT(A10+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E10" s="2">
@@ -2463,7 +2464,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B10,"mmmm"))</f>
+        <f t="shared" si="20"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M10" s="4">
@@ -2473,7 +2474,7 @@
         <v>18672.59</v>
       </c>
       <c r="O10" s="5">
-        <f>ROUND(M10*N10,6)</f>
+        <f t="shared" si="3"/>
         <v>20247.921728000001</v>
       </c>
       <c r="P10" s="11" t="s">
@@ -2487,41 +2488,41 @@
         <f>COUNTIFS($F$1:F10,F10,$K$1:K10,K10)+1</f>
         <v>2</v>
       </c>
-      <c r="V10" s="14" t="str">
-        <f>SUBSTITUTE(M10,",",".")</f>
+      <c r="V10" s="19" t="str">
+        <f t="shared" si="18"/>
         <v>1.084366</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f>TEXT(R10,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="X10" s="1" t="str">
-        <f>TEXT(S10,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Y10" s="1" t="str">
-        <f>TEXT(T10,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="Z10" s="13">
-        <f>ROUND(O10*P10,2)</f>
+        <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
       <c r="AA10" s="13">
-        <f>O10+Z10</f>
+        <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
       <c r="AB10" s="10" t="str">
-        <f>IF(RIGHT(F10,1)="A",SUBSTITUTE(TEXT(O10,"0,00"),",","."),SUBSTITUTE(TEXT(AA10,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>20247.92</v>
       </c>
       <c r="AC10" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA10,0)-AA10,"0,00"),",",".")</f>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1">
-        <f>ROW(K10)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AF10" s="15" t="str">
@@ -2529,32 +2530,32 @@
         <v>20374730429-1</v>
       </c>
       <c r="AG10" s="1">
-        <f>IF(K9=K10,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH10" s="1">
-        <f>IF(K10=K11,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AI10" s="1" t="str">
-        <f>RIGHT(F10)</f>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AJ10" s="1">
-        <f>IF(LEFT(F10,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="13">
-        <f>CEILING(N10*M10*(1+P10),500)</f>
+        <f t="shared" si="15"/>
         <v>24500</v>
       </c>
       <c r="AM10" s="13">
-        <f>ROUND((AL10/(1+P10)),2)</f>
+        <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
       <c r="AN10" s="18">
-        <f>ROUND(AM10/N10,6)</f>
+        <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
@@ -2563,15 +2564,15 @@
         <v>44992</v>
       </c>
       <c r="B11" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C11),MONTH(C11),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>TEXT(EOMONTH(A11,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D11" s="9" t="str">
-        <f>TEXT(A11+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E11" s="2">
@@ -2596,7 +2597,7 @@
         <v>56</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B11,"mmmm"))</f>
+        <f t="shared" si="20"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M11" s="4">
@@ -2606,7 +2607,7 @@
         <v>18672.59</v>
       </c>
       <c r="O11" s="5">
-        <f>ROUND(M11*N11,6)</f>
+        <f t="shared" si="3"/>
         <v>20247.921728000001</v>
       </c>
       <c r="P11" s="11" t="s">
@@ -2620,41 +2621,41 @@
         <f>COUNTIFS($F$1:F11,F11,$K$1:K11,K11)+1</f>
         <v>2</v>
       </c>
-      <c r="V11" s="14" t="str">
-        <f>SUBSTITUTE(M11,",",".")</f>
-        <v>1.084366</v>
+      <c r="V11" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v>1.312083</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f>TEXT(R11,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="X11" s="1" t="str">
-        <f>TEXT(S11,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Y11" s="1" t="str">
-        <f>TEXT(T11,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="Z11" s="13">
-        <f>ROUND(O11*P11,2)</f>
+        <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
       <c r="AA11" s="13">
-        <f>O11+Z11</f>
+        <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
       <c r="AB11" s="10" t="str">
-        <f>IF(RIGHT(F11,1)="A",SUBSTITUTE(TEXT(O11,"0,00"),",","."),SUBSTITUTE(TEXT(AA11,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>24499.98</v>
       </c>
       <c r="AC11" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA11,0)-AA11,"0,00"),",",".")</f>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1">
-        <f>ROW(K11)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="AF11" s="15" t="str">
@@ -2662,32 +2663,32 @@
         <v>37473042-1</v>
       </c>
       <c r="AG11" s="1">
-        <f>IF(K10=K11,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AH11" s="1">
-        <f>IF(K11=K12,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI11" s="1" t="str">
-        <f>RIGHT(F11)</f>
+        <f t="shared" si="13"/>
         <v>B</v>
       </c>
       <c r="AJ11" s="1">
-        <f>IF(LEFT(F11,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="13">
-        <f>CEILING(N11*M11*(1+P11),500)</f>
+        <f t="shared" si="15"/>
         <v>24500</v>
       </c>
       <c r="AM11" s="13">
-        <f>ROUND((AL11/(1+P11)),2)</f>
+        <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
       <c r="AN11" s="18">
-        <f>ROUND(AM11/N11,6)</f>
+        <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
@@ -2696,15 +2697,15 @@
         <v>44992</v>
       </c>
       <c r="B12" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C12),MONTH(C12),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>TEXT(EOMONTH(A12,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D12" s="9" t="str">
-        <f>TEXT(A12+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E12" s="2">
@@ -2729,7 +2730,7 @@
         <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B12,"mmmm"))</f>
+        <f t="shared" si="20"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M12" s="4">
@@ -2739,7 +2740,7 @@
         <v>18672.59</v>
       </c>
       <c r="O12" s="5">
-        <f>ROUND(M12*N12,6)</f>
+        <f t="shared" si="3"/>
         <v>20247.921728000001</v>
       </c>
       <c r="P12" s="11" t="s">
@@ -2753,41 +2754,41 @@
         <f>COUNTIFS($F$1:F12,F12,$K$1:K12,K12)+1</f>
         <v>2</v>
       </c>
-      <c r="V12" s="14" t="str">
-        <f>SUBSTITUTE(M12,",",".")</f>
-        <v>1.084366</v>
+      <c r="V12" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v>1.312083</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f>TEXT(R12,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="X12" s="1" t="str">
-        <f>TEXT(S12,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Y12" s="1" t="str">
-        <f>TEXT(T12,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="Z12" s="13">
-        <f>ROUND(O12*P12,2)</f>
+        <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
       <c r="AA12" s="13">
-        <f>O12+Z12</f>
+        <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
       <c r="AB12" s="10" t="str">
-        <f>IF(RIGHT(F12,1)="A",SUBSTITUTE(TEXT(O12,"0,00"),",","."),SUBSTITUTE(TEXT(AA12,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>24499.98</v>
       </c>
       <c r="AC12" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA12,0)-AA12,"0,00"),",",".")</f>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1">
-        <f>ROW(K12)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AF12" s="15" t="str">
@@ -2795,32 +2796,32 @@
         <v>30707354719-1</v>
       </c>
       <c r="AG12" s="1">
-        <f>IF(K11=K12,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH12" s="1">
-        <f>IF(K12=K13,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI12" s="1" t="str">
-        <f>RIGHT(F12)</f>
+        <f t="shared" si="13"/>
         <v>B</v>
       </c>
       <c r="AJ12" s="1">
-        <f>IF(LEFT(F12,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK12" s="2"/>
       <c r="AL12" s="13">
-        <f>CEILING(N12*M12*(1+P12),500)</f>
+        <f t="shared" si="15"/>
         <v>24500</v>
       </c>
       <c r="AM12" s="13">
-        <f>ROUND((AL12/(1+P12)),2)</f>
+        <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
       <c r="AN12" s="18">
-        <f>ROUND(AM12/N12,6)</f>
+        <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
@@ -2829,15 +2830,15 @@
         <v>44992</v>
       </c>
       <c r="B13" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C13),MONTH(C13),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>TEXT(EOMONTH(A13,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D13" s="9" t="str">
-        <f>TEXT(A13+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E13" s="2">
@@ -2860,7 +2861,7 @@
         <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B13,"mmmm"))</f>
+        <f t="shared" si="20"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M13" s="4">
@@ -2870,7 +2871,7 @@
         <v>18672.59</v>
       </c>
       <c r="O13" s="5">
-        <f>ROUND(M13*N13,6)</f>
+        <f t="shared" si="3"/>
         <v>20247.921728000001</v>
       </c>
       <c r="P13" s="11" t="s">
@@ -2884,41 +2885,41 @@
         <f>COUNTIFS($F$1:F13,F13,$K$1:K13,K13)+1</f>
         <v>2</v>
       </c>
-      <c r="V13" s="14" t="str">
-        <f>SUBSTITUTE(M13,",",".")</f>
-        <v>1.084366</v>
+      <c r="V13" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v>1.312083</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f>TEXT(R13,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="X13" s="1" t="str">
-        <f>TEXT(S13,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Y13" s="1" t="str">
-        <f>TEXT(T13,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="Z13" s="13">
-        <f>ROUND(O13*P13,2)</f>
+        <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
       <c r="AA13" s="13">
-        <f>O13+Z13</f>
+        <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
       <c r="AB13" s="10" t="str">
-        <f>IF(RIGHT(F13,1)="A",SUBSTITUTE(TEXT(O13,"0,00"),",","."),SUBSTITUTE(TEXT(AA13,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>24499.98</v>
       </c>
       <c r="AC13" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA13,0)-AA13,"0,00"),",",".")</f>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1">
-        <f>ROW(K13)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="AF13" s="15" t="str">
@@ -2926,32 +2927,32 @@
         <v>-0</v>
       </c>
       <c r="AG13" s="1">
-        <f>IF(K12=K13,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <f>IF(K13=K14,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI13" s="1" t="str">
-        <f>RIGHT(F13)</f>
+        <f t="shared" si="13"/>
         <v>C</v>
       </c>
       <c r="AJ13" s="1">
-        <f>IF(LEFT(F13,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK13" s="2"/>
       <c r="AL13" s="13">
-        <f>CEILING(N13*M13*(1+P13),500)</f>
+        <f t="shared" si="15"/>
         <v>24500</v>
       </c>
       <c r="AM13" s="13">
-        <f>ROUND((AL13/(1+P13)),2)</f>
+        <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
       <c r="AN13" s="18">
-        <f>ROUND(AM13/N13,6)</f>
+        <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
@@ -2960,15 +2961,15 @@
         <v>44992</v>
       </c>
       <c r="B14" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C14),MONTH(C14),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>TEXT(EOMONTH(A14,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D14" s="9" t="str">
-        <f>TEXT(A14+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E14" s="2">
@@ -3002,7 +3003,7 @@
         <v>18672.59</v>
       </c>
       <c r="O14" s="5">
-        <f>ROUND(M14*N14,6)</f>
+        <f t="shared" si="3"/>
         <v>131818.17812999999</v>
       </c>
       <c r="P14" s="11" t="s">
@@ -3024,41 +3025,41 @@
         <f>COUNTIFS($F$1:F14,F14,$K$1:K14,K14)+1</f>
         <v>2</v>
       </c>
-      <c r="V14" s="14" t="str">
-        <f>SUBSTITUTE(M14,",",".")</f>
+      <c r="V14" s="19" t="str">
+        <f t="shared" si="18"/>
         <v>7.059448</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f>TEXT(R14,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
       <c r="X14" s="1" t="str">
-        <f>TEXT(S14,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000150</v>
       </c>
       <c r="Y14" s="1" t="str">
-        <f>TEXT(T14,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
       <c r="Z14" s="13">
-        <f>ROUND(O14*P14,2)</f>
+        <f t="shared" si="7"/>
         <v>27681.82</v>
       </c>
       <c r="AA14" s="13">
-        <f>O14+Z14</f>
+        <f t="shared" si="8"/>
         <v>159499.99812999999</v>
       </c>
       <c r="AB14" s="10" t="str">
-        <f>IF(RIGHT(F14,1)="A",SUBSTITUTE(TEXT(O14,"0,00"),",","."),SUBSTITUTE(TEXT(AA14,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>131818.18</v>
       </c>
       <c r="AC14" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA14,0)-AA14,"0,00"),",",".")</f>
+        <f t="shared" si="19"/>
         <v>0.00</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1">
-        <f>ROW(K14)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="AF14" s="15" t="str">
@@ -3066,32 +3067,32 @@
         <v>30684125792-1</v>
       </c>
       <c r="AG14" s="1">
-        <f>IF(K13=K14,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH14" s="1">
-        <f>IF(K14=K15,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI14" s="1" t="str">
-        <f>RIGHT(F14)</f>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AJ14" s="1">
-        <f>IF(LEFT(F14,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK14" s="2"/>
       <c r="AL14" s="13">
-        <f>CEILING(N14*M14*(1+P14),500)</f>
+        <f t="shared" si="15"/>
         <v>159500</v>
       </c>
       <c r="AM14" s="13">
-        <f>ROUND((AL14/(1+P14)),2)</f>
+        <f t="shared" si="16"/>
         <v>131818.18</v>
       </c>
       <c r="AN14" s="18">
-        <f>ROUND(AM14/N14,6)</f>
+        <f t="shared" si="17"/>
         <v>7.0594479999999997</v>
       </c>
     </row>
@@ -3100,15 +3101,15 @@
         <v>44992</v>
       </c>
       <c r="B15" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C15),MONTH(C15),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>TEXT(EOMONTH(A15,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D15" s="9" t="str">
-        <f>TEXT(A15+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E15" s="2">
@@ -3142,7 +3143,7 @@
         <v>18672.59</v>
       </c>
       <c r="O15" s="5">
-        <f>ROUND(M15*N15,6)</f>
+        <f t="shared" si="3"/>
         <v>20247.921728000001</v>
       </c>
       <c r="P15" s="11" t="s">
@@ -3164,41 +3165,41 @@
         <f>COUNTIFS($F$1:F15,F15,$K$1:K15,K15)+1</f>
         <v>2</v>
       </c>
-      <c r="V15" s="14" t="str">
-        <f>SUBSTITUTE(M15,",",".")</f>
-        <v>1.084366</v>
+      <c r="V15" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v>1.312083</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f>TEXT(R15,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
       <c r="X15" s="1" t="str">
-        <f>TEXT(S15,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000152</v>
       </c>
       <c r="Y15" s="1" t="str">
-        <f>TEXT(T15,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
       <c r="Z15" s="13">
-        <f>ROUND(O15*P15,2)</f>
+        <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
       <c r="AA15" s="13">
-        <f>O15+Z15</f>
+        <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
       <c r="AB15" s="10" t="str">
-        <f>IF(RIGHT(F15,1)="A",SUBSTITUTE(TEXT(O15,"0,00"),",","."),SUBSTITUTE(TEXT(AA15,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>24499.98</v>
       </c>
       <c r="AC15" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA15,0)-AA15,"0,00"),",",".")</f>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1">
-        <f>ROW(K15)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="AF15" s="15" t="str">
@@ -3206,32 +3207,32 @@
         <v>30707354719-2</v>
       </c>
       <c r="AG15" s="1">
-        <f>IF(K14=K15,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH15" s="1">
-        <f>IF(K15=K16,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI15" s="1" t="str">
-        <f>RIGHT(F15)</f>
+        <f t="shared" si="13"/>
         <v>B</v>
       </c>
       <c r="AJ15" s="1">
-        <f>IF(LEFT(F15,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK15" s="2"/>
       <c r="AL15" s="13">
-        <f>CEILING(N15*M15*(1+P15),500)</f>
+        <f t="shared" si="15"/>
         <v>24500</v>
       </c>
       <c r="AM15" s="13">
-        <f>ROUND((AL15/(1+P15)),2)</f>
+        <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
       <c r="AN15" s="18">
-        <f>ROUND(AM15/N15,6)</f>
+        <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
@@ -3240,15 +3241,15 @@
         <v>44992</v>
       </c>
       <c r="B16" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C16),MONTH(C16),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>TEXT(EOMONTH(A16,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D16" s="9" t="str">
-        <f>TEXT(A16+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E16" s="2">
@@ -3282,7 +3283,7 @@
         <v>18672.59</v>
       </c>
       <c r="O16" s="5">
-        <f>ROUND(M16*N16,6)</f>
+        <f t="shared" si="3"/>
         <v>131818.17812999999</v>
       </c>
       <c r="P16" s="11" t="s">
@@ -3304,41 +3305,41 @@
         <f>COUNTIFS($F$1:F16,F16,$K$1:K16,K16)+1</f>
         <v>2</v>
       </c>
-      <c r="V16" s="14" t="str">
-        <f>SUBSTITUTE(M16,",",".")</f>
+      <c r="V16" s="19" t="str">
+        <f t="shared" si="18"/>
         <v>7.059448</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f>TEXT(R16,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
       <c r="X16" s="1" t="str">
-        <f>TEXT(S16,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000151</v>
       </c>
       <c r="Y16" s="1" t="str">
-        <f>TEXT(T16,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
       <c r="Z16" s="13">
-        <f>ROUND(O16*P16,2)</f>
+        <f t="shared" si="7"/>
         <v>27681.82</v>
       </c>
       <c r="AA16" s="13">
-        <f>O16+Z16</f>
+        <f t="shared" si="8"/>
         <v>159499.99812999999</v>
       </c>
       <c r="AB16" s="10" t="str">
-        <f>IF(RIGHT(F16,1)="A",SUBSTITUTE(TEXT(O16,"0,00"),",","."),SUBSTITUTE(TEXT(AA16,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>131818.18</v>
       </c>
       <c r="AC16" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA16,0)-AA16,"0,00"),",",".")</f>
+        <f t="shared" si="19"/>
         <v>0.00</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1">
-        <f>ROW(K16)</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="AF16" s="15" t="str">
@@ -3346,32 +3347,32 @@
         <v>30684125792-2</v>
       </c>
       <c r="AG16" s="1">
-        <f>IF(K15=K16,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH16" s="1">
-        <f>IF(K16=K17,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI16" s="1" t="str">
-        <f>RIGHT(F16)</f>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AJ16" s="1">
-        <f>IF(LEFT(F16,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK16" s="2"/>
       <c r="AL16" s="13">
-        <f>CEILING(N16*M16*(1+P16),500)</f>
+        <f t="shared" si="15"/>
         <v>159500</v>
       </c>
       <c r="AM16" s="13">
-        <f>ROUND((AL16/(1+P16)),2)</f>
+        <f t="shared" si="16"/>
         <v>131818.18</v>
       </c>
       <c r="AN16" s="18">
-        <f>ROUND(AM16/N16,6)</f>
+        <f t="shared" si="17"/>
         <v>7.0594479999999997</v>
       </c>
     </row>
@@ -3380,15 +3381,15 @@
         <v>44992</v>
       </c>
       <c r="B17" s="9" t="str">
-        <f>TEXT(DATE(YEAR(C17),MONTH(C17),1),"dd/mm/aaaa")</f>
+        <f t="shared" si="0"/>
         <v>01/02/2023</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>TEXT(EOMONTH(A17,-1),"dd/mm/aaaa")</f>
+        <f t="shared" si="1"/>
         <v>28/02/2023</v>
       </c>
       <c r="D17" s="9" t="str">
-        <f>TEXT(A17+14,"dd/mm/aaaa")</f>
+        <f t="shared" si="2"/>
         <v>21/03/2023</v>
       </c>
       <c r="E17" s="2">
@@ -3422,7 +3423,7 @@
         <v>18672.59</v>
       </c>
       <c r="O17" s="5">
-        <f>ROUND(M17*N17,6)</f>
+        <f t="shared" si="3"/>
         <v>20247.921728000001</v>
       </c>
       <c r="P17" s="11" t="s">
@@ -3444,41 +3445,41 @@
         <f>COUNTIFS($F$1:F17,F17,$K$1:K17,K17)+1</f>
         <v>2</v>
       </c>
-      <c r="V17" s="14" t="str">
-        <f>SUBSTITUTE(M17,",",".")</f>
-        <v>1.084366</v>
+      <c r="V17" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v>1.312083</v>
       </c>
       <c r="W17" s="1" t="str">
-        <f>TEXT(R17,"00000")</f>
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
       <c r="X17" s="1" t="str">
-        <f>TEXT(S17,"00000000")</f>
+        <f t="shared" si="5"/>
         <v>00000153</v>
       </c>
       <c r="Y17" s="1" t="str">
-        <f>TEXT(T17,"DD/MM/aaaa")</f>
+        <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
       <c r="Z17" s="13">
-        <f>ROUND(O17*P17,2)</f>
+        <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
       <c r="AA17" s="13">
-        <f>O17+Z17</f>
+        <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
       <c r="AB17" s="10" t="str">
-        <f>IF(RIGHT(F17,1)="A",SUBSTITUTE(TEXT(O17,"0,00"),",","."),SUBSTITUTE(TEXT(AA17,"0,00"),",","."))</f>
+        <f t="shared" si="9"/>
         <v>24499.98</v>
       </c>
       <c r="AC17" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA17,0)-AA17,"0,00"),",",".")</f>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1">
-        <f>ROW(K17)</f>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="AF17" s="15" t="str">
@@ -3486,32 +3487,32 @@
         <v>37473042-2</v>
       </c>
       <c r="AG17" s="1">
-        <f>IF(K16=K17,1,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH17" s="1">
-        <f>IF(K17=K18,1,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI17" s="1" t="str">
-        <f>RIGHT(F17)</f>
+        <f t="shared" si="13"/>
         <v>B</v>
       </c>
       <c r="AJ17" s="1">
-        <f>IF(LEFT(F17,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK17" s="2"/>
       <c r="AL17" s="13">
-        <f>CEILING(N17*M17*(1+P17),500)</f>
+        <f t="shared" si="15"/>
         <v>24500</v>
       </c>
       <c r="AM17" s="13">
-        <f>ROUND((AL17/(1+P17)),2)</f>
+        <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
       <c r="AN17" s="18">
-        <f>ROUND(AM17/N17,6)</f>
+        <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3861CB23-7A48-4C3B-A46F-2F86230F7F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC968624-FBDD-40A1-BDC3-910F33AEC68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Factura" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AF$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AG$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
   <si>
     <t>Fecha</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Unidades Facturador</t>
+  </si>
+  <si>
+    <t>Precio Facturador</t>
   </si>
 </sst>
 </file>
@@ -1198,12 +1201,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
+      <selection pane="bottomLeft" activeCell="W17" sqref="W2:W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,21 +1223,21 @@
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="25" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" customWidth="1"/>
-    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="36" width="13.7109375" customWidth="1"/>
-    <col min="37" max="37" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="26" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="13.7109375" customWidth="1"/>
+    <col min="38" max="38" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1302,61 +1305,64 @@
         <v>78</v>
       </c>
       <c r="W1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AK1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AO1" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44992</v>
       </c>
@@ -1418,77 +1424,81 @@
         <v>2</v>
       </c>
       <c r="V2" s="19" t="str">
-        <f>SUBSTITUTE(ROUND(IF(AI2="A",M2,AA2/N2),6),",",".")</f>
+        <f>SUBSTITUTE(ROUND(IF(AJ2="A",M2,AB2/N2),6),",",".")</f>
         <v>9.117532</v>
       </c>
-      <c r="W2" s="1" t="str">
-        <f t="shared" ref="W2:W17" si="4">TEXT(R2,"00000")</f>
+      <c r="W2" s="19" t="str">
+        <f>SUBSTITUTE(TEXT(N2,"0,00"),",",".")</f>
+        <v>18672.59</v>
+      </c>
+      <c r="X2" s="1" t="str">
+        <f t="shared" ref="X2:X17" si="4">TEXT(R2,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="X2" s="1" t="str">
-        <f t="shared" ref="X2:X17" si="5">TEXT(S2,"00000000")</f>
+      <c r="Y2" s="1" t="str">
+        <f t="shared" ref="Y2:Y17" si="5">TEXT(S2,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="Y2" s="1" t="str">
-        <f t="shared" ref="Y2:Y17" si="6">TEXT(T2,"DD/MM/aaaa")</f>
+      <c r="Z2" s="1" t="str">
+        <f t="shared" ref="Z2:Z17" si="6">TEXT(T2,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
-      <c r="Z2" s="13">
-        <f t="shared" ref="Z2:Z17" si="7">ROUND(O2*P2,2)</f>
+      <c r="AA2" s="13">
+        <f t="shared" ref="AA2:AA17" si="7">ROUND(O2*P2,2)</f>
         <v>35752.07</v>
       </c>
-      <c r="AA2" s="13">
-        <f t="shared" ref="AA2:AA17" si="8">O2+Z2</f>
+      <c r="AB2" s="13">
+        <f t="shared" ref="AB2:AB17" si="8">O2+AA2</f>
         <v>206000.00684800002</v>
       </c>
-      <c r="AB2" s="10" t="str">
-        <f t="shared" ref="AB2:AB17" si="9">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AA2,"0,00"),",","."))</f>
+      <c r="AC2" s="10" t="str">
+        <f t="shared" ref="AC2:AC17" si="9">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
         <v>170247.94</v>
       </c>
-      <c r="AC2" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA2,0)-AA2,"0,00"),",",".")</f>
+      <c r="AD2" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AB2,0)-AB2,"0,00"),",",".")</f>
         <v>0.99</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1">
-        <f t="shared" ref="AE2:AE17" si="10">ROW(K2)</f>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1">
+        <f t="shared" ref="AF2:AF17" si="10">ROW(K2)</f>
         <v>2</v>
       </c>
-      <c r="AF2" s="15" t="str">
+      <c r="AG2" s="15" t="str">
         <f>J2&amp;"-"&amp;COUNTIF($J$1:J2,J2)</f>
         <v>30525390086-1</v>
       </c>
-      <c r="AG2" s="1">
-        <f t="shared" ref="AG2:AG17" si="11">IF(K1=K2,1,0)</f>
+      <c r="AH2" s="1">
+        <f t="shared" ref="AH2:AH17" si="11">IF(K1=K2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="1">
-        <f t="shared" ref="AH2:AH17" si="12">IF(K2=K3,1,0)</f>
+      <c r="AI2" s="1">
+        <f t="shared" ref="AI2:AI17" si="12">IF(K2=K3,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AI2" s="1" t="str">
-        <f t="shared" ref="AI2:AI17" si="13">RIGHT(F2)</f>
+      <c r="AJ2" s="1" t="str">
+        <f t="shared" ref="AJ2:AJ17" si="13">RIGHT(F2)</f>
         <v>A</v>
       </c>
-      <c r="AJ2" s="1">
-        <f t="shared" ref="AJ2:AJ17" si="14">IF(LEFT(F2,4)="Nota",0,1)</f>
+      <c r="AK2" s="1">
+        <f t="shared" ref="AK2:AK17" si="14">IF(LEFT(F2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="13">
-        <f t="shared" ref="AL2:AL17" si="15">CEILING(N2*M2*(1+P2),500)</f>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="13">
+        <f t="shared" ref="AM2:AM17" si="15">CEILING(N2*M2*(1+P2),500)</f>
         <v>206500</v>
       </c>
-      <c r="AM2" s="13">
-        <f t="shared" ref="AM2:AM17" si="16">ROUND((AL2/(1+P2)),2)</f>
+      <c r="AN2" s="13">
+        <f t="shared" ref="AN2:AN17" si="16">ROUND((AM2/(1+P2)),2)</f>
         <v>170661.16</v>
       </c>
-      <c r="AN2" s="18">
-        <f t="shared" ref="AN2:AN17" si="17">ROUND(AM2/N2,6)</f>
+      <c r="AO2" s="18">
+        <f t="shared" ref="AO2:AO17" si="17">ROUND(AN2/N2,6)</f>
         <v>9.1396619999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44992</v>
       </c>
@@ -1551,77 +1561,81 @@
         <v>2</v>
       </c>
       <c r="V3" s="19" t="str">
-        <f t="shared" ref="V3:V17" si="18">SUBSTITUTE(ROUND(IF(AI3="A",M3,AA3/N3),6),",",".")</f>
+        <f t="shared" ref="V3:V17" si="18">SUBSTITUTE(ROUND(IF(AJ3="A",M3,AB3/N3),6),",",".")</f>
         <v>8.077425</v>
       </c>
-      <c r="W3" s="1" t="str">
+      <c r="W3" s="19" t="str">
+        <f t="shared" ref="W3:W17" si="19">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
+        <v>18672.59</v>
+      </c>
+      <c r="X3" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-      <c r="X3" s="1" t="str">
+      <c r="Y3" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="Y3" s="1" t="str">
+      <c r="Z3" s="1" t="str">
         <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="AA3" s="13">
         <f t="shared" si="7"/>
         <v>31673.55</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AB3" s="13">
         <f t="shared" si="8"/>
         <v>182499.99528099998</v>
       </c>
-      <c r="AB3" s="10" t="str">
+      <c r="AC3" s="10" t="str">
         <f t="shared" si="9"/>
         <v>150826.45</v>
       </c>
-      <c r="AC3" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA3,0)-AA3,"0,00"),",",".")</f>
+      <c r="AD3" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AB3,0)-AB3,"0,00"),",",".")</f>
         <v>0.00</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1">
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="AF3" s="15" t="str">
+      <c r="AG3" s="15" t="str">
         <f>J3&amp;"-"&amp;COUNTIF($J$1:J3,J3)</f>
         <v>30525733870-1</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AH3" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AI3" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI3" s="1" t="str">
+      <c r="AJ3" s="1" t="str">
         <f t="shared" si="13"/>
         <v>A</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AK3" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="13">
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="13">
         <f t="shared" si="15"/>
         <v>182500</v>
       </c>
-      <c r="AM3" s="13">
+      <c r="AN3" s="13">
         <f t="shared" si="16"/>
         <v>150826.45000000001</v>
       </c>
-      <c r="AN3" s="18">
+      <c r="AO3" s="18">
         <f t="shared" si="17"/>
         <v>8.0774249999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44992</v>
       </c>
@@ -1687,74 +1701,78 @@
         <f t="shared" si="18"/>
         <v>10.091249</v>
       </c>
-      <c r="W4" s="1" t="str">
+      <c r="W4" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X4" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-      <c r="X4" s="1" t="str">
+      <c r="Y4" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="Y4" s="1" t="str">
+      <c r="Z4" s="1" t="str">
         <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="AA4" s="13">
         <f t="shared" si="7"/>
         <v>39570.25</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AB4" s="13">
         <f t="shared" si="8"/>
         <v>228000.00516500001</v>
       </c>
-      <c r="AB4" s="10" t="str">
+      <c r="AC4" s="10" t="str">
         <f t="shared" si="9"/>
         <v>188429.76</v>
       </c>
-      <c r="AC4" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA4,0)-AA4,"0,00"),",",".")</f>
+      <c r="AD4" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AB4,0)-AB4,"0,00"),",",".")</f>
         <v>0.99</v>
       </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1">
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AF4" s="15" t="str">
+      <c r="AG4" s="15" t="str">
         <f>J4&amp;"-"&amp;COUNTIF($J$1:J4,J4)</f>
         <v>30610252334-1</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI4" s="1" t="str">
+      <c r="AJ4" s="1" t="str">
         <f t="shared" si="13"/>
         <v>A</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AK4" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="13">
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="13">
         <f t="shared" si="15"/>
         <v>228500</v>
       </c>
-      <c r="AM4" s="13">
+      <c r="AN4" s="13">
         <f t="shared" si="16"/>
         <v>188842.98</v>
       </c>
-      <c r="AN4" s="18">
+      <c r="AO4" s="18">
         <f t="shared" si="17"/>
         <v>10.113379</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44992</v>
       </c>
@@ -1820,74 +1838,78 @@
         <f t="shared" si="18"/>
         <v>9.117532</v>
       </c>
-      <c r="W5" s="1" t="str">
+      <c r="W5" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X5" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-      <c r="X5" s="1" t="str">
+      <c r="Y5" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="Y5" s="1" t="str">
+      <c r="Z5" s="1" t="str">
         <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="AA5" s="13">
         <f t="shared" si="7"/>
         <v>35752.07</v>
       </c>
-      <c r="AA5" s="13">
+      <c r="AB5" s="13">
         <f t="shared" si="8"/>
         <v>206000.00684800002</v>
       </c>
-      <c r="AB5" s="10" t="str">
+      <c r="AC5" s="10" t="str">
         <f t="shared" si="9"/>
         <v>170247.94</v>
       </c>
-      <c r="AC5" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AA5,0)-AA5,"0,00"),",",".")</f>
+      <c r="AD5" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AB5,0)-AB5,"0,00"),",",".")</f>
         <v>0.99</v>
       </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1">
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AF5" s="15" t="str">
+      <c r="AG5" s="15" t="str">
         <f>J5&amp;"-"&amp;COUNTIF($J$1:J5,J5)</f>
         <v>30710964277-1</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI5" s="1" t="str">
+      <c r="AJ5" s="1" t="str">
         <f t="shared" si="13"/>
         <v>A</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AK5" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="13">
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="13">
         <f t="shared" si="15"/>
         <v>206500</v>
       </c>
-      <c r="AM5" s="13">
+      <c r="AN5" s="13">
         <f t="shared" si="16"/>
         <v>170661.16</v>
       </c>
-      <c r="AN5" s="18">
+      <c r="AO5" s="18">
         <f t="shared" si="17"/>
         <v>9.1396619999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44992</v>
       </c>
@@ -1961,74 +1983,78 @@
         <f t="shared" si="18"/>
         <v>5.089884</v>
       </c>
-      <c r="W6" s="1" t="str">
+      <c r="W6" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X6" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00002</v>
       </c>
-      <c r="X6" s="1" t="str">
+      <c r="Y6" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000003</v>
       </c>
-      <c r="Y6" s="1" t="str">
+      <c r="Z6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="AA6" s="13">
         <f t="shared" si="7"/>
         <v>19958.68</v>
       </c>
-      <c r="AA6" s="13">
+      <c r="AB6" s="13">
         <f t="shared" si="8"/>
         <v>114999.99708</v>
       </c>
-      <c r="AB6" s="10" t="str">
+      <c r="AC6" s="10" t="str">
         <f t="shared" si="9"/>
         <v>95041.32</v>
       </c>
-      <c r="AC6" s="10" t="str">
+      <c r="AD6" s="10" t="str">
         <f>SUBSTITUTE(TEXT(54501-54500.002432,"0,00"),",",".")</f>
         <v>1.00</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1">
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="AF6" s="15" t="str">
+      <c r="AG6" s="15" t="str">
         <f>J6&amp;"-"&amp;COUNTIF($J$1:J6,J6)</f>
         <v>33610006189-1</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AI6" s="1" t="str">
+      <c r="AJ6" s="1" t="str">
         <f t="shared" si="13"/>
         <v>A</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK6" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="13">
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="13">
         <f t="shared" si="15"/>
         <v>115000</v>
       </c>
-      <c r="AM6" s="13">
+      <c r="AN6" s="13">
         <f t="shared" si="16"/>
         <v>95041.32</v>
       </c>
-      <c r="AN6" s="18">
+      <c r="AO6" s="18">
         <f t="shared" si="17"/>
         <v>5.0898839999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44992</v>
       </c>
@@ -2093,74 +2119,78 @@
         <f t="shared" si="18"/>
         <v>5.089884</v>
       </c>
-      <c r="W7" s="1" t="str">
+      <c r="W7" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X7" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-      <c r="X7" s="1" t="str">
+      <c r="Y7" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="Y7" s="1" t="str">
+      <c r="Z7" s="1" t="str">
         <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="AA7" s="13">
         <f t="shared" si="7"/>
         <v>19958.68</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AB7" s="13">
         <f t="shared" si="8"/>
         <v>114999.99708</v>
       </c>
-      <c r="AB7" s="10" t="str">
+      <c r="AC7" s="10" t="str">
         <f t="shared" si="9"/>
         <v>95041.32</v>
       </c>
-      <c r="AC7" s="10" t="str">
-        <f t="shared" ref="AC7:AC17" si="19">SUBSTITUTE(TEXT(ROUNDUP(AA7,0)-AA7,"0,00"),",",".")</f>
+      <c r="AD7" s="10" t="str">
+        <f t="shared" ref="AD7:AD17" si="20">SUBSTITUTE(TEXT(ROUNDUP(AB7,0)-AB7,"0,00"),",",".")</f>
         <v>0.00</v>
       </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1">
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="AF7" s="15" t="str">
+      <c r="AG7" s="15" t="str">
         <f>J7&amp;"-"&amp;COUNTIF($J$1:J7,J7)</f>
         <v>33610006189-2</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AI7" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="1" t="str">
+      <c r="AJ7" s="1" t="str">
         <f t="shared" si="13"/>
         <v>A</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AK7" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="13">
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="13">
         <f t="shared" si="15"/>
         <v>115000</v>
       </c>
-      <c r="AM7" s="13">
+      <c r="AN7" s="13">
         <f t="shared" si="16"/>
         <v>95041.32</v>
       </c>
-      <c r="AN7" s="18">
+      <c r="AO7" s="18">
         <f t="shared" si="17"/>
         <v>5.0898839999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44992</v>
       </c>
@@ -2198,7 +2228,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" ref="L8:L13" si="20">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <f t="shared" ref="L8:L13" si="21">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M8" s="4">
@@ -2226,74 +2256,78 @@
         <f t="shared" si="18"/>
         <v>10.091249</v>
       </c>
-      <c r="W8" s="1" t="str">
+      <c r="W8" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X8" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-      <c r="X8" s="1" t="str">
+      <c r="Y8" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="Y8" s="1" t="str">
+      <c r="Z8" s="1" t="str">
         <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="AA8" s="13">
         <f t="shared" si="7"/>
         <v>39570.25</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AB8" s="13">
         <f t="shared" si="8"/>
         <v>228000.00516500001</v>
       </c>
-      <c r="AB8" s="10" t="str">
+      <c r="AC8" s="10" t="str">
         <f t="shared" si="9"/>
         <v>188429.76</v>
       </c>
-      <c r="AC8" s="10" t="str">
-        <f t="shared" si="19"/>
+      <c r="AD8" s="10" t="str">
+        <f t="shared" si="20"/>
         <v>0.99</v>
       </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1">
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="AF8" s="15" t="str">
+      <c r="AG8" s="15" t="str">
         <f>J8&amp;"-"&amp;COUNTIF($J$1:J8,J8)</f>
         <v>33615420269-1</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AI8" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="1" t="str">
+      <c r="AJ8" s="1" t="str">
         <f t="shared" si="13"/>
         <v>A</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AK8" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="13">
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="13">
         <f t="shared" si="15"/>
         <v>228500</v>
       </c>
-      <c r="AM8" s="13">
+      <c r="AN8" s="13">
         <f t="shared" si="16"/>
         <v>188842.98</v>
       </c>
-      <c r="AN8" s="18">
+      <c r="AO8" s="18">
         <f t="shared" si="17"/>
         <v>10.113379</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44992</v>
       </c>
@@ -2331,7 +2365,7 @@
         <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M9" s="4">
@@ -2359,74 +2393,78 @@
         <f t="shared" si="18"/>
         <v>1.084366</v>
       </c>
-      <c r="W9" s="1" t="str">
+      <c r="W9" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X9" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-      <c r="X9" s="1" t="str">
+      <c r="Y9" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="Y9" s="1" t="str">
+      <c r="Z9" s="1" t="str">
         <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="AA9" s="13">
         <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AB9" s="13">
         <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
-      <c r="AB9" s="10" t="str">
+      <c r="AC9" s="10" t="str">
         <f t="shared" si="9"/>
         <v>20247.92</v>
       </c>
-      <c r="AC9" s="10" t="str">
-        <f t="shared" si="19"/>
+      <c r="AD9" s="10" t="str">
+        <f t="shared" si="20"/>
         <v>0.02</v>
       </c>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1">
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="AF9" s="15" t="str">
+      <c r="AG9" s="15" t="str">
         <f>J9&amp;"-"&amp;COUNTIF($J$1:J9,J9)</f>
         <v>20147130202-1</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH9" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI9" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI9" s="1" t="str">
+      <c r="AJ9" s="1" t="str">
         <f t="shared" si="13"/>
         <v>A</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK9" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="13">
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="13">
         <f t="shared" si="15"/>
         <v>24500</v>
       </c>
-      <c r="AM9" s="13">
+      <c r="AN9" s="13">
         <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
-      <c r="AN9" s="18">
+      <c r="AO9" s="18">
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44992</v>
       </c>
@@ -2464,7 +2502,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M10" s="4">
@@ -2492,74 +2530,78 @@
         <f t="shared" si="18"/>
         <v>1.084366</v>
       </c>
-      <c r="W10" s="1" t="str">
+      <c r="W10" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X10" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-      <c r="X10" s="1" t="str">
+      <c r="Y10" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="Y10" s="1" t="str">
+      <c r="Z10" s="1" t="str">
         <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
-      <c r="Z10" s="13">
+      <c r="AA10" s="13">
         <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AB10" s="13">
         <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
-      <c r="AB10" s="10" t="str">
+      <c r="AC10" s="10" t="str">
         <f t="shared" si="9"/>
         <v>20247.92</v>
       </c>
-      <c r="AC10" s="10" t="str">
-        <f t="shared" si="19"/>
+      <c r="AD10" s="10" t="str">
+        <f t="shared" si="20"/>
         <v>0.02</v>
       </c>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1">
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="AF10" s="15" t="str">
+      <c r="AG10" s="15" t="str">
         <f>J10&amp;"-"&amp;COUNTIF($J$1:J10,J10)</f>
         <v>20374730429-1</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AH10" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AI10" s="1">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AI10" s="1" t="str">
+      <c r="AJ10" s="1" t="str">
         <f t="shared" si="13"/>
         <v>A</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AK10" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="13">
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="13">
         <f t="shared" si="15"/>
         <v>24500</v>
       </c>
-      <c r="AM10" s="13">
+      <c r="AN10" s="13">
         <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
-      <c r="AN10" s="18">
+      <c r="AO10" s="18">
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44992</v>
       </c>
@@ -2597,7 +2639,7 @@
         <v>56</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M11" s="4">
@@ -2625,74 +2667,78 @@
         <f t="shared" si="18"/>
         <v>1.312083</v>
       </c>
-      <c r="W11" s="1" t="str">
+      <c r="W11" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X11" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-      <c r="X11" s="1" t="str">
+      <c r="Y11" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="Y11" s="1" t="str">
+      <c r="Z11" s="1" t="str">
         <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="AA11" s="13">
         <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AB11" s="13">
         <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
-      <c r="AB11" s="10" t="str">
+      <c r="AC11" s="10" t="str">
         <f t="shared" si="9"/>
         <v>24499.98</v>
       </c>
-      <c r="AC11" s="10" t="str">
-        <f t="shared" si="19"/>
+      <c r="AD11" s="10" t="str">
+        <f t="shared" si="20"/>
         <v>0.02</v>
       </c>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1">
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="AF11" s="15" t="str">
+      <c r="AG11" s="15" t="str">
         <f>J11&amp;"-"&amp;COUNTIF($J$1:J11,J11)</f>
         <v>37473042-1</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AH11" s="1">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AI11" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI11" s="1" t="str">
+      <c r="AJ11" s="1" t="str">
         <f t="shared" si="13"/>
         <v>B</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AK11" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="13">
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="13">
         <f t="shared" si="15"/>
         <v>24500</v>
       </c>
-      <c r="AM11" s="13">
+      <c r="AN11" s="13">
         <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
-      <c r="AN11" s="18">
+      <c r="AO11" s="18">
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>44992</v>
       </c>
@@ -2730,7 +2776,7 @@
         <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M12" s="4">
@@ -2758,74 +2804,78 @@
         <f t="shared" si="18"/>
         <v>1.312083</v>
       </c>
-      <c r="W12" s="1" t="str">
+      <c r="W12" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X12" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-      <c r="X12" s="1" t="str">
+      <c r="Y12" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="Y12" s="1" t="str">
+      <c r="Z12" s="1" t="str">
         <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="AA12" s="13">
         <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AB12" s="13">
         <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
-      <c r="AB12" s="10" t="str">
+      <c r="AC12" s="10" t="str">
         <f t="shared" si="9"/>
         <v>24499.98</v>
       </c>
-      <c r="AC12" s="10" t="str">
-        <f t="shared" si="19"/>
+      <c r="AD12" s="10" t="str">
+        <f t="shared" si="20"/>
         <v>0.02</v>
       </c>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1">
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="AF12" s="15" t="str">
+      <c r="AG12" s="15" t="str">
         <f>J12&amp;"-"&amp;COUNTIF($J$1:J12,J12)</f>
         <v>30707354719-1</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AH12" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AI12" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="1" t="str">
+      <c r="AJ12" s="1" t="str">
         <f t="shared" si="13"/>
         <v>B</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AK12" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="13">
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="13">
         <f t="shared" si="15"/>
         <v>24500</v>
       </c>
-      <c r="AM12" s="13">
+      <c r="AN12" s="13">
         <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
-      <c r="AN12" s="18">
+      <c r="AO12" s="18">
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>44992</v>
       </c>
@@ -2861,7 +2911,7 @@
         <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M13" s="4">
@@ -2889,74 +2939,78 @@
         <f t="shared" si="18"/>
         <v>1.312083</v>
       </c>
-      <c r="W13" s="1" t="str">
+      <c r="W13" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X13" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00000</v>
       </c>
-      <c r="X13" s="1" t="str">
+      <c r="Y13" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
-      <c r="Y13" s="1" t="str">
+      <c r="Z13" s="1" t="str">
         <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="AA13" s="13">
         <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AB13" s="13">
         <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
-      <c r="AB13" s="10" t="str">
+      <c r="AC13" s="10" t="str">
         <f t="shared" si="9"/>
         <v>24499.98</v>
       </c>
-      <c r="AC13" s="10" t="str">
-        <f t="shared" si="19"/>
+      <c r="AD13" s="10" t="str">
+        <f t="shared" si="20"/>
         <v>0.02</v>
       </c>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1">
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="AF13" s="15" t="str">
+      <c r="AG13" s="15" t="str">
         <f>J13&amp;"-"&amp;COUNTIF($J$1:J13,J13)</f>
         <v>-0</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AH13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AI13" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="1" t="str">
+      <c r="AJ13" s="1" t="str">
         <f t="shared" si="13"/>
         <v>C</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AK13" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="13">
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="13">
         <f t="shared" si="15"/>
         <v>24500</v>
       </c>
-      <c r="AM13" s="13">
+      <c r="AN13" s="13">
         <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
-      <c r="AN13" s="18">
+      <c r="AO13" s="18">
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>44992</v>
       </c>
@@ -3029,74 +3083,78 @@
         <f t="shared" si="18"/>
         <v>7.059448</v>
       </c>
-      <c r="W14" s="1" t="str">
+      <c r="W14" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X14" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00002</v>
       </c>
-      <c r="X14" s="1" t="str">
+      <c r="Y14" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000150</v>
       </c>
-      <c r="Y14" s="1" t="str">
+      <c r="Z14" s="1" t="str">
         <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
-      <c r="Z14" s="13">
+      <c r="AA14" s="13">
         <f t="shared" si="7"/>
         <v>27681.82</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AB14" s="13">
         <f t="shared" si="8"/>
         <v>159499.99812999999</v>
       </c>
-      <c r="AB14" s="10" t="str">
+      <c r="AC14" s="10" t="str">
         <f t="shared" si="9"/>
         <v>131818.18</v>
       </c>
-      <c r="AC14" s="10" t="str">
-        <f t="shared" si="19"/>
+      <c r="AD14" s="10" t="str">
+        <f t="shared" si="20"/>
         <v>0.00</v>
       </c>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1">
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="AF14" s="15" t="str">
+      <c r="AG14" s="15" t="str">
         <f>J14&amp;"-"&amp;COUNTIF($J$1:J14,J14)</f>
         <v>30684125792-1</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AI14" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="1" t="str">
+      <c r="AJ14" s="1" t="str">
         <f t="shared" si="13"/>
         <v>A</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AK14" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="13">
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="13">
         <f t="shared" si="15"/>
         <v>159500</v>
       </c>
-      <c r="AM14" s="13">
+      <c r="AN14" s="13">
         <f t="shared" si="16"/>
         <v>131818.18</v>
       </c>
-      <c r="AN14" s="18">
+      <c r="AO14" s="18">
         <f t="shared" si="17"/>
         <v>7.0594479999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>44992</v>
       </c>
@@ -3169,74 +3227,78 @@
         <f t="shared" si="18"/>
         <v>1.312083</v>
       </c>
-      <c r="W15" s="1" t="str">
+      <c r="W15" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X15" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00002</v>
       </c>
-      <c r="X15" s="1" t="str">
+      <c r="Y15" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000152</v>
       </c>
-      <c r="Y15" s="1" t="str">
+      <c r="Z15" s="1" t="str">
         <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="AA15" s="13">
         <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AB15" s="13">
         <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
-      <c r="AB15" s="10" t="str">
+      <c r="AC15" s="10" t="str">
         <f t="shared" si="9"/>
         <v>24499.98</v>
       </c>
-      <c r="AC15" s="10" t="str">
-        <f t="shared" si="19"/>
+      <c r="AD15" s="10" t="str">
+        <f t="shared" si="20"/>
         <v>0.02</v>
       </c>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1">
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="AF15" s="15" t="str">
+      <c r="AG15" s="15" t="str">
         <f>J15&amp;"-"&amp;COUNTIF($J$1:J15,J15)</f>
         <v>30707354719-2</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AH15" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AI15" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="1" t="str">
+      <c r="AJ15" s="1" t="str">
         <f t="shared" si="13"/>
         <v>B</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AK15" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="13">
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="13">
         <f t="shared" si="15"/>
         <v>24500</v>
       </c>
-      <c r="AM15" s="13">
+      <c r="AN15" s="13">
         <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
-      <c r="AN15" s="18">
+      <c r="AO15" s="18">
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>44992</v>
       </c>
@@ -3309,74 +3371,78 @@
         <f t="shared" si="18"/>
         <v>7.059448</v>
       </c>
-      <c r="W16" s="1" t="str">
+      <c r="W16" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X16" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00002</v>
       </c>
-      <c r="X16" s="1" t="str">
+      <c r="Y16" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000151</v>
       </c>
-      <c r="Y16" s="1" t="str">
+      <c r="Z16" s="1" t="str">
         <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="AA16" s="13">
         <f t="shared" si="7"/>
         <v>27681.82</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AB16" s="13">
         <f t="shared" si="8"/>
         <v>159499.99812999999</v>
       </c>
-      <c r="AB16" s="10" t="str">
+      <c r="AC16" s="10" t="str">
         <f t="shared" si="9"/>
         <v>131818.18</v>
       </c>
-      <c r="AC16" s="10" t="str">
-        <f t="shared" si="19"/>
+      <c r="AD16" s="10" t="str">
+        <f t="shared" si="20"/>
         <v>0.00</v>
       </c>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1">
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="AF16" s="15" t="str">
+      <c r="AG16" s="15" t="str">
         <f>J16&amp;"-"&amp;COUNTIF($J$1:J16,J16)</f>
         <v>30684125792-2</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AI16" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="1" t="str">
+      <c r="AJ16" s="1" t="str">
         <f t="shared" si="13"/>
         <v>A</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AK16" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="13">
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="13">
         <f t="shared" si="15"/>
         <v>159500</v>
       </c>
-      <c r="AM16" s="13">
+      <c r="AN16" s="13">
         <f t="shared" si="16"/>
         <v>131818.18</v>
       </c>
-      <c r="AN16" s="18">
+      <c r="AO16" s="18">
         <f t="shared" si="17"/>
         <v>7.0594479999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>44992</v>
       </c>
@@ -3449,76 +3515,80 @@
         <f t="shared" si="18"/>
         <v>1.312083</v>
       </c>
-      <c r="W17" s="1" t="str">
+      <c r="W17" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>18672.59</v>
+      </c>
+      <c r="X17" s="1" t="str">
         <f t="shared" si="4"/>
         <v>00002</v>
       </c>
-      <c r="X17" s="1" t="str">
+      <c r="Y17" s="1" t="str">
         <f t="shared" si="5"/>
         <v>00000153</v>
       </c>
-      <c r="Y17" s="1" t="str">
+      <c r="Z17" s="1" t="str">
         <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
-      <c r="Z17" s="13">
+      <c r="AA17" s="13">
         <f t="shared" si="7"/>
         <v>4252.0600000000004</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AB17" s="13">
         <f t="shared" si="8"/>
         <v>24499.981728000002</v>
       </c>
-      <c r="AB17" s="10" t="str">
+      <c r="AC17" s="10" t="str">
         <f t="shared" si="9"/>
         <v>24499.98</v>
       </c>
-      <c r="AC17" s="10" t="str">
-        <f t="shared" si="19"/>
+      <c r="AD17" s="10" t="str">
+        <f t="shared" si="20"/>
         <v>0.02</v>
       </c>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1">
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1">
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="AF17" s="15" t="str">
+      <c r="AG17" s="15" t="str">
         <f>J17&amp;"-"&amp;COUNTIF($J$1:J17,J17)</f>
         <v>37473042-2</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AH17" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AI17" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="1" t="str">
+      <c r="AJ17" s="1" t="str">
         <f t="shared" si="13"/>
         <v>B</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AK17" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="13">
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="13">
         <f t="shared" si="15"/>
         <v>24500</v>
       </c>
-      <c r="AM17" s="13">
+      <c r="AN17" s="13">
         <f t="shared" si="16"/>
         <v>20247.93</v>
       </c>
-      <c r="AN17" s="18">
+      <c r="AO17" s="18">
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN17">
+  <autoFilter ref="A1:AG17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO17">
     <sortCondition ref="F2:F17"/>
     <sortCondition ref="H2:H17"/>
     <sortCondition ref="J2:J17"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC968624-FBDD-40A1-BDC3-910F33AEC68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B1469D-2909-4808-AD50-4CDD04401DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
   <si>
     <t>Fecha</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Precio Facturador</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -770,6 +773,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -816,7 +830,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -839,6 +853,7 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1201,12 +1216,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AP17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="W17" sqref="W2:W17"/>
+      <selection pane="bottomLeft" activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1252,7 @@
     <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1361,8 +1376,11 @@
       <c r="AO1" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="AP1" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44992</v>
       </c>
@@ -1497,8 +1515,9 @@
         <f t="shared" ref="AO2:AO17" si="17">ROUND(AN2/N2,6)</f>
         <v>9.1396619999999995</v>
       </c>
+      <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44992</v>
       </c>
@@ -1634,8 +1653,9 @@
         <f t="shared" si="17"/>
         <v>8.0774249999999999</v>
       </c>
+      <c r="AP3" s="2"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44992</v>
       </c>
@@ -1771,8 +1791,9 @@
         <f t="shared" si="17"/>
         <v>10.113379</v>
       </c>
+      <c r="AP4" s="2"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44992</v>
       </c>
@@ -1908,8 +1929,9 @@
         <f t="shared" si="17"/>
         <v>9.1396619999999995</v>
       </c>
+      <c r="AP5" s="2"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44992</v>
       </c>
@@ -2053,8 +2075,9 @@
         <f t="shared" si="17"/>
         <v>5.0898839999999996</v>
       </c>
+      <c r="AP6" s="2"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44992</v>
       </c>
@@ -2189,8 +2212,9 @@
         <f t="shared" si="17"/>
         <v>5.0898839999999996</v>
       </c>
+      <c r="AP7" s="2"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44992</v>
       </c>
@@ -2326,8 +2350,9 @@
         <f t="shared" si="17"/>
         <v>10.113379</v>
       </c>
+      <c r="AP8" s="2"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44992</v>
       </c>
@@ -2463,8 +2488,9 @@
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
+      <c r="AP9" s="2"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44992</v>
       </c>
@@ -2600,8 +2626,9 @@
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
+      <c r="AP10" s="2"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44992</v>
       </c>
@@ -2737,8 +2764,9 @@
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
+      <c r="AP11" s="2"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>44992</v>
       </c>
@@ -2874,8 +2902,9 @@
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
+      <c r="AP12" s="2"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>44992</v>
       </c>
@@ -3009,8 +3038,9 @@
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
+      <c r="AP13" s="2"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>44992</v>
       </c>
@@ -3153,8 +3183,9 @@
         <f t="shared" si="17"/>
         <v>7.0594479999999997</v>
       </c>
+      <c r="AP14" s="2"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>44992</v>
       </c>
@@ -3297,8 +3328,9 @@
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
+      <c r="AP15" s="2"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>44992</v>
       </c>
@@ -3441,8 +3473,9 @@
         <f t="shared" si="17"/>
         <v>7.0594479999999997</v>
       </c>
+      <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>44992</v>
       </c>
@@ -3585,6 +3618,7 @@
         <f t="shared" si="17"/>
         <v>1.0843659999999999</v>
       </c>
+      <c r="AP17" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AG17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B1469D-2909-4808-AD50-4CDD04401DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C1CFBF-1E09-49D9-96BD-9E953767B4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1218,10 +1218,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="AL7" sqref="AL7"/>
+      <selection pane="bottomLeft" activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,7 @@
         <v>35752.07</v>
       </c>
       <c r="AB2" s="13">
-        <f t="shared" ref="AB2:AB17" si="8">O2+AA2</f>
+        <f t="shared" ref="AB2:AB10" si="8">IF(AJ2="A",O2+AA2,O2)</f>
         <v>206000.00684800002</v>
       </c>
       <c r="AC2" s="10" t="str">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="V11" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>1.312083</v>
+        <v>1.084366</v>
       </c>
       <c r="W11" s="19" t="str">
         <f t="shared" si="19"/>
@@ -2715,16 +2715,16 @@
         <v>4252.0600000000004</v>
       </c>
       <c r="AB11" s="13">
-        <f t="shared" si="8"/>
-        <v>24499.981728000002</v>
+        <f>IF(AJ11="A",O11+AA11,O11)</f>
+        <v>20247.921728000001</v>
       </c>
       <c r="AC11" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>24499.98</v>
+        <v>20247.92</v>
       </c>
       <c r="AD11" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="V12" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>1.312083</v>
+        <v>1.084366</v>
       </c>
       <c r="W12" s="19" t="str">
         <f t="shared" si="19"/>
@@ -2853,16 +2853,16 @@
         <v>4252.0600000000004</v>
       </c>
       <c r="AB12" s="13">
-        <f t="shared" si="8"/>
-        <v>24499.981728000002</v>
+        <f t="shared" ref="AB12:AB17" si="22">IF(AJ12="A",O12+AA12,O12)</f>
+        <v>20247.921728000001</v>
       </c>
       <c r="AC12" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>24499.98</v>
+        <v>20247.92</v>
       </c>
       <c r="AD12" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="V13" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>1.312083</v>
+        <v>1.084366</v>
       </c>
       <c r="W13" s="19" t="str">
         <f t="shared" si="19"/>
@@ -2989,16 +2989,16 @@
         <v>4252.0600000000004</v>
       </c>
       <c r="AB13" s="13">
-        <f t="shared" si="8"/>
-        <v>24499.981728000002</v>
+        <f t="shared" si="22"/>
+        <v>20247.921728000001</v>
       </c>
       <c r="AC13" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>24499.98</v>
+        <v>20247.92</v>
       </c>
       <c r="AD13" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1">
@@ -3134,7 +3134,7 @@
         <v>27681.82</v>
       </c>
       <c r="AB14" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>159499.99812999999</v>
       </c>
       <c r="AC14" s="10" t="str">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="V15" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>1.312083</v>
+        <v>1.084366</v>
       </c>
       <c r="W15" s="19" t="str">
         <f t="shared" si="19"/>
@@ -3279,16 +3279,16 @@
         <v>4252.0600000000004</v>
       </c>
       <c r="AB15" s="13">
-        <f t="shared" si="8"/>
-        <v>24499.981728000002</v>
+        <f t="shared" si="22"/>
+        <v>20247.921728000001</v>
       </c>
       <c r="AC15" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>24499.98</v>
+        <v>20247.92</v>
       </c>
       <c r="AD15" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1">
@@ -3424,7 +3424,7 @@
         <v>27681.82</v>
       </c>
       <c r="AB16" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>159499.99812999999</v>
       </c>
       <c r="AC16" s="10" t="str">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="V17" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>1.312083</v>
+        <v>1.084366</v>
       </c>
       <c r="W17" s="19" t="str">
         <f t="shared" si="19"/>
@@ -3569,16 +3569,16 @@
         <v>4252.0600000000004</v>
       </c>
       <c r="AB17" s="13">
-        <f t="shared" si="8"/>
-        <v>24499.981728000002</v>
+        <f t="shared" si="22"/>
+        <v>20247.921728000001</v>
       </c>
       <c r="AC17" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>24499.98</v>
+        <v>20247.92</v>
       </c>
       <c r="AD17" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1">

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C1CFBF-1E09-49D9-96BD-9E953767B4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A09C781-49EE-44D7-8B93-E6D05B681E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Factura" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AG$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AP$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1218,10 +1218,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="AC12" sqref="AC12"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1241,7 @@
     <col min="16" max="26" width="9.140625" customWidth="1"/>
     <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" customWidth="1"/>
+    <col min="29" max="29" width="11" customWidth="1"/>
     <col min="30" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="9.140625" customWidth="1"/>
     <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -1421,14 +1421,14 @@
         <v>54</v>
       </c>
       <c r="M2" s="4">
-        <v>9.1175320000000006</v>
+        <v>1.0439320000000001</v>
       </c>
       <c r="N2" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O2" s="5">
-        <f t="shared" ref="O2:O17" si="3">ROUND(M2*N2,6)</f>
-        <v>170247.93684800001</v>
+        <f t="shared" ref="O2:O10" si="3">IF(AJ2="A",ROUND(M2*N2,6),ROUND(M2*N2/1.21,6))</f>
+        <v>19834.707999999999</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>38</v>
@@ -1443,11 +1443,11 @@
       </c>
       <c r="V2" s="19" t="str">
         <f>SUBSTITUTE(ROUND(IF(AJ2="A",M2,AB2/N2),6),",",".")</f>
-        <v>9.117532</v>
+        <v>1.043932</v>
       </c>
       <c r="W2" s="19" t="str">
         <f>SUBSTITUTE(TEXT(N2,"0,00"),",",".")</f>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X2" s="1" t="str">
         <f t="shared" ref="X2:X17" si="4">TEXT(R2,"00000")</f>
@@ -1463,19 +1463,19 @@
       </c>
       <c r="AA2" s="13">
         <f t="shared" ref="AA2:AA17" si="7">ROUND(O2*P2,2)</f>
-        <v>35752.07</v>
+        <v>4165.29</v>
       </c>
       <c r="AB2" s="13">
-        <f t="shared" ref="AB2:AB10" si="8">IF(AJ2="A",O2+AA2,O2)</f>
-        <v>206000.00684800002</v>
+        <f t="shared" ref="AB2:AB10" si="8">O2+AA2</f>
+        <v>23999.998</v>
       </c>
       <c r="AC2" s="10" t="str">
         <f t="shared" ref="AC2:AC17" si="9">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
-        <v>170247.94</v>
+        <v>19834.71</v>
       </c>
       <c r="AD2" s="10" t="str">
         <f>SUBSTITUTE(TEXT(ROUNDUP(AB2,0)-AB2,"0,00"),",",".")</f>
-        <v>0.99</v>
+        <v>0.00</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1">
@@ -1504,16 +1504,16 @@
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="13">
-        <f t="shared" ref="AM2:AM17" si="15">CEILING(N2*M2*(1+P2),500)</f>
-        <v>206500</v>
+        <f t="shared" ref="AM2:AM17" si="15">IF(AJ2="A",CEILING(N2*M2*(1+P2),500),CEILING(N2*M2,500))</f>
+        <v>24000</v>
       </c>
       <c r="AN2" s="13">
         <f t="shared" ref="AN2:AN17" si="16">ROUND((AM2/(1+P2)),2)</f>
-        <v>170661.16</v>
+        <v>19834.71</v>
       </c>
       <c r="AO2" s="18">
-        <f t="shared" ref="AO2:AO17" si="17">ROUND(AN2/N2,6)</f>
-        <v>9.1396619999999995</v>
+        <f>IF(AJ2="A",ROUND(AN2/N2,6),ROUND(AM2/N2,6))</f>
+        <v>1.0439320000000001</v>
       </c>
       <c r="AP2" s="2"/>
     </row>
@@ -1559,14 +1559,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M3" s="4">
-        <v>8.0774249999999999</v>
+        <v>8.0252280000000003</v>
       </c>
       <c r="N3" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O3" s="5">
         <f t="shared" si="3"/>
-        <v>150826.44528099999</v>
+        <v>152479.33199999999</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>38</v>
@@ -1580,12 +1580,12 @@
         <v>2</v>
       </c>
       <c r="V3" s="19" t="str">
-        <f t="shared" ref="V3:V17" si="18">SUBSTITUTE(ROUND(IF(AJ3="A",M3,AB3/N3),6),",",".")</f>
-        <v>8.077425</v>
+        <f t="shared" ref="V3:V17" si="17">SUBSTITUTE(ROUND(IF(AJ3="A",M3,AB3/N3),6),",",".")</f>
+        <v>8.025228</v>
       </c>
       <c r="W3" s="19" t="str">
-        <f t="shared" ref="W3:W17" si="19">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
-        <v>18672.59</v>
+        <f t="shared" ref="W3:W17" si="18">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
+        <v>19000.00</v>
       </c>
       <c r="X3" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1601,19 +1601,19 @@
       </c>
       <c r="AA3" s="13">
         <f t="shared" si="7"/>
-        <v>31673.55</v>
+        <v>32020.66</v>
       </c>
       <c r="AB3" s="13">
         <f t="shared" si="8"/>
-        <v>182499.99528099998</v>
+        <v>184499.992</v>
       </c>
       <c r="AC3" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>150826.45</v>
+        <v>152479.33</v>
       </c>
       <c r="AD3" s="10" t="str">
         <f>SUBSTITUTE(TEXT(ROUNDUP(AB3,0)-AB3,"0,00"),",",".")</f>
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1">
@@ -1643,15 +1643,15 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="13">
         <f t="shared" si="15"/>
-        <v>182500</v>
+        <v>184500</v>
       </c>
       <c r="AN3" s="13">
         <f t="shared" si="16"/>
-        <v>150826.45000000001</v>
+        <v>152479.34</v>
       </c>
       <c r="AO3" s="18">
-        <f t="shared" si="17"/>
-        <v>8.0774249999999999</v>
+        <f t="shared" ref="AO3:AO17" si="19">IF(AJ3="A",ROUND(AN3/N3,6),ROUND(AM3/N3,6))</f>
+        <v>8.0252280000000003</v>
       </c>
       <c r="AP3" s="2"/>
     </row>
@@ -1697,14 +1697,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M4" s="4">
-        <v>10.091248999999999</v>
+        <v>10.004348999999999</v>
       </c>
       <c r="N4" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" si="3"/>
-        <v>188429.75516500001</v>
+        <v>190082.63099999999</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>38</v>
@@ -1718,12 +1718,12 @@
         <v>2</v>
       </c>
       <c r="V4" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>10.004349</v>
+      </c>
+      <c r="W4" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>10.091249</v>
-      </c>
-      <c r="W4" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X4" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1739,19 +1739,19 @@
       </c>
       <c r="AA4" s="13">
         <f t="shared" si="7"/>
-        <v>39570.25</v>
+        <v>39917.35</v>
       </c>
       <c r="AB4" s="13">
         <f t="shared" si="8"/>
-        <v>228000.00516500001</v>
+        <v>229999.981</v>
       </c>
       <c r="AC4" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>188429.76</v>
+        <v>190082.63</v>
       </c>
       <c r="AD4" s="10" t="str">
         <f>SUBSTITUTE(TEXT(ROUNDUP(AB4,0)-AB4,"0,00"),",",".")</f>
-        <v>0.99</v>
+        <v>0.02</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1">
@@ -1781,15 +1781,15 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="13">
         <f t="shared" si="15"/>
-        <v>228500</v>
+        <v>230000</v>
       </c>
       <c r="AN4" s="13">
         <f t="shared" si="16"/>
-        <v>188842.98</v>
+        <v>190082.64</v>
       </c>
       <c r="AO4" s="18">
-        <f t="shared" si="17"/>
-        <v>10.113379</v>
+        <f t="shared" si="19"/>
+        <v>10.004348999999999</v>
       </c>
       <c r="AP4" s="2"/>
     </row>
@@ -1835,14 +1835,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M5" s="4">
-        <v>9.1175320000000006</v>
+        <v>9.0256629999999998</v>
       </c>
       <c r="N5" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="3"/>
-        <v>170247.93684800001</v>
+        <v>171487.59700000001</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>38</v>
@@ -1856,12 +1856,12 @@
         <v>2</v>
       </c>
       <c r="V5" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>9.025663</v>
+      </c>
+      <c r="W5" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>9.117532</v>
-      </c>
-      <c r="W5" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1877,19 +1877,19 @@
       </c>
       <c r="AA5" s="13">
         <f t="shared" si="7"/>
-        <v>35752.07</v>
+        <v>36012.400000000001</v>
       </c>
       <c r="AB5" s="13">
         <f t="shared" si="8"/>
-        <v>206000.00684800002</v>
+        <v>207499.997</v>
       </c>
       <c r="AC5" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>170247.94</v>
+        <v>171487.60</v>
       </c>
       <c r="AD5" s="10" t="str">
         <f>SUBSTITUTE(TEXT(ROUNDUP(AB5,0)-AB5,"0,00"),",",".")</f>
-        <v>0.99</v>
+        <v>0.00</v>
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1">
@@ -1919,15 +1919,15 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="13">
         <f t="shared" si="15"/>
-        <v>206500</v>
+        <v>207500</v>
       </c>
       <c r="AN5" s="13">
         <f t="shared" si="16"/>
-        <v>170661.16</v>
+        <v>171487.6</v>
       </c>
       <c r="AO5" s="18">
-        <f t="shared" si="17"/>
-        <v>9.1396619999999995</v>
+        <f t="shared" si="19"/>
+        <v>9.0256629999999998</v>
       </c>
       <c r="AP5" s="2"/>
     </row>
@@ -1973,14 +1973,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M6" s="4">
-        <v>5.0898839999999996</v>
+        <v>5.0239229999999999</v>
       </c>
       <c r="N6" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="3"/>
-        <v>95041.317079999993</v>
+        <v>95454.536999999997</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>38</v>
@@ -2002,12 +2002,12 @@
         <v>2</v>
       </c>
       <c r="V6" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>5.023923</v>
+      </c>
+      <c r="W6" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>5.089884</v>
-      </c>
-      <c r="W6" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2023,19 +2023,19 @@
       </c>
       <c r="AA6" s="13">
         <f t="shared" si="7"/>
-        <v>19958.68</v>
+        <v>20045.45</v>
       </c>
       <c r="AB6" s="13">
         <f t="shared" si="8"/>
-        <v>114999.99708</v>
+        <v>115499.98699999999</v>
       </c>
       <c r="AC6" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>95041.32</v>
+        <v>95454.54</v>
       </c>
       <c r="AD6" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(54501-54500.002432,"0,00"),",",".")</f>
-        <v>1.00</v>
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AB6,0)-AB6,"0,00"),",",".")</f>
+        <v>0.01</v>
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1">
@@ -2065,15 +2065,15 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="13">
         <f t="shared" si="15"/>
-        <v>115000</v>
+        <v>115500</v>
       </c>
       <c r="AN6" s="13">
         <f t="shared" si="16"/>
-        <v>95041.32</v>
+        <v>95454.55</v>
       </c>
       <c r="AO6" s="18">
-        <f t="shared" si="17"/>
-        <v>5.0898839999999996</v>
+        <f t="shared" si="19"/>
+        <v>5.0239240000000001</v>
       </c>
       <c r="AP6" s="2"/>
     </row>
@@ -2118,14 +2118,14 @@
         <v>40</v>
       </c>
       <c r="M7" s="4">
-        <v>5.0898839999999996</v>
+        <v>5.0021740000000001</v>
       </c>
       <c r="N7" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="3"/>
-        <v>95041.317079999993</v>
+        <v>95041.305999999997</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>38</v>
@@ -2139,12 +2139,12 @@
         <v>3</v>
       </c>
       <c r="V7" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>5.002174</v>
+      </c>
+      <c r="W7" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>5.089884</v>
-      </c>
-      <c r="W7" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2160,19 +2160,19 @@
       </c>
       <c r="AA7" s="13">
         <f t="shared" si="7"/>
-        <v>19958.68</v>
+        <v>19958.669999999998</v>
       </c>
       <c r="AB7" s="13">
         <f t="shared" si="8"/>
-        <v>114999.99708</v>
+        <v>114999.976</v>
       </c>
       <c r="AC7" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>95041.32</v>
+        <v>95041.31</v>
       </c>
       <c r="AD7" s="10" t="str">
         <f t="shared" ref="AD7:AD17" si="20">SUBSTITUTE(TEXT(ROUNDUP(AB7,0)-AB7,"0,00"),",",".")</f>
-        <v>0.00</v>
+        <v>0.02</v>
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1">
@@ -2209,8 +2209,8 @@
         <v>95041.32</v>
       </c>
       <c r="AO7" s="18">
-        <f t="shared" si="17"/>
-        <v>5.0898839999999996</v>
+        <f t="shared" si="19"/>
+        <v>5.0021750000000003</v>
       </c>
       <c r="AP7" s="2"/>
     </row>
@@ -2256,14 +2256,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M8" s="4">
-        <v>10.091248999999999</v>
+        <v>10.004348999999999</v>
       </c>
       <c r="N8" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="3"/>
-        <v>188429.75516500001</v>
+        <v>190082.63099999999</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>38</v>
@@ -2277,12 +2277,12 @@
         <v>2</v>
       </c>
       <c r="V8" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>10.004349</v>
+      </c>
+      <c r="W8" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>10.091249</v>
-      </c>
-      <c r="W8" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X8" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2298,19 +2298,19 @@
       </c>
       <c r="AA8" s="13">
         <f t="shared" si="7"/>
-        <v>39570.25</v>
+        <v>39917.35</v>
       </c>
       <c r="AB8" s="13">
         <f t="shared" si="8"/>
-        <v>228000.00516500001</v>
+        <v>229999.981</v>
       </c>
       <c r="AC8" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>188429.76</v>
+        <v>190082.63</v>
       </c>
       <c r="AD8" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.99</v>
+        <v>0.02</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1">
@@ -2340,15 +2340,15 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="13">
         <f t="shared" si="15"/>
-        <v>228500</v>
+        <v>230000</v>
       </c>
       <c r="AN8" s="13">
         <f t="shared" si="16"/>
-        <v>188842.98</v>
+        <v>190082.64</v>
       </c>
       <c r="AO8" s="18">
-        <f t="shared" si="17"/>
-        <v>10.113379</v>
+        <f t="shared" si="19"/>
+        <v>10.004348999999999</v>
       </c>
       <c r="AP8" s="2"/>
     </row>
@@ -2394,14 +2394,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M9" s="4">
-        <v>1.0843659999999999</v>
+        <v>1.0221830000000001</v>
       </c>
       <c r="N9" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="3"/>
-        <v>20247.921728000001</v>
+        <v>19421.476999999999</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>38</v>
@@ -2415,12 +2415,12 @@
         <v>2</v>
       </c>
       <c r="V9" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>1.022183</v>
+      </c>
+      <c r="W9" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>1.084366</v>
-      </c>
-      <c r="W9" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X9" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2436,19 +2436,19 @@
       </c>
       <c r="AA9" s="13">
         <f t="shared" si="7"/>
-        <v>4252.0600000000004</v>
+        <v>4078.51</v>
       </c>
       <c r="AB9" s="13">
         <f t="shared" si="8"/>
-        <v>24499.981728000002</v>
+        <v>23499.987000000001</v>
       </c>
       <c r="AC9" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>20247.92</v>
+        <v>19421.48</v>
       </c>
       <c r="AD9" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1">
@@ -2478,15 +2478,15 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="13">
         <f t="shared" si="15"/>
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="AN9" s="13">
         <f t="shared" si="16"/>
-        <v>20247.93</v>
+        <v>19421.490000000002</v>
       </c>
       <c r="AO9" s="18">
-        <f t="shared" si="17"/>
-        <v>1.0843659999999999</v>
+        <f t="shared" si="19"/>
+        <v>1.022184</v>
       </c>
       <c r="AP9" s="2"/>
     </row>
@@ -2532,14 +2532,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M10" s="4">
-        <v>1.0843659999999999</v>
+        <v>1.0439320000000001</v>
       </c>
       <c r="N10" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="3"/>
-        <v>20247.921728000001</v>
+        <v>19834.707999999999</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>38</v>
@@ -2553,12 +2553,12 @@
         <v>2</v>
       </c>
       <c r="V10" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>1.043932</v>
+      </c>
+      <c r="W10" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>1.084366</v>
-      </c>
-      <c r="W10" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2574,19 +2574,19 @@
       </c>
       <c r="AA10" s="13">
         <f t="shared" si="7"/>
-        <v>4252.0600000000004</v>
+        <v>4165.29</v>
       </c>
       <c r="AB10" s="13">
         <f t="shared" si="8"/>
-        <v>24499.981728000002</v>
+        <v>23999.998</v>
       </c>
       <c r="AC10" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>20247.92</v>
+        <v>19834.71</v>
       </c>
       <c r="AD10" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.02</v>
+        <v>0.00</v>
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1">
@@ -2616,15 +2616,15 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="13">
         <f t="shared" si="15"/>
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="AN10" s="13">
         <f t="shared" si="16"/>
-        <v>20247.93</v>
+        <v>19834.71</v>
       </c>
       <c r="AO10" s="18">
-        <f t="shared" si="17"/>
-        <v>1.0843659999999999</v>
+        <f t="shared" si="19"/>
+        <v>1.0439320000000001</v>
       </c>
       <c r="AP10" s="2"/>
     </row>
@@ -2670,14 +2670,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M11" s="4">
-        <v>1.0843659999999999</v>
+        <v>1.210526</v>
       </c>
       <c r="N11" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="3"/>
-        <v>20247.921728000001</v>
+        <f>IF(AJ11="A",ROUND(M11*N11,6),ROUND(M11*N11/1.21,6))</f>
+        <v>19008.259504000001</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>38</v>
@@ -2691,12 +2691,12 @@
         <v>2</v>
       </c>
       <c r="V11" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>1.210526</v>
+      </c>
+      <c r="W11" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>1.084366</v>
-      </c>
-      <c r="W11" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X11" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2712,19 +2712,19 @@
       </c>
       <c r="AA11" s="13">
         <f t="shared" si="7"/>
-        <v>4252.0600000000004</v>
+        <v>3991.73</v>
       </c>
       <c r="AB11" s="13">
-        <f>IF(AJ11="A",O11+AA11,O11)</f>
-        <v>20247.921728000001</v>
+        <f>O11+AA11</f>
+        <v>22999.989504000001</v>
       </c>
       <c r="AC11" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>20247.92</v>
+        <v>22999.99</v>
       </c>
       <c r="AD11" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1">
@@ -2753,16 +2753,16 @@
       </c>
       <c r="AL11" s="2"/>
       <c r="AM11" s="13">
-        <f t="shared" si="15"/>
-        <v>24500</v>
+        <f>CEILING(N11*M11*(1+P11),500)</f>
+        <v>28000</v>
       </c>
       <c r="AN11" s="13">
         <f t="shared" si="16"/>
-        <v>20247.93</v>
+        <v>23140.5</v>
       </c>
       <c r="AO11" s="18">
-        <f t="shared" si="17"/>
-        <v>1.0843659999999999</v>
+        <f t="shared" si="19"/>
+        <v>1.473684</v>
       </c>
       <c r="AP11" s="2"/>
     </row>
@@ -2808,14 +2808,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M12" s="4">
-        <v>1.0843659999999999</v>
+        <v>1.210526</v>
       </c>
       <c r="N12" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="3"/>
-        <v>20247.921728000001</v>
+        <f t="shared" ref="O12:O17" si="22">IF(AJ12="A",ROUND(M12*N12,6),ROUND(M12*N12/1.21,6))</f>
+        <v>19008.259504000001</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>38</v>
@@ -2829,12 +2829,12 @@
         <v>2</v>
       </c>
       <c r="V12" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>1.210526</v>
+      </c>
+      <c r="W12" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>1.084366</v>
-      </c>
-      <c r="W12" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X12" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2850,19 +2850,19 @@
       </c>
       <c r="AA12" s="13">
         <f t="shared" si="7"/>
-        <v>4252.0600000000004</v>
+        <v>3991.73</v>
       </c>
       <c r="AB12" s="13">
-        <f t="shared" ref="AB12:AB17" si="22">IF(AJ12="A",O12+AA12,O12)</f>
-        <v>20247.921728000001</v>
+        <f t="shared" ref="AB12:AB17" si="23">O12+AA12</f>
+        <v>22999.989504000001</v>
       </c>
       <c r="AC12" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>20247.92</v>
+        <v>22999.99</v>
       </c>
       <c r="AD12" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1">
@@ -2891,16 +2891,16 @@
       </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="13">
-        <f t="shared" si="15"/>
-        <v>24500</v>
+        <f t="shared" ref="AM12:AM13" si="24">CEILING(N12*M12*(1+P12),500)</f>
+        <v>28000</v>
       </c>
       <c r="AN12" s="13">
         <f t="shared" si="16"/>
-        <v>20247.93</v>
+        <v>23140.5</v>
       </c>
       <c r="AO12" s="18">
-        <f t="shared" si="17"/>
-        <v>1.0843659999999999</v>
+        <f t="shared" si="19"/>
+        <v>1.473684</v>
       </c>
       <c r="AP12" s="2"/>
     </row>
@@ -2944,14 +2944,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M13" s="4">
-        <v>1.0843659999999999</v>
+        <v>1.210526</v>
       </c>
       <c r="N13" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="3"/>
-        <v>20247.921728000001</v>
+        <f t="shared" si="22"/>
+        <v>19008.259504000001</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>38</v>
@@ -2965,12 +2965,12 @@
         <v>2</v>
       </c>
       <c r="V13" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>1.210526</v>
+      </c>
+      <c r="W13" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>1.084366</v>
-      </c>
-      <c r="W13" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X13" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2986,19 +2986,19 @@
       </c>
       <c r="AA13" s="13">
         <f t="shared" si="7"/>
-        <v>4252.0600000000004</v>
+        <v>3991.73</v>
       </c>
       <c r="AB13" s="13">
-        <f t="shared" si="22"/>
-        <v>20247.921728000001</v>
+        <f t="shared" si="23"/>
+        <v>22999.989504000001</v>
       </c>
       <c r="AC13" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>20247.92</v>
+        <v>22999.99</v>
       </c>
       <c r="AD13" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1">
@@ -3027,16 +3027,16 @@
       </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="13">
-        <f t="shared" si="15"/>
-        <v>24500</v>
+        <f t="shared" si="24"/>
+        <v>28000</v>
       </c>
       <c r="AN13" s="13">
         <f t="shared" si="16"/>
-        <v>20247.93</v>
+        <v>23140.5</v>
       </c>
       <c r="AO13" s="18">
-        <f t="shared" si="17"/>
-        <v>1.0843659999999999</v>
+        <f t="shared" si="19"/>
+        <v>1.473684</v>
       </c>
       <c r="AP13" s="2"/>
     </row>
@@ -3081,14 +3081,14 @@
         <v>45</v>
       </c>
       <c r="M14" s="4">
-        <v>7.0594479999999997</v>
+        <v>7.0247929999999998</v>
       </c>
       <c r="N14" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="3"/>
-        <v>131818.17812999999</v>
+        <f t="shared" si="22"/>
+        <v>133471.06700000001</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>38</v>
@@ -3110,12 +3110,12 @@
         <v>2</v>
       </c>
       <c r="V14" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>7.024793</v>
+      </c>
+      <c r="W14" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>7.059448</v>
-      </c>
-      <c r="W14" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X14" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3131,19 +3131,19 @@
       </c>
       <c r="AA14" s="13">
         <f t="shared" si="7"/>
-        <v>27681.82</v>
+        <v>28028.92</v>
       </c>
       <c r="AB14" s="13">
-        <f t="shared" si="22"/>
-        <v>159499.99812999999</v>
+        <f t="shared" si="23"/>
+        <v>161499.98700000002</v>
       </c>
       <c r="AC14" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>131818.18</v>
+        <v>133471.07</v>
       </c>
       <c r="AD14" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1">
@@ -3172,16 +3172,16 @@
       </c>
       <c r="AL14" s="2"/>
       <c r="AM14" s="13">
-        <f t="shared" si="15"/>
-        <v>159500</v>
+        <f t="shared" ref="AM12:AM17" si="25">IF(AJ14="A",CEILING(N14*M14*(1+P14),500),CEILING(N14*M14,500))</f>
+        <v>161500</v>
       </c>
       <c r="AN14" s="13">
         <f t="shared" si="16"/>
-        <v>131818.18</v>
+        <v>133471.07</v>
       </c>
       <c r="AO14" s="18">
-        <f t="shared" si="17"/>
-        <v>7.0594479999999997</v>
+        <f t="shared" si="19"/>
+        <v>7.0247929999999998</v>
       </c>
       <c r="AP14" s="2"/>
     </row>
@@ -3226,14 +3226,14 @@
         <v>64</v>
       </c>
       <c r="M15" s="4">
-        <v>1.0843659999999999</v>
+        <v>1.210526</v>
       </c>
       <c r="N15" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="3"/>
-        <v>20247.921728000001</v>
+        <f t="shared" si="22"/>
+        <v>19008.259504000001</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>38</v>
@@ -3255,12 +3255,12 @@
         <v>2</v>
       </c>
       <c r="V15" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>1.210526</v>
+      </c>
+      <c r="W15" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>1.084366</v>
-      </c>
-      <c r="W15" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3276,19 +3276,19 @@
       </c>
       <c r="AA15" s="13">
         <f t="shared" si="7"/>
-        <v>4252.0600000000004</v>
+        <v>3991.73</v>
       </c>
       <c r="AB15" s="13">
-        <f t="shared" si="22"/>
-        <v>20247.921728000001</v>
+        <f t="shared" si="23"/>
+        <v>22999.989504000001</v>
       </c>
       <c r="AC15" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>20247.92</v>
+        <v>22999.99</v>
       </c>
       <c r="AD15" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1">
@@ -3317,16 +3317,16 @@
       </c>
       <c r="AL15" s="2"/>
       <c r="AM15" s="13">
-        <f t="shared" si="15"/>
-        <v>24500</v>
+        <f>CEILING(N15*M15*(1+P15),500)</f>
+        <v>28000</v>
       </c>
       <c r="AN15" s="13">
         <f t="shared" si="16"/>
-        <v>20247.93</v>
+        <v>23140.5</v>
       </c>
       <c r="AO15" s="18">
-        <f t="shared" si="17"/>
-        <v>1.0843659999999999</v>
+        <f t="shared" si="19"/>
+        <v>1.473684</v>
       </c>
       <c r="AP15" s="2"/>
     </row>
@@ -3371,14 +3371,14 @@
         <v>45</v>
       </c>
       <c r="M16" s="4">
-        <v>7.0594479999999997</v>
+        <v>7.003044</v>
       </c>
       <c r="N16" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="3"/>
-        <v>131818.17812999999</v>
+        <f t="shared" si="22"/>
+        <v>133057.83600000001</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>38</v>
@@ -3400,12 +3400,12 @@
         <v>2</v>
       </c>
       <c r="V16" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>7.003044</v>
+      </c>
+      <c r="W16" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>7.059448</v>
-      </c>
-      <c r="W16" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3421,19 +3421,19 @@
       </c>
       <c r="AA16" s="13">
         <f t="shared" si="7"/>
-        <v>27681.82</v>
+        <v>27942.15</v>
       </c>
       <c r="AB16" s="13">
-        <f t="shared" si="22"/>
-        <v>159499.99812999999</v>
+        <f t="shared" si="23"/>
+        <v>160999.986</v>
       </c>
       <c r="AC16" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>131818.18</v>
+        <v>133057.84</v>
       </c>
       <c r="AD16" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1">
@@ -3462,16 +3462,16 @@
       </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="13">
-        <f t="shared" si="15"/>
-        <v>159500</v>
+        <f t="shared" si="25"/>
+        <v>161000</v>
       </c>
       <c r="AN16" s="13">
         <f t="shared" si="16"/>
-        <v>131818.18</v>
+        <v>133057.85</v>
       </c>
       <c r="AO16" s="18">
-        <f t="shared" si="17"/>
-        <v>7.0594479999999997</v>
+        <f t="shared" si="19"/>
+        <v>7.0030450000000002</v>
       </c>
       <c r="AP16" s="2"/>
     </row>
@@ -3516,14 +3516,14 @@
         <v>64</v>
       </c>
       <c r="M17" s="4">
-        <v>1.0843659999999999</v>
+        <v>1.210526</v>
       </c>
       <c r="N17" s="5">
-        <v>18672.59</v>
+        <v>19000</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="3"/>
-        <v>20247.921728000001</v>
+        <f t="shared" si="22"/>
+        <v>19008.259504000001</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>38</v>
@@ -3545,12 +3545,12 @@
         <v>2</v>
       </c>
       <c r="V17" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>1.210526</v>
+      </c>
+      <c r="W17" s="19" t="str">
         <f t="shared" si="18"/>
-        <v>1.084366</v>
-      </c>
-      <c r="W17" s="19" t="str">
-        <f t="shared" si="19"/>
-        <v>18672.59</v>
+        <v>19000.00</v>
       </c>
       <c r="X17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3566,19 +3566,19 @@
       </c>
       <c r="AA17" s="13">
         <f t="shared" si="7"/>
-        <v>4252.0600000000004</v>
+        <v>3991.73</v>
       </c>
       <c r="AB17" s="13">
-        <f t="shared" si="22"/>
-        <v>20247.921728000001</v>
+        <f t="shared" si="23"/>
+        <v>22999.989504000001</v>
       </c>
       <c r="AC17" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>20247.92</v>
+        <v>22999.99</v>
       </c>
       <c r="AD17" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1">
@@ -3607,21 +3607,21 @@
       </c>
       <c r="AL17" s="2"/>
       <c r="AM17" s="13">
-        <f t="shared" si="15"/>
-        <v>24500</v>
+        <f>CEILING(N17*M17*(1+P17),500)</f>
+        <v>28000</v>
       </c>
       <c r="AN17" s="13">
         <f t="shared" si="16"/>
-        <v>20247.93</v>
+        <v>23140.5</v>
       </c>
       <c r="AO17" s="18">
-        <f t="shared" si="17"/>
-        <v>1.0843659999999999</v>
+        <f t="shared" si="19"/>
+        <v>1.473684</v>
       </c>
       <c r="AP17" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AP17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO17">
     <sortCondition ref="F2:F17"/>
     <sortCondition ref="H2:H17"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A09C781-49EE-44D7-8B93-E6D05B681E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B451EAD-F9F0-4D50-949E-19219A66E114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1218,10 +1218,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,10 +1242,14 @@
     <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="9.140625" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" customWidth="1"/>
+    <col min="32" max="32" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="13.7109375" customWidth="1"/>
+    <col min="34" max="34" width="6" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" customWidth="1"/>
+    <col min="36" max="36" width="4" customWidth="1"/>
+    <col min="37" max="37" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
@@ -1421,14 +1425,14 @@
         <v>54</v>
       </c>
       <c r="M2" s="4">
-        <v>1.0439320000000001</v>
+        <v>7.003044</v>
       </c>
       <c r="N2" s="5">
         <v>19000</v>
       </c>
       <c r="O2" s="5">
-        <f t="shared" ref="O2:O10" si="3">IF(AJ2="A",ROUND(M2*N2,6),ROUND(M2*N2/1.21,6))</f>
-        <v>19834.707999999999</v>
+        <f>M2*N2</f>
+        <v>133057.83600000001</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>38</v>
@@ -1443,43 +1447,43 @@
       </c>
       <c r="V2" s="19" t="str">
         <f>SUBSTITUTE(ROUND(IF(AJ2="A",M2,AB2/N2),6),",",".")</f>
-        <v>1.043932</v>
+        <v>7.003044</v>
       </c>
       <c r="W2" s="19" t="str">
         <f>SUBSTITUTE(TEXT(N2,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="X2" s="1" t="str">
-        <f t="shared" ref="X2:X17" si="4">TEXT(R2,"00000")</f>
+        <f t="shared" ref="X2:X17" si="3">TEXT(R2,"00000")</f>
         <v>00000</v>
       </c>
       <c r="Y2" s="1" t="str">
-        <f t="shared" ref="Y2:Y17" si="5">TEXT(S2,"00000000")</f>
+        <f t="shared" ref="Y2:Y17" si="4">TEXT(S2,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="Z2" s="1" t="str">
-        <f t="shared" ref="Z2:Z17" si="6">TEXT(T2,"DD/MM/aaaa")</f>
+        <f t="shared" ref="Z2:Z17" si="5">TEXT(T2,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
       <c r="AA2" s="13">
-        <f t="shared" ref="AA2:AA17" si="7">ROUND(O2*P2,2)</f>
-        <v>4165.29</v>
+        <f t="shared" ref="AA2:AA17" si="6">ROUND(O2*P2,2)</f>
+        <v>27942.15</v>
       </c>
       <c r="AB2" s="13">
-        <f t="shared" ref="AB2:AB10" si="8">O2+AA2</f>
-        <v>23999.998</v>
+        <f t="shared" ref="AB2:AB10" si="7">O2+AA2</f>
+        <v>160999.986</v>
       </c>
       <c r="AC2" s="10" t="str">
-        <f t="shared" ref="AC2:AC17" si="9">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
-        <v>19834.71</v>
+        <f t="shared" ref="AC2:AC17" si="8">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
+        <v>133057.84</v>
       </c>
       <c r="AD2" s="10" t="str">
         <f>SUBSTITUTE(TEXT(ROUNDUP(AB2,0)-AB2,"0,00"),",",".")</f>
-        <v>0.00</v>
+        <v>0.01</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF17" si="10">ROW(K2)</f>
+        <f t="shared" ref="AF2:AF17" si="9">ROW(K2)</f>
         <v>2</v>
       </c>
       <c r="AG2" s="15" t="str">
@@ -1487,33 +1491,33 @@
         <v>30525390086-1</v>
       </c>
       <c r="AH2" s="1">
-        <f t="shared" ref="AH2:AH17" si="11">IF(K1=K2,1,0)</f>
+        <f t="shared" ref="AH2:AH17" si="10">IF(K1=K2,1,0)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <f t="shared" ref="AI2:AI17" si="12">IF(K2=K3,1,0)</f>
+        <f t="shared" ref="AI2:AI17" si="11">IF(K2=K3,1,0)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="1" t="str">
-        <f t="shared" ref="AJ2:AJ17" si="13">RIGHT(F2)</f>
+        <f t="shared" ref="AJ2:AJ17" si="12">RIGHT(F2)</f>
         <v>A</v>
       </c>
       <c r="AK2" s="1">
-        <f t="shared" ref="AK2:AK17" si="14">IF(LEFT(F2,4)="Nota",0,1)</f>
+        <f t="shared" ref="AK2:AK17" si="13">IF(LEFT(F2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="13">
-        <f t="shared" ref="AM2:AM17" si="15">IF(AJ2="A",CEILING(N2*M2*(1+P2),500),CEILING(N2*M2,500))</f>
-        <v>24000</v>
+        <f t="shared" ref="AM2:AM17" si="14">IF(AJ2="A",CEILING(N2*M2*(1+P2),500),CEILING(N2*M2,500))</f>
+        <v>161000</v>
       </c>
       <c r="AN2" s="13">
-        <f t="shared" ref="AN2:AN17" si="16">ROUND((AM2/(1+P2)),2)</f>
-        <v>19834.71</v>
+        <f t="shared" ref="AN2:AN17" si="15">ROUND((AM2/(1+P2)),2)</f>
+        <v>133057.85</v>
       </c>
       <c r="AO2" s="18">
-        <f>IF(AJ2="A",ROUND(AN2/N2,6),ROUND(AM2/N2,6))</f>
-        <v>1.0439320000000001</v>
+        <f t="shared" ref="AO2:AO10" si="16">ROUND(AN2/N2,6)</f>
+        <v>7.0030450000000002</v>
       </c>
       <c r="AP2" s="2"/>
     </row>
@@ -1565,7 +1569,7 @@
         <v>19000</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O3:O17" si="17">M3*N3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="P3" s="11" t="s">
@@ -1580,35 +1584,35 @@
         <v>2</v>
       </c>
       <c r="V3" s="19" t="str">
-        <f t="shared" ref="V3:V17" si="17">SUBSTITUTE(ROUND(IF(AJ3="A",M3,AB3/N3),6),",",".")</f>
+        <f t="shared" ref="V3:V17" si="18">SUBSTITUTE(ROUND(IF(AJ3="A",M3,AB3/N3),6),",",".")</f>
         <v>8.025228</v>
       </c>
       <c r="W3" s="19" t="str">
-        <f t="shared" ref="W3:W17" si="18">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
+        <f t="shared" ref="W3:W17" si="19">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="X3" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000</v>
+      </c>
+      <c r="Y3" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y3" s="1" t="str">
+        <v>00000000</v>
+      </c>
+      <c r="Z3" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z3" s="1" t="str">
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA3" s="13">
         <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA3" s="13">
+        <v>32020.66</v>
+      </c>
+      <c r="AB3" s="13">
         <f t="shared" si="7"/>
-        <v>32020.66</v>
-      </c>
-      <c r="AB3" s="13">
+        <v>184499.992</v>
+      </c>
+      <c r="AC3" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>184499.992</v>
-      </c>
-      <c r="AC3" s="10" t="str">
-        <f t="shared" si="9"/>
         <v>152479.33</v>
       </c>
       <c r="AD3" s="10" t="str">
@@ -1617,7 +1621,7 @@
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AG3" s="15" t="str">
@@ -1625,32 +1629,32 @@
         <v>30525733870-1</v>
       </c>
       <c r="AH3" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AJ3" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK3" s="1">
         <f t="shared" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="AK3" s="1">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL3" s="2"/>
       <c r="AM3" s="13">
+        <f t="shared" si="14"/>
+        <v>184500</v>
+      </c>
+      <c r="AN3" s="13">
         <f t="shared" si="15"/>
-        <v>184500</v>
-      </c>
-      <c r="AN3" s="13">
+        <v>152479.34</v>
+      </c>
+      <c r="AO3" s="18">
         <f t="shared" si="16"/>
-        <v>152479.34</v>
-      </c>
-      <c r="AO3" s="18">
-        <f t="shared" ref="AO3:AO17" si="19">IF(AJ3="A",ROUND(AN3/N3,6),ROUND(AM3/N3,6))</f>
         <v>8.0252280000000003</v>
       </c>
       <c r="AP3" s="2"/>
@@ -1703,7 +1707,7 @@
         <v>19000</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>190082.63099999999</v>
       </c>
       <c r="P4" s="11" t="s">
@@ -1718,35 +1722,35 @@
         <v>2</v>
       </c>
       <c r="V4" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.004349</v>
       </c>
       <c r="W4" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000</v>
+      </c>
+      <c r="Y4" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y4" s="1" t="str">
+        <v>00000000</v>
+      </c>
+      <c r="Z4" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z4" s="1" t="str">
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA4" s="13">
         <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA4" s="13">
+        <v>39917.35</v>
+      </c>
+      <c r="AB4" s="13">
         <f t="shared" si="7"/>
-        <v>39917.35</v>
-      </c>
-      <c r="AB4" s="13">
+        <v>229999.981</v>
+      </c>
+      <c r="AC4" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>229999.981</v>
-      </c>
-      <c r="AC4" s="10" t="str">
-        <f t="shared" si="9"/>
         <v>190082.63</v>
       </c>
       <c r="AD4" s="10" t="str">
@@ -1755,7 +1759,7 @@
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AG4" s="15" t="str">
@@ -1763,32 +1767,32 @@
         <v>30610252334-1</v>
       </c>
       <c r="AH4" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AJ4" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK4" s="1">
         <f t="shared" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="AK4" s="1">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL4" s="2"/>
       <c r="AM4" s="13">
+        <f t="shared" si="14"/>
+        <v>230000</v>
+      </c>
+      <c r="AN4" s="13">
         <f t="shared" si="15"/>
-        <v>230000</v>
-      </c>
-      <c r="AN4" s="13">
+        <v>190082.64</v>
+      </c>
+      <c r="AO4" s="18">
         <f t="shared" si="16"/>
-        <v>190082.64</v>
-      </c>
-      <c r="AO4" s="18">
-        <f t="shared" si="19"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AP4" s="2"/>
@@ -1841,7 +1845,7 @@
         <v>19000</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>171487.59700000001</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -1856,35 +1860,35 @@
         <v>2</v>
       </c>
       <c r="V5" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.025663</v>
       </c>
       <c r="W5" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000</v>
+      </c>
+      <c r="Y5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y5" s="1" t="str">
+        <v>00000000</v>
+      </c>
+      <c r="Z5" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z5" s="1" t="str">
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA5" s="13">
         <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA5" s="13">
+        <v>36012.400000000001</v>
+      </c>
+      <c r="AB5" s="13">
         <f t="shared" si="7"/>
-        <v>36012.400000000001</v>
-      </c>
-      <c r="AB5" s="13">
+        <v>207499.997</v>
+      </c>
+      <c r="AC5" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>207499.997</v>
-      </c>
-      <c r="AC5" s="10" t="str">
-        <f t="shared" si="9"/>
         <v>171487.60</v>
       </c>
       <c r="AD5" s="10" t="str">
@@ -1893,7 +1897,7 @@
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AG5" s="15" t="str">
@@ -1901,32 +1905,32 @@
         <v>30710964277-1</v>
       </c>
       <c r="AH5" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK5" s="1">
         <f t="shared" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="AK5" s="1">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL5" s="2"/>
       <c r="AM5" s="13">
+        <f t="shared" si="14"/>
+        <v>207500</v>
+      </c>
+      <c r="AN5" s="13">
         <f t="shared" si="15"/>
-        <v>207500</v>
-      </c>
-      <c r="AN5" s="13">
+        <v>171487.6</v>
+      </c>
+      <c r="AO5" s="18">
         <f t="shared" si="16"/>
-        <v>171487.6</v>
-      </c>
-      <c r="AO5" s="18">
-        <f t="shared" si="19"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AP5" s="2"/>
@@ -1979,7 +1983,7 @@
         <v>19000</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>95454.536999999997</v>
       </c>
       <c r="P6" s="11" t="s">
@@ -2002,35 +2006,35 @@
         <v>2</v>
       </c>
       <c r="V6" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.023923</v>
       </c>
       <c r="W6" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00002</v>
+      </c>
+      <c r="Y6" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y6" s="1" t="str">
+        <v>00000003</v>
+      </c>
+      <c r="Z6" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000003</v>
-      </c>
-      <c r="Z6" s="1" t="str">
+        <v>12/09/2022</v>
+      </c>
+      <c r="AA6" s="13">
         <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA6" s="13">
+        <v>20045.45</v>
+      </c>
+      <c r="AB6" s="13">
         <f t="shared" si="7"/>
-        <v>20045.45</v>
-      </c>
-      <c r="AB6" s="13">
+        <v>115499.98699999999</v>
+      </c>
+      <c r="AC6" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>115499.98699999999</v>
-      </c>
-      <c r="AC6" s="10" t="str">
-        <f t="shared" si="9"/>
         <v>95454.54</v>
       </c>
       <c r="AD6" s="10" t="str">
@@ -2039,7 +2043,7 @@
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AG6" s="15" t="str">
@@ -2047,32 +2051,32 @@
         <v>33610006189-1</v>
       </c>
       <c r="AH6" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK6" s="1">
         <f t="shared" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="AK6" s="1">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL6" s="2"/>
       <c r="AM6" s="13">
+        <f t="shared" si="14"/>
+        <v>115500</v>
+      </c>
+      <c r="AN6" s="13">
         <f t="shared" si="15"/>
-        <v>115500</v>
-      </c>
-      <c r="AN6" s="13">
+        <v>95454.55</v>
+      </c>
+      <c r="AO6" s="18">
         <f t="shared" si="16"/>
-        <v>95454.55</v>
-      </c>
-      <c r="AO6" s="18">
-        <f t="shared" si="19"/>
         <v>5.0239240000000001</v>
       </c>
       <c r="AP6" s="2"/>
@@ -2124,7 +2128,7 @@
         <v>19000</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>95041.305999999997</v>
       </c>
       <c r="P7" s="11" t="s">
@@ -2139,35 +2143,35 @@
         <v>3</v>
       </c>
       <c r="V7" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.002174</v>
       </c>
       <c r="W7" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000</v>
+      </c>
+      <c r="Y7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y7" s="1" t="str">
+        <v>00000000</v>
+      </c>
+      <c r="Z7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z7" s="1" t="str">
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA7" s="13">
         <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA7" s="13">
+        <v>19958.669999999998</v>
+      </c>
+      <c r="AB7" s="13">
         <f t="shared" si="7"/>
-        <v>19958.669999999998</v>
-      </c>
-      <c r="AB7" s="13">
+        <v>114999.976</v>
+      </c>
+      <c r="AC7" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>114999.976</v>
-      </c>
-      <c r="AC7" s="10" t="str">
-        <f t="shared" si="9"/>
         <v>95041.31</v>
       </c>
       <c r="AD7" s="10" t="str">
@@ -2176,7 +2180,7 @@
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="AG7" s="15" t="str">
@@ -2184,32 +2188,32 @@
         <v>33610006189-2</v>
       </c>
       <c r="AH7" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="1">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK7" s="1">
         <f t="shared" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="AK7" s="1">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL7" s="2"/>
       <c r="AM7" s="13">
+        <f t="shared" si="14"/>
+        <v>115000</v>
+      </c>
+      <c r="AN7" s="13">
         <f t="shared" si="15"/>
-        <v>115000</v>
-      </c>
-      <c r="AN7" s="13">
+        <v>95041.32</v>
+      </c>
+      <c r="AO7" s="18">
         <f t="shared" si="16"/>
-        <v>95041.32</v>
-      </c>
-      <c r="AO7" s="18">
-        <f t="shared" si="19"/>
         <v>5.0021750000000003</v>
       </c>
       <c r="AP7" s="2"/>
@@ -2262,7 +2266,7 @@
         <v>19000</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>190082.63099999999</v>
       </c>
       <c r="P8" s="11" t="s">
@@ -2277,35 +2281,35 @@
         <v>2</v>
       </c>
       <c r="V8" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.004349</v>
       </c>
       <c r="W8" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000</v>
+      </c>
+      <c r="Y8" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y8" s="1" t="str">
+        <v>00000000</v>
+      </c>
+      <c r="Z8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z8" s="1" t="str">
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA8" s="13">
         <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA8" s="13">
+        <v>39917.35</v>
+      </c>
+      <c r="AB8" s="13">
         <f t="shared" si="7"/>
-        <v>39917.35</v>
-      </c>
-      <c r="AB8" s="13">
+        <v>229999.981</v>
+      </c>
+      <c r="AC8" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>229999.981</v>
-      </c>
-      <c r="AC8" s="10" t="str">
-        <f t="shared" si="9"/>
         <v>190082.63</v>
       </c>
       <c r="AD8" s="10" t="str">
@@ -2314,7 +2318,7 @@
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AG8" s="15" t="str">
@@ -2322,32 +2326,32 @@
         <v>33615420269-1</v>
       </c>
       <c r="AH8" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AJ8" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK8" s="1">
         <f t="shared" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="AK8" s="1">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL8" s="2"/>
       <c r="AM8" s="13">
+        <f t="shared" si="14"/>
+        <v>230000</v>
+      </c>
+      <c r="AN8" s="13">
         <f t="shared" si="15"/>
-        <v>230000</v>
-      </c>
-      <c r="AN8" s="13">
+        <v>190082.64</v>
+      </c>
+      <c r="AO8" s="18">
         <f t="shared" si="16"/>
-        <v>190082.64</v>
-      </c>
-      <c r="AO8" s="18">
-        <f t="shared" si="19"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AP8" s="2"/>
@@ -2400,8 +2404,8 @@
         <v>19000</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="3"/>
-        <v>19421.476999999999</v>
+        <f t="shared" si="17"/>
+        <v>19421.477000000003</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>38</v>
@@ -2415,35 +2419,35 @@
         <v>2</v>
       </c>
       <c r="V9" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.022183</v>
       </c>
       <c r="W9" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000</v>
+      </c>
+      <c r="Y9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y9" s="1" t="str">
+        <v>00000000</v>
+      </c>
+      <c r="Z9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z9" s="1" t="str">
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA9" s="13">
         <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA9" s="13">
+        <v>4078.51</v>
+      </c>
+      <c r="AB9" s="13">
         <f t="shared" si="7"/>
-        <v>4078.51</v>
-      </c>
-      <c r="AB9" s="13">
+        <v>23499.987000000001</v>
+      </c>
+      <c r="AC9" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>23499.987000000001</v>
-      </c>
-      <c r="AC9" s="10" t="str">
-        <f t="shared" si="9"/>
         <v>19421.48</v>
       </c>
       <c r="AD9" s="10" t="str">
@@ -2452,7 +2456,7 @@
       </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="AG9" s="15" t="str">
@@ -2460,32 +2464,32 @@
         <v>20147130202-1</v>
       </c>
       <c r="AH9" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AJ9" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK9" s="1">
         <f t="shared" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="AK9" s="1">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL9" s="2"/>
       <c r="AM9" s="13">
+        <f t="shared" si="14"/>
+        <v>23500</v>
+      </c>
+      <c r="AN9" s="13">
         <f t="shared" si="15"/>
-        <v>23500</v>
-      </c>
-      <c r="AN9" s="13">
+        <v>19421.490000000002</v>
+      </c>
+      <c r="AO9" s="18">
         <f t="shared" si="16"/>
-        <v>19421.490000000002</v>
-      </c>
-      <c r="AO9" s="18">
-        <f t="shared" si="19"/>
         <v>1.022184</v>
       </c>
       <c r="AP9" s="2"/>
@@ -2538,8 +2542,8 @@
         <v>19000</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="3"/>
-        <v>19834.707999999999</v>
+        <f t="shared" si="17"/>
+        <v>19834.708000000002</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>38</v>
@@ -2553,35 +2557,35 @@
         <v>2</v>
       </c>
       <c r="V10" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.043932</v>
       </c>
       <c r="W10" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000</v>
+      </c>
+      <c r="Y10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y10" s="1" t="str">
+        <v>00000000</v>
+      </c>
+      <c r="Z10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z10" s="1" t="str">
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA10" s="13">
         <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA10" s="13">
+        <v>4165.29</v>
+      </c>
+      <c r="AB10" s="13">
         <f t="shared" si="7"/>
-        <v>4165.29</v>
-      </c>
-      <c r="AB10" s="13">
+        <v>23999.998000000003</v>
+      </c>
+      <c r="AC10" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>23999.998</v>
-      </c>
-      <c r="AC10" s="10" t="str">
-        <f t="shared" si="9"/>
         <v>19834.71</v>
       </c>
       <c r="AD10" s="10" t="str">
@@ -2590,7 +2594,7 @@
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="AG10" s="15" t="str">
@@ -2598,32 +2602,32 @@
         <v>20374730429-1</v>
       </c>
       <c r="AH10" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK10" s="1">
         <f t="shared" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="AK10" s="1">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL10" s="2"/>
       <c r="AM10" s="13">
+        <f t="shared" si="14"/>
+        <v>24000</v>
+      </c>
+      <c r="AN10" s="13">
         <f t="shared" si="15"/>
-        <v>24000</v>
-      </c>
-      <c r="AN10" s="13">
+        <v>19834.71</v>
+      </c>
+      <c r="AO10" s="18">
         <f t="shared" si="16"/>
-        <v>19834.71</v>
-      </c>
-      <c r="AO10" s="18">
-        <f t="shared" si="19"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AP10" s="2"/>
@@ -2670,14 +2674,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M11" s="4">
-        <v>1.210526</v>
+        <v>1.033058</v>
       </c>
       <c r="N11" s="5">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O11" s="5">
-        <f>IF(AJ11="A",ROUND(M11*N11,6),ROUND(M11*N11/1.21,6))</f>
-        <v>19008.259504000001</v>
+        <f t="shared" si="17"/>
+        <v>10330.58</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>38</v>
@@ -2691,44 +2695,44 @@
         <v>2</v>
       </c>
       <c r="V11" s="19" t="str">
-        <f t="shared" si="17"/>
-        <v>1.210526</v>
+        <f t="shared" si="18"/>
+        <v>1.25</v>
       </c>
       <c r="W11" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
+        <f t="shared" si="19"/>
+        <v>10000.00</v>
       </c>
       <c r="X11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000</v>
+      </c>
+      <c r="Y11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y11" s="1" t="str">
+        <v>00000000</v>
+      </c>
+      <c r="Z11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z11" s="1" t="str">
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA11" s="13">
         <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA11" s="13">
-        <f t="shared" si="7"/>
-        <v>3991.73</v>
+        <v>2169.42</v>
       </c>
       <c r="AB11" s="13">
         <f>O11+AA11</f>
-        <v>22999.989504000001</v>
+        <v>12500</v>
       </c>
       <c r="AC11" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>22999.99</v>
+        <f t="shared" si="8"/>
+        <v>12500.00</v>
       </c>
       <c r="AD11" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.01</v>
+        <v>0.00</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="AG11" s="15" t="str">
@@ -2736,33 +2740,33 @@
         <v>37473042-1</v>
       </c>
       <c r="AH11" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AI11" s="1">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AI11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="1" t="str">
+        <v>B</v>
+      </c>
+      <c r="AK11" s="1">
         <f t="shared" si="13"/>
-        <v>B</v>
-      </c>
-      <c r="AK11" s="1">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL11" s="2"/>
       <c r="AM11" s="13">
         <f>CEILING(N11*M11*(1+P11),500)</f>
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="AN11" s="13">
-        <f t="shared" si="16"/>
-        <v>23140.5</v>
+        <f t="shared" si="15"/>
+        <v>10743.8</v>
       </c>
       <c r="AO11" s="18">
-        <f t="shared" si="19"/>
-        <v>1.473684</v>
+        <f>ROUND(AN11/N11,6)</f>
+        <v>1.0743799999999999</v>
       </c>
       <c r="AP11" s="2"/>
     </row>
@@ -2808,14 +2812,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M12" s="4">
-        <v>1.210526</v>
+        <v>1.000434</v>
       </c>
       <c r="N12" s="5">
         <v>19000</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ref="O12:O17" si="22">IF(AJ12="A",ROUND(M12*N12,6),ROUND(M12*N12/1.21,6))</f>
-        <v>19008.259504000001</v>
+        <f t="shared" si="17"/>
+        <v>19008.245999999999</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>38</v>
@@ -2829,44 +2833,44 @@
         <v>2</v>
       </c>
       <c r="V12" s="19" t="str">
-        <f t="shared" si="17"/>
-        <v>1.210526</v>
+        <f t="shared" si="18"/>
+        <v>1.210525</v>
       </c>
       <c r="W12" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000</v>
+      </c>
+      <c r="Y12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y12" s="1" t="str">
+        <v>00000000</v>
+      </c>
+      <c r="Z12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z12" s="1" t="str">
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA12" s="13">
         <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA12" s="13">
-        <f t="shared" si="7"/>
         <v>3991.73</v>
       </c>
       <c r="AB12" s="13">
-        <f t="shared" ref="AB12:AB17" si="23">O12+AA12</f>
-        <v>22999.989504000001</v>
+        <f t="shared" ref="AB12:AB17" si="22">O12+AA12</f>
+        <v>22999.975999999999</v>
       </c>
       <c r="AC12" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>22999.99</v>
+        <f t="shared" si="8"/>
+        <v>22999.98</v>
       </c>
       <c r="AD12" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="AG12" s="15" t="str">
@@ -2874,33 +2878,33 @@
         <v>30707354719-1</v>
       </c>
       <c r="AH12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AJ12" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="1" t="str">
+        <v>B</v>
+      </c>
+      <c r="AK12" s="1">
         <f t="shared" si="13"/>
-        <v>B</v>
-      </c>
-      <c r="AK12" s="1">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="13">
-        <f t="shared" ref="AM12:AM13" si="24">CEILING(N12*M12*(1+P12),500)</f>
-        <v>28000</v>
+        <f t="shared" ref="AM12:AM13" si="23">CEILING(N12*M12*(1+P12),500)</f>
+        <v>23000</v>
       </c>
       <c r="AN12" s="13">
-        <f t="shared" si="16"/>
-        <v>23140.5</v>
+        <f t="shared" si="15"/>
+        <v>19008.259999999998</v>
       </c>
       <c r="AO12" s="18">
-        <f t="shared" si="19"/>
-        <v>1.473684</v>
+        <f t="shared" ref="AO12:AO17" si="24">ROUND(AN12/N12,6)</f>
+        <v>1.000435</v>
       </c>
       <c r="AP12" s="2"/>
     </row>
@@ -2944,14 +2948,14 @@
         <v>Honorarios Febrero</v>
       </c>
       <c r="M13" s="4">
-        <v>1.210526</v>
+        <v>1.217921</v>
       </c>
       <c r="N13" s="5">
         <v>19000</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="22"/>
-        <v>19008.259504000001</v>
+        <f t="shared" si="17"/>
+        <v>23140.499</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>38</v>
@@ -2965,44 +2969,44 @@
         <v>2</v>
       </c>
       <c r="V13" s="19" t="str">
-        <f t="shared" si="17"/>
-        <v>1.210526</v>
+        <f t="shared" si="18"/>
+        <v>1.473684</v>
       </c>
       <c r="W13" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000</v>
+      </c>
+      <c r="Y13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y13" s="1" t="str">
+        <v>00000000</v>
+      </c>
+      <c r="Z13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z13" s="1" t="str">
+        <v>00/01/1900</v>
+      </c>
+      <c r="AA13" s="13">
         <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA13" s="13">
-        <f t="shared" si="7"/>
-        <v>3991.73</v>
+        <v>4859.5</v>
       </c>
       <c r="AB13" s="13">
-        <f t="shared" si="23"/>
-        <v>22999.989504000001</v>
+        <f t="shared" si="22"/>
+        <v>27999.999</v>
       </c>
       <c r="AC13" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>22999.99</v>
+        <f t="shared" si="8"/>
+        <v>28000.00</v>
       </c>
       <c r="AD13" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.01</v>
+        <v>0.00</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="AG13" s="15" t="str">
@@ -3010,33 +3014,33 @@
         <v>-0</v>
       </c>
       <c r="AH13" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AJ13" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="1" t="str">
+        <v>C</v>
+      </c>
+      <c r="AK13" s="1">
         <f t="shared" si="13"/>
-        <v>C</v>
-      </c>
-      <c r="AK13" s="1">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="13">
+        <f t="shared" si="23"/>
+        <v>28500</v>
+      </c>
+      <c r="AN13" s="13">
+        <f t="shared" si="15"/>
+        <v>23553.72</v>
+      </c>
+      <c r="AO13" s="18">
         <f t="shared" si="24"/>
-        <v>28000</v>
-      </c>
-      <c r="AN13" s="13">
-        <f t="shared" si="16"/>
-        <v>23140.5</v>
-      </c>
-      <c r="AO13" s="18">
-        <f t="shared" si="19"/>
-        <v>1.473684</v>
+        <v>1.2396689999999999</v>
       </c>
       <c r="AP13" s="2"/>
     </row>
@@ -3087,7 +3091,7 @@
         <v>19000</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>133471.06700000001</v>
       </c>
       <c r="P14" s="11" t="s">
@@ -3110,35 +3114,35 @@
         <v>2</v>
       </c>
       <c r="V14" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.024793</v>
       </c>
       <c r="W14" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00002</v>
+      </c>
+      <c r="Y14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y14" s="1" t="str">
+        <v>00000150</v>
+      </c>
+      <c r="Z14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000150</v>
-      </c>
-      <c r="Z14" s="1" t="str">
+        <v>12/09/2022</v>
+      </c>
+      <c r="AA14" s="13">
         <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA14" s="13">
-        <f t="shared" si="7"/>
         <v>28028.92</v>
       </c>
       <c r="AB14" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>161499.98700000002</v>
       </c>
       <c r="AC14" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>133471.07</v>
       </c>
       <c r="AD14" s="10" t="str">
@@ -3147,7 +3151,7 @@
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="AG14" s="15" t="str">
@@ -3155,19 +3159,19 @@
         <v>30684125792-1</v>
       </c>
       <c r="AH14" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AJ14" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK14" s="1">
         <f t="shared" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="AK14" s="1">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL14" s="2"/>
@@ -3176,11 +3180,11 @@
         <v>161500</v>
       </c>
       <c r="AN14" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>133471.07</v>
       </c>
       <c r="AO14" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AP14" s="2"/>
@@ -3226,14 +3230,14 @@
         <v>64</v>
       </c>
       <c r="M15" s="4">
-        <v>1.210526</v>
+        <v>1.217921</v>
       </c>
       <c r="N15" s="5">
         <v>19000</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="22"/>
-        <v>19008.259504000001</v>
+        <f t="shared" si="17"/>
+        <v>23140.499</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>38</v>
@@ -3255,44 +3259,44 @@
         <v>2</v>
       </c>
       <c r="V15" s="19" t="str">
-        <f t="shared" si="17"/>
-        <v>1.210526</v>
+        <f t="shared" si="18"/>
+        <v>1.473684</v>
       </c>
       <c r="W15" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00002</v>
+      </c>
+      <c r="Y15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y15" s="1" t="str">
+        <v>00000152</v>
+      </c>
+      <c r="Z15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000152</v>
-      </c>
-      <c r="Z15" s="1" t="str">
+        <v>12/09/2022</v>
+      </c>
+      <c r="AA15" s="13">
         <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA15" s="13">
-        <f t="shared" si="7"/>
-        <v>3991.73</v>
+        <v>4859.5</v>
       </c>
       <c r="AB15" s="13">
-        <f t="shared" si="23"/>
-        <v>22999.989504000001</v>
+        <f t="shared" si="22"/>
+        <v>27999.999</v>
       </c>
       <c r="AC15" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>22999.99</v>
+        <f t="shared" si="8"/>
+        <v>28000.00</v>
       </c>
       <c r="AD15" s="10" t="str">
         <f t="shared" si="20"/>
-        <v>0.01</v>
+        <v>0.00</v>
       </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="AG15" s="15" t="str">
@@ -3300,33 +3304,33 @@
         <v>30707354719-2</v>
       </c>
       <c r="AH15" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AJ15" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="1" t="str">
+        <v>B</v>
+      </c>
+      <c r="AK15" s="1">
         <f t="shared" si="13"/>
-        <v>B</v>
-      </c>
-      <c r="AK15" s="1">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL15" s="2"/>
       <c r="AM15" s="13">
         <f>CEILING(N15*M15*(1+P15),500)</f>
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="AN15" s="13">
-        <f t="shared" si="16"/>
-        <v>23140.5</v>
+        <f t="shared" si="15"/>
+        <v>23553.72</v>
       </c>
       <c r="AO15" s="18">
-        <f t="shared" si="19"/>
-        <v>1.473684</v>
+        <f t="shared" si="24"/>
+        <v>1.2396689999999999</v>
       </c>
       <c r="AP15" s="2"/>
     </row>
@@ -3377,7 +3381,7 @@
         <v>19000</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>133057.83600000001</v>
       </c>
       <c r="P16" s="11" t="s">
@@ -3400,35 +3404,35 @@
         <v>2</v>
       </c>
       <c r="V16" s="19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.003044</v>
       </c>
       <c r="W16" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00002</v>
+      </c>
+      <c r="Y16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y16" s="1" t="str">
+        <v>00000151</v>
+      </c>
+      <c r="Z16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000151</v>
-      </c>
-      <c r="Z16" s="1" t="str">
+        <v>12/09/2022</v>
+      </c>
+      <c r="AA16" s="13">
         <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA16" s="13">
-        <f t="shared" si="7"/>
         <v>27942.15</v>
       </c>
       <c r="AB16" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>160999.986</v>
       </c>
       <c r="AC16" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>133057.84</v>
       </c>
       <c r="AD16" s="10" t="str">
@@ -3437,7 +3441,7 @@
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AG16" s="15" t="str">
@@ -3445,19 +3449,19 @@
         <v>30684125792-2</v>
       </c>
       <c r="AH16" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AJ16" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AK16" s="1">
         <f t="shared" si="13"/>
-        <v>A</v>
-      </c>
-      <c r="AK16" s="1">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL16" s="2"/>
@@ -3466,11 +3470,11 @@
         <v>161000</v>
       </c>
       <c r="AN16" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>133057.85</v>
       </c>
       <c r="AO16" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>7.0030450000000002</v>
       </c>
       <c r="AP16" s="2"/>
@@ -3516,14 +3520,14 @@
         <v>64</v>
       </c>
       <c r="M17" s="4">
-        <v>1.210526</v>
+        <v>1.2396689999999999</v>
       </c>
       <c r="N17" s="5">
         <v>19000</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="22"/>
-        <v>19008.259504000001</v>
+        <f t="shared" si="17"/>
+        <v>23553.710999999999</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>38</v>
@@ -3545,36 +3549,36 @@
         <v>2</v>
       </c>
       <c r="V17" s="19" t="str">
-        <f t="shared" si="17"/>
-        <v>1.210526</v>
+        <f t="shared" si="18"/>
+        <v>1.5</v>
       </c>
       <c r="W17" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00002</v>
+      </c>
+      <c r="Y17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y17" s="1" t="str">
+        <v>00000153</v>
+      </c>
+      <c r="Z17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>00000153</v>
-      </c>
-      <c r="Z17" s="1" t="str">
+        <v>12/09/2022</v>
+      </c>
+      <c r="AA17" s="13">
         <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA17" s="13">
-        <f t="shared" si="7"/>
-        <v>3991.73</v>
+        <v>4946.28</v>
       </c>
       <c r="AB17" s="13">
-        <f t="shared" si="23"/>
-        <v>22999.989504000001</v>
+        <f t="shared" si="22"/>
+        <v>28499.990999999998</v>
       </c>
       <c r="AC17" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>22999.99</v>
+        <f t="shared" si="8"/>
+        <v>28499.99</v>
       </c>
       <c r="AD17" s="10" t="str">
         <f t="shared" si="20"/>
@@ -3582,7 +3586,7 @@
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="AG17" s="15" t="str">
@@ -3590,33 +3594,33 @@
         <v>37473042-2</v>
       </c>
       <c r="AH17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AJ17" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="1" t="str">
+        <v>B</v>
+      </c>
+      <c r="AK17" s="1">
         <f t="shared" si="13"/>
-        <v>B</v>
-      </c>
-      <c r="AK17" s="1">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL17" s="2"/>
       <c r="AM17" s="13">
         <f>CEILING(N17*M17*(1+P17),500)</f>
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="AN17" s="13">
-        <f t="shared" si="16"/>
-        <v>23140.5</v>
+        <f t="shared" si="15"/>
+        <v>23553.72</v>
       </c>
       <c r="AO17" s="18">
-        <f t="shared" si="19"/>
-        <v>1.473684</v>
+        <f t="shared" si="24"/>
+        <v>1.2396689999999999</v>
       </c>
       <c r="AP17" s="2"/>
     </row>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B451EAD-F9F0-4D50-949E-19219A66E114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA17A7AD-B1CF-43D6-BDE7-301E4FF7C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
   <si>
     <t>Fecha</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>Control</t>
+  </si>
+  <si>
+    <t>Mult Sup 500</t>
+  </si>
+  <si>
+    <t>AUX unidades mult</t>
   </si>
 </sst>
 </file>
@@ -287,7 +293,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -630,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -773,17 +779,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -830,7 +825,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -851,9 +846,10 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1216,12 +1212,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP17"/>
+  <dimension ref="A1:AR17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2"/>
+      <selection pane="bottomLeft" activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1252,7 @@
     <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1380,11 +1376,17 @@
       <c r="AO1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AP1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR1" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44992</v>
       </c>
@@ -1445,11 +1447,11 @@
         <f>COUNTIFS($F$1:F2,F2,$K$1:K2,K2)+1</f>
         <v>2</v>
       </c>
-      <c r="V2" s="19" t="str">
-        <f>SUBSTITUTE(ROUND(IF(AJ2="A",M2,AB2/N2),6),",",".")</f>
+      <c r="V2" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ2="A",ROUND(O2/N2,6),ROUND(AB2/N2,6)),",",".")</f>
         <v>7.003044</v>
       </c>
-      <c r="W2" s="19" t="str">
+      <c r="W2" s="18" t="str">
         <f>SUBSTITUTE(TEXT(N2,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
@@ -1466,15 +1468,15 @@
         <v>00/01/1900</v>
       </c>
       <c r="AA2" s="13">
-        <f t="shared" ref="AA2:AA17" si="6">ROUND(O2*P2,2)</f>
+        <f>IF(AJ2="A",ROUND(O2*P2,2),ROUND(O2*P2/(1+P2),2))</f>
         <v>27942.15</v>
       </c>
       <c r="AB2" s="13">
-        <f t="shared" ref="AB2:AB10" si="7">O2+AA2</f>
-        <v>160999.986</v>
+        <f>IF(AJ2="A",ROUND(O2+AA2,2),ROUND(O2,2))</f>
+        <v>160999.99</v>
       </c>
       <c r="AC2" s="10" t="str">
-        <f t="shared" ref="AC2:AC17" si="8">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
+        <f t="shared" ref="AC2:AC17" si="6">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
       <c r="AD2" s="10" t="str">
@@ -1483,7 +1485,7 @@
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF17" si="9">ROW(K2)</f>
+        <f t="shared" ref="AF2:AF17" si="7">ROW(K2)</f>
         <v>2</v>
       </c>
       <c r="AG2" s="15" t="str">
@@ -1491,37 +1493,45 @@
         <v>30525390086-1</v>
       </c>
       <c r="AH2" s="1">
-        <f t="shared" ref="AH2:AH17" si="10">IF(K1=K2,1,0)</f>
+        <f t="shared" ref="AH2:AH17" si="8">IF(K1=K2,1,0)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <f t="shared" ref="AI2:AI17" si="11">IF(K2=K3,1,0)</f>
+        <f t="shared" ref="AI2:AI17" si="9">IF(K2=K3,1,0)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="1" t="str">
-        <f t="shared" ref="AJ2:AJ17" si="12">RIGHT(F2)</f>
+        <f t="shared" ref="AJ2:AJ17" si="10">RIGHT(F2)</f>
         <v>A</v>
       </c>
       <c r="AK2" s="1">
-        <f t="shared" ref="AK2:AK17" si="13">IF(LEFT(F2,4)="Nota",0,1)</f>
+        <f>IF(LEFT(F2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="13">
-        <f t="shared" ref="AM2:AM17" si="14">IF(AJ2="A",CEILING(N2*M2*(1+P2),500),CEILING(N2*M2,500))</f>
+        <f>IF(RIGHT(F2,1)="A",ROUND(N2*M2*(1+P2),2),AB2)</f>
+        <v>160999.98000000001</v>
+      </c>
+      <c r="AN2" s="13">
+        <f t="shared" ref="AN2:AN17" si="11">ROUND((AM2/(1+P2)),2)</f>
+        <v>133057.82999999999</v>
+      </c>
+      <c r="AO2" s="21">
+        <f>IF(AJ2="A",ROUND(AN2/N2,6),AM2/N2)</f>
+        <v>7.003044</v>
+      </c>
+      <c r="AP2" s="13">
+        <f>IF(AJ2="A",ROUND(CEILING(N2*M2*(1+P2),500),2),ROUND(CEILING(N2*M2,500),2))</f>
         <v>161000</v>
       </c>
-      <c r="AN2" s="13">
-        <f t="shared" ref="AN2:AN17" si="15">ROUND((AM2/(1+P2)),2)</f>
-        <v>133057.85</v>
-      </c>
-      <c r="AO2" s="18">
-        <f t="shared" ref="AO2:AO10" si="16">ROUND(AN2/N2,6)</f>
-        <v>7.0030450000000002</v>
-      </c>
-      <c r="AP2" s="2"/>
+      <c r="AQ2" s="21">
+        <f>IF(AJ2="A",ROUND(AN2/N2,6),AP2/N2)</f>
+        <v>7.003044</v>
+      </c>
+      <c r="AR2" s="2"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44992</v>
       </c>
@@ -1569,7 +1579,7 @@
         <v>19000</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O17" si="17">M3*N3</f>
+        <f t="shared" ref="O3:O17" si="12">M3*N3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="P3" s="11" t="s">
@@ -1583,12 +1593,12 @@
         <f>COUNTIFS($F$1:F3,F3,$K$1:K3,K3)+1</f>
         <v>2</v>
       </c>
-      <c r="V3" s="19" t="str">
-        <f t="shared" ref="V3:V17" si="18">SUBSTITUTE(ROUND(IF(AJ3="A",M3,AB3/N3),6),",",".")</f>
+      <c r="V3" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ3="A",ROUND(O3/N3,6),ROUND(AB3/N3,6)),",",".")</f>
         <v>8.025228</v>
       </c>
-      <c r="W3" s="19" t="str">
-        <f t="shared" ref="W3:W17" si="19">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
+      <c r="W3" s="18" t="str">
+        <f t="shared" ref="W3:W17" si="13">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="X3" s="1" t="str">
@@ -1604,15 +1614,15 @@
         <v>00/01/1900</v>
       </c>
       <c r="AA3" s="13">
+        <f>IF(AJ3="A",ROUND(O3*P3,2),ROUND(O3*P3/(1+P3),2))</f>
+        <v>32020.66</v>
+      </c>
+      <c r="AB3" s="13">
+        <f t="shared" ref="AB3:AB17" si="14">IF(AJ3="A",ROUND(O3+AA3,2),ROUND(O3,2))</f>
+        <v>184499.99</v>
+      </c>
+      <c r="AC3" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>32020.66</v>
-      </c>
-      <c r="AB3" s="13">
-        <f t="shared" si="7"/>
-        <v>184499.992</v>
-      </c>
-      <c r="AC3" s="10" t="str">
-        <f t="shared" si="8"/>
         <v>152479.33</v>
       </c>
       <c r="AD3" s="10" t="str">
@@ -1621,7 +1631,7 @@
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AG3" s="15" t="str">
@@ -1629,37 +1639,45 @@
         <v>30525733870-1</v>
       </c>
       <c r="AH3" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AK2:AK17" si="15">IF(LEFT(F3,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AL3" s="2"/>
       <c r="AM3" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AM3:AM17" si="16">IF(RIGHT(F3,1)="A",ROUND(N3*M3*(1+P3),2),AB3)</f>
+        <v>184499.99</v>
+      </c>
+      <c r="AN3" s="13">
+        <f t="shared" si="11"/>
+        <v>152479.32999999999</v>
+      </c>
+      <c r="AO3" s="21">
+        <f>IF(AJ3="A",ROUND(AN3/N3,6),AM3/N3)</f>
+        <v>8.0252280000000003</v>
+      </c>
+      <c r="AP3" s="13">
+        <f>IF(AJ3="A",ROUND(CEILING(N3*M3*(1+P3),500),2),ROUND(CEILING(N3*M3,500),2))</f>
         <v>184500</v>
       </c>
-      <c r="AN3" s="13">
-        <f t="shared" si="15"/>
-        <v>152479.34</v>
-      </c>
-      <c r="AO3" s="18">
-        <f t="shared" si="16"/>
+      <c r="AQ3" s="21">
+        <f t="shared" ref="AQ3:AQ17" si="17">IF(AJ3="A",ROUND(AN3/N3,6),AP3/N3)</f>
         <v>8.0252280000000003</v>
       </c>
-      <c r="AP3" s="2"/>
+      <c r="AR3" s="2"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44992</v>
       </c>
@@ -1707,7 +1725,7 @@
         <v>19000</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>190082.63099999999</v>
       </c>
       <c r="P4" s="11" t="s">
@@ -1721,12 +1739,12 @@
         <f>COUNTIFS($F$1:F4,F4,$K$1:K4,K4)+1</f>
         <v>2</v>
       </c>
-      <c r="V4" s="19" t="str">
-        <f t="shared" si="18"/>
+      <c r="V4" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ4="A",ROUND(O4/N4,6),ROUND(AB4/N4,6)),",",".")</f>
         <v>10.004349</v>
       </c>
-      <c r="W4" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="W4" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X4" s="1" t="str">
@@ -1742,15 +1760,15 @@
         <v>00/01/1900</v>
       </c>
       <c r="AA4" s="13">
+        <f>IF(AJ4="A",ROUND(O4*P4,2),ROUND(O4*P4/(1+P4),2))</f>
+        <v>39917.35</v>
+      </c>
+      <c r="AB4" s="13">
+        <f t="shared" si="14"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AC4" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>39917.35</v>
-      </c>
-      <c r="AB4" s="13">
-        <f t="shared" si="7"/>
-        <v>229999.981</v>
-      </c>
-      <c r="AC4" s="10" t="str">
-        <f t="shared" si="8"/>
         <v>190082.63</v>
       </c>
       <c r="AD4" s="10" t="str">
@@ -1759,7 +1777,7 @@
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AG4" s="15" t="str">
@@ -1767,37 +1785,45 @@
         <v>30610252334-1</v>
       </c>
       <c r="AH4" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL4" s="2"/>
       <c r="AM4" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AN4" s="13">
+        <f t="shared" si="11"/>
+        <v>190082.63</v>
+      </c>
+      <c r="AO4" s="21">
+        <f>IF(AJ4="A",ROUND(AN4/N4,6),AM4/N4)</f>
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AP4" s="13">
+        <f>IF(AJ4="A",ROUND(CEILING(N4*M4*(1+P4),500),2),ROUND(CEILING(N4*M4,500),2))</f>
         <v>230000</v>
       </c>
-      <c r="AN4" s="13">
-        <f t="shared" si="15"/>
-        <v>190082.64</v>
-      </c>
-      <c r="AO4" s="18">
-        <f t="shared" si="16"/>
+      <c r="AQ4" s="21">
+        <f t="shared" si="17"/>
         <v>10.004348999999999</v>
       </c>
-      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44992</v>
       </c>
@@ -1845,7 +1871,7 @@
         <v>19000</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>171487.59700000001</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -1859,12 +1885,12 @@
         <f>COUNTIFS($F$1:F5,F5,$K$1:K5,K5)+1</f>
         <v>2</v>
       </c>
-      <c r="V5" s="19" t="str">
-        <f t="shared" si="18"/>
+      <c r="V5" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ5="A",ROUND(O5/N5,6),ROUND(AB5/N5,6)),",",".")</f>
         <v>9.025663</v>
       </c>
-      <c r="W5" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="W5" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X5" s="1" t="str">
@@ -1880,15 +1906,15 @@
         <v>00/01/1900</v>
       </c>
       <c r="AA5" s="13">
+        <f>IF(AJ5="A",ROUND(O5*P5,2),ROUND(O5*P5/(1+P5),2))</f>
+        <v>36012.400000000001</v>
+      </c>
+      <c r="AB5" s="13">
+        <f t="shared" si="14"/>
+        <v>207500</v>
+      </c>
+      <c r="AC5" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>36012.400000000001</v>
-      </c>
-      <c r="AB5" s="13">
-        <f t="shared" si="7"/>
-        <v>207499.997</v>
-      </c>
-      <c r="AC5" s="10" t="str">
-        <f t="shared" si="8"/>
         <v>171487.60</v>
       </c>
       <c r="AD5" s="10" t="str">
@@ -1897,7 +1923,7 @@
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AG5" s="15" t="str">
@@ -1905,37 +1931,45 @@
         <v>30710964277-1</v>
       </c>
       <c r="AH5" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL5" s="2"/>
       <c r="AM5" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
+        <v>207499.99</v>
+      </c>
+      <c r="AN5" s="13">
+        <f t="shared" si="11"/>
+        <v>171487.6</v>
+      </c>
+      <c r="AO5" s="21">
+        <f>IF(AJ5="A",ROUND(AN5/N5,6),AM5/N5)</f>
+        <v>9.0256629999999998</v>
+      </c>
+      <c r="AP5" s="13">
+        <f>IF(AJ5="A",ROUND(CEILING(N5*M5*(1+P5),500),2),ROUND(CEILING(N5*M5,500),2))</f>
         <v>207500</v>
       </c>
-      <c r="AN5" s="13">
-        <f t="shared" si="15"/>
-        <v>171487.6</v>
-      </c>
-      <c r="AO5" s="18">
-        <f t="shared" si="16"/>
+      <c r="AQ5" s="21">
+        <f t="shared" si="17"/>
         <v>9.0256629999999998</v>
       </c>
-      <c r="AP5" s="2"/>
+      <c r="AR5" s="2"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44992</v>
       </c>
@@ -1983,7 +2017,7 @@
         <v>19000</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>95454.536999999997</v>
       </c>
       <c r="P6" s="11" t="s">
@@ -2005,12 +2039,12 @@
         <f>COUNTIFS($F$1:F6,F6,$K$1:K6,K6)+1</f>
         <v>2</v>
       </c>
-      <c r="V6" s="19" t="str">
-        <f t="shared" si="18"/>
+      <c r="V6" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ6="A",ROUND(O6/N6,6),ROUND(AB6/N6,6)),",",".")</f>
         <v>5.023923</v>
       </c>
-      <c r="W6" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="W6" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X6" s="1" t="str">
@@ -2026,15 +2060,15 @@
         <v>12/09/2022</v>
       </c>
       <c r="AA6" s="13">
+        <f>IF(AJ6="A",ROUND(O6*P6,2),ROUND(O6*P6/(1+P6),2))</f>
+        <v>20045.45</v>
+      </c>
+      <c r="AB6" s="13">
+        <f t="shared" si="14"/>
+        <v>115499.99</v>
+      </c>
+      <c r="AC6" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>20045.45</v>
-      </c>
-      <c r="AB6" s="13">
-        <f t="shared" si="7"/>
-        <v>115499.98699999999</v>
-      </c>
-      <c r="AC6" s="10" t="str">
-        <f t="shared" si="8"/>
         <v>95454.54</v>
       </c>
       <c r="AD6" s="10" t="str">
@@ -2043,7 +2077,7 @@
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AG6" s="15" t="str">
@@ -2051,37 +2085,45 @@
         <v>33610006189-1</v>
       </c>
       <c r="AH6" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL6" s="2"/>
       <c r="AM6" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
+        <v>115499.99</v>
+      </c>
+      <c r="AN6" s="13">
+        <f t="shared" si="11"/>
+        <v>95454.54</v>
+      </c>
+      <c r="AO6" s="21">
+        <f>IF(AJ6="A",ROUND(AN6/N6,6),AM6/N6)</f>
+        <v>5.0239229999999999</v>
+      </c>
+      <c r="AP6" s="13">
+        <f>IF(AJ6="A",ROUND(CEILING(N6*M6*(1+P6),500),2),ROUND(CEILING(N6*M6,500),2))</f>
         <v>115500</v>
       </c>
-      <c r="AN6" s="13">
-        <f t="shared" si="15"/>
-        <v>95454.55</v>
-      </c>
-      <c r="AO6" s="18">
-        <f t="shared" si="16"/>
-        <v>5.0239240000000001</v>
-      </c>
-      <c r="AP6" s="2"/>
+      <c r="AQ6" s="21">
+        <f t="shared" si="17"/>
+        <v>5.0239229999999999</v>
+      </c>
+      <c r="AR6" s="2"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44992</v>
       </c>
@@ -2128,7 +2170,7 @@
         <v>19000</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>95041.305999999997</v>
       </c>
       <c r="P7" s="11" t="s">
@@ -2142,12 +2184,12 @@
         <f>COUNTIFS($F$1:F7,F7,$K$1:K7,K7)+1</f>
         <v>3</v>
       </c>
-      <c r="V7" s="19" t="str">
-        <f t="shared" si="18"/>
+      <c r="V7" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ7="A",ROUND(O7/N7,6),ROUND(AB7/N7,6)),",",".")</f>
         <v>5.002174</v>
       </c>
-      <c r="W7" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="W7" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X7" s="1" t="str">
@@ -2163,24 +2205,24 @@
         <v>00/01/1900</v>
       </c>
       <c r="AA7" s="13">
+        <f>IF(AJ7="A",ROUND(O7*P7,2),ROUND(O7*P7/(1+P7),2))</f>
+        <v>19958.669999999998</v>
+      </c>
+      <c r="AB7" s="13">
+        <f t="shared" si="14"/>
+        <v>114999.98</v>
+      </c>
+      <c r="AC7" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>19958.669999999998</v>
-      </c>
-      <c r="AB7" s="13">
-        <f t="shared" si="7"/>
-        <v>114999.976</v>
-      </c>
-      <c r="AC7" s="10" t="str">
-        <f t="shared" si="8"/>
         <v>95041.31</v>
       </c>
       <c r="AD7" s="10" t="str">
-        <f t="shared" ref="AD7:AD17" si="20">SUBSTITUTE(TEXT(ROUNDUP(AB7,0)-AB7,"0,00"),",",".")</f>
+        <f t="shared" ref="AD7:AD17" si="18">SUBSTITUTE(TEXT(ROUNDUP(AB7,0)-AB7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AG7" s="15" t="str">
@@ -2188,37 +2230,45 @@
         <v>33610006189-2</v>
       </c>
       <c r="AH7" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AI7" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL7" s="2"/>
       <c r="AM7" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
+        <v>114999.98</v>
+      </c>
+      <c r="AN7" s="13">
+        <f t="shared" si="11"/>
+        <v>95041.31</v>
+      </c>
+      <c r="AO7" s="21">
+        <f>IF(AJ7="A",ROUND(AN7/N7,6),AM7/N7)</f>
+        <v>5.0021740000000001</v>
+      </c>
+      <c r="AP7" s="13">
+        <f>IF(AJ7="A",ROUND(CEILING(N7*M7*(1+P7),500),2),ROUND(CEILING(N7*M7,500),2))</f>
         <v>115000</v>
       </c>
-      <c r="AN7" s="13">
-        <f t="shared" si="15"/>
-        <v>95041.32</v>
-      </c>
-      <c r="AO7" s="18">
-        <f t="shared" si="16"/>
-        <v>5.0021750000000003</v>
-      </c>
-      <c r="AP7" s="2"/>
+      <c r="AQ7" s="21">
+        <f t="shared" si="17"/>
+        <v>5.0021740000000001</v>
+      </c>
+      <c r="AR7" s="2"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44992</v>
       </c>
@@ -2256,7 +2306,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" ref="L8:L13" si="21">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <f t="shared" ref="L8:L13" si="19">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M8" s="4">
@@ -2266,7 +2316,7 @@
         <v>19000</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>190082.63099999999</v>
       </c>
       <c r="P8" s="11" t="s">
@@ -2280,12 +2330,12 @@
         <f>COUNTIFS($F$1:F8,F8,$K$1:K8,K8)+1</f>
         <v>2</v>
       </c>
-      <c r="V8" s="19" t="str">
-        <f t="shared" si="18"/>
+      <c r="V8" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ8="A",ROUND(O8/N8,6),ROUND(AB8/N8,6)),",",".")</f>
         <v>10.004349</v>
       </c>
-      <c r="W8" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="W8" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X8" s="1" t="str">
@@ -2301,24 +2351,24 @@
         <v>00/01/1900</v>
       </c>
       <c r="AA8" s="13">
+        <f>IF(AJ8="A",ROUND(O8*P8,2),ROUND(O8*P8/(1+P8),2))</f>
+        <v>39917.35</v>
+      </c>
+      <c r="AB8" s="13">
+        <f t="shared" si="14"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AC8" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>39917.35</v>
-      </c>
-      <c r="AB8" s="13">
-        <f t="shared" si="7"/>
-        <v>229999.981</v>
-      </c>
-      <c r="AC8" s="10" t="str">
-        <f t="shared" si="8"/>
         <v>190082.63</v>
       </c>
       <c r="AD8" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.02</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="AG8" s="15" t="str">
@@ -2326,37 +2376,45 @@
         <v>33615420269-1</v>
       </c>
       <c r="AH8" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL8" s="2"/>
       <c r="AM8" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AN8" s="13">
+        <f t="shared" si="11"/>
+        <v>190082.63</v>
+      </c>
+      <c r="AO8" s="21">
+        <f>IF(AJ8="A",ROUND(AN8/N8,6),AM8/N8)</f>
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AP8" s="13">
+        <f>IF(AJ8="A",ROUND(CEILING(N8*M8*(1+P8),500),2),ROUND(CEILING(N8*M8,500),2))</f>
         <v>230000</v>
       </c>
-      <c r="AN8" s="13">
-        <f t="shared" si="15"/>
-        <v>190082.64</v>
-      </c>
-      <c r="AO8" s="18">
-        <f t="shared" si="16"/>
+      <c r="AQ8" s="21">
+        <f t="shared" si="17"/>
         <v>10.004348999999999</v>
       </c>
-      <c r="AP8" s="2"/>
+      <c r="AR8" s="2"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44992</v>
       </c>
@@ -2394,7 +2452,7 @@
         <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M9" s="4">
@@ -2404,7 +2462,7 @@
         <v>19000</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>19421.477000000003</v>
       </c>
       <c r="P9" s="11" t="s">
@@ -2418,12 +2476,12 @@
         <f>COUNTIFS($F$1:F9,F9,$K$1:K9,K9)+1</f>
         <v>2</v>
       </c>
-      <c r="V9" s="19" t="str">
-        <f t="shared" si="18"/>
+      <c r="V9" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ9="A",ROUND(O9/N9,6),ROUND(AB9/N9,6)),",",".")</f>
         <v>1.022183</v>
       </c>
-      <c r="W9" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="W9" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X9" s="1" t="str">
@@ -2439,24 +2497,24 @@
         <v>00/01/1900</v>
       </c>
       <c r="AA9" s="13">
+        <f>IF(AJ9="A",ROUND(O9*P9,2),ROUND(O9*P9/(1+P9),2))</f>
+        <v>4078.51</v>
+      </c>
+      <c r="AB9" s="13">
+        <f t="shared" si="14"/>
+        <v>23499.99</v>
+      </c>
+      <c r="AC9" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>4078.51</v>
-      </c>
-      <c r="AB9" s="13">
-        <f t="shared" si="7"/>
-        <v>23499.987000000001</v>
-      </c>
-      <c r="AC9" s="10" t="str">
-        <f t="shared" si="8"/>
         <v>19421.48</v>
       </c>
       <c r="AD9" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.01</v>
       </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AG9" s="15" t="str">
@@ -2464,37 +2522,45 @@
         <v>20147130202-1</v>
       </c>
       <c r="AH9" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL9" s="2"/>
       <c r="AM9" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
+        <v>23499.99</v>
+      </c>
+      <c r="AN9" s="13">
+        <f t="shared" si="11"/>
+        <v>19421.48</v>
+      </c>
+      <c r="AO9" s="21">
+        <f>IF(AJ9="A",ROUND(AN9/N9,6),AM9/N9)</f>
+        <v>1.0221830000000001</v>
+      </c>
+      <c r="AP9" s="13">
+        <f>IF(AJ9="A",ROUND(CEILING(N9*M9*(1+P9),500),2),ROUND(CEILING(N9*M9,500),2))</f>
         <v>23500</v>
       </c>
-      <c r="AN9" s="13">
-        <f t="shared" si="15"/>
-        <v>19421.490000000002</v>
-      </c>
-      <c r="AO9" s="18">
-        <f t="shared" si="16"/>
-        <v>1.022184</v>
-      </c>
-      <c r="AP9" s="2"/>
+      <c r="AQ9" s="21">
+        <f t="shared" si="17"/>
+        <v>1.0221830000000001</v>
+      </c>
+      <c r="AR9" s="2"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44992</v>
       </c>
@@ -2532,7 +2598,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M10" s="4">
@@ -2542,7 +2608,7 @@
         <v>19000</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>19834.708000000002</v>
       </c>
       <c r="P10" s="11" t="s">
@@ -2556,12 +2622,12 @@
         <f>COUNTIFS($F$1:F10,F10,$K$1:K10,K10)+1</f>
         <v>2</v>
       </c>
-      <c r="V10" s="19" t="str">
-        <f t="shared" si="18"/>
+      <c r="V10" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ10="A",ROUND(O10/N10,6),ROUND(AB10/N10,6)),",",".")</f>
         <v>1.043932</v>
       </c>
-      <c r="W10" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="W10" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X10" s="1" t="str">
@@ -2577,24 +2643,24 @@
         <v>00/01/1900</v>
       </c>
       <c r="AA10" s="13">
+        <f>IF(AJ10="A",ROUND(O10*P10,2),ROUND(O10*P10/(1+P10),2))</f>
+        <v>4165.29</v>
+      </c>
+      <c r="AB10" s="13">
+        <f t="shared" si="14"/>
+        <v>24000</v>
+      </c>
+      <c r="AC10" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>4165.29</v>
-      </c>
-      <c r="AB10" s="13">
-        <f t="shared" si="7"/>
-        <v>23999.998000000003</v>
-      </c>
-      <c r="AC10" s="10" t="str">
-        <f t="shared" si="8"/>
         <v>19834.71</v>
       </c>
       <c r="AD10" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.00</v>
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AG10" s="15" t="str">
@@ -2602,37 +2668,45 @@
         <v>20374730429-1</v>
       </c>
       <c r="AH10" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL10" s="2"/>
       <c r="AM10" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>24000</v>
       </c>
       <c r="AN10" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>19834.71</v>
       </c>
-      <c r="AO10" s="18">
-        <f t="shared" si="16"/>
+      <c r="AO10" s="21">
+        <f>IF(AJ10="A",ROUND(AN10/N10,6),AM10/N10)</f>
         <v>1.0439320000000001</v>
       </c>
-      <c r="AP10" s="2"/>
+      <c r="AP10" s="13">
+        <f>IF(AJ10="A",ROUND(CEILING(N10*M10*(1+P10),500),2),ROUND(CEILING(N10*M10,500),2))</f>
+        <v>24000</v>
+      </c>
+      <c r="AQ10" s="21">
+        <f t="shared" si="17"/>
+        <v>1.0439320000000001</v>
+      </c>
+      <c r="AR10" s="2"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44992</v>
       </c>
@@ -2670,18 +2744,18 @@
         <v>56</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M11" s="4">
-        <v>1.033058</v>
+        <v>1.3</v>
       </c>
       <c r="N11" s="5">
         <v>10000</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="17"/>
-        <v>10330.58</v>
+        <f t="shared" si="12"/>
+        <v>13000</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>38</v>
@@ -2694,12 +2768,12 @@
         <f>COUNTIFS($F$1:F11,F11,$K$1:K11,K11)+1</f>
         <v>2</v>
       </c>
-      <c r="V11" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v>1.25</v>
-      </c>
-      <c r="W11" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="V11" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ11="A",ROUND(O11/N11,6),ROUND(AB11/N11,6)),",",".")</f>
+        <v>1.3</v>
+      </c>
+      <c r="W11" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>10000.00</v>
       </c>
       <c r="X11" s="1" t="str">
@@ -2715,24 +2789,24 @@
         <v>00/01/1900</v>
       </c>
       <c r="AA11" s="13">
+        <f>IF(AJ11="A",ROUND(O11*P11,2),ROUND(O11*P11/(1+P11),2))</f>
+        <v>2256.1999999999998</v>
+      </c>
+      <c r="AB11" s="13">
+        <f t="shared" si="14"/>
+        <v>13000</v>
+      </c>
+      <c r="AC11" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>2169.42</v>
-      </c>
-      <c r="AB11" s="13">
-        <f>O11+AA11</f>
-        <v>12500</v>
-      </c>
-      <c r="AC11" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>12500.00</v>
+        <v>13000.00</v>
       </c>
       <c r="AD11" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.00</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AG11" s="15" t="str">
@@ -2740,37 +2814,45 @@
         <v>37473042-1</v>
       </c>
       <c r="AH11" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AI11" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AI11" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>B</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL11" s="2"/>
       <c r="AM11" s="13">
-        <f>CEILING(N11*M11*(1+P11),500)</f>
+        <f t="shared" si="16"/>
         <v>13000</v>
       </c>
       <c r="AN11" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>10743.8</v>
       </c>
-      <c r="AO11" s="18">
-        <f>ROUND(AN11/N11,6)</f>
-        <v>1.0743799999999999</v>
-      </c>
-      <c r="AP11" s="2"/>
+      <c r="AO11" s="21">
+        <f>IF(AJ11="A",ROUND(AN11/N11,6),AM11/N11)</f>
+        <v>1.3</v>
+      </c>
+      <c r="AP11" s="13">
+        <f>IF(AJ11="A",ROUND(CEILING(N11*M11*(1+P11),500),2),ROUND(CEILING(N11*M11,500),2))</f>
+        <v>13000</v>
+      </c>
+      <c r="AQ11" s="21">
+        <f t="shared" si="17"/>
+        <v>1.3</v>
+      </c>
+      <c r="AR11" s="2"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>44992</v>
       </c>
@@ -2808,18 +2890,18 @@
         <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M12" s="4">
-        <v>1.000434</v>
+        <v>1.2105263157894737</v>
       </c>
       <c r="N12" s="5">
         <v>19000</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="17"/>
-        <v>19008.245999999999</v>
+        <f t="shared" si="12"/>
+        <v>23000</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>38</v>
@@ -2832,12 +2914,12 @@
         <f>COUNTIFS($F$1:F12,F12,$K$1:K12,K12)+1</f>
         <v>2</v>
       </c>
-      <c r="V12" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v>1.210525</v>
-      </c>
-      <c r="W12" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="V12" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ12="A",ROUND(O12/N12,6),ROUND(AB12/N12,6)),",",".")</f>
+        <v>1.210526</v>
+      </c>
+      <c r="W12" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X12" s="1" t="str">
@@ -2853,24 +2935,24 @@
         <v>00/01/1900</v>
       </c>
       <c r="AA12" s="13">
+        <f>IF(AJ12="A",ROUND(O12*P12,2),ROUND(O12*P12/(1+P12),2))</f>
+        <v>3991.74</v>
+      </c>
+      <c r="AB12" s="13">
+        <f t="shared" si="14"/>
+        <v>23000</v>
+      </c>
+      <c r="AC12" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>3991.73</v>
-      </c>
-      <c r="AB12" s="13">
-        <f t="shared" ref="AB12:AB17" si="22">O12+AA12</f>
-        <v>22999.975999999999</v>
-      </c>
-      <c r="AC12" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>22999.98</v>
+        <v>23000.00</v>
       </c>
       <c r="AD12" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>0.02</v>
+        <f t="shared" si="18"/>
+        <v>0.00</v>
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AG12" s="15" t="str">
@@ -2878,37 +2960,45 @@
         <v>30707354719-1</v>
       </c>
       <c r="AH12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>B</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="13">
-        <f t="shared" ref="AM12:AM13" si="23">CEILING(N12*M12*(1+P12),500)</f>
+        <f t="shared" si="16"/>
         <v>23000</v>
       </c>
       <c r="AN12" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>19008.259999999998</v>
       </c>
-      <c r="AO12" s="18">
-        <f t="shared" ref="AO12:AO17" si="24">ROUND(AN12/N12,6)</f>
-        <v>1.000435</v>
-      </c>
-      <c r="AP12" s="2"/>
+      <c r="AO12" s="21">
+        <f>IF(AJ12="A",ROUND(AN12/N12,6),AM12/N12)</f>
+        <v>1.2105263157894737</v>
+      </c>
+      <c r="AP12" s="13">
+        <f>IF(AJ12="A",ROUND(CEILING(N12*M12*(1+P12),500),2),ROUND(CEILING(N12*M12,500),2))</f>
+        <v>23000</v>
+      </c>
+      <c r="AQ12" s="21">
+        <f t="shared" si="17"/>
+        <v>1.2105263157894737</v>
+      </c>
+      <c r="AR12" s="2"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>44992</v>
       </c>
@@ -2944,18 +3034,18 @@
         <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>Honorarios Febrero</v>
       </c>
       <c r="M13" s="4">
-        <v>1.217921</v>
+        <v>1.5</v>
       </c>
       <c r="N13" s="5">
         <v>19000</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="17"/>
-        <v>23140.499</v>
+        <f t="shared" si="12"/>
+        <v>28500</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>38</v>
@@ -2968,12 +3058,12 @@
         <f>COUNTIFS($F$1:F13,F13,$K$1:K13,K13)+1</f>
         <v>2</v>
       </c>
-      <c r="V13" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v>1.473684</v>
-      </c>
-      <c r="W13" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="V13" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ13="A",ROUND(O13/N13,6),ROUND(AB13/N13,6)),",",".")</f>
+        <v>1.5</v>
+      </c>
+      <c r="W13" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X13" s="1" t="str">
@@ -2989,24 +3079,24 @@
         <v>00/01/1900</v>
       </c>
       <c r="AA13" s="13">
+        <f>IF(AJ13="A",ROUND(O13*P13,2),ROUND(O13*P13/(1+P13),2))</f>
+        <v>4946.28</v>
+      </c>
+      <c r="AB13" s="13">
+        <f t="shared" si="14"/>
+        <v>28500</v>
+      </c>
+      <c r="AC13" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>4859.5</v>
-      </c>
-      <c r="AB13" s="13">
-        <f t="shared" si="22"/>
-        <v>27999.999</v>
-      </c>
-      <c r="AC13" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>28000.00</v>
+        <v>28500.00</v>
       </c>
       <c r="AD13" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.00</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="AG13" s="15" t="str">
@@ -3014,37 +3104,45 @@
         <v>-0</v>
       </c>
       <c r="AH13" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>C</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="AN13" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>23553.72</v>
       </c>
-      <c r="AO13" s="18">
-        <f t="shared" si="24"/>
-        <v>1.2396689999999999</v>
-      </c>
-      <c r="AP13" s="2"/>
+      <c r="AO13" s="21">
+        <f>IF(AJ13="A",ROUND(AN13/N13,6),AM13/N13)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AP13" s="13">
+        <f>IF(AJ13="A",ROUND(CEILING(N13*M13*(1+P13),500),2),ROUND(CEILING(N13*M13,500),2))</f>
+        <v>28500</v>
+      </c>
+      <c r="AQ13" s="21">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR13" s="2"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>44992</v>
       </c>
@@ -3091,7 +3189,7 @@
         <v>19000</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>133471.06700000001</v>
       </c>
       <c r="P14" s="11" t="s">
@@ -3113,12 +3211,12 @@
         <f>COUNTIFS($F$1:F14,F14,$K$1:K14,K14)+1</f>
         <v>2</v>
       </c>
-      <c r="V14" s="19" t="str">
-        <f t="shared" si="18"/>
+      <c r="V14" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ14="A",ROUND(O14/N14,6),ROUND(AB14/N14,6)),",",".")</f>
         <v>7.024793</v>
       </c>
-      <c r="W14" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="W14" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X14" s="1" t="str">
@@ -3134,24 +3232,24 @@
         <v>12/09/2022</v>
       </c>
       <c r="AA14" s="13">
+        <f>IF(AJ14="A",ROUND(O14*P14,2),ROUND(O14*P14/(1+P14),2))</f>
+        <v>28028.92</v>
+      </c>
+      <c r="AB14" s="13">
+        <f t="shared" si="14"/>
+        <v>161499.99</v>
+      </c>
+      <c r="AC14" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>28028.92</v>
-      </c>
-      <c r="AB14" s="13">
-        <f t="shared" si="22"/>
-        <v>161499.98700000002</v>
-      </c>
-      <c r="AC14" s="10" t="str">
-        <f t="shared" si="8"/>
         <v>133471.07</v>
       </c>
       <c r="AD14" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.01</v>
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="AG14" s="15" t="str">
@@ -3159,37 +3257,45 @@
         <v>30684125792-1</v>
       </c>
       <c r="AH14" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL14" s="2"/>
       <c r="AM14" s="13">
-        <f t="shared" ref="AM12:AM17" si="25">IF(AJ14="A",CEILING(N14*M14*(1+P14),500),CEILING(N14*M14,500))</f>
+        <f t="shared" si="16"/>
+        <v>161499.99</v>
+      </c>
+      <c r="AN14" s="13">
+        <f t="shared" si="11"/>
+        <v>133471.07</v>
+      </c>
+      <c r="AO14" s="21">
+        <f>IF(AJ14="A",ROUND(AN14/N14,6),AM14/N14)</f>
+        <v>7.0247929999999998</v>
+      </c>
+      <c r="AP14" s="13">
+        <f>IF(AJ14="A",ROUND(CEILING(N14*M14*(1+P14),500),2),ROUND(CEILING(N14*M14,500),2))</f>
         <v>161500</v>
       </c>
-      <c r="AN14" s="13">
-        <f t="shared" si="15"/>
-        <v>133471.07</v>
-      </c>
-      <c r="AO14" s="18">
-        <f t="shared" si="24"/>
+      <c r="AQ14" s="21">
+        <f t="shared" si="17"/>
         <v>7.0247929999999998</v>
       </c>
-      <c r="AP14" s="2"/>
+      <c r="AR14" s="2"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>44992</v>
       </c>
@@ -3230,14 +3336,14 @@
         <v>64</v>
       </c>
       <c r="M15" s="4">
-        <v>1.217921</v>
+        <v>1.5</v>
       </c>
       <c r="N15" s="5">
         <v>19000</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="17"/>
-        <v>23140.499</v>
+        <f t="shared" si="12"/>
+        <v>28500</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>38</v>
@@ -3258,12 +3364,12 @@
         <f>COUNTIFS($F$1:F15,F15,$K$1:K15,K15)+1</f>
         <v>2</v>
       </c>
-      <c r="V15" s="19" t="str">
-        <f t="shared" si="18"/>
-        <v>1.473684</v>
-      </c>
-      <c r="W15" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="V15" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ15="A",ROUND(O15/N15,6),ROUND(AB15/N15,6)),",",".")</f>
+        <v>1.5</v>
+      </c>
+      <c r="W15" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X15" s="1" t="str">
@@ -3279,24 +3385,24 @@
         <v>12/09/2022</v>
       </c>
       <c r="AA15" s="13">
+        <f>IF(AJ15="A",ROUND(O15*P15,2),ROUND(O15*P15/(1+P15),2))</f>
+        <v>4946.28</v>
+      </c>
+      <c r="AB15" s="13">
+        <f t="shared" si="14"/>
+        <v>28500</v>
+      </c>
+      <c r="AC15" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>4859.5</v>
-      </c>
-      <c r="AB15" s="13">
-        <f t="shared" si="22"/>
-        <v>27999.999</v>
-      </c>
-      <c r="AC15" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>28000.00</v>
+        <v>28500.00</v>
       </c>
       <c r="AD15" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.00</v>
       </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="AG15" s="15" t="str">
@@ -3304,37 +3410,45 @@
         <v>30707354719-2</v>
       </c>
       <c r="AH15" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>B</v>
       </c>
       <c r="AK15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL15" s="2"/>
       <c r="AM15" s="13">
-        <f>CEILING(N15*M15*(1+P15),500)</f>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="AN15" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>23553.72</v>
       </c>
-      <c r="AO15" s="18">
-        <f t="shared" si="24"/>
-        <v>1.2396689999999999</v>
-      </c>
-      <c r="AP15" s="2"/>
+      <c r="AO15" s="21">
+        <f>IF(AJ15="A",ROUND(AN15/N15,6),AM15/N15)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AP15" s="13">
+        <f>IF(AJ15="A",ROUND(CEILING(N15*M15*(1+P15),500),2),ROUND(CEILING(N15*M15,500),2))</f>
+        <v>28500</v>
+      </c>
+      <c r="AQ15" s="21">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR15" s="2"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>44992</v>
       </c>
@@ -3381,7 +3495,7 @@
         <v>19000</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>133057.83600000001</v>
       </c>
       <c r="P16" s="11" t="s">
@@ -3403,12 +3517,12 @@
         <f>COUNTIFS($F$1:F16,F16,$K$1:K16,K16)+1</f>
         <v>2</v>
       </c>
-      <c r="V16" s="19" t="str">
-        <f t="shared" si="18"/>
+      <c r="V16" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ16="A",ROUND(O16/N16,6),ROUND(AB16/N16,6)),",",".")</f>
         <v>7.003044</v>
       </c>
-      <c r="W16" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="W16" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X16" s="1" t="str">
@@ -3424,24 +3538,24 @@
         <v>12/09/2022</v>
       </c>
       <c r="AA16" s="13">
+        <f>IF(AJ16="A",ROUND(O16*P16,2),ROUND(O16*P16/(1+P16),2))</f>
+        <v>27942.15</v>
+      </c>
+      <c r="AB16" s="13">
+        <f t="shared" si="14"/>
+        <v>160999.99</v>
+      </c>
+      <c r="AC16" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>27942.15</v>
-      </c>
-      <c r="AB16" s="13">
-        <f t="shared" si="22"/>
-        <v>160999.986</v>
-      </c>
-      <c r="AC16" s="10" t="str">
-        <f t="shared" si="8"/>
         <v>133057.84</v>
       </c>
       <c r="AD16" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.01</v>
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="AG16" s="15" t="str">
@@ -3449,37 +3563,45 @@
         <v>30684125792-2</v>
       </c>
       <c r="AH16" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
+        <v>160999.98000000001</v>
+      </c>
+      <c r="AN16" s="13">
+        <f t="shared" si="11"/>
+        <v>133057.82999999999</v>
+      </c>
+      <c r="AO16" s="21">
+        <f>IF(AJ16="A",ROUND(AN16/N16,6),AM16/N16)</f>
+        <v>7.003044</v>
+      </c>
+      <c r="AP16" s="13">
+        <f>IF(AJ16="A",ROUND(CEILING(N16*M16*(1+P16),500),2),ROUND(CEILING(N16*M16,500),2))</f>
         <v>161000</v>
       </c>
-      <c r="AN16" s="13">
-        <f t="shared" si="15"/>
-        <v>133057.85</v>
-      </c>
-      <c r="AO16" s="18">
-        <f t="shared" si="24"/>
-        <v>7.0030450000000002</v>
-      </c>
-      <c r="AP16" s="2"/>
+      <c r="AQ16" s="21">
+        <f t="shared" si="17"/>
+        <v>7.003044</v>
+      </c>
+      <c r="AR16" s="2"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>44992</v>
       </c>
@@ -3520,14 +3642,14 @@
         <v>64</v>
       </c>
       <c r="M17" s="4">
-        <v>1.2396689999999999</v>
+        <v>1.5</v>
       </c>
       <c r="N17" s="5">
         <v>19000</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="17"/>
-        <v>23553.710999999999</v>
+        <f t="shared" si="12"/>
+        <v>28500</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>38</v>
@@ -3548,12 +3670,12 @@
         <f>COUNTIFS($F$1:F17,F17,$K$1:K17,K17)+1</f>
         <v>2</v>
       </c>
-      <c r="V17" s="19" t="str">
-        <f t="shared" si="18"/>
+      <c r="V17" s="18" t="str">
+        <f>SUBSTITUTE(IF(AJ17="A",ROUND(O17/N17,6),ROUND(AB17/N17,6)),",",".")</f>
         <v>1.5</v>
       </c>
-      <c r="W17" s="19" t="str">
-        <f t="shared" si="19"/>
+      <c r="W17" s="18" t="str">
+        <f t="shared" si="13"/>
         <v>19000.00</v>
       </c>
       <c r="X17" s="1" t="str">
@@ -3569,24 +3691,24 @@
         <v>12/09/2022</v>
       </c>
       <c r="AA17" s="13">
+        <f>IF(AJ17="A",ROUND(O17*P17,2),ROUND(O17*P17/(1+P17),2))</f>
+        <v>4946.28</v>
+      </c>
+      <c r="AB17" s="13">
+        <f t="shared" si="14"/>
+        <v>28500</v>
+      </c>
+      <c r="AC17" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>4946.28</v>
-      </c>
-      <c r="AB17" s="13">
-        <f t="shared" si="22"/>
-        <v>28499.990999999998</v>
-      </c>
-      <c r="AC17" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>28499.99</v>
+        <v>28500.00</v>
       </c>
       <c r="AD17" s="10" t="str">
-        <f t="shared" si="20"/>
-        <v>0.01</v>
+        <f t="shared" si="18"/>
+        <v>0.00</v>
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="AG17" s="15" t="str">
@@ -3594,35 +3716,43 @@
         <v>37473042-2</v>
       </c>
       <c r="AH17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>B</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL17" s="2"/>
       <c r="AM17" s="13">
-        <f>CEILING(N17*M17*(1+P17),500)</f>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="AN17" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>23553.72</v>
       </c>
-      <c r="AO17" s="18">
-        <f t="shared" si="24"/>
-        <v>1.2396689999999999</v>
-      </c>
-      <c r="AP17" s="2"/>
+      <c r="AO17" s="21">
+        <f>IF(AJ17="A",ROUND(AN17/N17,6),AM17/N17)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AP17" s="13">
+        <f>IF(AJ17="A",ROUND(CEILING(N17*M17*(1+P17),500),2),ROUND(CEILING(N17*M17,500),2))</f>
+        <v>28500</v>
+      </c>
+      <c r="AQ17" s="21">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR17" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AP17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA17A7AD-B1CF-43D6-BDE7-301E4FF7C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A4A983-B810-488F-AA74-E7D42F96C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>Fecha</t>
   </si>
@@ -293,7 +293,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -825,7 +825,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -848,8 +848,7 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1214,10 +1213,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="AB5" sqref="AB5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,28 +1378,29 @@
       <c r="AP1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AR1" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>44992</v>
+        <f ca="1">TODAY()</f>
+        <v>45051</v>
       </c>
       <c r="B2" s="9" t="str">
-        <f t="shared" ref="B2:B17" si="0">TEXT(DATE(YEAR(C2),MONTH(C2),1),"dd/mm/aaaa")</f>
-        <v>01/02/2023</v>
+        <f t="shared" ref="B2:B17" ca="1" si="0">TEXT(DATE(YEAR(C2),MONTH(C2),1),"dd/mm/aaaa")</f>
+        <v>01/04/2023</v>
       </c>
       <c r="C2" s="9" t="str">
-        <f t="shared" ref="C2:C17" si="1">TEXT(EOMONTH(A2,-1),"dd/mm/aaaa")</f>
-        <v>28/02/2023</v>
+        <f t="shared" ref="C2:C17" ca="1" si="1">TEXT(EOMONTH(A2,-1),"dd/mm/aaaa")</f>
+        <v>30/04/2023</v>
       </c>
       <c r="D2" s="9" t="str">
-        <f t="shared" ref="D2:D17" si="2">TEXT(A2+14,"dd/mm/aaaa")</f>
-        <v>21/03/2023</v>
+        <f t="shared" ref="D2:D17" ca="1" si="2">TEXT(A2+14,"dd/mm/aaaa")</f>
+        <v>19/05/2023</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1448,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="V2" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ2="A",ROUND(O2/N2,6),ROUND(AB2/N2,6)),",",".")</f>
+        <f t="shared" ref="V2:V17" si="3">SUBSTITUTE(IF(AJ2="A",ROUND(O2/N2,6),ROUND(AB2/N2,6)),",",".")</f>
         <v>7.003044</v>
       </c>
       <c r="W2" s="18" t="str">
@@ -1456,19 +1456,19 @@
         <v>19000.00</v>
       </c>
       <c r="X2" s="1" t="str">
-        <f t="shared" ref="X2:X17" si="3">TEXT(R2,"00000")</f>
+        <f t="shared" ref="X2:X17" si="4">TEXT(R2,"00000")</f>
         <v>00000</v>
       </c>
       <c r="Y2" s="1" t="str">
-        <f t="shared" ref="Y2:Y17" si="4">TEXT(S2,"00000000")</f>
+        <f t="shared" ref="Y2:Y17" si="5">TEXT(S2,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="Z2" s="1" t="str">
-        <f t="shared" ref="Z2:Z17" si="5">TEXT(T2,"DD/MM/aaaa")</f>
+        <f t="shared" ref="Z2:Z17" si="6">TEXT(T2,"DD/MM/aaaa")</f>
         <v>00/01/1900</v>
       </c>
       <c r="AA2" s="13">
-        <f>IF(AJ2="A",ROUND(O2*P2,2),ROUND(O2*P2/(1+P2),2))</f>
+        <f t="shared" ref="AA2:AA17" si="7">IF(AJ2="A",ROUND(O2*P2,2),ROUND(O2*P2/(1+P2),2))</f>
         <v>27942.15</v>
       </c>
       <c r="AB2" s="13">
@@ -1476,7 +1476,7 @@
         <v>160999.99</v>
       </c>
       <c r="AC2" s="10" t="str">
-        <f t="shared" ref="AC2:AC17" si="6">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
+        <f t="shared" ref="AC2:AC17" si="8">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
       <c r="AD2" s="10" t="str">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF17" si="7">ROW(K2)</f>
+        <f t="shared" ref="AF2:AF17" si="9">ROW(K2)</f>
         <v>2</v>
       </c>
       <c r="AG2" s="15" t="str">
@@ -1493,15 +1493,15 @@
         <v>30525390086-1</v>
       </c>
       <c r="AH2" s="1">
-        <f t="shared" ref="AH2:AH17" si="8">IF(K1=K2,1,0)</f>
+        <f t="shared" ref="AH2:AH17" si="10">IF(K1=K2,1,0)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <f t="shared" ref="AI2:AI17" si="9">IF(K2=K3,1,0)</f>
+        <f t="shared" ref="AI2:AI17" si="11">IF(K2=K3,1,0)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="1" t="str">
-        <f t="shared" ref="AJ2:AJ17" si="10">RIGHT(F2)</f>
+        <f t="shared" ref="AJ2:AJ17" si="12">RIGHT(F2)</f>
         <v>A</v>
       </c>
       <c r="AK2" s="1">
@@ -1514,18 +1514,18 @@
         <v>160999.98000000001</v>
       </c>
       <c r="AN2" s="13">
-        <f t="shared" ref="AN2:AN17" si="11">ROUND((AM2/(1+P2)),2)</f>
+        <f t="shared" ref="AN2:AN17" si="13">ROUND((AM2/(1+P2)),2)</f>
         <v>133057.82999999999</v>
       </c>
-      <c r="AO2" s="21">
-        <f>IF(AJ2="A",ROUND(AN2/N2,6),AM2/N2)</f>
+      <c r="AO2" s="20">
+        <f t="shared" ref="AO2:AO17" si="14">IF(AJ2="A",ROUND(AN2/N2,6),AM2/N2)</f>
         <v>7.003044</v>
       </c>
       <c r="AP2" s="13">
-        <f>IF(AJ2="A",ROUND(CEILING(N2*M2*(1+P2),500),2),ROUND(CEILING(N2*M2,500),2))</f>
+        <f t="shared" ref="AP2:AP17" si="15">IF(AJ2="A",ROUND(CEILING(N2*M2*(1+P2),500),2),ROUND(CEILING(N2*M2,500),2))</f>
         <v>161000</v>
       </c>
-      <c r="AQ2" s="21">
+      <c r="AQ2" s="20">
         <f>IF(AJ2="A",ROUND(AN2/N2,6),AP2/N2)</f>
         <v>7.003044</v>
       </c>
@@ -1533,19 +1533,20 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>44992</v>
+        <f t="shared" ref="A3:A17" ca="1" si="16">TODAY()</f>
+        <v>45051</v>
       </c>
       <c r="B3" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1569,8 +1570,8 @@
         <v>50</v>
       </c>
       <c r="L3" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B3,"mmmm"))</f>
-        <v>Honorarios Febrero</v>
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(B3,"mmmm"))</f>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M3" s="4">
         <v>8.0252280000000003</v>
@@ -1579,7 +1580,7 @@
         <v>19000</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O17" si="12">M3*N3</f>
+        <f t="shared" ref="O3:O17" si="17">M3*N3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="P3" s="11" t="s">
@@ -1594,35 +1595,35 @@
         <v>2</v>
       </c>
       <c r="V3" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ3="A",ROUND(O3/N3,6),ROUND(AB3/N3,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>8.025228</v>
       </c>
       <c r="W3" s="18" t="str">
-        <f t="shared" ref="W3:W17" si="13">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
+        <f t="shared" ref="W3:W17" si="18">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="Y3" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Z3" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="AA3" s="13">
-        <f>IF(AJ3="A",ROUND(O3*P3,2),ROUND(O3*P3/(1+P3),2))</f>
+        <f t="shared" si="7"/>
         <v>32020.66</v>
       </c>
       <c r="AB3" s="13">
-        <f t="shared" ref="AB3:AB17" si="14">IF(AJ3="A",ROUND(O3+AA3,2),ROUND(O3,2))</f>
+        <f t="shared" ref="AB3:AB17" si="19">IF(AJ3="A",ROUND(O3+AA3,2),ROUND(O3,2))</f>
         <v>184499.99</v>
       </c>
       <c r="AC3" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>152479.33</v>
       </c>
       <c r="AD3" s="10" t="str">
@@ -1631,7 +1632,7 @@
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AG3" s="15" t="str">
@@ -1639,59 +1640,60 @@
         <v>30525733870-1</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ3" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" ref="AK2:AK17" si="15">IF(LEFT(F3,4)="Nota",0,1)</f>
+        <f t="shared" ref="AK3:AK17" si="20">IF(LEFT(F3,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AL3" s="2"/>
       <c r="AM3" s="13">
-        <f t="shared" ref="AM3:AM17" si="16">IF(RIGHT(F3,1)="A",ROUND(N3*M3*(1+P3),2),AB3)</f>
+        <f t="shared" ref="AM3:AM17" si="21">IF(RIGHT(F3,1)="A",ROUND(N3*M3*(1+P3),2),AB3)</f>
         <v>184499.99</v>
       </c>
       <c r="AN3" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>152479.32999999999</v>
       </c>
-      <c r="AO3" s="21">
-        <f>IF(AJ3="A",ROUND(AN3/N3,6),AM3/N3)</f>
+      <c r="AO3" s="20">
+        <f t="shared" si="14"/>
         <v>8.0252280000000003</v>
       </c>
       <c r="AP3" s="13">
-        <f>IF(AJ3="A",ROUND(CEILING(N3*M3*(1+P3),500),2),ROUND(CEILING(N3*M3,500),2))</f>
+        <f t="shared" si="15"/>
         <v>184500</v>
       </c>
-      <c r="AQ3" s="21">
-        <f t="shared" ref="AQ3:AQ17" si="17">IF(AJ3="A",ROUND(AN3/N3,6),AP3/N3)</f>
+      <c r="AQ3" s="20">
+        <f t="shared" ref="AQ3:AQ17" si="22">IF(AJ3="A",ROUND(AN3/N3,6),AP3/N3)</f>
         <v>8.0252280000000003</v>
       </c>
       <c r="AR3" s="2"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B4" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D4" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1715,8 +1717,8 @@
         <v>42</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B4,"mmmm"))</f>
-        <v>Honorarios Febrero</v>
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(B4,"mmmm"))</f>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M4" s="4">
         <v>10.004348999999999</v>
@@ -1725,7 +1727,7 @@
         <v>19000</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>190082.63099999999</v>
       </c>
       <c r="P4" s="11" t="s">
@@ -1740,35 +1742,35 @@
         <v>2</v>
       </c>
       <c r="V4" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ4="A",ROUND(O4/N4,6),ROUND(AB4/N4,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>10.004349</v>
       </c>
       <c r="W4" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X4" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="Y4" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Z4" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="AA4" s="13">
-        <f>IF(AJ4="A",ROUND(O4*P4,2),ROUND(O4*P4/(1+P4),2))</f>
+        <f t="shared" si="7"/>
         <v>39917.35</v>
       </c>
       <c r="AB4" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>229999.98</v>
       </c>
       <c r="AC4" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>190082.63</v>
       </c>
       <c r="AD4" s="10" t="str">
@@ -1777,7 +1779,7 @@
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AG4" s="15" t="str">
@@ -1785,59 +1787,60 @@
         <v>30610252334-1</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL4" s="2"/>
       <c r="AM4" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>229999.98</v>
       </c>
       <c r="AN4" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>190082.63</v>
       </c>
-      <c r="AO4" s="21">
-        <f>IF(AJ4="A",ROUND(AN4/N4,6),AM4/N4)</f>
+      <c r="AO4" s="20">
+        <f t="shared" si="14"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AP4" s="13">
-        <f>IF(AJ4="A",ROUND(CEILING(N4*M4*(1+P4),500),2),ROUND(CEILING(N4*M4,500),2))</f>
+        <f t="shared" si="15"/>
         <v>230000</v>
       </c>
-      <c r="AQ4" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ4" s="20">
+        <f t="shared" si="22"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AR4" s="2"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1861,8 +1864,8 @@
         <v>51</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B5,"mmmm"))</f>
-        <v>Honorarios Febrero</v>
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(B5,"mmmm"))</f>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M5" s="4">
         <v>9.0256629999999998</v>
@@ -1871,7 +1874,7 @@
         <v>19000</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>171487.59700000001</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -1886,35 +1889,35 @@
         <v>2</v>
       </c>
       <c r="V5" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ5="A",ROUND(O5/N5,6),ROUND(AB5/N5,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>9.025663</v>
       </c>
       <c r="W5" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X5" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="Y5" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Z5" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="AA5" s="13">
-        <f>IF(AJ5="A",ROUND(O5*P5,2),ROUND(O5*P5/(1+P5),2))</f>
+        <f t="shared" si="7"/>
         <v>36012.400000000001</v>
       </c>
       <c r="AB5" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>207500</v>
       </c>
       <c r="AC5" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>171487.60</v>
       </c>
       <c r="AD5" s="10" t="str">
@@ -1923,7 +1926,7 @@
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AG5" s="15" t="str">
@@ -1931,59 +1934,60 @@
         <v>30710964277-1</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ5" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL5" s="2"/>
       <c r="AM5" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>207499.99</v>
       </c>
       <c r="AN5" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>171487.6</v>
       </c>
-      <c r="AO5" s="21">
-        <f>IF(AJ5="A",ROUND(AN5/N5,6),AM5/N5)</f>
+      <c r="AO5" s="20">
+        <f t="shared" si="14"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AP5" s="13">
-        <f>IF(AJ5="A",ROUND(CEILING(N5*M5*(1+P5),500),2),ROUND(CEILING(N5*M5,500),2))</f>
+        <f t="shared" si="15"/>
         <v>207500</v>
       </c>
-      <c r="AQ5" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ5" s="20">
+        <f t="shared" si="22"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AR5" s="2"/>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2007,8 +2011,8 @@
         <v>37</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f>"Honorarios "&amp;PROPER(TEXT(B6,"mmmm"))</f>
-        <v>Honorarios Febrero</v>
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(B6,"mmmm"))</f>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M6" s="4">
         <v>5.0239229999999999</v>
@@ -2017,7 +2021,7 @@
         <v>19000</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>95454.536999999997</v>
       </c>
       <c r="P6" s="11" t="s">
@@ -2040,35 +2044,35 @@
         <v>2</v>
       </c>
       <c r="V6" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ6="A",ROUND(O6/N6,6),ROUND(AB6/N6,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>5.023923</v>
       </c>
       <c r="W6" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
       <c r="Y6" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000003</v>
       </c>
       <c r="Z6" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
       <c r="AA6" s="13">
-        <f>IF(AJ6="A",ROUND(O6*P6,2),ROUND(O6*P6/(1+P6),2))</f>
+        <f t="shared" si="7"/>
         <v>20045.45</v>
       </c>
       <c r="AB6" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>115499.99</v>
       </c>
       <c r="AC6" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>95454.54</v>
       </c>
       <c r="AD6" s="10" t="str">
@@ -2077,7 +2081,7 @@
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AG6" s="15" t="str">
@@ -2085,59 +2089,60 @@
         <v>33610006189-1</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AJ6" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL6" s="2"/>
       <c r="AM6" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>115499.99</v>
       </c>
       <c r="AN6" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>95454.54</v>
       </c>
-      <c r="AO6" s="21">
-        <f>IF(AJ6="A",ROUND(AN6/N6,6),AM6/N6)</f>
+      <c r="AO6" s="20">
+        <f t="shared" si="14"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AP6" s="13">
-        <f>IF(AJ6="A",ROUND(CEILING(N6*M6*(1+P6),500),2),ROUND(CEILING(N6*M6,500),2))</f>
+        <f t="shared" si="15"/>
         <v>115500</v>
       </c>
-      <c r="AQ6" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ6" s="20">
+        <f t="shared" si="22"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AR6" s="2"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D7" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2170,7 +2175,7 @@
         <v>19000</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>95041.305999999997</v>
       </c>
       <c r="P7" s="11" t="s">
@@ -2185,44 +2190,44 @@
         <v>3</v>
       </c>
       <c r="V7" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ7="A",ROUND(O7/N7,6),ROUND(AB7/N7,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>5.002174</v>
       </c>
       <c r="W7" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="Y7" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Z7" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="AA7" s="13">
-        <f>IF(AJ7="A",ROUND(O7*P7,2),ROUND(O7*P7/(1+P7),2))</f>
+        <f t="shared" si="7"/>
         <v>19958.669999999998</v>
       </c>
       <c r="AB7" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>114999.98</v>
       </c>
       <c r="AC7" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>95041.31</v>
       </c>
       <c r="AD7" s="10" t="str">
-        <f t="shared" ref="AD7:AD17" si="18">SUBSTITUTE(TEXT(ROUNDUP(AB7,0)-AB7,"0,00"),",",".")</f>
+        <f t="shared" ref="AD7:AD17" si="23">SUBSTITUTE(TEXT(ROUNDUP(AB7,0)-AB7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="AG7" s="15" t="str">
@@ -2230,59 +2235,60 @@
         <v>33610006189-2</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL7" s="2"/>
       <c r="AM7" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>114999.98</v>
       </c>
       <c r="AN7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>95041.31</v>
       </c>
-      <c r="AO7" s="21">
-        <f>IF(AJ7="A",ROUND(AN7/N7,6),AM7/N7)</f>
+      <c r="AO7" s="20">
+        <f t="shared" si="14"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AP7" s="13">
-        <f>IF(AJ7="A",ROUND(CEILING(N7*M7*(1+P7),500),2),ROUND(CEILING(N7*M7,500),2))</f>
+        <f t="shared" si="15"/>
         <v>115000</v>
       </c>
-      <c r="AQ7" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ7" s="20">
+        <f t="shared" si="22"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AR7" s="2"/>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D8" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2306,8 +2312,8 @@
         <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" ref="L8:L13" si="19">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
-        <v>Honorarios Febrero</v>
+        <f t="shared" ref="L8:L13" ca="1" si="24">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M8" s="4">
         <v>10.004348999999999</v>
@@ -2316,7 +2322,7 @@
         <v>19000</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>190082.63099999999</v>
       </c>
       <c r="P8" s="11" t="s">
@@ -2331,44 +2337,44 @@
         <v>2</v>
       </c>
       <c r="V8" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ8="A",ROUND(O8/N8,6),ROUND(AB8/N8,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>10.004349</v>
       </c>
       <c r="W8" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="Y8" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Z8" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="AA8" s="13">
-        <f>IF(AJ8="A",ROUND(O8*P8,2),ROUND(O8*P8/(1+P8),2))</f>
+        <f t="shared" si="7"/>
         <v>39917.35</v>
       </c>
       <c r="AB8" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>229999.98</v>
       </c>
       <c r="AC8" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>190082.63</v>
       </c>
       <c r="AD8" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.02</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AG8" s="15" t="str">
@@ -2376,59 +2382,60 @@
         <v>33615420269-1</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ8" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL8" s="2"/>
       <c r="AM8" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>229999.98</v>
       </c>
       <c r="AN8" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>190082.63</v>
       </c>
-      <c r="AO8" s="21">
-        <f>IF(AJ8="A",ROUND(AN8/N8,6),AM8/N8)</f>
+      <c r="AO8" s="20">
+        <f t="shared" si="14"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AP8" s="13">
-        <f>IF(AJ8="A",ROUND(CEILING(N8*M8*(1+P8),500),2),ROUND(CEILING(N8*M8,500),2))</f>
+        <f t="shared" si="15"/>
         <v>230000</v>
       </c>
-      <c r="AQ8" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ8" s="20">
+        <f t="shared" si="22"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AR8" s="2"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D9" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2452,8 +2459,8 @@
         <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Honorarios Febrero</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M9" s="4">
         <v>1.0221830000000001</v>
@@ -2462,7 +2469,7 @@
         <v>19000</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>19421.477000000003</v>
       </c>
       <c r="P9" s="11" t="s">
@@ -2477,44 +2484,44 @@
         <v>2</v>
       </c>
       <c r="V9" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ9="A",ROUND(O9/N9,6),ROUND(AB9/N9,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>1.022183</v>
       </c>
       <c r="W9" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X9" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="Y9" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Z9" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="AA9" s="13">
-        <f>IF(AJ9="A",ROUND(O9*P9,2),ROUND(O9*P9/(1+P9),2))</f>
+        <f t="shared" si="7"/>
         <v>4078.51</v>
       </c>
       <c r="AB9" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>23499.99</v>
       </c>
       <c r="AC9" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>19421.48</v>
       </c>
       <c r="AD9" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="AG9" s="15" t="str">
@@ -2522,59 +2529,60 @@
         <v>20147130202-1</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ9" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL9" s="2"/>
       <c r="AM9" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>23499.99</v>
       </c>
       <c r="AN9" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19421.48</v>
       </c>
-      <c r="AO9" s="21">
-        <f>IF(AJ9="A",ROUND(AN9/N9,6),AM9/N9)</f>
+      <c r="AO9" s="20">
+        <f t="shared" si="14"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AP9" s="13">
-        <f>IF(AJ9="A",ROUND(CEILING(N9*M9*(1+P9),500),2),ROUND(CEILING(N9*M9,500),2))</f>
+        <f t="shared" si="15"/>
         <v>23500</v>
       </c>
-      <c r="AQ9" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ9" s="20">
+        <f t="shared" si="22"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AR9" s="2"/>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D10" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2598,8 +2606,8 @@
         <v>56</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Honorarios Febrero</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M10" s="4">
         <v>1.0439320000000001</v>
@@ -2608,7 +2616,7 @@
         <v>19000</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>19834.708000000002</v>
       </c>
       <c r="P10" s="11" t="s">
@@ -2623,44 +2631,44 @@
         <v>2</v>
       </c>
       <c r="V10" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ10="A",ROUND(O10/N10,6),ROUND(AB10/N10,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>1.043932</v>
       </c>
       <c r="W10" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="Y10" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Z10" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="AA10" s="13">
-        <f>IF(AJ10="A",ROUND(O10*P10,2),ROUND(O10*P10/(1+P10),2))</f>
+        <f t="shared" si="7"/>
         <v>4165.29</v>
       </c>
       <c r="AB10" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>24000</v>
       </c>
       <c r="AC10" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>19834.71</v>
       </c>
       <c r="AD10" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="AG10" s="15" t="str">
@@ -2668,59 +2676,60 @@
         <v>20374730429-1</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AJ10" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL10" s="2"/>
       <c r="AM10" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>24000</v>
       </c>
       <c r="AN10" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19834.71</v>
       </c>
-      <c r="AO10" s="21">
-        <f>IF(AJ10="A",ROUND(AN10/N10,6),AM10/N10)</f>
+      <c r="AO10" s="20">
+        <f t="shared" si="14"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AP10" s="13">
-        <f>IF(AJ10="A",ROUND(CEILING(N10*M10*(1+P10),500),2),ROUND(CEILING(N10*M10,500),2))</f>
+        <f t="shared" si="15"/>
         <v>24000</v>
       </c>
-      <c r="AQ10" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ10" s="20">
+        <f t="shared" si="22"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AR10" s="2"/>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D11" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2744,8 +2753,8 @@
         <v>56</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Honorarios Febrero</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M11" s="4">
         <v>1.3</v>
@@ -2754,7 +2763,7 @@
         <v>10000</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>13000</v>
       </c>
       <c r="P11" s="11" t="s">
@@ -2769,44 +2778,44 @@
         <v>2</v>
       </c>
       <c r="V11" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ11="A",ROUND(O11/N11,6),ROUND(AB11/N11,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
       <c r="W11" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>10000.00</v>
       </c>
       <c r="X11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="Y11" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Z11" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="AA11" s="13">
-        <f>IF(AJ11="A",ROUND(O11*P11,2),ROUND(O11*P11/(1+P11),2))</f>
+        <f t="shared" si="7"/>
         <v>2256.1999999999998</v>
       </c>
       <c r="AB11" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>13000</v>
       </c>
       <c r="AC11" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13000.00</v>
       </c>
       <c r="AD11" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="AG11" s="15" t="str">
@@ -2814,59 +2823,60 @@
         <v>37473042-1</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>B</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL11" s="2"/>
       <c r="AM11" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>13000</v>
       </c>
       <c r="AN11" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10743.8</v>
       </c>
-      <c r="AO11" s="21">
-        <f>IF(AJ11="A",ROUND(AN11/N11,6),AM11/N11)</f>
+      <c r="AO11" s="20">
+        <f t="shared" si="14"/>
         <v>1.3</v>
       </c>
       <c r="AP11" s="13">
-        <f>IF(AJ11="A",ROUND(CEILING(N11*M11*(1+P11),500),2),ROUND(CEILING(N11*M11,500),2))</f>
+        <f t="shared" si="15"/>
         <v>13000</v>
       </c>
-      <c r="AQ11" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ11" s="20">
+        <f t="shared" si="22"/>
         <v>1.3</v>
       </c>
       <c r="AR11" s="2"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D12" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -2890,8 +2900,8 @@
         <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Honorarios Febrero</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M12" s="4">
         <v>1.2105263157894737</v>
@@ -2900,7 +2910,7 @@
         <v>19000</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>23000</v>
       </c>
       <c r="P12" s="11" t="s">
@@ -2915,44 +2925,44 @@
         <v>2</v>
       </c>
       <c r="V12" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ12="A",ROUND(O12/N12,6),ROUND(AB12/N12,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>1.210526</v>
       </c>
       <c r="W12" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="Y12" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Z12" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="AA12" s="13">
-        <f>IF(AJ12="A",ROUND(O12*P12,2),ROUND(O12*P12/(1+P12),2))</f>
+        <f t="shared" si="7"/>
         <v>3991.74</v>
       </c>
       <c r="AB12" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>23000</v>
       </c>
       <c r="AC12" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23000.00</v>
       </c>
       <c r="AD12" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="AG12" s="15" t="str">
@@ -2960,59 +2970,60 @@
         <v>30707354719-1</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>B</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>23000</v>
       </c>
       <c r="AN12" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19008.259999999998</v>
       </c>
-      <c r="AO12" s="21">
-        <f>IF(AJ12="A",ROUND(AN12/N12,6),AM12/N12)</f>
+      <c r="AO12" s="20">
+        <f t="shared" si="14"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AP12" s="13">
-        <f>IF(AJ12="A",ROUND(CEILING(N12*M12*(1+P12),500),2),ROUND(CEILING(N12*M12,500),2))</f>
+        <f t="shared" si="15"/>
         <v>23000</v>
       </c>
-      <c r="AQ12" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ12" s="20">
+        <f t="shared" si="22"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AR12" s="2"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D13" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3034,8 +3045,8 @@
         <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Honorarios Febrero</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>Honorarios Abril</v>
       </c>
       <c r="M13" s="4">
         <v>1.5</v>
@@ -3044,12 +3055,10 @@
         <v>19000</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>28500</v>
       </c>
-      <c r="P13" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -3059,44 +3068,44 @@
         <v>2</v>
       </c>
       <c r="V13" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ13="A",ROUND(O13/N13,6),ROUND(AB13/N13,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="W13" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X13" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="Y13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="Z13" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00/01/1900</v>
       </c>
       <c r="AA13" s="13">
-        <f>IF(AJ13="A",ROUND(O13*P13,2),ROUND(O13*P13/(1+P13),2))</f>
-        <v>4946.28</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AB13" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>28500</v>
       </c>
       <c r="AC13" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28500.00</v>
       </c>
       <c r="AD13" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="AG13" s="15" t="str">
@@ -3104,59 +3113,60 @@
         <v>-0</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>C</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>28500</v>
       </c>
       <c r="AN13" s="13">
-        <f t="shared" si="11"/>
-        <v>23553.72</v>
-      </c>
-      <c r="AO13" s="21">
-        <f>IF(AJ13="A",ROUND(AN13/N13,6),AM13/N13)</f>
+        <f t="shared" si="13"/>
+        <v>28500</v>
+      </c>
+      <c r="AO13" s="20">
+        <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
       <c r="AP13" s="13">
-        <f>IF(AJ13="A",ROUND(CEILING(N13*M13*(1+P13),500),2),ROUND(CEILING(N13*M13,500),2))</f>
+        <f t="shared" si="15"/>
         <v>28500</v>
       </c>
-      <c r="AQ13" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ13" s="20">
+        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
       <c r="AR13" s="2"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D14" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3189,7 +3199,7 @@
         <v>19000</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>133471.06700000001</v>
       </c>
       <c r="P14" s="11" t="s">
@@ -3212,44 +3222,44 @@
         <v>2</v>
       </c>
       <c r="V14" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ14="A",ROUND(O14/N14,6),ROUND(AB14/N14,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>7.024793</v>
       </c>
       <c r="W14" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X14" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
       <c r="Y14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000150</v>
       </c>
       <c r="Z14" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
       <c r="AA14" s="13">
-        <f>IF(AJ14="A",ROUND(O14*P14,2),ROUND(O14*P14/(1+P14),2))</f>
+        <f t="shared" si="7"/>
         <v>28028.92</v>
       </c>
       <c r="AB14" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>161499.99</v>
       </c>
       <c r="AC14" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>133471.07</v>
       </c>
       <c r="AD14" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="AG14" s="15" t="str">
@@ -3257,59 +3267,60 @@
         <v>30684125792-1</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL14" s="2"/>
       <c r="AM14" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>161499.99</v>
       </c>
       <c r="AN14" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>133471.07</v>
       </c>
-      <c r="AO14" s="21">
-        <f>IF(AJ14="A",ROUND(AN14/N14,6),AM14/N14)</f>
+      <c r="AO14" s="20">
+        <f t="shared" si="14"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AP14" s="13">
-        <f>IF(AJ14="A",ROUND(CEILING(N14*M14*(1+P14),500),2),ROUND(CEILING(N14*M14,500),2))</f>
+        <f t="shared" si="15"/>
         <v>161500</v>
       </c>
-      <c r="AQ14" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ14" s="20">
+        <f t="shared" si="22"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AR14" s="2"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D15" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -3342,7 +3353,7 @@
         <v>19000</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>28500</v>
       </c>
       <c r="P15" s="11" t="s">
@@ -3365,44 +3376,44 @@
         <v>2</v>
       </c>
       <c r="V15" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ15="A",ROUND(O15/N15,6),ROUND(AB15/N15,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="W15" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X15" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
       <c r="Y15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000152</v>
       </c>
       <c r="Z15" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
       <c r="AA15" s="13">
-        <f>IF(AJ15="A",ROUND(O15*P15,2),ROUND(O15*P15/(1+P15),2))</f>
+        <f t="shared" si="7"/>
         <v>4946.28</v>
       </c>
       <c r="AB15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>28500</v>
       </c>
       <c r="AC15" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28500.00</v>
       </c>
       <c r="AD15" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="AG15" s="15" t="str">
@@ -3410,59 +3421,60 @@
         <v>30707354719-2</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>B</v>
       </c>
       <c r="AK15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL15" s="2"/>
       <c r="AM15" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>28500</v>
       </c>
       <c r="AN15" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>23553.72</v>
       </c>
-      <c r="AO15" s="21">
-        <f>IF(AJ15="A",ROUND(AN15/N15,6),AM15/N15)</f>
+      <c r="AO15" s="20">
+        <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
       <c r="AP15" s="13">
-        <f>IF(AJ15="A",ROUND(CEILING(N15*M15*(1+P15),500),2),ROUND(CEILING(N15*M15,500),2))</f>
+        <f t="shared" si="15"/>
         <v>28500</v>
       </c>
-      <c r="AQ15" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ15" s="20">
+        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
       <c r="AR15" s="2"/>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D16" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -3495,7 +3507,7 @@
         <v>19000</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>133057.83600000001</v>
       </c>
       <c r="P16" s="11" t="s">
@@ -3518,44 +3530,44 @@
         <v>2</v>
       </c>
       <c r="V16" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ16="A",ROUND(O16/N16,6),ROUND(AB16/N16,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>7.003044</v>
       </c>
       <c r="W16" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
       <c r="Y16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000151</v>
       </c>
       <c r="Z16" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
       <c r="AA16" s="13">
-        <f>IF(AJ16="A",ROUND(O16*P16,2),ROUND(O16*P16/(1+P16),2))</f>
+        <f t="shared" si="7"/>
         <v>27942.15</v>
       </c>
       <c r="AB16" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>160999.99</v>
       </c>
       <c r="AC16" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>133057.84</v>
       </c>
       <c r="AD16" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AG16" s="15" t="str">
@@ -3563,59 +3575,60 @@
         <v>30684125792-2</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>A</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>160999.98000000001</v>
       </c>
       <c r="AN16" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>133057.82999999999</v>
       </c>
-      <c r="AO16" s="21">
-        <f>IF(AJ16="A",ROUND(AN16/N16,6),AM16/N16)</f>
+      <c r="AO16" s="20">
+        <f t="shared" si="14"/>
         <v>7.003044</v>
       </c>
       <c r="AP16" s="13">
-        <f>IF(AJ16="A",ROUND(CEILING(N16*M16*(1+P16),500),2),ROUND(CEILING(N16*M16,500),2))</f>
+        <f t="shared" si="15"/>
         <v>161000</v>
       </c>
-      <c r="AQ16" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ16" s="20">
+        <f t="shared" si="22"/>
         <v>7.003044</v>
       </c>
       <c r="AR16" s="2"/>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>44992</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45051</v>
       </c>
       <c r="B17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>01/02/2023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>01/04/2023</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>28/02/2023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30/04/2023</v>
       </c>
       <c r="D17" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>21/03/2023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19/05/2023</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -3648,7 +3661,7 @@
         <v>19000</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>28500</v>
       </c>
       <c r="P17" s="11" t="s">
@@ -3671,44 +3684,44 @@
         <v>2</v>
       </c>
       <c r="V17" s="18" t="str">
-        <f>SUBSTITUTE(IF(AJ17="A",ROUND(O17/N17,6),ROUND(AB17/N17,6)),",",".")</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="W17" s="18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19000.00</v>
       </c>
       <c r="X17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
       <c r="Y17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000153</v>
       </c>
       <c r="Z17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12/09/2022</v>
       </c>
       <c r="AA17" s="13">
-        <f>IF(AJ17="A",ROUND(O17*P17,2),ROUND(O17*P17/(1+P17),2))</f>
+        <f t="shared" si="7"/>
         <v>4946.28</v>
       </c>
       <c r="AB17" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>28500</v>
       </c>
       <c r="AC17" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28500.00</v>
       </c>
       <c r="AD17" s="10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="AG17" s="15" t="str">
@@ -3716,40 +3729,40 @@
         <v>37473042-2</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>B</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL17" s="2"/>
       <c r="AM17" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>28500</v>
       </c>
       <c r="AN17" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>23553.72</v>
       </c>
-      <c r="AO17" s="21">
-        <f>IF(AJ17="A",ROUND(AN17/N17,6),AM17/N17)</f>
+      <c r="AO17" s="20">
+        <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
       <c r="AP17" s="13">
-        <f>IF(AJ17="A",ROUND(CEILING(N17*M17*(1+P17),500),2),ROUND(CEILING(N17*M17,500),2))</f>
+        <f t="shared" si="15"/>
         <v>28500</v>
       </c>
-      <c r="AQ17" s="21">
-        <f t="shared" si="17"/>
+      <c r="AQ17" s="20">
+        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
       <c r="AR17" s="2"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A4A983-B810-488F-AA74-E7D42F96C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F125AA-A088-410B-AF07-0CF7BA2AF390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,7 +1216,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,19 +1388,19 @@
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45051</v>
+        <v>45084</v>
       </c>
       <c r="B2" s="9" t="str">
         <f t="shared" ref="B2:B17" ca="1" si="0">TEXT(DATE(YEAR(C2),MONTH(C2),1),"dd/mm/aaaa")</f>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C2" s="9" t="str">
         <f t="shared" ref="C2:C17" ca="1" si="1">TEXT(EOMONTH(A2,-1),"dd/mm/aaaa")</f>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D2" s="9" t="str">
         <f t="shared" ref="D2:D17" ca="1" si="2">TEXT(A2+14,"dd/mm/aaaa")</f>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1505,7 +1505,7 @@
         <v>A</v>
       </c>
       <c r="AK2" s="1">
-        <f>IF(LEFT(F2,4)="Nota",0,1)</f>
+        <f t="shared" ref="AK2:AK17" si="13">IF(LEFT(F2,4)="Nota",0,IF(LEFT(F2,6)="Recibo",2,1))</f>
         <v>1</v>
       </c>
       <c r="AL2" s="2"/>
@@ -1514,15 +1514,15 @@
         <v>160999.98000000001</v>
       </c>
       <c r="AN2" s="13">
-        <f t="shared" ref="AN2:AN17" si="13">ROUND((AM2/(1+P2)),2)</f>
+        <f t="shared" ref="AN2:AN17" si="14">ROUND((AM2/(1+P2)),2)</f>
         <v>133057.82999999999</v>
       </c>
       <c r="AO2" s="20">
-        <f t="shared" ref="AO2:AO17" si="14">IF(AJ2="A",ROUND(AN2/N2,6),AM2/N2)</f>
+        <f t="shared" ref="AO2:AO17" si="15">IF(AJ2="A",ROUND(AN2/N2,6),AM2/N2)</f>
         <v>7.003044</v>
       </c>
       <c r="AP2" s="13">
-        <f t="shared" ref="AP2:AP17" si="15">IF(AJ2="A",ROUND(CEILING(N2*M2*(1+P2),500),2),ROUND(CEILING(N2*M2,500),2))</f>
+        <f t="shared" ref="AP2:AP17" si="16">IF(AJ2="A",ROUND(CEILING(N2*M2*(1+P2),500),2),ROUND(CEILING(N2*M2,500),2))</f>
         <v>161000</v>
       </c>
       <c r="AQ2" s="20">
@@ -1533,20 +1533,20 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A17" ca="1" si="16">TODAY()</f>
-        <v>45051</v>
+        <f t="shared" ref="A3:A17" ca="1" si="17">TODAY()</f>
+        <v>45084</v>
       </c>
       <c r="B3" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C3" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D3" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="L3" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B3,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M3" s="4">
         <v>8.0252280000000003</v>
@@ -1580,7 +1580,7 @@
         <v>19000</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O17" si="17">M3*N3</f>
+        <f t="shared" ref="O3:O17" si="18">M3*N3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="P3" s="11" t="s">
@@ -1599,7 +1599,7 @@
         <v>8.025228</v>
       </c>
       <c r="W3" s="18" t="str">
-        <f t="shared" ref="W3:W17" si="18">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
+        <f t="shared" ref="W3:W17" si="19">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="X3" s="1" t="str">
@@ -1619,7 +1619,7 @@
         <v>32020.66</v>
       </c>
       <c r="AB3" s="13">
-        <f t="shared" ref="AB3:AB17" si="19">IF(AJ3="A",ROUND(O3+AA3,2),ROUND(O3,2))</f>
+        <f t="shared" ref="AB3:AB17" si="20">IF(AJ3="A",ROUND(O3+AA3,2),ROUND(O3,2))</f>
         <v>184499.99</v>
       </c>
       <c r="AC3" s="10" t="str">
@@ -1652,7 +1652,7 @@
         <v>A</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" ref="AK3:AK17" si="20">IF(LEFT(F3,4)="Nota",0,1)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL3" s="2"/>
@@ -1661,15 +1661,15 @@
         <v>184499.99</v>
       </c>
       <c r="AN3" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>152479.32999999999</v>
       </c>
       <c r="AO3" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.0252280000000003</v>
       </c>
       <c r="AP3" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>184500</v>
       </c>
       <c r="AQ3" s="20">
@@ -1680,20 +1680,20 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B4" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C4" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D4" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="L4" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B4,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M4" s="4">
         <v>10.004348999999999</v>
@@ -1727,7 +1727,7 @@
         <v>19000</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>190082.63099999999</v>
       </c>
       <c r="P4" s="11" t="s">
@@ -1746,7 +1746,7 @@
         <v>10.004349</v>
       </c>
       <c r="W4" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X4" s="1" t="str">
@@ -1766,7 +1766,7 @@
         <v>39917.35</v>
       </c>
       <c r="AB4" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>229999.98</v>
       </c>
       <c r="AC4" s="10" t="str">
@@ -1799,7 +1799,7 @@
         <v>A</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL4" s="2"/>
@@ -1808,15 +1808,15 @@
         <v>229999.98</v>
       </c>
       <c r="AN4" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>190082.63</v>
       </c>
       <c r="AO4" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AP4" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>230000</v>
       </c>
       <c r="AQ4" s="20">
@@ -1827,20 +1827,20 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B5" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C5" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D5" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="L5" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B5,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M5" s="4">
         <v>9.0256629999999998</v>
@@ -1874,7 +1874,7 @@
         <v>19000</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>171487.59700000001</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -1893,7 +1893,7 @@
         <v>9.025663</v>
       </c>
       <c r="W5" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X5" s="1" t="str">
@@ -1913,7 +1913,7 @@
         <v>36012.400000000001</v>
       </c>
       <c r="AB5" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>207500</v>
       </c>
       <c r="AC5" s="10" t="str">
@@ -1946,7 +1946,7 @@
         <v>A</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL5" s="2"/>
@@ -1955,15 +1955,15 @@
         <v>207499.99</v>
       </c>
       <c r="AN5" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>171487.6</v>
       </c>
       <c r="AO5" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AP5" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>207500</v>
       </c>
       <c r="AQ5" s="20">
@@ -1974,20 +1974,20 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B6" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C6" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="L6" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B6,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M6" s="4">
         <v>5.0239229999999999</v>
@@ -2021,7 +2021,7 @@
         <v>19000</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>95454.536999999997</v>
       </c>
       <c r="P6" s="11" t="s">
@@ -2048,7 +2048,7 @@
         <v>5.023923</v>
       </c>
       <c r="W6" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X6" s="1" t="str">
@@ -2068,7 +2068,7 @@
         <v>20045.45</v>
       </c>
       <c r="AB6" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>115499.99</v>
       </c>
       <c r="AC6" s="10" t="str">
@@ -2101,7 +2101,7 @@
         <v>A</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL6" s="2"/>
@@ -2110,15 +2110,15 @@
         <v>115499.99</v>
       </c>
       <c r="AN6" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>95454.54</v>
       </c>
       <c r="AO6" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AP6" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>115500</v>
       </c>
       <c r="AQ6" s="20">
@@ -2129,20 +2129,20 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C7" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2175,7 +2175,7 @@
         <v>19000</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>95041.305999999997</v>
       </c>
       <c r="P7" s="11" t="s">
@@ -2194,7 +2194,7 @@
         <v>5.002174</v>
       </c>
       <c r="W7" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X7" s="1" t="str">
@@ -2214,7 +2214,7 @@
         <v>19958.669999999998</v>
       </c>
       <c r="AB7" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>114999.98</v>
       </c>
       <c r="AC7" s="10" t="str">
@@ -2247,7 +2247,7 @@
         <v>A</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL7" s="2"/>
@@ -2256,15 +2256,15 @@
         <v>114999.98</v>
       </c>
       <c r="AN7" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>95041.31</v>
       </c>
       <c r="AO7" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AP7" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>115000</v>
       </c>
       <c r="AQ7" s="20">
@@ -2275,20 +2275,20 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B8" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C8" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" ref="L8:L13" ca="1" si="24">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M8" s="4">
         <v>10.004348999999999</v>
@@ -2322,7 +2322,7 @@
         <v>19000</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>190082.63099999999</v>
       </c>
       <c r="P8" s="11" t="s">
@@ -2341,7 +2341,7 @@
         <v>10.004349</v>
       </c>
       <c r="W8" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X8" s="1" t="str">
@@ -2361,7 +2361,7 @@
         <v>39917.35</v>
       </c>
       <c r="AB8" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>229999.98</v>
       </c>
       <c r="AC8" s="10" t="str">
@@ -2394,7 +2394,7 @@
         <v>A</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL8" s="2"/>
@@ -2403,15 +2403,15 @@
         <v>229999.98</v>
       </c>
       <c r="AN8" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>190082.63</v>
       </c>
       <c r="AO8" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AP8" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>230000</v>
       </c>
       <c r="AQ8" s="20">
@@ -2422,20 +2422,20 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B9" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C9" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D9" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M9" s="4">
         <v>1.0221830000000001</v>
@@ -2469,7 +2469,7 @@
         <v>19000</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19421.477000000003</v>
       </c>
       <c r="P9" s="11" t="s">
@@ -2488,7 +2488,7 @@
         <v>1.022183</v>
       </c>
       <c r="W9" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X9" s="1" t="str">
@@ -2508,7 +2508,7 @@
         <v>4078.51</v>
       </c>
       <c r="AB9" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23499.99</v>
       </c>
       <c r="AC9" s="10" t="str">
@@ -2541,7 +2541,7 @@
         <v>A</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL9" s="2"/>
@@ -2550,15 +2550,15 @@
         <v>23499.99</v>
       </c>
       <c r="AN9" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19421.48</v>
       </c>
       <c r="AO9" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AP9" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23500</v>
       </c>
       <c r="AQ9" s="20">
@@ -2569,20 +2569,20 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B10" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C10" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M10" s="4">
         <v>1.0439320000000001</v>
@@ -2616,7 +2616,7 @@
         <v>19000</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19834.708000000002</v>
       </c>
       <c r="P10" s="11" t="s">
@@ -2635,7 +2635,7 @@
         <v>1.043932</v>
       </c>
       <c r="W10" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X10" s="1" t="str">
@@ -2655,7 +2655,7 @@
         <v>4165.29</v>
       </c>
       <c r="AB10" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>24000</v>
       </c>
       <c r="AC10" s="10" t="str">
@@ -2688,7 +2688,7 @@
         <v>A</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL10" s="2"/>
@@ -2697,15 +2697,15 @@
         <v>24000</v>
       </c>
       <c r="AN10" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19834.71</v>
       </c>
       <c r="AO10" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AP10" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24000</v>
       </c>
       <c r="AQ10" s="20">
@@ -2716,20 +2716,20 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B11" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C11" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D11" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M11" s="4">
         <v>1.3</v>
@@ -2763,7 +2763,7 @@
         <v>10000</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13000</v>
       </c>
       <c r="P11" s="11" t="s">
@@ -2782,7 +2782,7 @@
         <v>1.3</v>
       </c>
       <c r="W11" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10000.00</v>
       </c>
       <c r="X11" s="1" t="str">
@@ -2802,7 +2802,7 @@
         <v>2256.1999999999998</v>
       </c>
       <c r="AB11" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>13000</v>
       </c>
       <c r="AC11" s="10" t="str">
@@ -2835,7 +2835,7 @@
         <v>B</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL11" s="2"/>
@@ -2844,15 +2844,15 @@
         <v>13000</v>
       </c>
       <c r="AN11" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10743.8</v>
       </c>
       <c r="AO11" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.3</v>
       </c>
       <c r="AP11" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13000</v>
       </c>
       <c r="AQ11" s="20">
@@ -2863,20 +2863,20 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B12" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C12" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D12" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M12" s="4">
         <v>1.2105263157894737</v>
@@ -2910,7 +2910,7 @@
         <v>19000</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23000</v>
       </c>
       <c r="P12" s="11" t="s">
@@ -2929,7 +2929,7 @@
         <v>1.210526</v>
       </c>
       <c r="W12" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X12" s="1" t="str">
@@ -2949,7 +2949,7 @@
         <v>3991.74</v>
       </c>
       <c r="AB12" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23000</v>
       </c>
       <c r="AC12" s="10" t="str">
@@ -2982,7 +2982,7 @@
         <v>B</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL12" s="2"/>
@@ -2991,15 +2991,15 @@
         <v>23000</v>
       </c>
       <c r="AN12" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19008.259999999998</v>
       </c>
       <c r="AO12" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AP12" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23000</v>
       </c>
       <c r="AQ12" s="20">
@@ -3010,20 +3010,20 @@
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B13" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C13" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D13" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M13" s="4">
         <v>1.5</v>
@@ -3055,7 +3055,7 @@
         <v>19000</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28500</v>
       </c>
       <c r="P13" s="11"/>
@@ -3072,7 +3072,7 @@
         <v>1.5</v>
       </c>
       <c r="W13" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X13" s="1" t="str">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28500</v>
       </c>
       <c r="AC13" s="10" t="str">
@@ -3125,7 +3125,7 @@
         <v>C</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AL13" s="2"/>
@@ -3134,15 +3134,15 @@
         <v>28500</v>
       </c>
       <c r="AN13" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28500</v>
       </c>
       <c r="AO13" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="AP13" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="AQ13" s="20">
@@ -3153,20 +3153,20 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B14" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C14" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D14" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3199,7 +3199,7 @@
         <v>19000</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>133471.06700000001</v>
       </c>
       <c r="P14" s="11" t="s">
@@ -3226,7 +3226,7 @@
         <v>7.024793</v>
       </c>
       <c r="W14" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X14" s="1" t="str">
@@ -3246,7 +3246,7 @@
         <v>28028.92</v>
       </c>
       <c r="AB14" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>161499.99</v>
       </c>
       <c r="AC14" s="10" t="str">
@@ -3279,7 +3279,7 @@
         <v>A</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL14" s="2"/>
@@ -3288,15 +3288,15 @@
         <v>161499.99</v>
       </c>
       <c r="AN14" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>133471.07</v>
       </c>
       <c r="AO14" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AP14" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>161500</v>
       </c>
       <c r="AQ14" s="20">
@@ -3307,20 +3307,20 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B15" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C15" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D15" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -3353,7 +3353,7 @@
         <v>19000</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28500</v>
       </c>
       <c r="P15" s="11" t="s">
@@ -3380,7 +3380,7 @@
         <v>1.5</v>
       </c>
       <c r="W15" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X15" s="1" t="str">
@@ -3400,7 +3400,7 @@
         <v>4946.28</v>
       </c>
       <c r="AB15" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28500</v>
       </c>
       <c r="AC15" s="10" t="str">
@@ -3433,7 +3433,7 @@
         <v>B</v>
       </c>
       <c r="AK15" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL15" s="2"/>
@@ -3442,15 +3442,15 @@
         <v>28500</v>
       </c>
       <c r="AN15" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23553.72</v>
       </c>
       <c r="AO15" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="AP15" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="AQ15" s="20">
@@ -3461,20 +3461,20 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B16" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C16" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D16" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -3507,7 +3507,7 @@
         <v>19000</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>133057.83600000001</v>
       </c>
       <c r="P16" s="11" t="s">
@@ -3534,7 +3534,7 @@
         <v>7.003044</v>
       </c>
       <c r="W16" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X16" s="1" t="str">
@@ -3554,7 +3554,7 @@
         <v>27942.15</v>
       </c>
       <c r="AB16" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>160999.99</v>
       </c>
       <c r="AC16" s="10" t="str">
@@ -3587,7 +3587,7 @@
         <v>A</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL16" s="2"/>
@@ -3596,15 +3596,15 @@
         <v>160999.98000000001</v>
       </c>
       <c r="AN16" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>133057.82999999999</v>
       </c>
       <c r="AO16" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.003044</v>
       </c>
       <c r="AP16" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>161000</v>
       </c>
       <c r="AQ16" s="20">
@@ -3615,20 +3615,20 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45084</v>
       </c>
       <c r="B17" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
+        <v>01/05/2023</v>
       </c>
       <c r="C17" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
+        <v>31/05/2023</v>
       </c>
       <c r="D17" s="9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <v>21/06/2023</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -3661,7 +3661,7 @@
         <v>19000</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28500</v>
       </c>
       <c r="P17" s="11" t="s">
@@ -3688,7 +3688,7 @@
         <v>1.5</v>
       </c>
       <c r="W17" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19000.00</v>
       </c>
       <c r="X17" s="1" t="str">
@@ -3708,7 +3708,7 @@
         <v>4946.28</v>
       </c>
       <c r="AB17" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28500</v>
       </c>
       <c r="AC17" s="10" t="str">
@@ -3741,7 +3741,7 @@
         <v>B</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL17" s="2"/>
@@ -3750,15 +3750,15 @@
         <v>28500</v>
       </c>
       <c r="AN17" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23553.72</v>
       </c>
       <c r="AO17" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="AP17" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="AQ17" s="20">

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A4A983-B810-488F-AA74-E7D42F96C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B821D4-C4DC-42AF-8412-DBE9F7B71DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,7 +1216,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1233,8 @@
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="9.140625" customWidth="1"/>
+    <col min="16" max="25" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="11" customWidth="1"/>
     <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
@@ -1388,19 +1389,19 @@
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45051</v>
-      </c>
-      <c r="B2" s="9" t="str">
-        <f t="shared" ref="B2:B17" ca="1" si="0">TEXT(DATE(YEAR(C2),MONTH(C2),1),"dd/mm/aaaa")</f>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C2" s="9" t="str">
-        <f t="shared" ref="C2:C17" ca="1" si="1">TEXT(EOMONTH(A2,-1),"dd/mm/aaaa")</f>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D2" s="9" t="str">
-        <f t="shared" ref="D2:D17" ca="1" si="2">TEXT(A2+14,"dd/mm/aaaa")</f>
-        <v>19/05/2023</v>
+        <v>45107</v>
+      </c>
+      <c r="B2" s="9">
+        <f ca="1">DATE(YEAR(C2),MONTH(C2),1)</f>
+        <v>45047</v>
+      </c>
+      <c r="C2" s="9">
+        <f ca="1">EOMONTH(A2,-1)</f>
+        <v>45077</v>
+      </c>
+      <c r="D2" s="9">
+        <f ca="1">A2+14</f>
+        <v>45121</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1448,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="V2" s="18" t="str">
-        <f t="shared" ref="V2:V17" si="3">SUBSTITUTE(IF(AJ2="A",ROUND(O2/N2,6),ROUND(AB2/N2,6)),",",".")</f>
+        <f t="shared" ref="V2:V17" si="0">SUBSTITUTE(IF(AJ2="A",ROUND(O2/N2,6),ROUND(AB2/N2,6)),",",".")</f>
         <v>7.003044</v>
       </c>
       <c r="W2" s="18" t="str">
@@ -1456,19 +1457,19 @@
         <v>19000.00</v>
       </c>
       <c r="X2" s="1" t="str">
-        <f t="shared" ref="X2:X17" si="4">TEXT(R2,"00000")</f>
+        <f t="shared" ref="X2:X17" si="1">TEXT(R2,"00000")</f>
         <v>00000</v>
       </c>
       <c r="Y2" s="1" t="str">
-        <f t="shared" ref="Y2:Y17" si="5">TEXT(S2,"00000000")</f>
+        <f t="shared" ref="Y2:Y17" si="2">TEXT(S2,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="Z2" s="1" t="str">
-        <f t="shared" ref="Z2:Z17" si="6">TEXT(T2,"DD/MM/aaaa")</f>
-        <v>00/01/1900</v>
+      <c r="Z2" s="9">
+        <f>T2</f>
+        <v>0</v>
       </c>
       <c r="AA2" s="13">
-        <f t="shared" ref="AA2:AA17" si="7">IF(AJ2="A",ROUND(O2*P2,2),ROUND(O2*P2/(1+P2),2))</f>
+        <f t="shared" ref="AA2:AA17" si="3">IF(AJ2="A",ROUND(O2*P2,2),ROUND(O2*P2/(1+P2),2))</f>
         <v>27942.15</v>
       </c>
       <c r="AB2" s="13">
@@ -1476,7 +1477,7 @@
         <v>160999.99</v>
       </c>
       <c r="AC2" s="10" t="str">
-        <f t="shared" ref="AC2:AC17" si="8">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
+        <f t="shared" ref="AC2:AC17" si="4">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
       <c r="AD2" s="10" t="str">
@@ -1485,7 +1486,7 @@
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF17" si="9">ROW(K2)</f>
+        <f t="shared" ref="AF2:AF17" si="5">ROW(K2)</f>
         <v>2</v>
       </c>
       <c r="AG2" s="15" t="str">
@@ -1493,15 +1494,15 @@
         <v>30525390086-1</v>
       </c>
       <c r="AH2" s="1">
-        <f t="shared" ref="AH2:AH17" si="10">IF(K1=K2,1,0)</f>
+        <f t="shared" ref="AH2:AH17" si="6">IF(K1=K2,1,0)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <f t="shared" ref="AI2:AI17" si="11">IF(K2=K3,1,0)</f>
+        <f t="shared" ref="AI2:AI17" si="7">IF(K2=K3,1,0)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="1" t="str">
-        <f t="shared" ref="AJ2:AJ17" si="12">RIGHT(F2)</f>
+        <f t="shared" ref="AJ2:AJ17" si="8">RIGHT(F2)</f>
         <v>A</v>
       </c>
       <c r="AK2" s="1">
@@ -1514,15 +1515,15 @@
         <v>160999.98000000001</v>
       </c>
       <c r="AN2" s="13">
-        <f t="shared" ref="AN2:AN17" si="13">ROUND((AM2/(1+P2)),2)</f>
+        <f t="shared" ref="AN2:AN17" si="9">ROUND((AM2/(1+P2)),2)</f>
         <v>133057.82999999999</v>
       </c>
       <c r="AO2" s="20">
-        <f t="shared" ref="AO2:AO17" si="14">IF(AJ2="A",ROUND(AN2/N2,6),AM2/N2)</f>
+        <f t="shared" ref="AO2:AO17" si="10">IF(AJ2="A",ROUND(AN2/N2,6),AM2/N2)</f>
         <v>7.003044</v>
       </c>
       <c r="AP2" s="13">
-        <f t="shared" ref="AP2:AP17" si="15">IF(AJ2="A",ROUND(CEILING(N2*M2*(1+P2),500),2),ROUND(CEILING(N2*M2,500),2))</f>
+        <f t="shared" ref="AP2:AP17" si="11">IF(AJ2="A",ROUND(CEILING(N2*M2*(1+P2),500),2),ROUND(CEILING(N2*M2,500),2))</f>
         <v>161000</v>
       </c>
       <c r="AQ2" s="20">
@@ -1533,20 +1534,20 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A17" ca="1" si="16">TODAY()</f>
-        <v>45051</v>
-      </c>
-      <c r="B3" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C3" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D3" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ref="A3:A17" ca="1" si="12">TODAY()</f>
+        <v>45107</v>
+      </c>
+      <c r="B3" s="9">
+        <f t="shared" ref="B3:B17" ca="1" si="13">DATE(YEAR(C3),MONTH(C3),1)</f>
+        <v>45047</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C17" ca="1" si="14">EOMONTH(A3,-1)</f>
+        <v>45077</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D17" ca="1" si="15">A3+14</f>
+        <v>45121</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1571,7 +1572,7 @@
       </c>
       <c r="L3" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B3,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M3" s="4">
         <v>8.0252280000000003</v>
@@ -1580,7 +1581,7 @@
         <v>19000</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O17" si="17">M3*N3</f>
+        <f t="shared" ref="O3:O17" si="16">M3*N3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="P3" s="11" t="s">
@@ -1595,27 +1596,27 @@
         <v>2</v>
       </c>
       <c r="V3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>8.025228</v>
+      </c>
+      <c r="W3" s="18" t="str">
+        <f t="shared" ref="W3:W17" si="17">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
+        <v>19000.00</v>
+      </c>
+      <c r="X3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y3" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z3" s="9">
+        <f t="shared" ref="Z3:Z17" si="18">T3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="13">
         <f t="shared" si="3"/>
-        <v>8.025228</v>
-      </c>
-      <c r="W3" s="18" t="str">
-        <f t="shared" ref="W3:W17" si="18">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
-        <v>19000.00</v>
-      </c>
-      <c r="X3" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y3" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z3" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA3" s="13">
-        <f t="shared" si="7"/>
         <v>32020.66</v>
       </c>
       <c r="AB3" s="13">
@@ -1623,7 +1624,7 @@
         <v>184499.99</v>
       </c>
       <c r="AC3" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>152479.33</v>
       </c>
       <c r="AD3" s="10" t="str">
@@ -1632,7 +1633,7 @@
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AG3" s="15" t="str">
@@ -1640,15 +1641,15 @@
         <v>30525733870-1</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ3" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK3" s="1">
@@ -1661,15 +1662,15 @@
         <v>184499.99</v>
       </c>
       <c r="AN3" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>152479.32999999999</v>
       </c>
       <c r="AO3" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>8.0252280000000003</v>
       </c>
       <c r="AP3" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>184500</v>
       </c>
       <c r="AQ3" s="20">
@@ -1680,20 +1681,20 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B4" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C4" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D4" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1718,7 +1719,7 @@
       </c>
       <c r="L4" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B4,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M4" s="4">
         <v>10.004348999999999</v>
@@ -1727,7 +1728,7 @@
         <v>19000</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>190082.63099999999</v>
       </c>
       <c r="P4" s="11" t="s">
@@ -1742,27 +1743,27 @@
         <v>2</v>
       </c>
       <c r="V4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.004349</v>
+      </c>
+      <c r="W4" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z4" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="13">
         <f t="shared" si="3"/>
-        <v>10.004349</v>
-      </c>
-      <c r="W4" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X4" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y4" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z4" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA4" s="13">
-        <f t="shared" si="7"/>
         <v>39917.35</v>
       </c>
       <c r="AB4" s="13">
@@ -1770,7 +1771,7 @@
         <v>229999.98</v>
       </c>
       <c r="AC4" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>190082.63</v>
       </c>
       <c r="AD4" s="10" t="str">
@@ -1779,7 +1780,7 @@
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AG4" s="15" t="str">
@@ -1787,15 +1788,15 @@
         <v>30610252334-1</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK4" s="1">
@@ -1808,15 +1809,15 @@
         <v>229999.98</v>
       </c>
       <c r="AN4" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>190082.63</v>
       </c>
       <c r="AO4" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AP4" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>230000</v>
       </c>
       <c r="AQ4" s="20">
@@ -1827,20 +1828,20 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B5" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C5" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D5" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1865,7 +1866,7 @@
       </c>
       <c r="L5" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B5,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M5" s="4">
         <v>9.0256629999999998</v>
@@ -1874,7 +1875,7 @@
         <v>19000</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>171487.59700000001</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -1889,27 +1890,27 @@
         <v>2</v>
       </c>
       <c r="V5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>9.025663</v>
+      </c>
+      <c r="W5" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z5" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13">
         <f t="shared" si="3"/>
-        <v>9.025663</v>
-      </c>
-      <c r="W5" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X5" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y5" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z5" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA5" s="13">
-        <f t="shared" si="7"/>
         <v>36012.400000000001</v>
       </c>
       <c r="AB5" s="13">
@@ -1917,7 +1918,7 @@
         <v>207500</v>
       </c>
       <c r="AC5" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>171487.60</v>
       </c>
       <c r="AD5" s="10" t="str">
@@ -1926,7 +1927,7 @@
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AG5" s="15" t="str">
@@ -1934,15 +1935,15 @@
         <v>30710964277-1</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ5" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK5" s="1">
@@ -1955,15 +1956,15 @@
         <v>207499.99</v>
       </c>
       <c r="AN5" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>171487.6</v>
       </c>
       <c r="AO5" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AP5" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>207500</v>
       </c>
       <c r="AQ5" s="20">
@@ -1974,20 +1975,20 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B6" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C6" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D6" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2012,7 +2013,7 @@
       </c>
       <c r="L6" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B6,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M6" s="4">
         <v>5.0239229999999999</v>
@@ -2021,7 +2022,7 @@
         <v>19000</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>95454.536999999997</v>
       </c>
       <c r="P6" s="11" t="s">
@@ -2044,27 +2045,27 @@
         <v>2</v>
       </c>
       <c r="V6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>5.023923</v>
+      </c>
+      <c r="W6" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00002</v>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000003</v>
+      </c>
+      <c r="Z6" s="9">
+        <f t="shared" si="18"/>
+        <v>44816</v>
+      </c>
+      <c r="AA6" s="13">
         <f t="shared" si="3"/>
-        <v>5.023923</v>
-      </c>
-      <c r="W6" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X6" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y6" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000003</v>
-      </c>
-      <c r="Z6" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA6" s="13">
-        <f t="shared" si="7"/>
         <v>20045.45</v>
       </c>
       <c r="AB6" s="13">
@@ -2072,7 +2073,7 @@
         <v>115499.99</v>
       </c>
       <c r="AC6" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>95454.54</v>
       </c>
       <c r="AD6" s="10" t="str">
@@ -2081,7 +2082,7 @@
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AG6" s="15" t="str">
@@ -2089,15 +2090,15 @@
         <v>33610006189-1</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AJ6" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK6" s="1">
@@ -2110,15 +2111,15 @@
         <v>115499.99</v>
       </c>
       <c r="AN6" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>95454.54</v>
       </c>
       <c r="AO6" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AP6" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>115500</v>
       </c>
       <c r="AQ6" s="20">
@@ -2129,20 +2130,20 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B7" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C7" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D7" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2175,7 +2176,7 @@
         <v>19000</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>95041.305999999997</v>
       </c>
       <c r="P7" s="11" t="s">
@@ -2190,27 +2191,27 @@
         <v>3</v>
       </c>
       <c r="V7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>5.002174</v>
+      </c>
+      <c r="W7" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z7" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="13">
         <f t="shared" si="3"/>
-        <v>5.002174</v>
-      </c>
-      <c r="W7" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y7" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z7" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA7" s="13">
-        <f t="shared" si="7"/>
         <v>19958.669999999998</v>
       </c>
       <c r="AB7" s="13">
@@ -2218,7 +2219,7 @@
         <v>114999.98</v>
       </c>
       <c r="AC7" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>95041.31</v>
       </c>
       <c r="AD7" s="10" t="str">
@@ -2227,7 +2228,7 @@
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="AG7" s="15" t="str">
@@ -2235,15 +2236,15 @@
         <v>33610006189-2</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK7" s="1">
@@ -2256,15 +2257,15 @@
         <v>114999.98</v>
       </c>
       <c r="AN7" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>95041.31</v>
       </c>
       <c r="AO7" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AP7" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>115000</v>
       </c>
       <c r="AQ7" s="20">
@@ -2275,20 +2276,20 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B8" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C8" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D8" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2313,7 +2314,7 @@
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" ref="L8:L13" ca="1" si="24">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M8" s="4">
         <v>10.004348999999999</v>
@@ -2322,7 +2323,7 @@
         <v>19000</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>190082.63099999999</v>
       </c>
       <c r="P8" s="11" t="s">
@@ -2337,27 +2338,27 @@
         <v>2</v>
       </c>
       <c r="V8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.004349</v>
+      </c>
+      <c r="W8" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z8" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13">
         <f t="shared" si="3"/>
-        <v>10.004349</v>
-      </c>
-      <c r="W8" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y8" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z8" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA8" s="13">
-        <f t="shared" si="7"/>
         <v>39917.35</v>
       </c>
       <c r="AB8" s="13">
@@ -2365,7 +2366,7 @@
         <v>229999.98</v>
       </c>
       <c r="AC8" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>190082.63</v>
       </c>
       <c r="AD8" s="10" t="str">
@@ -2374,7 +2375,7 @@
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AG8" s="15" t="str">
@@ -2382,15 +2383,15 @@
         <v>33615420269-1</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ8" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK8" s="1">
@@ -2403,15 +2404,15 @@
         <v>229999.98</v>
       </c>
       <c r="AN8" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>190082.63</v>
       </c>
       <c r="AO8" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AP8" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>230000</v>
       </c>
       <c r="AQ8" s="20">
@@ -2422,20 +2423,20 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B9" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C9" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D9" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2460,7 +2461,7 @@
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M9" s="4">
         <v>1.0221830000000001</v>
@@ -2469,7 +2470,7 @@
         <v>19000</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>19421.477000000003</v>
       </c>
       <c r="P9" s="11" t="s">
@@ -2484,27 +2485,27 @@
         <v>2</v>
       </c>
       <c r="V9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.022183</v>
+      </c>
+      <c r="W9" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z9" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
         <f t="shared" si="3"/>
-        <v>1.022183</v>
-      </c>
-      <c r="W9" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y9" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z9" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA9" s="13">
-        <f t="shared" si="7"/>
         <v>4078.51</v>
       </c>
       <c r="AB9" s="13">
@@ -2512,7 +2513,7 @@
         <v>23499.99</v>
       </c>
       <c r="AC9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>19421.48</v>
       </c>
       <c r="AD9" s="10" t="str">
@@ -2521,7 +2522,7 @@
       </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AG9" s="15" t="str">
@@ -2529,15 +2530,15 @@
         <v>20147130202-1</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ9" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK9" s="1">
@@ -2550,15 +2551,15 @@
         <v>23499.99</v>
       </c>
       <c r="AN9" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>19421.48</v>
       </c>
       <c r="AO9" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AP9" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>23500</v>
       </c>
       <c r="AQ9" s="20">
@@ -2569,20 +2570,20 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B10" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C10" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D10" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2607,7 +2608,7 @@
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M10" s="4">
         <v>1.0439320000000001</v>
@@ -2616,7 +2617,7 @@
         <v>19000</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>19834.708000000002</v>
       </c>
       <c r="P10" s="11" t="s">
@@ -2631,27 +2632,27 @@
         <v>2</v>
       </c>
       <c r="V10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.043932</v>
+      </c>
+      <c r="W10" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z10" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13">
         <f t="shared" si="3"/>
-        <v>1.043932</v>
-      </c>
-      <c r="W10" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y10" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z10" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA10" s="13">
-        <f t="shared" si="7"/>
         <v>4165.29</v>
       </c>
       <c r="AB10" s="13">
@@ -2659,7 +2660,7 @@
         <v>24000</v>
       </c>
       <c r="AC10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>19834.71</v>
       </c>
       <c r="AD10" s="10" t="str">
@@ -2668,7 +2669,7 @@
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AG10" s="15" t="str">
@@ -2676,15 +2677,15 @@
         <v>20374730429-1</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AJ10" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK10" s="1">
@@ -2697,15 +2698,15 @@
         <v>24000</v>
       </c>
       <c r="AN10" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>19834.71</v>
       </c>
       <c r="AO10" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AP10" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>24000</v>
       </c>
       <c r="AQ10" s="20">
@@ -2716,20 +2717,20 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B11" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C11" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D11" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2754,7 +2755,7 @@
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M11" s="4">
         <v>1.3</v>
@@ -2763,7 +2764,7 @@
         <v>10000</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>13000</v>
       </c>
       <c r="P11" s="11" t="s">
@@ -2778,27 +2779,27 @@
         <v>2</v>
       </c>
       <c r="V11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="W11" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>10000.00</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="13">
         <f t="shared" si="3"/>
-        <v>1.3</v>
-      </c>
-      <c r="W11" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>10000.00</v>
-      </c>
-      <c r="X11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y11" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z11" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA11" s="13">
-        <f t="shared" si="7"/>
         <v>2256.1999999999998</v>
       </c>
       <c r="AB11" s="13">
@@ -2806,7 +2807,7 @@
         <v>13000</v>
       </c>
       <c r="AC11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>13000.00</v>
       </c>
       <c r="AD11" s="10" t="str">
@@ -2815,7 +2816,7 @@
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="AG11" s="15" t="str">
@@ -2823,15 +2824,15 @@
         <v>37473042-1</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AK11" s="1">
@@ -2844,15 +2845,15 @@
         <v>13000</v>
       </c>
       <c r="AN11" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>10743.8</v>
       </c>
       <c r="AO11" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.3</v>
       </c>
       <c r="AP11" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>13000</v>
       </c>
       <c r="AQ11" s="20">
@@ -2863,20 +2864,20 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B12" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C12" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D12" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -2901,7 +2902,7 @@
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M12" s="4">
         <v>1.2105263157894737</v>
@@ -2910,7 +2911,7 @@
         <v>19000</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>23000</v>
       </c>
       <c r="P12" s="11" t="s">
@@ -2925,27 +2926,27 @@
         <v>2</v>
       </c>
       <c r="V12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.210526</v>
+      </c>
+      <c r="W12" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13">
         <f t="shared" si="3"/>
-        <v>1.210526</v>
-      </c>
-      <c r="W12" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y12" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z12" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA12" s="13">
-        <f t="shared" si="7"/>
         <v>3991.74</v>
       </c>
       <c r="AB12" s="13">
@@ -2953,7 +2954,7 @@
         <v>23000</v>
       </c>
       <c r="AC12" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>23000.00</v>
       </c>
       <c r="AD12" s="10" t="str">
@@ -2962,7 +2963,7 @@
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="AG12" s="15" t="str">
@@ -2970,15 +2971,15 @@
         <v>30707354719-1</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AK12" s="1">
@@ -2991,15 +2992,15 @@
         <v>23000</v>
       </c>
       <c r="AN12" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>19008.259999999998</v>
       </c>
       <c r="AO12" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AP12" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>23000</v>
       </c>
       <c r="AQ12" s="20">
@@ -3010,20 +3011,20 @@
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B13" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D13" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3046,7 +3047,7 @@
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Abril</v>
+        <v>Honorarios Mayo</v>
       </c>
       <c r="M13" s="4">
         <v>1.5</v>
@@ -3055,7 +3056,7 @@
         <v>19000</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="P13" s="11"/>
@@ -3068,27 +3069,27 @@
         <v>2</v>
       </c>
       <c r="V13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="W13" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="Y13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="13">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="W13" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00000</v>
-      </c>
-      <c r="Y13" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z13" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>00/01/1900</v>
-      </c>
-      <c r="AA13" s="13">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB13" s="13">
@@ -3096,7 +3097,7 @@
         <v>28500</v>
       </c>
       <c r="AC13" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>28500.00</v>
       </c>
       <c r="AD13" s="10" t="str">
@@ -3105,7 +3106,7 @@
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="AG13" s="15" t="str">
@@ -3113,15 +3114,15 @@
         <v>-0</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="AK13" s="1">
@@ -3134,15 +3135,15 @@
         <v>28500</v>
       </c>
       <c r="AN13" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>28500</v>
       </c>
       <c r="AO13" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="AP13" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>28500</v>
       </c>
       <c r="AQ13" s="20">
@@ -3153,20 +3154,20 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B14" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D14" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3199,7 +3200,7 @@
         <v>19000</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>133471.06700000001</v>
       </c>
       <c r="P14" s="11" t="s">
@@ -3222,27 +3223,27 @@
         <v>2</v>
       </c>
       <c r="V14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>7.024793</v>
+      </c>
+      <c r="W14" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00002</v>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000150</v>
+      </c>
+      <c r="Z14" s="9">
+        <f t="shared" si="18"/>
+        <v>44816</v>
+      </c>
+      <c r="AA14" s="13">
         <f t="shared" si="3"/>
-        <v>7.024793</v>
-      </c>
-      <c r="W14" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000150</v>
-      </c>
-      <c r="Z14" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA14" s="13">
-        <f t="shared" si="7"/>
         <v>28028.92</v>
       </c>
       <c r="AB14" s="13">
@@ -3250,7 +3251,7 @@
         <v>161499.99</v>
       </c>
       <c r="AC14" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>133471.07</v>
       </c>
       <c r="AD14" s="10" t="str">
@@ -3259,7 +3260,7 @@
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="AG14" s="15" t="str">
@@ -3267,15 +3268,15 @@
         <v>30684125792-1</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK14" s="1">
@@ -3288,15 +3289,15 @@
         <v>161499.99</v>
       </c>
       <c r="AN14" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>133471.07</v>
       </c>
       <c r="AO14" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AP14" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>161500</v>
       </c>
       <c r="AQ14" s="20">
@@ -3307,20 +3308,20 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B15" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D15" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -3353,7 +3354,7 @@
         <v>19000</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="P15" s="11" t="s">
@@ -3376,27 +3377,27 @@
         <v>2</v>
       </c>
       <c r="V15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="W15" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00002</v>
+      </c>
+      <c r="Y15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000152</v>
+      </c>
+      <c r="Z15" s="9">
+        <f t="shared" si="18"/>
+        <v>44816</v>
+      </c>
+      <c r="AA15" s="13">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="W15" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000152</v>
-      </c>
-      <c r="Z15" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA15" s="13">
-        <f t="shared" si="7"/>
         <v>4946.28</v>
       </c>
       <c r="AB15" s="13">
@@ -3404,7 +3405,7 @@
         <v>28500</v>
       </c>
       <c r="AC15" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>28500.00</v>
       </c>
       <c r="AD15" s="10" t="str">
@@ -3413,7 +3414,7 @@
       </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="AG15" s="15" t="str">
@@ -3421,15 +3422,15 @@
         <v>30707354719-2</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AK15" s="1">
@@ -3442,15 +3443,15 @@
         <v>28500</v>
       </c>
       <c r="AN15" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>23553.72</v>
       </c>
       <c r="AO15" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="AP15" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>28500</v>
       </c>
       <c r="AQ15" s="20">
@@ -3461,20 +3462,20 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B16" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D16" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -3507,7 +3508,7 @@
         <v>19000</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>133057.83600000001</v>
       </c>
       <c r="P16" s="11" t="s">
@@ -3530,27 +3531,27 @@
         <v>2</v>
       </c>
       <c r="V16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>7.003044</v>
+      </c>
+      <c r="W16" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00002</v>
+      </c>
+      <c r="Y16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000151</v>
+      </c>
+      <c r="Z16" s="9">
+        <f t="shared" si="18"/>
+        <v>44816</v>
+      </c>
+      <c r="AA16" s="13">
         <f t="shared" si="3"/>
-        <v>7.003044</v>
-      </c>
-      <c r="W16" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y16" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000151</v>
-      </c>
-      <c r="Z16" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA16" s="13">
-        <f t="shared" si="7"/>
         <v>27942.15</v>
       </c>
       <c r="AB16" s="13">
@@ -3558,7 +3559,7 @@
         <v>160999.99</v>
       </c>
       <c r="AC16" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>133057.84</v>
       </c>
       <c r="AD16" s="10" t="str">
@@ -3567,7 +3568,7 @@
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="AG16" s="15" t="str">
@@ -3575,15 +3576,15 @@
         <v>30684125792-2</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="AK16" s="1">
@@ -3596,15 +3597,15 @@
         <v>160999.98000000001</v>
       </c>
       <c r="AN16" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>133057.82999999999</v>
       </c>
       <c r="AO16" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>7.003044</v>
       </c>
       <c r="AP16" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>161000</v>
       </c>
       <c r="AQ16" s="20">
@@ -3615,20 +3616,20 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>45051</v>
-      </c>
-      <c r="B17" s="9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>01/04/2023</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30/04/2023</v>
-      </c>
-      <c r="D17" s="9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>19/05/2023</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45107</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>45047</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>45077</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" ca="1" si="15"/>
+        <v>45121</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -3661,7 +3662,7 @@
         <v>19000</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
       <c r="P17" s="11" t="s">
@@ -3684,27 +3685,27 @@
         <v>2</v>
       </c>
       <c r="V17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="W17" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>19000.00</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>00002</v>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000153</v>
+      </c>
+      <c r="Z17" s="9">
+        <f t="shared" si="18"/>
+        <v>44816</v>
+      </c>
+      <c r="AA17" s="13">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="W17" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X17" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00002</v>
-      </c>
-      <c r="Y17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000153</v>
-      </c>
-      <c r="Z17" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>12/09/2022</v>
-      </c>
-      <c r="AA17" s="13">
-        <f t="shared" si="7"/>
         <v>4946.28</v>
       </c>
       <c r="AB17" s="13">
@@ -3712,7 +3713,7 @@
         <v>28500</v>
       </c>
       <c r="AC17" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>28500.00</v>
       </c>
       <c r="AD17" s="10" t="str">
@@ -3721,7 +3722,7 @@
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="AG17" s="15" t="str">
@@ -3729,15 +3730,15 @@
         <v>37473042-2</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AK17" s="1">
@@ -3750,15 +3751,15 @@
         <v>28500</v>
       </c>
       <c r="AN17" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>23553.72</v>
       </c>
       <c r="AO17" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
       <c r="AP17" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>28500</v>
       </c>
       <c r="AQ17" s="20">

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B821D4-C4DC-42AF-8412-DBE9F7B71DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F54E1BB-2FE6-400B-98BA-4EAA00B97F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Factura" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AP$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AU$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
     <t>Fecha</t>
   </si>
@@ -285,6 +285,21 @@
   </si>
   <si>
     <t>AUX unidades mult</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Bonif</t>
+  </si>
+  <si>
+    <t>% Bonif</t>
+  </si>
+  <si>
+    <t>% Bonif (Facturador)</t>
+  </si>
+  <si>
+    <t>Bonif Facturador</t>
   </si>
 </sst>
 </file>
@@ -825,7 +840,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -849,6 +864,7 @@
     <xf numFmtId="2" fontId="0" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1211,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR17"/>
+  <dimension ref="A1:AW17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -1230,29 +1246,32 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="25" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="11" customWidth="1"/>
-    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" customWidth="1"/>
-    <col min="32" max="32" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6" customWidth="1"/>
-    <col min="35" max="35" width="5.85546875" customWidth="1"/>
-    <col min="36" max="36" width="4" customWidth="1"/>
-    <col min="37" max="37" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="25" width="8" customWidth="1"/>
+    <col min="26" max="30" width="9.140625" customWidth="1"/>
+    <col min="31" max="31" width="11" customWidth="1"/>
+    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" customWidth="1"/>
+    <col min="37" max="37" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6" customWidth="1"/>
+    <col min="40" max="40" width="5.85546875" customWidth="1"/>
+    <col min="41" max="41" width="4" customWidth="1"/>
+    <col min="42" max="42" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1290,118 +1309,133 @@
         <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AR1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AS1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AT1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AU1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AV1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AW1" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45107</v>
+        <v>45140</v>
       </c>
       <c r="B2" s="9">
         <f ca="1">DATE(YEAR(C2),MONTH(C2),1)</f>
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="C2" s="9">
         <f ca="1">EOMONTH(A2,-1)</f>
-        <v>45077</v>
+        <v>45138</v>
       </c>
       <c r="D2" s="9">
         <f ca="1">A2+14</f>
-        <v>45121</v>
+        <v>45154</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1427,127 +1461,138 @@
       <c r="L2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2"/>
+      <c r="N2" s="4">
         <v>7.003044</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="5">
         <v>19000</v>
       </c>
-      <c r="O2" s="5">
-        <f>M2*N2</f>
+      <c r="P2" s="5">
+        <f>N2*O2</f>
         <v>133057.83600000001</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="14">
+      <c r="T2" s="11"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="1" t="str">
+        <f>SUBSTITUTE(V2,",",".")</f>
+        <v/>
+      </c>
+      <c r="Y2" s="1" t="str">
+        <f t="shared" ref="Y2:Y17" si="0">SUBSTITUTE(W2,",",".")</f>
+        <v/>
+      </c>
+      <c r="Z2" s="14">
         <f>COUNTIFS($F$1:F2,F2,$K$1:K2,K2)+1</f>
         <v>2</v>
       </c>
-      <c r="V2" s="18" t="str">
-        <f t="shared" ref="V2:V17" si="0">SUBSTITUTE(IF(AJ2="A",ROUND(O2/N2,6),ROUND(AB2/N2,6)),",",".")</f>
+      <c r="AA2" s="18" t="str">
+        <f t="shared" ref="AA2:AA17" si="1">SUBSTITUTE(IF(AO2="A",ROUND(P2/O2,6),ROUND(AG2/O2,6)),",",".")</f>
         <v>7.003044</v>
       </c>
-      <c r="W2" s="18" t="str">
-        <f>SUBSTITUTE(TEXT(N2,"0,00"),",",".")</f>
+      <c r="AB2" s="18" t="str">
+        <f>SUBSTITUTE(TEXT(O2,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
-      <c r="X2" s="1" t="str">
-        <f t="shared" ref="X2:X17" si="1">TEXT(R2,"00000")</f>
+      <c r="AC2" s="1" t="str">
+        <f t="shared" ref="AC2:AC17" si="2">TEXT(S2,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="Y2" s="1" t="str">
-        <f t="shared" ref="Y2:Y17" si="2">TEXT(S2,"00000000")</f>
+      <c r="AD2" s="1" t="str">
+        <f t="shared" ref="AD2:AD17" si="3">TEXT(T2,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="Z2" s="9">
-        <f>T2</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="13">
-        <f t="shared" ref="AA2:AA17" si="3">IF(AJ2="A",ROUND(O2*P2,2),ROUND(O2*P2/(1+P2),2))</f>
+      <c r="AE2" s="9">
+        <f>U2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="13">
+        <f t="shared" ref="AF2:AF17" si="4">IF(AO2="A",ROUND(P2*Q2,2),ROUND(P2*Q2/(1+Q2),2))</f>
         <v>27942.15</v>
       </c>
-      <c r="AB2" s="13">
-        <f>IF(AJ2="A",ROUND(O2+AA2,2),ROUND(O2,2))</f>
+      <c r="AG2" s="13">
+        <f>IF(AO2="A",ROUND(P2+AF2,2),ROUND(P2,2))</f>
         <v>160999.99</v>
       </c>
-      <c r="AC2" s="10" t="str">
-        <f t="shared" ref="AC2:AC17" si="4">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(O2,"0,00"),",","."),SUBSTITUTE(TEXT(AB2,"0,00"),",","."))</f>
+      <c r="AH2" s="10" t="str">
+        <f>IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(P2,"0,00"),",","."),SUBSTITUTE(TEXT(AG2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
-      <c r="AD2" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AB2,0)-AB2,"0,00"),",",".")</f>
+      <c r="AI2" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AG2,0)-AG2,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF17" si="5">ROW(K2)</f>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1">
+        <f>ROW(K2)</f>
         <v>2</v>
       </c>
-      <c r="AG2" s="15" t="str">
+      <c r="AL2" s="15" t="str">
         <f>J2&amp;"-"&amp;COUNTIF($J$1:J2,J2)</f>
         <v>30525390086-1</v>
       </c>
-      <c r="AH2" s="1">
-        <f t="shared" ref="AH2:AH17" si="6">IF(K1=K2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1">
-        <f t="shared" ref="AI2:AI17" si="7">IF(K2=K3,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1" t="str">
-        <f t="shared" ref="AJ2:AJ17" si="8">RIGHT(F2)</f>
+      <c r="AM2" s="1">
+        <f>IF(K1=K2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <f>IF(K2=K3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1" t="str">
+        <f>RIGHT(F2)</f>
         <v>A</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AP2" s="1">
         <f>IF(LEFT(F2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="13">
-        <f>IF(RIGHT(F2,1)="A",ROUND(N2*M2*(1+P2),2),AB2)</f>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="13">
+        <f>IF(RIGHT(F2,1)="A",ROUND(O2*N2*(1+Q2),2),AG2)</f>
         <v>160999.98000000001</v>
       </c>
-      <c r="AN2" s="13">
-        <f t="shared" ref="AN2:AN17" si="9">ROUND((AM2/(1+P2)),2)</f>
+      <c r="AS2" s="13">
+        <f t="shared" ref="AS2:AS17" si="5">ROUND((AR2/(1+Q2)),2)</f>
         <v>133057.82999999999</v>
       </c>
-      <c r="AO2" s="20">
-        <f t="shared" ref="AO2:AO17" si="10">IF(AJ2="A",ROUND(AN2/N2,6),AM2/N2)</f>
+      <c r="AT2" s="20">
+        <f t="shared" ref="AT2:AT17" si="6">IF(AO2="A",ROUND(AS2/O2,6),AR2/O2)</f>
         <v>7.003044</v>
       </c>
-      <c r="AP2" s="13">
-        <f t="shared" ref="AP2:AP17" si="11">IF(AJ2="A",ROUND(CEILING(N2*M2*(1+P2),500),2),ROUND(CEILING(N2*M2,500),2))</f>
+      <c r="AU2" s="13">
+        <f t="shared" ref="AU2:AU17" si="7">IF(AO2="A",ROUND(CEILING(O2*N2*(1+Q2),500),2),ROUND(CEILING(O2*N2,500),2))</f>
         <v>161000</v>
       </c>
-      <c r="AQ2" s="20">
-        <f>IF(AJ2="A",ROUND(AN2/N2,6),AP2/N2)</f>
+      <c r="AV2" s="20">
+        <f>IF(AO2="A",ROUND(AS2/O2,6),AU2/O2)</f>
         <v>7.003044</v>
       </c>
-      <c r="AR2" s="2"/>
+      <c r="AW2" s="2"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A17" ca="1" si="12">TODAY()</f>
-        <v>45107</v>
+        <f t="shared" ref="A3:A17" ca="1" si="8">TODAY()</f>
+        <v>45140</v>
       </c>
       <c r="B3" s="9">
-        <f t="shared" ref="B3:B17" ca="1" si="13">DATE(YEAR(C3),MONTH(C3),1)</f>
-        <v>45047</v>
+        <f t="shared" ref="B3:B17" ca="1" si="9">DATE(YEAR(C3),MONTH(C3),1)</f>
+        <v>45108</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C17" ca="1" si="14">EOMONTH(A3,-1)</f>
-        <v>45077</v>
+        <f t="shared" ref="C3:C17" ca="1" si="10">EOMONTH(A3,-1)</f>
+        <v>45138</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D17" ca="1" si="15">A3+14</f>
-        <v>45121</v>
+        <f t="shared" ref="D3:D17" ca="1" si="11">A3+14</f>
+        <v>45154</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1572,129 +1617,140 @@
       </c>
       <c r="L3" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B3,"mmmm"))</f>
-        <v>Honorarios Mayo</v>
-      </c>
-      <c r="M3" s="4">
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="4">
         <v>8.0252280000000003</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>19000</v>
       </c>
-      <c r="O3" s="5">
-        <f t="shared" ref="O3:O17" si="16">M3*N3</f>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P17" si="12">N3*O3</f>
         <v>152479.33199999999</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="14">
+      <c r="T3" s="11"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="1" t="str">
+        <f t="shared" ref="X3:X17" si="13">SUBSTITUTE(V3,",",".")</f>
+        <v/>
+      </c>
+      <c r="Y3" s="1" t="str">
+        <f>SUBSTITUTE(W3,",",".")</f>
+        <v/>
+      </c>
+      <c r="Z3" s="14">
         <f>COUNTIFS($F$1:F3,F3,$K$1:K3,K3)+1</f>
         <v>2</v>
       </c>
-      <c r="V3" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA3" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>8.025228</v>
       </c>
-      <c r="W3" s="18" t="str">
-        <f t="shared" ref="W3:W17" si="17">SUBSTITUTE(TEXT(N3,"0,00"),",",".")</f>
+      <c r="AB3" s="18" t="str">
+        <f t="shared" ref="AB3:AB17" si="14">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
-      <c r="X3" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC3" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y3" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD3" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z3" s="9">
-        <f t="shared" ref="Z3:Z17" si="18">T3</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE3" s="9">
+        <f t="shared" ref="AE3:AE17" si="15">U3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="13">
+        <f t="shared" si="4"/>
         <v>32020.66</v>
       </c>
-      <c r="AB3" s="13">
-        <f t="shared" ref="AB3:AB17" si="19">IF(AJ3="A",ROUND(O3+AA3,2),ROUND(O3,2))</f>
+      <c r="AG3" s="13">
+        <f t="shared" ref="AG3:AG17" si="16">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
         <v>184499.99</v>
       </c>
-      <c r="AC3" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="AH3" s="10" t="str">
+        <f>IF(RIGHT(F3,1)="A",SUBSTITUTE(TEXT(P3,"0,00"),",","."),SUBSTITUTE(TEXT(AG3,"0,00"),",","."))</f>
         <v>152479.33</v>
       </c>
-      <c r="AD3" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AB3,0)-AB3,"0,00"),",",".")</f>
+      <c r="AI3" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AG3,0)-AG3,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1">
+        <f>ROW(K3)</f>
         <v>3</v>
       </c>
-      <c r="AG3" s="15" t="str">
+      <c r="AL3" s="15" t="str">
         <f>J3&amp;"-"&amp;COUNTIF($J$1:J3,J3)</f>
         <v>30525733870-1</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AM3" s="1">
+        <f>IF(K2=K3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <f>IF(K3=K4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1" t="str">
+        <f>RIGHT(F3)</f>
+        <v>A</v>
+      </c>
+      <c r="AP3" s="1">
+        <f>IF(LEFT(F3,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="13">
+        <f>IF(RIGHT(F3,1)="A",ROUND(O3*N3*(1+Q3),2),AG3)</f>
+        <v>184499.99</v>
+      </c>
+      <c r="AS3" s="13">
+        <f t="shared" si="5"/>
+        <v>152479.32999999999</v>
+      </c>
+      <c r="AT3" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
+        <v>8.0252280000000003</v>
+      </c>
+      <c r="AU3" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK3" s="1">
-        <f t="shared" ref="AK3:AK17" si="20">IF(LEFT(F3,4)="Nota",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="13">
-        <f t="shared" ref="AM3:AM17" si="21">IF(RIGHT(F3,1)="A",ROUND(N3*M3*(1+P3),2),AB3)</f>
-        <v>184499.99</v>
-      </c>
-      <c r="AN3" s="13">
-        <f t="shared" si="9"/>
-        <v>152479.32999999999</v>
-      </c>
-      <c r="AO3" s="20">
-        <f t="shared" si="10"/>
+        <v>184500</v>
+      </c>
+      <c r="AV3" s="20">
+        <f t="shared" ref="AV3:AV17" si="17">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
         <v>8.0252280000000003</v>
       </c>
-      <c r="AP3" s="13">
-        <f t="shared" si="11"/>
-        <v>184500</v>
-      </c>
-      <c r="AQ3" s="20">
-        <f t="shared" ref="AQ3:AQ17" si="22">IF(AJ3="A",ROUND(AN3/N3,6),AP3/N3)</f>
-        <v>8.0252280000000003</v>
-      </c>
-      <c r="AR3" s="2"/>
+      <c r="AW3" s="2"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B4" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1719,129 +1775,140 @@
       </c>
       <c r="L4" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B4,"mmmm"))</f>
-        <v>Honorarios Mayo</v>
-      </c>
-      <c r="M4" s="4">
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="4">
         <v>10.004348999999999</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>19000</v>
       </c>
-      <c r="O4" s="5">
-        <f t="shared" si="16"/>
+      <c r="P4" s="5">
+        <f t="shared" si="12"/>
         <v>190082.63099999999</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="14">
+      <c r="T4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f t="shared" ref="Y4:Y17" si="18">SUBSTITUTE(W4,",",".")</f>
+        <v/>
+      </c>
+      <c r="Z4" s="14">
         <f>COUNTIFS($F$1:F4,F4,$K$1:K4,K4)+1</f>
         <v>2</v>
       </c>
-      <c r="V4" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA4" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>10.004349</v>
       </c>
-      <c r="W4" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB4" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X4" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC4" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y4" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD4" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z4" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE4" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="13">
+        <f t="shared" si="4"/>
         <v>39917.35</v>
       </c>
-      <c r="AB4" s="13">
-        <f t="shared" si="19"/>
+      <c r="AG4" s="13">
+        <f t="shared" si="16"/>
         <v>229999.98</v>
       </c>
-      <c r="AC4" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="AH4" s="10" t="str">
+        <f>IF(RIGHT(F4,1)="A",SUBSTITUTE(TEXT(P4,"0,00"),",","."),SUBSTITUTE(TEXT(AG4,"0,00"),",","."))</f>
         <v>190082.63</v>
       </c>
-      <c r="AD4" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AB4,0)-AB4,"0,00"),",",".")</f>
+      <c r="AI4" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AG4,0)-AG4,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1">
+        <f>ROW(K4)</f>
         <v>4</v>
       </c>
-      <c r="AG4" s="15" t="str">
+      <c r="AL4" s="15" t="str">
         <f>J4&amp;"-"&amp;COUNTIF($J$1:J4,J4)</f>
         <v>30610252334-1</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AM4" s="1">
+        <f>IF(K3=K4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
+        <f>IF(K4=K5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1" t="str">
+        <f>RIGHT(F4)</f>
+        <v>A</v>
+      </c>
+      <c r="AP4" s="1">
+        <f>IF(LEFT(F4,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="13">
+        <f>IF(RIGHT(F4,1)="A",ROUND(O4*N4*(1+Q4),2),AG4)</f>
+        <v>229999.98</v>
+      </c>
+      <c r="AS4" s="13">
+        <f t="shared" si="5"/>
+        <v>190082.63</v>
+      </c>
+      <c r="AT4" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="1">
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AU4" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK4" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="13">
-        <f t="shared" si="21"/>
-        <v>229999.98</v>
-      </c>
-      <c r="AN4" s="13">
-        <f t="shared" si="9"/>
-        <v>190082.63</v>
-      </c>
-      <c r="AO4" s="20">
-        <f t="shared" si="10"/>
+        <v>230000</v>
+      </c>
+      <c r="AV4" s="20">
+        <f t="shared" si="17"/>
         <v>10.004348999999999</v>
       </c>
-      <c r="AP4" s="13">
-        <f t="shared" si="11"/>
-        <v>230000</v>
-      </c>
-      <c r="AQ4" s="20">
-        <f t="shared" si="22"/>
-        <v>10.004348999999999</v>
-      </c>
-      <c r="AR4" s="2"/>
+      <c r="AW4" s="2"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B5" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1866,129 +1933,140 @@
       </c>
       <c r="L5" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B5,"mmmm"))</f>
-        <v>Honorarios Mayo</v>
-      </c>
-      <c r="M5" s="4">
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="4">
         <v>9.0256629999999998</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>19000</v>
       </c>
-      <c r="O5" s="5">
-        <f t="shared" si="16"/>
+      <c r="P5" s="5">
+        <f t="shared" si="12"/>
         <v>171487.59700000001</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="14">
+      <c r="T5" s="11"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z5" s="14">
         <f>COUNTIFS($F$1:F5,F5,$K$1:K5,K5)+1</f>
         <v>2</v>
       </c>
-      <c r="V5" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA5" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>9.025663</v>
       </c>
-      <c r="W5" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB5" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X5" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC5" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y5" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD5" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z5" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE5" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="13">
+        <f t="shared" si="4"/>
         <v>36012.400000000001</v>
       </c>
-      <c r="AB5" s="13">
-        <f t="shared" si="19"/>
+      <c r="AG5" s="13">
+        <f t="shared" si="16"/>
         <v>207500</v>
       </c>
-      <c r="AC5" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="AH5" s="10" t="str">
+        <f>IF(RIGHT(F5,1)="A",SUBSTITUTE(TEXT(P5,"0,00"),",","."),SUBSTITUTE(TEXT(AG5,"0,00"),",","."))</f>
         <v>171487.60</v>
       </c>
-      <c r="AD5" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AB5,0)-AB5,"0,00"),",",".")</f>
+      <c r="AI5" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AG5,0)-AG5,"0,00"),",",".")</f>
         <v>0.00</v>
       </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1">
+        <f>ROW(K5)</f>
         <v>5</v>
       </c>
-      <c r="AG5" s="15" t="str">
+      <c r="AL5" s="15" t="str">
         <f>J5&amp;"-"&amp;COUNTIF($J$1:J5,J5)</f>
         <v>30710964277-1</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AM5" s="1">
+        <f>IF(K4=K5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <f>IF(K5=K6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1" t="str">
+        <f>RIGHT(F5)</f>
+        <v>A</v>
+      </c>
+      <c r="AP5" s="1">
+        <f>IF(LEFT(F5,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="13">
+        <f>IF(RIGHT(F5,1)="A",ROUND(O5*N5*(1+Q5),2),AG5)</f>
+        <v>207499.99</v>
+      </c>
+      <c r="AS5" s="13">
+        <f t="shared" si="5"/>
+        <v>171487.6</v>
+      </c>
+      <c r="AT5" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
+        <v>9.0256629999999998</v>
+      </c>
+      <c r="AU5" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK5" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="13">
-        <f t="shared" si="21"/>
-        <v>207499.99</v>
-      </c>
-      <c r="AN5" s="13">
-        <f t="shared" si="9"/>
-        <v>171487.6</v>
-      </c>
-      <c r="AO5" s="20">
-        <f t="shared" si="10"/>
+        <v>207500</v>
+      </c>
+      <c r="AV5" s="20">
+        <f t="shared" si="17"/>
         <v>9.0256629999999998</v>
       </c>
-      <c r="AP5" s="13">
-        <f t="shared" si="11"/>
-        <v>207500</v>
-      </c>
-      <c r="AQ5" s="20">
-        <f t="shared" si="22"/>
-        <v>9.0256629999999998</v>
-      </c>
-      <c r="AR5" s="2"/>
+      <c r="AW5" s="2"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B6" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2013,137 +2091,148 @@
       </c>
       <c r="L6" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(B6,"mmmm"))</f>
-        <v>Honorarios Mayo</v>
-      </c>
-      <c r="M6" s="4">
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="4">
         <v>5.0239229999999999</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>19000</v>
       </c>
-      <c r="O6" s="5">
-        <f t="shared" si="16"/>
+      <c r="P6" s="5">
+        <f t="shared" si="12"/>
         <v>95454.536999999997</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="Q6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="T6" s="12">
+      <c r="U6" s="12">
         <v>44816</v>
       </c>
-      <c r="U6" s="14">
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z6" s="14">
         <f>COUNTIFS($F$1:F6,F6,$K$1:K6,K6)+1</f>
         <v>2</v>
       </c>
-      <c r="V6" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA6" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>5.023923</v>
       </c>
-      <c r="W6" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB6" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X6" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC6" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00002</v>
       </c>
-      <c r="Y6" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD6" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000003</v>
       </c>
-      <c r="Z6" s="9">
-        <f t="shared" si="18"/>
+      <c r="AE6" s="9">
+        <f t="shared" si="15"/>
         <v>44816</v>
       </c>
-      <c r="AA6" s="13">
-        <f t="shared" si="3"/>
+      <c r="AF6" s="13">
+        <f t="shared" si="4"/>
         <v>20045.45</v>
       </c>
-      <c r="AB6" s="13">
-        <f t="shared" si="19"/>
+      <c r="AG6" s="13">
+        <f t="shared" si="16"/>
         <v>115499.99</v>
       </c>
-      <c r="AC6" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="AH6" s="10" t="str">
+        <f>IF(RIGHT(F6,1)="A",SUBSTITUTE(TEXT(P6,"0,00"),",","."),SUBSTITUTE(TEXT(AG6,"0,00"),",","."))</f>
         <v>95454.54</v>
       </c>
-      <c r="AD6" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AB6,0)-AB6,"0,00"),",",".")</f>
+      <c r="AI6" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AG6,0)-AG6,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1">
+        <f>ROW(K6)</f>
         <v>6</v>
       </c>
-      <c r="AG6" s="15" t="str">
+      <c r="AL6" s="15" t="str">
         <f>J6&amp;"-"&amp;COUNTIF($J$1:J6,J6)</f>
         <v>33610006189-1</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AM6" s="1">
+        <f>IF(K5=K6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <f>IF(K6=K7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1" t="str">
+        <f>RIGHT(F6)</f>
+        <v>A</v>
+      </c>
+      <c r="AP6" s="1">
+        <f>IF(LEFT(F6,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="13">
+        <f>IF(RIGHT(F6,1)="A",ROUND(O6*N6*(1+Q6),2),AG6)</f>
+        <v>115499.99</v>
+      </c>
+      <c r="AS6" s="13">
+        <f t="shared" si="5"/>
+        <v>95454.54</v>
+      </c>
+      <c r="AT6" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
+        <v>5.0239229999999999</v>
+      </c>
+      <c r="AU6" s="13">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK6" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="13">
-        <f t="shared" si="21"/>
-        <v>115499.99</v>
-      </c>
-      <c r="AN6" s="13">
-        <f t="shared" si="9"/>
-        <v>95454.54</v>
-      </c>
-      <c r="AO6" s="20">
-        <f t="shared" si="10"/>
+        <v>115500</v>
+      </c>
+      <c r="AV6" s="20">
+        <f t="shared" si="17"/>
         <v>5.0239229999999999</v>
       </c>
-      <c r="AP6" s="13">
-        <f t="shared" si="11"/>
-        <v>115500</v>
-      </c>
-      <c r="AQ6" s="20">
-        <f t="shared" si="22"/>
-        <v>5.0239229999999999</v>
-      </c>
-      <c r="AR6" s="2"/>
+      <c r="AW6" s="2"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C7" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2169,127 +2258,138 @@
       <c r="L7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="2"/>
+      <c r="N7" s="4">
         <v>5.0021740000000001</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>19000</v>
       </c>
-      <c r="O7" s="5">
-        <f t="shared" si="16"/>
+      <c r="P7" s="5">
+        <f t="shared" si="12"/>
         <v>95041.305999999997</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="Q7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="14">
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z7" s="14">
         <f>COUNTIFS($F$1:F7,F7,$K$1:K7,K7)+1</f>
         <v>3</v>
       </c>
-      <c r="V7" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA7" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>5.002174</v>
       </c>
-      <c r="W7" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB7" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X7" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC7" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y7" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD7" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z7" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE7" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="13">
+        <f t="shared" si="4"/>
         <v>19958.669999999998</v>
       </c>
-      <c r="AB7" s="13">
-        <f t="shared" si="19"/>
+      <c r="AG7" s="13">
+        <f t="shared" si="16"/>
         <v>114999.98</v>
       </c>
-      <c r="AC7" s="10" t="str">
-        <f t="shared" si="4"/>
+      <c r="AH7" s="10" t="str">
+        <f>IF(RIGHT(F7,1)="A",SUBSTITUTE(TEXT(P7,"0,00"),",","."),SUBSTITUTE(TEXT(AG7,"0,00"),",","."))</f>
         <v>95041.31</v>
       </c>
-      <c r="AD7" s="10" t="str">
-        <f t="shared" ref="AD7:AD17" si="23">SUBSTITUTE(TEXT(ROUNDUP(AB7,0)-AB7,"0,00"),",",".")</f>
+      <c r="AI7" s="10" t="str">
+        <f t="shared" ref="AI7:AI17" si="19">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1">
+        <f>ROW(K7)</f>
         <v>7</v>
       </c>
-      <c r="AG7" s="15" t="str">
+      <c r="AL7" s="15" t="str">
         <f>J7&amp;"-"&amp;COUNTIF($J$1:J7,J7)</f>
         <v>33610006189-2</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AM7" s="1">
+        <f>IF(K6=K7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1">
+        <f>IF(K7=K8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1" t="str">
+        <f>RIGHT(F7)</f>
+        <v>A</v>
+      </c>
+      <c r="AP7" s="1">
+        <f>IF(LEFT(F7,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="13">
+        <f>IF(RIGHT(F7,1)="A",ROUND(O7*N7*(1+Q7),2),AG7)</f>
+        <v>114999.98</v>
+      </c>
+      <c r="AS7" s="13">
+        <f t="shared" si="5"/>
+        <v>95041.31</v>
+      </c>
+      <c r="AT7" s="20">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AI7" s="1">
+        <v>5.0021740000000001</v>
+      </c>
+      <c r="AU7" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK7" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="13">
-        <f t="shared" si="21"/>
-        <v>114999.98</v>
-      </c>
-      <c r="AN7" s="13">
-        <f t="shared" si="9"/>
-        <v>95041.31</v>
-      </c>
-      <c r="AO7" s="20">
-        <f t="shared" si="10"/>
+        <v>115000</v>
+      </c>
+      <c r="AV7" s="20">
+        <f t="shared" si="17"/>
         <v>5.0021740000000001</v>
       </c>
-      <c r="AP7" s="13">
-        <f t="shared" si="11"/>
-        <v>115000</v>
-      </c>
-      <c r="AQ7" s="20">
-        <f t="shared" si="22"/>
-        <v>5.0021740000000001</v>
-      </c>
-      <c r="AR7" s="2"/>
+      <c r="AW7" s="2"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B8" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2313,130 +2413,141 @@
         <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" ref="L8:L13" ca="1" si="24">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
-        <v>Honorarios Mayo</v>
-      </c>
-      <c r="M8" s="4">
+        <f t="shared" ref="L8:L13" ca="1" si="20">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="4">
         <v>10.004348999999999</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>19000</v>
       </c>
-      <c r="O8" s="5">
-        <f t="shared" si="16"/>
+      <c r="P8" s="5">
+        <f t="shared" si="12"/>
         <v>190082.63099999999</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="Q8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="14">
+      <c r="T8" s="11"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z8" s="14">
         <f>COUNTIFS($F$1:F8,F8,$K$1:K8,K8)+1</f>
         <v>2</v>
       </c>
-      <c r="V8" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA8" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>10.004349</v>
       </c>
-      <c r="W8" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB8" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X8" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC8" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y8" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD8" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z8" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE8" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="13">
+        <f t="shared" si="4"/>
         <v>39917.35</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AG8" s="13">
+        <f t="shared" si="16"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AH8" s="10" t="str">
+        <f>IF(RIGHT(F8,1)="A",SUBSTITUTE(TEXT(P8,"0,00"),",","."),SUBSTITUTE(TEXT(AG8,"0,00"),",","."))</f>
+        <v>190082.63</v>
+      </c>
+      <c r="AI8" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>229999.98</v>
-      </c>
-      <c r="AC8" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>190082.63</v>
-      </c>
-      <c r="AD8" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.02</v>
       </c>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1">
+        <f>ROW(K8)</f>
         <v>8</v>
       </c>
-      <c r="AG8" s="15" t="str">
+      <c r="AL8" s="15" t="str">
         <f>J8&amp;"-"&amp;COUNTIF($J$1:J8,J8)</f>
         <v>33615420269-1</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AM8" s="1">
+        <f>IF(K7=K8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <f>IF(K8=K9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1" t="str">
+        <f>RIGHT(F8)</f>
+        <v>A</v>
+      </c>
+      <c r="AP8" s="1">
+        <f>IF(LEFT(F8,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="13">
+        <f>IF(RIGHT(F8,1)="A",ROUND(O8*N8*(1+Q8),2),AG8)</f>
+        <v>229999.98</v>
+      </c>
+      <c r="AS8" s="13">
+        <f t="shared" si="5"/>
+        <v>190082.63</v>
+      </c>
+      <c r="AT8" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1">
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AU8" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK8" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="13">
-        <f t="shared" si="21"/>
-        <v>229999.98</v>
-      </c>
-      <c r="AN8" s="13">
-        <f t="shared" si="9"/>
-        <v>190082.63</v>
-      </c>
-      <c r="AO8" s="20">
-        <f t="shared" si="10"/>
+        <v>230000</v>
+      </c>
+      <c r="AV8" s="20">
+        <f t="shared" si="17"/>
         <v>10.004348999999999</v>
       </c>
-      <c r="AP8" s="13">
-        <f t="shared" si="11"/>
-        <v>230000</v>
-      </c>
-      <c r="AQ8" s="20">
-        <f t="shared" si="22"/>
-        <v>10.004348999999999</v>
-      </c>
-      <c r="AR8" s="2"/>
+      <c r="AW8" s="2"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B9" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2460,130 +2571,141 @@
         <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Mayo</v>
-      </c>
-      <c r="M9" s="4">
+        <f t="shared" ca="1" si="20"/>
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="4">
         <v>1.0221830000000001</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>19000</v>
       </c>
-      <c r="O9" s="5">
-        <f t="shared" si="16"/>
+      <c r="P9" s="5">
+        <f t="shared" si="12"/>
         <v>19421.477000000003</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="14">
+      <c r="T9" s="11"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z9" s="14">
         <f>COUNTIFS($F$1:F9,F9,$K$1:K9,K9)+1</f>
         <v>2</v>
       </c>
-      <c r="V9" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA9" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.022183</v>
       </c>
-      <c r="W9" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB9" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X9" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC9" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y9" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD9" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z9" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE9" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="13">
+        <f t="shared" si="4"/>
         <v>4078.51</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AG9" s="13">
+        <f t="shared" si="16"/>
+        <v>23499.99</v>
+      </c>
+      <c r="AH9" s="10" t="str">
+        <f>IF(RIGHT(F9,1)="A",SUBSTITUTE(TEXT(P9,"0,00"),",","."),SUBSTITUTE(TEXT(AG9,"0,00"),",","."))</f>
+        <v>19421.48</v>
+      </c>
+      <c r="AI9" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>23499.99</v>
-      </c>
-      <c r="AC9" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>19421.48</v>
-      </c>
-      <c r="AD9" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1">
+        <f>ROW(K9)</f>
         <v>9</v>
       </c>
-      <c r="AG9" s="15" t="str">
+      <c r="AL9" s="15" t="str">
         <f>J9&amp;"-"&amp;COUNTIF($J$1:J9,J9)</f>
         <v>20147130202-1</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AM9" s="1">
+        <f>IF(K8=K9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <f>IF(K9=K10,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1" t="str">
+        <f>RIGHT(F9)</f>
+        <v>A</v>
+      </c>
+      <c r="AP9" s="1">
+        <f>IF(LEFT(F9,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="13">
+        <f>IF(RIGHT(F9,1)="A",ROUND(O9*N9*(1+Q9),2),AG9)</f>
+        <v>23499.99</v>
+      </c>
+      <c r="AS9" s="13">
+        <f t="shared" si="5"/>
+        <v>19421.48</v>
+      </c>
+      <c r="AT9" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
+        <v>1.0221830000000001</v>
+      </c>
+      <c r="AU9" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK9" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="13">
-        <f t="shared" si="21"/>
-        <v>23499.99</v>
-      </c>
-      <c r="AN9" s="13">
-        <f t="shared" si="9"/>
-        <v>19421.48</v>
-      </c>
-      <c r="AO9" s="20">
-        <f t="shared" si="10"/>
+        <v>23500</v>
+      </c>
+      <c r="AV9" s="20">
+        <f t="shared" si="17"/>
         <v>1.0221830000000001</v>
       </c>
-      <c r="AP9" s="13">
-        <f t="shared" si="11"/>
-        <v>23500</v>
-      </c>
-      <c r="AQ9" s="20">
-        <f t="shared" si="22"/>
-        <v>1.0221830000000001</v>
-      </c>
-      <c r="AR9" s="2"/>
+      <c r="AW9" s="2"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B10" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C10" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2607,130 +2729,141 @@
         <v>56</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Mayo</v>
-      </c>
-      <c r="M10" s="4">
+        <f t="shared" ca="1" si="20"/>
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4">
         <v>1.0439320000000001</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>19000</v>
       </c>
-      <c r="O10" s="5">
-        <f t="shared" si="16"/>
+      <c r="P10" s="5">
+        <f t="shared" si="12"/>
         <v>19834.708000000002</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="14">
+      <c r="T10" s="11"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z10" s="14">
         <f>COUNTIFS($F$1:F10,F10,$K$1:K10,K10)+1</f>
         <v>2</v>
       </c>
-      <c r="V10" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA10" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.043932</v>
       </c>
-      <c r="W10" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB10" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X10" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC10" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y10" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD10" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z10" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="13">
-        <f t="shared" si="3"/>
+      <c r="AE10" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="13">
+        <f t="shared" si="4"/>
         <v>4165.29</v>
       </c>
-      <c r="AB10" s="13">
+      <c r="AG10" s="13">
+        <f t="shared" si="16"/>
+        <v>24000</v>
+      </c>
+      <c r="AH10" s="10" t="str">
+        <f>IF(RIGHT(F10,1)="A",SUBSTITUTE(TEXT(P10,"0,00"),",","."),SUBSTITUTE(TEXT(AG10,"0,00"),",","."))</f>
+        <v>19834.71</v>
+      </c>
+      <c r="AI10" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>24000</v>
-      </c>
-      <c r="AC10" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>19834.71</v>
-      </c>
-      <c r="AD10" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1">
+        <f>ROW(K10)</f>
         <v>10</v>
       </c>
-      <c r="AG10" s="15" t="str">
+      <c r="AL10" s="15" t="str">
         <f>J10&amp;"-"&amp;COUNTIF($J$1:J10,J10)</f>
         <v>20374730429-1</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AM10" s="1">
+        <f>IF(K9=K10,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1">
+        <f>IF(K10=K11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO10" s="1" t="str">
+        <f>RIGHT(F10)</f>
+        <v>A</v>
+      </c>
+      <c r="AP10" s="1">
+        <f>IF(LEFT(F10,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="13">
+        <f>IF(RIGHT(F10,1)="A",ROUND(O10*N10*(1+Q10),2),AG10)</f>
+        <v>24000</v>
+      </c>
+      <c r="AS10" s="13">
+        <f t="shared" si="5"/>
+        <v>19834.71</v>
+      </c>
+      <c r="AT10" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
+        <v>1.0439320000000001</v>
+      </c>
+      <c r="AU10" s="13">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK10" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="13">
-        <f t="shared" si="21"/>
         <v>24000</v>
       </c>
-      <c r="AN10" s="13">
-        <f t="shared" si="9"/>
-        <v>19834.71</v>
-      </c>
-      <c r="AO10" s="20">
-        <f t="shared" si="10"/>
+      <c r="AV10" s="20">
+        <f t="shared" si="17"/>
         <v>1.0439320000000001</v>
       </c>
-      <c r="AP10" s="13">
-        <f t="shared" si="11"/>
-        <v>24000</v>
-      </c>
-      <c r="AQ10" s="20">
-        <f t="shared" si="22"/>
-        <v>1.0439320000000001</v>
-      </c>
-      <c r="AR10" s="2"/>
+      <c r="AW10" s="2"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B11" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C11" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2754,130 +2887,141 @@
         <v>56</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Mayo</v>
-      </c>
-      <c r="M11" s="4">
+        <f t="shared" ca="1" si="20"/>
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="4">
         <v>1.3</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>10000</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
+        <f t="shared" si="12"/>
+        <v>13000</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z11" s="14">
+        <f>COUNTIFS($F$1:F11,F11,$K$1:K11,K11)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="AB11" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>10000.00</v>
+      </c>
+      <c r="AC11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AD11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE11" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="13">
+        <f t="shared" si="4"/>
+        <v>2256.1999999999998</v>
+      </c>
+      <c r="AG11" s="13">
         <f t="shared" si="16"/>
         <v>13000</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="14">
-        <f>COUNTIFS($F$1:F11,F11,$K$1:K11,K11)+1</f>
-        <v>2</v>
-      </c>
-      <c r="V11" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="W11" s="18" t="str">
-        <f t="shared" si="17"/>
-        <v>10000.00</v>
-      </c>
-      <c r="X11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
-      </c>
-      <c r="Y11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z11" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="13">
-        <f t="shared" si="3"/>
-        <v>2256.1999999999998</v>
-      </c>
-      <c r="AB11" s="13">
+      <c r="AH11" s="10" t="str">
+        <f>IF(RIGHT(F11,1)="A",SUBSTITUTE(TEXT(P11,"0,00"),",","."),SUBSTITUTE(TEXT(AG11,"0,00"),",","."))</f>
+        <v>13000.00</v>
+      </c>
+      <c r="AI11" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>13000</v>
-      </c>
-      <c r="AC11" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>13000.00</v>
-      </c>
-      <c r="AD11" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1">
+        <f>ROW(K11)</f>
         <v>11</v>
       </c>
-      <c r="AG11" s="15" t="str">
+      <c r="AL11" s="15" t="str">
         <f>J11&amp;"-"&amp;COUNTIF($J$1:J11,J11)</f>
         <v>37473042-1</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AM11" s="1">
+        <f>IF(K10=K11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1">
+        <f>IF(K11=K12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1" t="str">
+        <f>RIGHT(F11)</f>
+        <v>B</v>
+      </c>
+      <c r="AP11" s="1">
+        <f>IF(LEFT(F11,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="13">
+        <f>IF(RIGHT(F11,1)="A",ROUND(O11*N11*(1+Q11),2),AG11)</f>
+        <v>13000</v>
+      </c>
+      <c r="AS11" s="13">
+        <f t="shared" si="5"/>
+        <v>10743.8</v>
+      </c>
+      <c r="AT11" s="20">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AI11" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AU11" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>B</v>
-      </c>
-      <c r="AK11" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="13">
-        <f t="shared" si="21"/>
         <v>13000</v>
       </c>
-      <c r="AN11" s="13">
-        <f t="shared" si="9"/>
-        <v>10743.8</v>
-      </c>
-      <c r="AO11" s="20">
-        <f t="shared" si="10"/>
+      <c r="AV11" s="20">
+        <f t="shared" si="17"/>
         <v>1.3</v>
       </c>
-      <c r="AP11" s="13">
-        <f t="shared" si="11"/>
-        <v>13000</v>
-      </c>
-      <c r="AQ11" s="20">
-        <f t="shared" si="22"/>
-        <v>1.3</v>
-      </c>
-      <c r="AR11" s="2"/>
+      <c r="AW11" s="2"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B12" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -2901,130 +3045,141 @@
         <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Mayo</v>
-      </c>
-      <c r="M12" s="4">
+        <f t="shared" ca="1" si="20"/>
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="4">
         <v>1.2105263157894737</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>19000</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
+        <f t="shared" si="12"/>
+        <v>23000</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y12" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z12" s="14">
+        <f>COUNTIFS($F$1:F12,F12,$K$1:K12,K12)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.210526</v>
+      </c>
+      <c r="AB12" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>19000.00</v>
+      </c>
+      <c r="AC12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AD12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000000</v>
+      </c>
+      <c r="AE12" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="13">
+        <f t="shared" si="4"/>
+        <v>3991.74</v>
+      </c>
+      <c r="AG12" s="13">
         <f t="shared" si="16"/>
         <v>23000</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="14">
-        <f>COUNTIFS($F$1:F12,F12,$K$1:K12,K12)+1</f>
-        <v>2</v>
-      </c>
-      <c r="V12" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>1.210526</v>
-      </c>
-      <c r="W12" s="18" t="str">
-        <f t="shared" si="17"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
-      </c>
-      <c r="Y12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00000000</v>
-      </c>
-      <c r="Z12" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="13">
-        <f t="shared" si="3"/>
-        <v>3991.74</v>
-      </c>
-      <c r="AB12" s="13">
+      <c r="AH12" s="10" t="str">
+        <f>IF(RIGHT(F12,1)="A",SUBSTITUTE(TEXT(P12,"0,00"),",","."),SUBSTITUTE(TEXT(AG12,"0,00"),",","."))</f>
+        <v>23000.00</v>
+      </c>
+      <c r="AI12" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>23000</v>
-      </c>
-      <c r="AC12" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>23000.00</v>
-      </c>
-      <c r="AD12" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1">
+        <f>ROW(K12)</f>
         <v>12</v>
       </c>
-      <c r="AG12" s="15" t="str">
+      <c r="AL12" s="15" t="str">
         <f>J12&amp;"-"&amp;COUNTIF($J$1:J12,J12)</f>
         <v>30707354719-1</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AM12" s="1">
+        <f>IF(K11=K12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <f>IF(K12=K13,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1" t="str">
+        <f>RIGHT(F12)</f>
+        <v>B</v>
+      </c>
+      <c r="AP12" s="1">
+        <f>IF(LEFT(F12,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="13">
+        <f>IF(RIGHT(F12,1)="A",ROUND(O12*N12*(1+Q12),2),AG12)</f>
+        <v>23000</v>
+      </c>
+      <c r="AS12" s="13">
+        <f t="shared" si="5"/>
+        <v>19008.259999999998</v>
+      </c>
+      <c r="AT12" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
+        <v>1.2105263157894737</v>
+      </c>
+      <c r="AU12" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>B</v>
-      </c>
-      <c r="AK12" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="13">
-        <f t="shared" si="21"/>
         <v>23000</v>
       </c>
-      <c r="AN12" s="13">
-        <f t="shared" si="9"/>
-        <v>19008.259999999998</v>
-      </c>
-      <c r="AO12" s="20">
-        <f t="shared" si="10"/>
+      <c r="AV12" s="20">
+        <f t="shared" si="17"/>
         <v>1.2105263157894737</v>
       </c>
-      <c r="AP12" s="13">
-        <f t="shared" si="11"/>
-        <v>23000</v>
-      </c>
-      <c r="AQ12" s="20">
-        <f t="shared" si="22"/>
-        <v>1.2105263157894737</v>
-      </c>
-      <c r="AR12" s="2"/>
+      <c r="AW12" s="2"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B13" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3046,128 +3201,139 @@
         <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>Honorarios Mayo</v>
-      </c>
-      <c r="M13" s="4">
+        <f t="shared" ca="1" si="20"/>
+        <v>Honorarios Julio</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4">
         <v>1.5</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>19000</v>
       </c>
-      <c r="O13" s="5">
-        <f t="shared" si="16"/>
+      <c r="P13" s="5">
+        <f t="shared" si="12"/>
         <v>28500</v>
       </c>
-      <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="14">
+      <c r="T13" s="11"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y13" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z13" s="14">
         <f>COUNTIFS($F$1:F13,F13,$K$1:K13,K13)+1</f>
         <v>2</v>
       </c>
-      <c r="V13" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA13" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="W13" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB13" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X13" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC13" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00000</v>
       </c>
-      <c r="Y13" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD13" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="Z13" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="13">
+      <c r="AE13" s="9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="13">
+        <f t="shared" si="16"/>
+        <v>28500</v>
+      </c>
+      <c r="AH13" s="10" t="str">
+        <f>IF(RIGHT(F13,1)="A",SUBSTITUTE(TEXT(P13,"0,00"),",","."),SUBSTITUTE(TEXT(AG13,"0,00"),",","."))</f>
+        <v>28500.00</v>
+      </c>
+      <c r="AI13" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>28500</v>
-      </c>
-      <c r="AC13" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>28500.00</v>
-      </c>
-      <c r="AD13" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1">
+        <f>ROW(K13)</f>
         <v>13</v>
       </c>
-      <c r="AG13" s="15" t="str">
+      <c r="AL13" s="15" t="str">
         <f>J13&amp;"-"&amp;COUNTIF($J$1:J13,J13)</f>
         <v>-0</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AM13" s="1">
+        <f>IF(K12=K13,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1">
+        <f>IF(K13=K14,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1" t="str">
+        <f>RIGHT(F13)</f>
+        <v>C</v>
+      </c>
+      <c r="AP13" s="1">
+        <f>IF(LEFT(F13,4)="Nota",0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="13">
+        <f>IF(RIGHT(F13,1)="A",ROUND(O13*N13*(1+Q13),2),AG13)</f>
+        <v>28500</v>
+      </c>
+      <c r="AS13" s="13">
+        <f t="shared" si="5"/>
+        <v>28500</v>
+      </c>
+      <c r="AT13" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AU13" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>C</v>
-      </c>
-      <c r="AK13" s="1">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="13">
-        <f t="shared" si="21"/>
         <v>28500</v>
       </c>
-      <c r="AN13" s="13">
-        <f t="shared" si="9"/>
-        <v>28500</v>
-      </c>
-      <c r="AO13" s="20">
-        <f t="shared" si="10"/>
+      <c r="AV13" s="20">
+        <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
-      <c r="AP13" s="13">
-        <f t="shared" si="11"/>
-        <v>28500</v>
-      </c>
-      <c r="AQ13" s="20">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
-      </c>
-      <c r="AR13" s="2"/>
+      <c r="AW13" s="2"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B14" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3193,135 +3359,146 @@
       <c r="L14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="2"/>
+      <c r="N14" s="4">
         <v>7.0247929999999998</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>19000</v>
       </c>
-      <c r="O14" s="5">
-        <f t="shared" si="16"/>
+      <c r="P14" s="5">
+        <f t="shared" si="12"/>
         <v>133471.06700000001</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="Q14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="R14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="T14" s="12">
+      <c r="U14" s="12">
         <v>44816</v>
       </c>
-      <c r="U14" s="14">
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z14" s="14">
         <f>COUNTIFS($F$1:F14,F14,$K$1:K14,K14)+1</f>
         <v>2</v>
       </c>
-      <c r="V14" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA14" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>7.024793</v>
       </c>
-      <c r="W14" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB14" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X14" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC14" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00002</v>
       </c>
-      <c r="Y14" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD14" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000150</v>
       </c>
-      <c r="Z14" s="9">
-        <f t="shared" si="18"/>
+      <c r="AE14" s="9">
+        <f t="shared" si="15"/>
         <v>44816</v>
       </c>
-      <c r="AA14" s="13">
-        <f t="shared" si="3"/>
+      <c r="AF14" s="13">
+        <f t="shared" si="4"/>
         <v>28028.92</v>
       </c>
-      <c r="AB14" s="13">
+      <c r="AG14" s="13">
+        <f t="shared" si="16"/>
+        <v>161499.99</v>
+      </c>
+      <c r="AH14" s="10" t="str">
+        <f>IF(RIGHT(F14,1)="A",SUBSTITUTE(TEXT(P14,"0,00"),",","."),SUBSTITUTE(TEXT(AG14,"0,00"),",","."))</f>
+        <v>133471.07</v>
+      </c>
+      <c r="AI14" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>161499.99</v>
-      </c>
-      <c r="AC14" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>133471.07</v>
-      </c>
-      <c r="AD14" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1">
+        <f>ROW(K14)</f>
         <v>14</v>
       </c>
-      <c r="AG14" s="15" t="str">
+      <c r="AL14" s="15" t="str">
         <f>J14&amp;"-"&amp;COUNTIF($J$1:J14,J14)</f>
         <v>30684125792-1</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AM14" s="1">
+        <f>IF(K13=K14,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <f>IF(K14=K15,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1" t="str">
+        <f>RIGHT(F14)</f>
+        <v>A</v>
+      </c>
+      <c r="AP14" s="1">
+        <f>IF(LEFT(F14,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="13">
+        <f>IF(RIGHT(F14,1)="A",ROUND(O14*N14*(1+Q14),2),AG14)</f>
+        <v>161499.99</v>
+      </c>
+      <c r="AS14" s="13">
+        <f t="shared" si="5"/>
+        <v>133471.07</v>
+      </c>
+      <c r="AT14" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
+        <v>7.0247929999999998</v>
+      </c>
+      <c r="AU14" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK14" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="13">
-        <f t="shared" si="21"/>
-        <v>161499.99</v>
-      </c>
-      <c r="AN14" s="13">
-        <f t="shared" si="9"/>
-        <v>133471.07</v>
-      </c>
-      <c r="AO14" s="20">
-        <f t="shared" si="10"/>
+        <v>161500</v>
+      </c>
+      <c r="AV14" s="20">
+        <f t="shared" si="17"/>
         <v>7.0247929999999998</v>
       </c>
-      <c r="AP14" s="13">
-        <f t="shared" si="11"/>
-        <v>161500</v>
-      </c>
-      <c r="AQ14" s="20">
-        <f t="shared" si="22"/>
-        <v>7.0247929999999998</v>
-      </c>
-      <c r="AR14" s="2"/>
+      <c r="AW14" s="2"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B15" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C15" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -3347,135 +3524,146 @@
       <c r="L15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="2"/>
+      <c r="N15" s="4">
         <v>1.5</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>19000</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
+        <f t="shared" si="12"/>
+        <v>28500</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="U15" s="12">
+        <v>44816</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y15" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z15" s="14">
+        <f>COUNTIFS($F$1:F15,F15,$K$1:K15,K15)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB15" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>19000.00</v>
+      </c>
+      <c r="AC15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AD15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000152</v>
+      </c>
+      <c r="AE15" s="9">
+        <f t="shared" si="15"/>
+        <v>44816</v>
+      </c>
+      <c r="AF15" s="13">
+        <f t="shared" si="4"/>
+        <v>4946.28</v>
+      </c>
+      <c r="AG15" s="13">
         <f t="shared" si="16"/>
         <v>28500</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T15" s="12">
-        <v>44816</v>
-      </c>
-      <c r="U15" s="14">
-        <f>COUNTIFS($F$1:F15,F15,$K$1:K15,K15)+1</f>
-        <v>2</v>
-      </c>
-      <c r="V15" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="W15" s="18" t="str">
-        <f t="shared" si="17"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00002</v>
-      </c>
-      <c r="Y15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00000152</v>
-      </c>
-      <c r="Z15" s="9">
-        <f t="shared" si="18"/>
-        <v>44816</v>
-      </c>
-      <c r="AA15" s="13">
-        <f t="shared" si="3"/>
-        <v>4946.28</v>
-      </c>
-      <c r="AB15" s="13">
+      <c r="AH15" s="10" t="str">
+        <f>IF(RIGHT(F15,1)="A",SUBSTITUTE(TEXT(P15,"0,00"),",","."),SUBSTITUTE(TEXT(AG15,"0,00"),",","."))</f>
+        <v>28500.00</v>
+      </c>
+      <c r="AI15" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>28500</v>
-      </c>
-      <c r="AC15" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>28500.00</v>
-      </c>
-      <c r="AD15" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1">
+        <f>ROW(K15)</f>
         <v>15</v>
       </c>
-      <c r="AG15" s="15" t="str">
+      <c r="AL15" s="15" t="str">
         <f>J15&amp;"-"&amp;COUNTIF($J$1:J15,J15)</f>
         <v>30707354719-2</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AM15" s="1">
+        <f>IF(K14=K15,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
+        <f>IF(K15=K16,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1" t="str">
+        <f>RIGHT(F15)</f>
+        <v>B</v>
+      </c>
+      <c r="AP15" s="1">
+        <f>IF(LEFT(F15,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="13">
+        <f>IF(RIGHT(F15,1)="A",ROUND(O15*N15*(1+Q15),2),AG15)</f>
+        <v>28500</v>
+      </c>
+      <c r="AS15" s="13">
+        <f t="shared" si="5"/>
+        <v>23553.72</v>
+      </c>
+      <c r="AT15" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AU15" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>B</v>
-      </c>
-      <c r="AK15" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="13">
-        <f t="shared" si="21"/>
         <v>28500</v>
       </c>
-      <c r="AN15" s="13">
-        <f t="shared" si="9"/>
-        <v>23553.72</v>
-      </c>
-      <c r="AO15" s="20">
-        <f t="shared" si="10"/>
+      <c r="AV15" s="20">
+        <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
-      <c r="AP15" s="13">
-        <f t="shared" si="11"/>
-        <v>28500</v>
-      </c>
-      <c r="AQ15" s="20">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
-      </c>
-      <c r="AR15" s="2"/>
+      <c r="AW15" s="2"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B16" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -3501,135 +3689,146 @@
       <c r="L16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="2"/>
+      <c r="N16" s="4">
         <v>7.003044</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>19000</v>
       </c>
-      <c r="O16" s="5">
-        <f t="shared" si="16"/>
+      <c r="P16" s="5">
+        <f t="shared" si="12"/>
         <v>133057.83600000001</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="Q16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="R16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="T16" s="12">
+      <c r="U16" s="12">
         <v>44816</v>
       </c>
-      <c r="U16" s="14">
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y16" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z16" s="14">
         <f>COUNTIFS($F$1:F16,F16,$K$1:K16,K16)+1</f>
         <v>2</v>
       </c>
-      <c r="V16" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA16" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>7.003044</v>
       </c>
-      <c r="W16" s="18" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB16" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>19000.00</v>
       </c>
-      <c r="X16" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC16" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>00002</v>
       </c>
-      <c r="Y16" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD16" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000151</v>
       </c>
-      <c r="Z16" s="9">
-        <f t="shared" si="18"/>
+      <c r="AE16" s="9">
+        <f t="shared" si="15"/>
         <v>44816</v>
       </c>
-      <c r="AA16" s="13">
-        <f t="shared" si="3"/>
+      <c r="AF16" s="13">
+        <f t="shared" si="4"/>
         <v>27942.15</v>
       </c>
-      <c r="AB16" s="13">
+      <c r="AG16" s="13">
+        <f t="shared" si="16"/>
+        <v>160999.99</v>
+      </c>
+      <c r="AH16" s="10" t="str">
+        <f>IF(RIGHT(F16,1)="A",SUBSTITUTE(TEXT(P16,"0,00"),",","."),SUBSTITUTE(TEXT(AG16,"0,00"),",","."))</f>
+        <v>133057.84</v>
+      </c>
+      <c r="AI16" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>160999.99</v>
-      </c>
-      <c r="AC16" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>133057.84</v>
-      </c>
-      <c r="AD16" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.01</v>
       </c>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1">
+        <f>ROW(K16)</f>
         <v>16</v>
       </c>
-      <c r="AG16" s="15" t="str">
+      <c r="AL16" s="15" t="str">
         <f>J16&amp;"-"&amp;COUNTIF($J$1:J16,J16)</f>
         <v>30684125792-2</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AM16" s="1">
+        <f>IF(K15=K16,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <f>IF(K16=K17,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="1" t="str">
+        <f>RIGHT(F16)</f>
+        <v>A</v>
+      </c>
+      <c r="AP16" s="1">
+        <f>IF(LEFT(F16,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="13">
+        <f>IF(RIGHT(F16,1)="A",ROUND(O16*N16*(1+Q16),2),AG16)</f>
+        <v>160999.98000000001</v>
+      </c>
+      <c r="AS16" s="13">
+        <f t="shared" si="5"/>
+        <v>133057.82999999999</v>
+      </c>
+      <c r="AT16" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="1">
+        <v>7.003044</v>
+      </c>
+      <c r="AU16" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>A</v>
-      </c>
-      <c r="AK16" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="13">
-        <f t="shared" si="21"/>
-        <v>160999.98000000001</v>
-      </c>
-      <c r="AN16" s="13">
-        <f t="shared" si="9"/>
-        <v>133057.82999999999</v>
-      </c>
-      <c r="AO16" s="20">
-        <f t="shared" si="10"/>
+        <v>161000</v>
+      </c>
+      <c r="AV16" s="20">
+        <f t="shared" si="17"/>
         <v>7.003044</v>
       </c>
-      <c r="AP16" s="13">
-        <f t="shared" si="11"/>
-        <v>161000</v>
-      </c>
-      <c r="AQ16" s="20">
-        <f t="shared" si="22"/>
-        <v>7.003044</v>
-      </c>
-      <c r="AR16" s="2"/>
+      <c r="AW16" s="2"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" ca="1" si="12"/>
-        <v>45107</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45140</v>
       </c>
       <c r="B17" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>45047</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>45108</v>
       </c>
       <c r="C17" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>45077</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45138</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" ca="1" si="15"/>
-        <v>45121</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45154</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -3655,122 +3854,133 @@
       <c r="L17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="2"/>
+      <c r="N17" s="4">
         <v>1.5</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>19000</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
+        <f t="shared" si="12"/>
+        <v>28500</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="12">
+        <v>44816</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z17" s="14">
+        <f>COUNTIFS($F$1:F17,F17,$K$1:K17,K17)+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA17" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB17" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>19000.00</v>
+      </c>
+      <c r="AC17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AD17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>00000153</v>
+      </c>
+      <c r="AE17" s="9">
+        <f t="shared" si="15"/>
+        <v>44816</v>
+      </c>
+      <c r="AF17" s="13">
+        <f t="shared" si="4"/>
+        <v>4946.28</v>
+      </c>
+      <c r="AG17" s="13">
         <f t="shared" si="16"/>
         <v>28500</v>
       </c>
-      <c r="P17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="T17" s="12">
-        <v>44816</v>
-      </c>
-      <c r="U17" s="14">
-        <f>COUNTIFS($F$1:F17,F17,$K$1:K17,K17)+1</f>
-        <v>2</v>
-      </c>
-      <c r="V17" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="W17" s="18" t="str">
-        <f t="shared" si="17"/>
-        <v>19000.00</v>
-      </c>
-      <c r="X17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00002</v>
-      </c>
-      <c r="Y17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00000153</v>
-      </c>
-      <c r="Z17" s="9">
-        <f t="shared" si="18"/>
-        <v>44816</v>
-      </c>
-      <c r="AA17" s="13">
-        <f t="shared" si="3"/>
-        <v>4946.28</v>
-      </c>
-      <c r="AB17" s="13">
+      <c r="AH17" s="10" t="str">
+        <f>IF(RIGHT(F17,1)="A",SUBSTITUTE(TEXT(P17,"0,00"),",","."),SUBSTITUTE(TEXT(AG17,"0,00"),",","."))</f>
+        <v>28500.00</v>
+      </c>
+      <c r="AI17" s="10" t="str">
         <f t="shared" si="19"/>
-        <v>28500</v>
-      </c>
-      <c r="AC17" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>28500.00</v>
-      </c>
-      <c r="AD17" s="10" t="str">
-        <f t="shared" si="23"/>
         <v>0.00</v>
       </c>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1">
-        <f t="shared" si="5"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1">
+        <f>ROW(K17)</f>
         <v>17</v>
       </c>
-      <c r="AG17" s="15" t="str">
+      <c r="AL17" s="15" t="str">
         <f>J17&amp;"-"&amp;COUNTIF($J$1:J17,J17)</f>
         <v>37473042-2</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AM17" s="1">
+        <f>IF(K16=K17,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <f>IF(K17=K18,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1" t="str">
+        <f>RIGHT(F17)</f>
+        <v>B</v>
+      </c>
+      <c r="AP17" s="1">
+        <f>IF(LEFT(F17,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="13">
+        <f>IF(RIGHT(F17,1)="A",ROUND(O17*N17*(1+Q17),2),AG17)</f>
+        <v>28500</v>
+      </c>
+      <c r="AS17" s="13">
+        <f t="shared" si="5"/>
+        <v>23553.72</v>
+      </c>
+      <c r="AT17" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AU17" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>B</v>
-      </c>
-      <c r="AK17" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="13">
-        <f t="shared" si="21"/>
         <v>28500</v>
       </c>
-      <c r="AN17" s="13">
-        <f t="shared" si="9"/>
-        <v>23553.72</v>
-      </c>
-      <c r="AO17" s="20">
-        <f t="shared" si="10"/>
+      <c r="AV17" s="20">
+        <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
-      <c r="AP17" s="13">
-        <f t="shared" si="11"/>
-        <v>28500</v>
-      </c>
-      <c r="AQ17" s="20">
-        <f t="shared" si="22"/>
-        <v>1.5</v>
-      </c>
-      <c r="AR17" s="2"/>
+      <c r="AW17" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO17">
+  <autoFilter ref="A1:AU17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT17">
     <sortCondition ref="F2:F17"/>
     <sortCondition ref="H2:H17"/>
     <sortCondition ref="J2:J17"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F54E1BB-2FE6-400B-98BA-4EAA00B97F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808C8CFD-07D8-45CA-8342-D05B09214139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,7 +840,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -865,6 +865,7 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1229,10 +1230,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1487,7 @@
         <v/>
       </c>
       <c r="Y2" s="1" t="str">
-        <f t="shared" ref="Y2:Y17" si="0">SUBSTITUTE(W2,",",".")</f>
+        <f t="shared" ref="Y2" si="0">SUBSTITUTE(W2,",",".")</f>
         <v/>
       </c>
       <c r="Z2" s="14">
@@ -1522,16 +1523,16 @@
         <v>160999.99</v>
       </c>
       <c r="AH2" s="10" t="str">
-        <f>IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(P2,"0,00"),",","."),SUBSTITUTE(TEXT(AG2,"0,00"),",","."))</f>
+        <f t="shared" ref="AH2:AH17" si="5">IF(RIGHT(F2,1)="A",SUBSTITUTE(TEXT(P2,"0,00"),",","."),SUBSTITUTE(TEXT(AG2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
       <c r="AI2" s="10" t="str">
         <f>SUBSTITUTE(TEXT(ROUNDUP(AG2,0)-AG2,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AJ2" s="1"/>
+      <c r="AJ2" s="22"/>
       <c r="AK2" s="1">
-        <f>ROW(K2)</f>
+        <f t="shared" ref="AK2:AK17" si="6">ROW(K2)</f>
         <v>2</v>
       </c>
       <c r="AL2" s="15" t="str">
@@ -1539,36 +1540,36 @@
         <v>30525390086-1</v>
       </c>
       <c r="AM2" s="1">
-        <f>IF(K1=K2,1,0)</f>
+        <f t="shared" ref="AM2:AM17" si="7">IF(K1=K2,1,0)</f>
         <v>0</v>
       </c>
       <c r="AN2" s="1">
-        <f>IF(K2=K3,1,0)</f>
+        <f t="shared" ref="AN2:AN17" si="8">IF(K2=K3,1,0)</f>
         <v>0</v>
       </c>
       <c r="AO2" s="1" t="str">
-        <f>RIGHT(F2)</f>
+        <f t="shared" ref="AO2:AO17" si="9">RIGHT(F2)</f>
         <v>A</v>
       </c>
       <c r="AP2" s="1">
-        <f>IF(LEFT(F2,4)="Nota",0,1)</f>
+        <f t="shared" ref="AP2:AP17" si="10">IF(LEFT(F2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="13">
-        <f>IF(RIGHT(F2,1)="A",ROUND(O2*N2*(1+Q2),2),AG2)</f>
+        <f t="shared" ref="AR2:AR17" si="11">IF(RIGHT(F2,1)="A",ROUND(O2*N2*(1+Q2),2),AG2)</f>
         <v>160999.98000000001</v>
       </c>
       <c r="AS2" s="13">
-        <f t="shared" ref="AS2:AS17" si="5">ROUND((AR2/(1+Q2)),2)</f>
+        <f t="shared" ref="AS2:AS17" si="12">ROUND((AR2/(1+Q2)),2)</f>
         <v>133057.82999999999</v>
       </c>
       <c r="AT2" s="20">
-        <f t="shared" ref="AT2:AT17" si="6">IF(AO2="A",ROUND(AS2/O2,6),AR2/O2)</f>
+        <f t="shared" ref="AT2:AT17" si="13">IF(AO2="A",ROUND(AS2/O2,6),AR2/O2)</f>
         <v>7.003044</v>
       </c>
       <c r="AU2" s="13">
-        <f t="shared" ref="AU2:AU17" si="7">IF(AO2="A",ROUND(CEILING(O2*N2*(1+Q2),500),2),ROUND(CEILING(O2*N2,500),2))</f>
+        <f t="shared" ref="AU2:AU17" si="14">IF(AO2="A",ROUND(CEILING(O2*N2*(1+Q2),500),2),ROUND(CEILING(O2*N2,500),2))</f>
         <v>161000</v>
       </c>
       <c r="AV2" s="20">
@@ -1579,19 +1580,19 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A17" ca="1" si="8">TODAY()</f>
+        <f t="shared" ref="A3:A17" ca="1" si="15">TODAY()</f>
         <v>45140</v>
       </c>
       <c r="B3" s="9">
-        <f t="shared" ref="B3:B17" ca="1" si="9">DATE(YEAR(C3),MONTH(C3),1)</f>
+        <f t="shared" ref="B3:B17" ca="1" si="16">DATE(YEAR(C3),MONTH(C3),1)</f>
         <v>45108</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C17" ca="1" si="10">EOMONTH(A3,-1)</f>
+        <f t="shared" ref="C3:C17" ca="1" si="17">EOMONTH(A3,-1)</f>
         <v>45138</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D17" ca="1" si="11">A3+14</f>
+        <f t="shared" ref="D3:D17" ca="1" si="18">A3+14</f>
         <v>45154</v>
       </c>
       <c r="E3" s="2">
@@ -1627,7 +1628,7 @@
         <v>19000</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P17" si="12">N3*O3</f>
+        <f t="shared" ref="P3:P17" si="19">N3*O3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="Q3" s="11" t="s">
@@ -1640,7 +1641,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X17" si="13">SUBSTITUTE(V3,",",".")</f>
+        <f t="shared" ref="X3:X17" si="20">SUBSTITUTE(V3,",",".")</f>
         <v/>
       </c>
       <c r="Y3" s="1" t="str">
@@ -1656,7 +1657,7 @@
         <v>8.025228</v>
       </c>
       <c r="AB3" s="18" t="str">
-        <f t="shared" ref="AB3:AB17" si="14">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
+        <f t="shared" ref="AB3:AB17" si="21">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AC3" s="1" t="str">
@@ -1668,7 +1669,7 @@
         <v>00000000</v>
       </c>
       <c r="AE3" s="9">
-        <f t="shared" ref="AE3:AE17" si="15">U3</f>
+        <f t="shared" ref="AE3:AE17" si="22">U3</f>
         <v>0</v>
       </c>
       <c r="AF3" s="13">
@@ -1676,20 +1677,20 @@
         <v>32020.66</v>
       </c>
       <c r="AG3" s="13">
-        <f t="shared" ref="AG3:AG17" si="16">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
+        <f t="shared" ref="AG3:AG17" si="23">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
         <v>184499.99</v>
       </c>
       <c r="AH3" s="10" t="str">
-        <f>IF(RIGHT(F3,1)="A",SUBSTITUTE(TEXT(P3,"0,00"),",","."),SUBSTITUTE(TEXT(AG3,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>152479.33</v>
       </c>
       <c r="AI3" s="10" t="str">
         <f>SUBSTITUTE(TEXT(ROUNDUP(AG3,0)-AG3,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AJ3" s="1"/>
+      <c r="AJ3" s="22"/>
       <c r="AK3" s="1">
-        <f>ROW(K3)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AL3" s="15" t="str">
@@ -1697,59 +1698,59 @@
         <v>30525733870-1</v>
       </c>
       <c r="AM3" s="1">
-        <f>IF(K2=K3,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN3" s="1">
-        <f>IF(K3=K4,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO3" s="1" t="str">
-        <f>RIGHT(F3)</f>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP3" s="1">
-        <f>IF(LEFT(F3,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="13">
-        <f>IF(RIGHT(F3,1)="A",ROUND(O3*N3*(1+Q3),2),AG3)</f>
+        <f t="shared" si="11"/>
         <v>184499.99</v>
       </c>
       <c r="AS3" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>152479.32999999999</v>
       </c>
       <c r="AT3" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>8.0252280000000003</v>
       </c>
       <c r="AU3" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>184500</v>
       </c>
       <c r="AV3" s="20">
-        <f t="shared" ref="AV3:AV17" si="17">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
+        <f t="shared" ref="AV3:AV17" si="24">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
         <v>8.0252280000000003</v>
       </c>
       <c r="AW3" s="2"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B4" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E4" s="2">
@@ -1785,7 +1786,7 @@
         <v>19000</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>190082.63099999999</v>
       </c>
       <c r="Q4" s="11" t="s">
@@ -1798,11 +1799,11 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y4" s="1" t="str">
-        <f t="shared" ref="Y4:Y17" si="18">SUBSTITUTE(W4,",",".")</f>
+        <f t="shared" ref="Y4:Y17" si="25">SUBSTITUTE(W4,",",".")</f>
         <v/>
       </c>
       <c r="Z4" s="14">
@@ -1814,7 +1815,7 @@
         <v>10.004349</v>
       </c>
       <c r="AB4" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC4" s="1" t="str">
@@ -1826,7 +1827,7 @@
         <v>00000000</v>
       </c>
       <c r="AE4" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF4" s="13">
@@ -1834,20 +1835,20 @@
         <v>39917.35</v>
       </c>
       <c r="AG4" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>229999.98</v>
       </c>
       <c r="AH4" s="10" t="str">
-        <f>IF(RIGHT(F4,1)="A",SUBSTITUTE(TEXT(P4,"0,00"),",","."),SUBSTITUTE(TEXT(AG4,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>190082.63</v>
       </c>
       <c r="AI4" s="10" t="str">
         <f>SUBSTITUTE(TEXT(ROUNDUP(AG4,0)-AG4,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
-      <c r="AJ4" s="1"/>
+      <c r="AJ4" s="22"/>
       <c r="AK4" s="1">
-        <f>ROW(K4)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AL4" s="15" t="str">
@@ -1855,59 +1856,59 @@
         <v>30610252334-1</v>
       </c>
       <c r="AM4" s="1">
-        <f>IF(K3=K4,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN4" s="1">
-        <f>IF(K4=K5,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO4" s="1" t="str">
-        <f>RIGHT(F4)</f>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP4" s="1">
-        <f>IF(LEFT(F4,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="13">
-        <f>IF(RIGHT(F4,1)="A",ROUND(O4*N4*(1+Q4),2),AG4)</f>
+        <f t="shared" si="11"/>
         <v>229999.98</v>
       </c>
       <c r="AS4" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>190082.63</v>
       </c>
       <c r="AT4" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AU4" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>230000</v>
       </c>
       <c r="AV4" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AW4" s="2"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B5" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E5" s="2">
@@ -1943,7 +1944,7 @@
         <v>19000</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>171487.59700000001</v>
       </c>
       <c r="Q5" s="11" t="s">
@@ -1956,11 +1957,11 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y5" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z5" s="14">
@@ -1972,7 +1973,7 @@
         <v>9.025663</v>
       </c>
       <c r="AB5" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC5" s="1" t="str">
@@ -1984,7 +1985,7 @@
         <v>00000000</v>
       </c>
       <c r="AE5" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF5" s="13">
@@ -1992,20 +1993,20 @@
         <v>36012.400000000001</v>
       </c>
       <c r="AG5" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>207500</v>
       </c>
       <c r="AH5" s="10" t="str">
-        <f>IF(RIGHT(F5,1)="A",SUBSTITUTE(TEXT(P5,"0,00"),",","."),SUBSTITUTE(TEXT(AG5,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>171487.60</v>
       </c>
       <c r="AI5" s="10" t="str">
         <f>SUBSTITUTE(TEXT(ROUNDUP(AG5,0)-AG5,"0,00"),",",".")</f>
         <v>0.00</v>
       </c>
-      <c r="AJ5" s="1"/>
+      <c r="AJ5" s="22"/>
       <c r="AK5" s="1">
-        <f>ROW(K5)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AL5" s="15" t="str">
@@ -2013,59 +2014,59 @@
         <v>30710964277-1</v>
       </c>
       <c r="AM5" s="1">
-        <f>IF(K4=K5,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN5" s="1">
-        <f>IF(K5=K6,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO5" s="1" t="str">
-        <f>RIGHT(F5)</f>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP5" s="1">
-        <f>IF(LEFT(F5,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="13">
-        <f>IF(RIGHT(F5,1)="A",ROUND(O5*N5*(1+Q5),2),AG5)</f>
+        <f t="shared" si="11"/>
         <v>207499.99</v>
       </c>
       <c r="AS5" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>171487.6</v>
       </c>
       <c r="AT5" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AU5" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>207500</v>
       </c>
       <c r="AV5" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AW5" s="2"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B6" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E6" s="2">
@@ -2101,7 +2102,7 @@
         <v>19000</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>95454.536999999997</v>
       </c>
       <c r="Q6" s="11" t="s">
@@ -2122,11 +2123,11 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y6" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z6" s="14">
@@ -2138,7 +2139,7 @@
         <v>5.023923</v>
       </c>
       <c r="AB6" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC6" s="1" t="str">
@@ -2150,7 +2151,7 @@
         <v>00000003</v>
       </c>
       <c r="AE6" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>44816</v>
       </c>
       <c r="AF6" s="13">
@@ -2158,20 +2159,20 @@
         <v>20045.45</v>
       </c>
       <c r="AG6" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>115499.99</v>
       </c>
       <c r="AH6" s="10" t="str">
-        <f>IF(RIGHT(F6,1)="A",SUBSTITUTE(TEXT(P6,"0,00"),",","."),SUBSTITUTE(TEXT(AG6,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>95454.54</v>
       </c>
       <c r="AI6" s="10" t="str">
         <f>SUBSTITUTE(TEXT(ROUNDUP(AG6,0)-AG6,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AJ6" s="1"/>
+      <c r="AJ6" s="22"/>
       <c r="AK6" s="1">
-        <f>ROW(K6)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AL6" s="15" t="str">
@@ -2179,59 +2180,59 @@
         <v>33610006189-1</v>
       </c>
       <c r="AM6" s="1">
-        <f>IF(K5=K6,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <f>IF(K6=K7,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AO6" s="1" t="str">
-        <f>RIGHT(F6)</f>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP6" s="1">
-        <f>IF(LEFT(F6,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="13">
-        <f>IF(RIGHT(F6,1)="A",ROUND(O6*N6*(1+Q6),2),AG6)</f>
+        <f t="shared" si="11"/>
         <v>115499.99</v>
       </c>
       <c r="AS6" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>95454.54</v>
       </c>
       <c r="AT6" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AU6" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>115500</v>
       </c>
       <c r="AV6" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AW6" s="2"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C7" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E7" s="2">
@@ -2266,7 +2267,7 @@
         <v>19000</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>95041.305999999997</v>
       </c>
       <c r="Q7" s="11" t="s">
@@ -2279,11 +2280,11 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y7" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z7" s="14">
@@ -2295,7 +2296,7 @@
         <v>5.002174</v>
       </c>
       <c r="AB7" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC7" s="1" t="str">
@@ -2307,7 +2308,7 @@
         <v>00000000</v>
       </c>
       <c r="AE7" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF7" s="13">
@@ -2315,20 +2316,20 @@
         <v>19958.669999999998</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>114999.98</v>
       </c>
       <c r="AH7" s="10" t="str">
-        <f>IF(RIGHT(F7,1)="A",SUBSTITUTE(TEXT(P7,"0,00"),",","."),SUBSTITUTE(TEXT(AG7,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>95041.31</v>
       </c>
       <c r="AI7" s="10" t="str">
-        <f t="shared" ref="AI7:AI17" si="19">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
+        <f t="shared" ref="AI7:AI17" si="26">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
-      <c r="AJ7" s="1"/>
+      <c r="AJ7" s="22"/>
       <c r="AK7" s="1">
-        <f>ROW(K7)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AL7" s="15" t="str">
@@ -2336,59 +2337,59 @@
         <v>33610006189-2</v>
       </c>
       <c r="AM7" s="1">
-        <f>IF(K6=K7,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN7" s="1">
-        <f>IF(K7=K8,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO7" s="1" t="str">
-        <f>RIGHT(F7)</f>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP7" s="1">
-        <f>IF(LEFT(F7,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="13">
-        <f>IF(RIGHT(F7,1)="A",ROUND(O7*N7*(1+Q7),2),AG7)</f>
+        <f t="shared" si="11"/>
         <v>114999.98</v>
       </c>
       <c r="AS7" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>95041.31</v>
       </c>
       <c r="AT7" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AU7" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>115000</v>
       </c>
       <c r="AV7" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AW7" s="2"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B8" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E8" s="2">
@@ -2413,7 +2414,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" ref="L8:L13" ca="1" si="20">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <f t="shared" ref="L8:L13" ca="1" si="27">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
       <c r="M8" s="2"/>
@@ -2424,7 +2425,7 @@
         <v>19000</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>190082.63099999999</v>
       </c>
       <c r="Q8" s="11" t="s">
@@ -2437,11 +2438,11 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y8" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z8" s="14">
@@ -2453,7 +2454,7 @@
         <v>10.004349</v>
       </c>
       <c r="AB8" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC8" s="1" t="str">
@@ -2465,7 +2466,7 @@
         <v>00000000</v>
       </c>
       <c r="AE8" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF8" s="13">
@@ -2473,20 +2474,20 @@
         <v>39917.35</v>
       </c>
       <c r="AG8" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>229999.98</v>
       </c>
       <c r="AH8" s="10" t="str">
-        <f>IF(RIGHT(F8,1)="A",SUBSTITUTE(TEXT(P8,"0,00"),",","."),SUBSTITUTE(TEXT(AG8,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>190082.63</v>
       </c>
       <c r="AI8" s="10" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.02</v>
       </c>
-      <c r="AJ8" s="1"/>
+      <c r="AJ8" s="22"/>
       <c r="AK8" s="1">
-        <f>ROW(K8)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AL8" s="15" t="str">
@@ -2494,59 +2495,59 @@
         <v>33615420269-1</v>
       </c>
       <c r="AM8" s="1">
-        <f>IF(K7=K8,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <f>IF(K8=K9,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO8" s="1" t="str">
-        <f>RIGHT(F8)</f>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP8" s="1">
-        <f>IF(LEFT(F8,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="13">
-        <f>IF(RIGHT(F8,1)="A",ROUND(O8*N8*(1+Q8),2),AG8)</f>
+        <f t="shared" si="11"/>
         <v>229999.98</v>
       </c>
       <c r="AS8" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>190082.63</v>
       </c>
       <c r="AT8" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AU8" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>230000</v>
       </c>
       <c r="AV8" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AW8" s="2"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B9" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E9" s="2">
@@ -2571,7 +2572,7 @@
         <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M9" s="2"/>
@@ -2582,7 +2583,7 @@
         <v>19000</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>19421.477000000003</v>
       </c>
       <c r="Q9" s="11" t="s">
@@ -2595,11 +2596,11 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y9" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z9" s="14">
@@ -2611,7 +2612,7 @@
         <v>1.022183</v>
       </c>
       <c r="AB9" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC9" s="1" t="str">
@@ -2623,7 +2624,7 @@
         <v>00000000</v>
       </c>
       <c r="AE9" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF9" s="13">
@@ -2631,20 +2632,20 @@
         <v>4078.51</v>
       </c>
       <c r="AG9" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>23499.99</v>
       </c>
       <c r="AH9" s="10" t="str">
-        <f>IF(RIGHT(F9,1)="A",SUBSTITUTE(TEXT(P9,"0,00"),",","."),SUBSTITUTE(TEXT(AG9,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>19421.48</v>
       </c>
       <c r="AI9" s="10" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.01</v>
       </c>
-      <c r="AJ9" s="1"/>
+      <c r="AJ9" s="22"/>
       <c r="AK9" s="1">
-        <f>ROW(K9)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AL9" s="15" t="str">
@@ -2652,59 +2653,59 @@
         <v>20147130202-1</v>
       </c>
       <c r="AM9" s="1">
-        <f>IF(K8=K9,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <f>IF(K9=K10,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO9" s="1" t="str">
-        <f>RIGHT(F9)</f>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP9" s="1">
-        <f>IF(LEFT(F9,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="13">
-        <f>IF(RIGHT(F9,1)="A",ROUND(O9*N9*(1+Q9),2),AG9)</f>
+        <f t="shared" si="11"/>
         <v>23499.99</v>
       </c>
       <c r="AS9" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>19421.48</v>
       </c>
       <c r="AT9" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AU9" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23500</v>
       </c>
       <c r="AV9" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AW9" s="2"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B10" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C10" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E10" s="2">
@@ -2729,7 +2730,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M10" s="2"/>
@@ -2740,7 +2741,7 @@
         <v>19000</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>19834.708000000002</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -2753,11 +2754,11 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y10" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z10" s="14">
@@ -2769,7 +2770,7 @@
         <v>1.043932</v>
       </c>
       <c r="AB10" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC10" s="1" t="str">
@@ -2781,7 +2782,7 @@
         <v>00000000</v>
       </c>
       <c r="AE10" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF10" s="13">
@@ -2789,20 +2790,20 @@
         <v>4165.29</v>
       </c>
       <c r="AG10" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>24000</v>
       </c>
       <c r="AH10" s="10" t="str">
-        <f>IF(RIGHT(F10,1)="A",SUBSTITUTE(TEXT(P10,"0,00"),",","."),SUBSTITUTE(TEXT(AG10,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>19834.71</v>
       </c>
       <c r="AI10" s="10" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
-      <c r="AJ10" s="1"/>
+      <c r="AJ10" s="22"/>
       <c r="AK10" s="1">
-        <f>ROW(K10)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AL10" s="15" t="str">
@@ -2810,59 +2811,59 @@
         <v>20374730429-1</v>
       </c>
       <c r="AM10" s="1">
-        <f>IF(K9=K10,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN10" s="1">
-        <f>IF(K10=K11,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AO10" s="1" t="str">
-        <f>RIGHT(F10)</f>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP10" s="1">
-        <f>IF(LEFT(F10,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="13">
-        <f>IF(RIGHT(F10,1)="A",ROUND(O10*N10*(1+Q10),2),AG10)</f>
+        <f t="shared" si="11"/>
         <v>24000</v>
       </c>
       <c r="AS10" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>19834.71</v>
       </c>
       <c r="AT10" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AU10" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="AV10" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AW10" s="2"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B11" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C11" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E11" s="2">
@@ -2887,7 +2888,7 @@
         <v>56</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M11" s="2"/>
@@ -2898,7 +2899,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>13000</v>
       </c>
       <c r="Q11" s="11" t="s">
@@ -2911,11 +2912,11 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y11" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z11" s="14">
@@ -2927,7 +2928,7 @@
         <v>1.3</v>
       </c>
       <c r="AB11" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>10000.00</v>
       </c>
       <c r="AC11" s="1" t="str">
@@ -2939,7 +2940,7 @@
         <v>00000000</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF11" s="13">
@@ -2947,20 +2948,20 @@
         <v>2256.1999999999998</v>
       </c>
       <c r="AG11" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>13000</v>
       </c>
       <c r="AH11" s="10" t="str">
-        <f>IF(RIGHT(F11,1)="A",SUBSTITUTE(TEXT(P11,"0,00"),",","."),SUBSTITUTE(TEXT(AG11,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>13000.00</v>
       </c>
       <c r="AI11" s="10" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
-      <c r="AJ11" s="1"/>
+      <c r="AJ11" s="22"/>
       <c r="AK11" s="1">
-        <f>ROW(K11)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="AL11" s="15" t="str">
@@ -2968,59 +2969,59 @@
         <v>37473042-1</v>
       </c>
       <c r="AM11" s="1">
-        <f>IF(K10=K11,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN11" s="1">
-        <f>IF(K11=K12,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO11" s="1" t="str">
-        <f>RIGHT(F11)</f>
+        <f t="shared" si="9"/>
         <v>B</v>
       </c>
       <c r="AP11" s="1">
-        <f>IF(LEFT(F11,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="13">
-        <f>IF(RIGHT(F11,1)="A",ROUND(O11*N11*(1+Q11),2),AG11)</f>
+        <f t="shared" si="11"/>
         <v>13000</v>
       </c>
       <c r="AS11" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>10743.8</v>
       </c>
       <c r="AT11" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.3</v>
       </c>
       <c r="AU11" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>13000</v>
       </c>
       <c r="AV11" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.3</v>
       </c>
       <c r="AW11" s="2"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B12" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E12" s="2">
@@ -3045,7 +3046,7 @@
         <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M12" s="2"/>
@@ -3056,7 +3057,7 @@
         <v>19000</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>23000</v>
       </c>
       <c r="Q12" s="11" t="s">
@@ -3069,11 +3070,11 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y12" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z12" s="14">
@@ -3085,7 +3086,7 @@
         <v>1.210526</v>
       </c>
       <c r="AB12" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC12" s="1" t="str">
@@ -3097,7 +3098,7 @@
         <v>00000000</v>
       </c>
       <c r="AE12" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF12" s="13">
@@ -3105,20 +3106,20 @@
         <v>3991.74</v>
       </c>
       <c r="AG12" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>23000</v>
       </c>
       <c r="AH12" s="10" t="str">
-        <f>IF(RIGHT(F12,1)="A",SUBSTITUTE(TEXT(P12,"0,00"),",","."),SUBSTITUTE(TEXT(AG12,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>23000.00</v>
       </c>
       <c r="AI12" s="10" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
-      <c r="AJ12" s="1"/>
+      <c r="AJ12" s="22"/>
       <c r="AK12" s="1">
-        <f>ROW(K12)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="AL12" s="15" t="str">
@@ -3126,59 +3127,59 @@
         <v>30707354719-1</v>
       </c>
       <c r="AM12" s="1">
-        <f>IF(K11=K12,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <f>IF(K12=K13,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO12" s="1" t="str">
-        <f>RIGHT(F12)</f>
+        <f t="shared" si="9"/>
         <v>B</v>
       </c>
       <c r="AP12" s="1">
-        <f>IF(LEFT(F12,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="13">
-        <f>IF(RIGHT(F12,1)="A",ROUND(O12*N12*(1+Q12),2),AG12)</f>
+        <f t="shared" si="11"/>
         <v>23000</v>
       </c>
       <c r="AS12" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>19008.259999999998</v>
       </c>
       <c r="AT12" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AU12" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>23000</v>
       </c>
       <c r="AV12" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AW12" s="2"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B13" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E13" s="2">
@@ -3201,7 +3202,7 @@
         <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M13" s="2"/>
@@ -3212,7 +3213,7 @@
         <v>19000</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>28500</v>
       </c>
       <c r="Q13" s="11"/>
@@ -3223,11 +3224,11 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y13" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z13" s="14">
@@ -3239,7 +3240,7 @@
         <v>1.5</v>
       </c>
       <c r="AB13" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC13" s="1" t="str">
@@ -3251,7 +3252,7 @@
         <v>00000000</v>
       </c>
       <c r="AE13" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF13" s="13">
@@ -3259,20 +3260,20 @@
         <v>0</v>
       </c>
       <c r="AG13" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>28500</v>
       </c>
       <c r="AH13" s="10" t="str">
-        <f>IF(RIGHT(F13,1)="A",SUBSTITUTE(TEXT(P13,"0,00"),",","."),SUBSTITUTE(TEXT(AG13,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>28500.00</v>
       </c>
       <c r="AI13" s="10" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
-      <c r="AJ13" s="1"/>
+      <c r="AJ13" s="22"/>
       <c r="AK13" s="1">
-        <f>ROW(K13)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="AL13" s="15" t="str">
@@ -3280,59 +3281,59 @@
         <v>-0</v>
       </c>
       <c r="AM13" s="1">
-        <f>IF(K12=K13,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <f>IF(K13=K14,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO13" s="1" t="str">
-        <f>RIGHT(F13)</f>
+        <f t="shared" si="9"/>
         <v>C</v>
       </c>
       <c r="AP13" s="1">
-        <f>IF(LEFT(F13,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="13">
-        <f>IF(RIGHT(F13,1)="A",ROUND(O13*N13*(1+Q13),2),AG13)</f>
+        <f t="shared" si="11"/>
         <v>28500</v>
       </c>
       <c r="AS13" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>28500</v>
       </c>
       <c r="AT13" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="AU13" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>28500</v>
       </c>
       <c r="AV13" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="AW13" s="2"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B14" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E14" s="2">
@@ -3367,7 +3368,7 @@
         <v>19000</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>133471.06700000001</v>
       </c>
       <c r="Q14" s="11" t="s">
@@ -3388,11 +3389,11 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y14" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z14" s="14">
@@ -3404,7 +3405,7 @@
         <v>7.024793</v>
       </c>
       <c r="AB14" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC14" s="1" t="str">
@@ -3416,7 +3417,7 @@
         <v>00000150</v>
       </c>
       <c r="AE14" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>44816</v>
       </c>
       <c r="AF14" s="13">
@@ -3424,20 +3425,20 @@
         <v>28028.92</v>
       </c>
       <c r="AG14" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>161499.99</v>
       </c>
       <c r="AH14" s="10" t="str">
-        <f>IF(RIGHT(F14,1)="A",SUBSTITUTE(TEXT(P14,"0,00"),",","."),SUBSTITUTE(TEXT(AG14,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>133471.07</v>
       </c>
       <c r="AI14" s="10" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.01</v>
       </c>
-      <c r="AJ14" s="1"/>
+      <c r="AJ14" s="22"/>
       <c r="AK14" s="1">
-        <f>ROW(K14)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="AL14" s="15" t="str">
@@ -3445,59 +3446,59 @@
         <v>30684125792-1</v>
       </c>
       <c r="AM14" s="1">
-        <f>IF(K13=K14,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <f>IF(K14=K15,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO14" s="1" t="str">
-        <f>RIGHT(F14)</f>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP14" s="1">
-        <f>IF(LEFT(F14,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="13">
-        <f>IF(RIGHT(F14,1)="A",ROUND(O14*N14*(1+Q14),2),AG14)</f>
+        <f t="shared" si="11"/>
         <v>161499.99</v>
       </c>
       <c r="AS14" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>133471.07</v>
       </c>
       <c r="AT14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AU14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>161500</v>
       </c>
       <c r="AV14" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AW14" s="2"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B15" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C15" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E15" s="2">
@@ -3532,7 +3533,7 @@
         <v>19000</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>28500</v>
       </c>
       <c r="Q15" s="11" t="s">
@@ -3553,11 +3554,11 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y15" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z15" s="14">
@@ -3569,7 +3570,7 @@
         <v>1.5</v>
       </c>
       <c r="AB15" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC15" s="1" t="str">
@@ -3581,7 +3582,7 @@
         <v>00000152</v>
       </c>
       <c r="AE15" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>44816</v>
       </c>
       <c r="AF15" s="13">
@@ -3589,20 +3590,20 @@
         <v>4946.28</v>
       </c>
       <c r="AG15" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>28500</v>
       </c>
       <c r="AH15" s="10" t="str">
-        <f>IF(RIGHT(F15,1)="A",SUBSTITUTE(TEXT(P15,"0,00"),",","."),SUBSTITUTE(TEXT(AG15,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>28500.00</v>
       </c>
       <c r="AI15" s="10" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
-      <c r="AJ15" s="1"/>
+      <c r="AJ15" s="22"/>
       <c r="AK15" s="1">
-        <f>ROW(K15)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="AL15" s="15" t="str">
@@ -3610,59 +3611,59 @@
         <v>30707354719-2</v>
       </c>
       <c r="AM15" s="1">
-        <f>IF(K14=K15,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <f>IF(K15=K16,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO15" s="1" t="str">
-        <f>RIGHT(F15)</f>
+        <f t="shared" si="9"/>
         <v>B</v>
       </c>
       <c r="AP15" s="1">
-        <f>IF(LEFT(F15,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="13">
-        <f>IF(RIGHT(F15,1)="A",ROUND(O15*N15*(1+Q15),2),AG15)</f>
+        <f t="shared" si="11"/>
         <v>28500</v>
       </c>
       <c r="AS15" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>23553.72</v>
       </c>
       <c r="AT15" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="AU15" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>28500</v>
       </c>
       <c r="AV15" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="AW15" s="2"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B16" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E16" s="2">
@@ -3697,7 +3698,7 @@
         <v>19000</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>133057.83600000001</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -3718,11 +3719,11 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y16" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z16" s="14">
@@ -3734,7 +3735,7 @@
         <v>7.003044</v>
       </c>
       <c r="AB16" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC16" s="1" t="str">
@@ -3746,7 +3747,7 @@
         <v>00000151</v>
       </c>
       <c r="AE16" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>44816</v>
       </c>
       <c r="AF16" s="13">
@@ -3754,20 +3755,20 @@
         <v>27942.15</v>
       </c>
       <c r="AG16" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>160999.99</v>
       </c>
       <c r="AH16" s="10" t="str">
-        <f>IF(RIGHT(F16,1)="A",SUBSTITUTE(TEXT(P16,"0,00"),",","."),SUBSTITUTE(TEXT(AG16,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>133057.84</v>
       </c>
       <c r="AI16" s="10" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.01</v>
       </c>
-      <c r="AJ16" s="1"/>
+      <c r="AJ16" s="22"/>
       <c r="AK16" s="1">
-        <f>ROW(K16)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="AL16" s="15" t="str">
@@ -3775,59 +3776,59 @@
         <v>30684125792-2</v>
       </c>
       <c r="AM16" s="1">
-        <f>IF(K15=K16,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN16" s="1">
-        <f>IF(K16=K17,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO16" s="1" t="str">
-        <f>RIGHT(F16)</f>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP16" s="1">
-        <f>IF(LEFT(F16,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="13">
-        <f>IF(RIGHT(F16,1)="A",ROUND(O16*N16*(1+Q16),2),AG16)</f>
+        <f t="shared" si="11"/>
         <v>160999.98000000001</v>
       </c>
       <c r="AS16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>133057.82999999999</v>
       </c>
       <c r="AT16" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>7.003044</v>
       </c>
       <c r="AU16" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>161000</v>
       </c>
       <c r="AV16" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>7.003044</v>
       </c>
       <c r="AW16" s="2"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45140</v>
       </c>
       <c r="B17" s="9">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C17" s="9">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45154</v>
       </c>
       <c r="E17" s="2">
@@ -3862,7 +3863,7 @@
         <v>19000</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>28500</v>
       </c>
       <c r="Q17" s="11" t="s">
@@ -3883,11 +3884,11 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y17" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z17" s="14">
@@ -3899,7 +3900,7 @@
         <v>1.5</v>
       </c>
       <c r="AB17" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC17" s="1" t="str">
@@ -3911,7 +3912,7 @@
         <v>00000153</v>
       </c>
       <c r="AE17" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>44816</v>
       </c>
       <c r="AF17" s="13">
@@ -3919,20 +3920,20 @@
         <v>4946.28</v>
       </c>
       <c r="AG17" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>28500</v>
       </c>
       <c r="AH17" s="10" t="str">
-        <f>IF(RIGHT(F17,1)="A",SUBSTITUTE(TEXT(P17,"0,00"),",","."),SUBSTITUTE(TEXT(AG17,"0,00"),",","."))</f>
+        <f t="shared" si="5"/>
         <v>28500.00</v>
       </c>
       <c r="AI17" s="10" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
-      <c r="AJ17" s="1"/>
+      <c r="AJ17" s="22"/>
       <c r="AK17" s="1">
-        <f>ROW(K17)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="AL17" s="15" t="str">
@@ -3940,40 +3941,40 @@
         <v>37473042-2</v>
       </c>
       <c r="AM17" s="1">
-        <f>IF(K16=K17,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN17" s="1">
-        <f>IF(K17=K18,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO17" s="1" t="str">
-        <f>RIGHT(F17)</f>
+        <f t="shared" si="9"/>
         <v>B</v>
       </c>
       <c r="AP17" s="1">
-        <f>IF(LEFT(F17,4)="Nota",0,1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="13">
-        <f>IF(RIGHT(F17,1)="A",ROUND(O17*N17*(1+Q17),2),AG17)</f>
+        <f t="shared" si="11"/>
         <v>28500</v>
       </c>
       <c r="AS17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>23553.72</v>
       </c>
       <c r="AT17" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="AU17" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>28500</v>
       </c>
       <c r="AV17" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="AW17" s="2"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808C8CFD-07D8-45CA-8342-D05B09214139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D8F79-BB93-4A98-95BE-CE9A56432F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Factura" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AU$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AZ$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="94">
   <si>
     <t>Fecha</t>
   </si>
@@ -300,6 +300,24 @@
   </si>
   <si>
     <t>Bonif Facturador</t>
+  </si>
+  <si>
+    <t>Domicilio</t>
+  </si>
+  <si>
+    <t>Guardar</t>
+  </si>
+  <si>
+    <t>Ubicación a Guardar</t>
+  </si>
+  <si>
+    <t>C:\Users\ABP\Desktop\Test\</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -840,7 +858,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -865,7 +883,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1228,12 +1245,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW17"/>
+  <dimension ref="A1:AZ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="AJ1" sqref="AJ1"/>
+      <selection pane="bottomLeft" activeCell="AY12" sqref="AY12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1289,7 @@
     <col min="46" max="46" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1420,11 +1437,20 @@
       <c r="AW1" s="19" t="s">
         <v>80</v>
       </c>
+      <c r="AX1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ1" s="16" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B2" s="9">
         <f ca="1">DATE(YEAR(C2),MONTH(C2),1)</f>
@@ -1436,7 +1462,7 @@
       </c>
       <c r="D2" s="9">
         <f ca="1">A2+14</f>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1530,7 +1556,7 @@
         <f>SUBSTITUTE(TEXT(ROUNDUP(AG2,0)-AG2,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AJ2" s="22"/>
+      <c r="AJ2" s="2"/>
       <c r="AK2" s="1">
         <f t="shared" ref="AK2:AK17" si="6">ROW(K2)</f>
         <v>2</v>
@@ -1577,11 +1603,18 @@
         <v>7.003044</v>
       </c>
       <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f t="shared" ref="A3:A17" ca="1" si="15">TODAY()</f>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B3" s="9">
         <f t="shared" ref="B3:B17" ca="1" si="16">DATE(YEAR(C3),MONTH(C3),1)</f>
@@ -1593,7 +1626,7 @@
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D17" ca="1" si="18">A3+14</f>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1688,7 +1721,7 @@
         <f>SUBSTITUTE(TEXT(ROUNDUP(AG3,0)-AG3,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AJ3" s="22"/>
+      <c r="AJ3" s="2"/>
       <c r="AK3" s="1">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -1735,11 +1768,18 @@
         <v>8.0252280000000003</v>
       </c>
       <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B4" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -1751,7 +1791,7 @@
       </c>
       <c r="D4" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1846,7 +1886,7 @@
         <f>SUBSTITUTE(TEXT(ROUNDUP(AG4,0)-AG4,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
-      <c r="AJ4" s="22"/>
+      <c r="AJ4" s="2"/>
       <c r="AK4" s="1">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -1893,11 +1933,18 @@
         <v>10.004348999999999</v>
       </c>
       <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -1909,7 +1956,7 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -2004,7 +2051,7 @@
         <f>SUBSTITUTE(TEXT(ROUNDUP(AG5,0)-AG5,"0,00"),",",".")</f>
         <v>0.00</v>
       </c>
-      <c r="AJ5" s="22"/>
+      <c r="AJ5" s="2"/>
       <c r="AK5" s="1">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -2051,11 +2098,18 @@
         <v>9.0256629999999998</v>
       </c>
       <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2067,7 +2121,7 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2170,7 +2224,7 @@
         <f>SUBSTITUTE(TEXT(ROUNDUP(AG6,0)-AG6,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AJ6" s="22"/>
+      <c r="AJ6" s="2"/>
       <c r="AK6" s="1">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -2217,11 +2271,18 @@
         <v>5.0239229999999999</v>
       </c>
       <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B7" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2233,7 +2294,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2327,7 +2388,7 @@
         <f t="shared" ref="AI7:AI17" si="26">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
-      <c r="AJ7" s="22"/>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="1">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -2374,11 +2435,18 @@
         <v>5.0021740000000001</v>
       </c>
       <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B8" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2390,7 +2458,7 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2485,7 +2553,7 @@
         <f t="shared" si="26"/>
         <v>0.02</v>
       </c>
-      <c r="AJ8" s="22"/>
+      <c r="AJ8" s="2"/>
       <c r="AK8" s="1">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -2532,11 +2600,18 @@
         <v>10.004348999999999</v>
       </c>
       <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B9" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2548,7 +2623,7 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2643,7 +2718,7 @@
         <f t="shared" si="26"/>
         <v>0.01</v>
       </c>
-      <c r="AJ9" s="22"/>
+      <c r="AJ9" s="2"/>
       <c r="AK9" s="1">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -2690,11 +2765,18 @@
         <v>1.0221830000000001</v>
       </c>
       <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B10" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2706,7 +2788,7 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2801,7 +2883,7 @@
         <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
-      <c r="AJ10" s="22"/>
+      <c r="AJ10" s="2"/>
       <c r="AK10" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -2848,11 +2930,18 @@
         <v>1.0439320000000001</v>
       </c>
       <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B11" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2864,7 +2953,7 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2959,7 +3048,7 @@
         <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
-      <c r="AJ11" s="22"/>
+      <c r="AJ11" s="2"/>
       <c r="AK11" s="1">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -3006,11 +3095,16 @@
         <v>1.3</v>
       </c>
       <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ11" s="2"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B12" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3022,7 +3116,7 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -3117,7 +3211,7 @@
         <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
-      <c r="AJ12" s="22"/>
+      <c r="AJ12" s="2"/>
       <c r="AK12" s="1">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -3164,11 +3258,16 @@
         <v>1.2105263157894737</v>
       </c>
       <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ12" s="2"/>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B13" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3180,7 +3279,7 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3271,7 +3370,7 @@
         <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
-      <c r="AJ13" s="22"/>
+      <c r="AJ13" s="2"/>
       <c r="AK13" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -3318,11 +3417,16 @@
         <v>1.5</v>
       </c>
       <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ13" s="2"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B14" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3334,7 +3438,7 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3436,7 +3540,7 @@
         <f t="shared" si="26"/>
         <v>0.01</v>
       </c>
-      <c r="AJ14" s="22"/>
+      <c r="AJ14" s="2"/>
       <c r="AK14" s="1">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -3483,11 +3587,16 @@
         <v>7.0247929999999998</v>
       </c>
       <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ14" s="2"/>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B15" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3499,7 +3608,7 @@
       </c>
       <c r="D15" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -3601,7 +3710,7 @@
         <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
-      <c r="AJ15" s="22"/>
+      <c r="AJ15" s="2"/>
       <c r="AK15" s="1">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -3648,11 +3757,16 @@
         <v>1.5</v>
       </c>
       <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ15" s="2"/>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B16" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3664,7 +3778,7 @@
       </c>
       <c r="D16" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -3766,7 +3880,7 @@
         <f t="shared" si="26"/>
         <v>0.01</v>
       </c>
-      <c r="AJ16" s="22"/>
+      <c r="AJ16" s="2"/>
       <c r="AK16" s="1">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -3813,11 +3927,16 @@
         <v>7.003044</v>
       </c>
       <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ16" s="2"/>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B17" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3829,7 +3948,7 @@
       </c>
       <c r="D17" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -3931,7 +4050,7 @@
         <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
-      <c r="AJ17" s="22"/>
+      <c r="AJ17" s="2"/>
       <c r="AK17" s="1">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -3978,14 +4097,24 @@
         <v>1.5</v>
       </c>
       <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ17" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AU17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AZ17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT17">
     <sortCondition ref="F2:F17"/>
     <sortCondition ref="H2:H17"/>
     <sortCondition ref="J2:J17"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY17" xr:uid="{BFC33D16-50A8-46DB-B879-EC5A925DAA79}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D8F79-BB93-4A98-95BE-CE9A56432F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05420977-D2CA-43ED-A60E-0ACE3D0EC790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1247,10 +1247,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="AY12" sqref="AY12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1450,7 @@
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B2" s="9">
         <f ca="1">DATE(YEAR(C2),MONTH(C2),1)</f>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D2" s="9">
         <f ca="1">A2+14</f>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1517,7 +1517,7 @@
         <v/>
       </c>
       <c r="Z2" s="14">
-        <f>COUNTIFS($F$1:F2,F2,$K$1:K2,K2)+1</f>
+        <f>COUNTIFS(K1:K2,K2,F1:F2,F2,J1:J2,J2)+1</f>
         <v>2</v>
       </c>
       <c r="AA2" s="18" t="str">
@@ -1614,7 +1614,7 @@
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f t="shared" ref="A3:A17" ca="1" si="15">TODAY()</f>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B3" s="9">
         <f t="shared" ref="B3:B17" ca="1" si="16">DATE(YEAR(C3),MONTH(C3),1)</f>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D17" ca="1" si="18">A3+14</f>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v/>
       </c>
       <c r="Z3" s="14">
-        <f>COUNTIFS($F$1:F3,F3,$K$1:K3,K3)+1</f>
+        <f t="shared" ref="Z3:Z17" si="21">COUNTIFS(K2:K3,K3,F2:F3,F3,J2:J3,J3)+1</f>
         <v>2</v>
       </c>
       <c r="AA3" s="18" t="str">
@@ -1690,7 +1690,7 @@
         <v>8.025228</v>
       </c>
       <c r="AB3" s="18" t="str">
-        <f t="shared" ref="AB3:AB17" si="21">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
+        <f t="shared" ref="AB3:AB17" si="22">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AC3" s="1" t="str">
@@ -1702,7 +1702,7 @@
         <v>00000000</v>
       </c>
       <c r="AE3" s="9">
-        <f t="shared" ref="AE3:AE17" si="22">U3</f>
+        <f t="shared" ref="AE3:AE17" si="23">U3</f>
         <v>0</v>
       </c>
       <c r="AF3" s="13">
@@ -1710,7 +1710,7 @@
         <v>32020.66</v>
       </c>
       <c r="AG3" s="13">
-        <f t="shared" ref="AG3:AG17" si="23">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
+        <f t="shared" ref="AG3:AG17" si="24">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
         <v>184499.99</v>
       </c>
       <c r="AH3" s="10" t="str">
@@ -1764,7 +1764,7 @@
         <v>184500</v>
       </c>
       <c r="AV3" s="20">
-        <f t="shared" ref="AV3:AV17" si="24">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
+        <f t="shared" ref="AV3:AV17" si="25">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
         <v>8.0252280000000003</v>
       </c>
       <c r="AW3" s="2"/>
@@ -1779,7 +1779,7 @@
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B4" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D4" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1843,11 +1843,11 @@
         <v/>
       </c>
       <c r="Y4" s="1" t="str">
-        <f t="shared" ref="Y4:Y17" si="25">SUBSTITUTE(W4,",",".")</f>
+        <f t="shared" ref="Y4:Y17" si="26">SUBSTITUTE(W4,",",".")</f>
         <v/>
       </c>
       <c r="Z4" s="14">
-        <f>COUNTIFS($F$1:F4,F4,$K$1:K4,K4)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA4" s="18" t="str">
@@ -1855,7 +1855,7 @@
         <v>10.004349</v>
       </c>
       <c r="AB4" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC4" s="1" t="str">
@@ -1867,7 +1867,7 @@
         <v>00000000</v>
       </c>
       <c r="AE4" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF4" s="13">
@@ -1875,7 +1875,7 @@
         <v>39917.35</v>
       </c>
       <c r="AG4" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>229999.98</v>
       </c>
       <c r="AH4" s="10" t="str">
@@ -1929,7 +1929,7 @@
         <v>230000</v>
       </c>
       <c r="AV4" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AW4" s="2"/>
@@ -1944,7 +1944,7 @@
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -2008,11 +2008,11 @@
         <v/>
       </c>
       <c r="Y5" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z5" s="14">
-        <f>COUNTIFS($F$1:F5,F5,$K$1:K5,K5)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA5" s="18" t="str">
@@ -2020,7 +2020,7 @@
         <v>9.025663</v>
       </c>
       <c r="AB5" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC5" s="1" t="str">
@@ -2032,7 +2032,7 @@
         <v>00000000</v>
       </c>
       <c r="AE5" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF5" s="13">
@@ -2040,7 +2040,7 @@
         <v>36012.400000000001</v>
       </c>
       <c r="AG5" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>207500</v>
       </c>
       <c r="AH5" s="10" t="str">
@@ -2094,7 +2094,7 @@
         <v>207500</v>
       </c>
       <c r="AV5" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AW5" s="2"/>
@@ -2109,7 +2109,7 @@
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2181,11 +2181,11 @@
         <v/>
       </c>
       <c r="Y6" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z6" s="14">
-        <f>COUNTIFS($F$1:F6,F6,$K$1:K6,K6)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA6" s="18" t="str">
@@ -2193,7 +2193,7 @@
         <v>5.023923</v>
       </c>
       <c r="AB6" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC6" s="1" t="str">
@@ -2205,7 +2205,7 @@
         <v>00000003</v>
       </c>
       <c r="AE6" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF6" s="13">
@@ -2213,7 +2213,7 @@
         <v>20045.45</v>
       </c>
       <c r="AG6" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>115499.99</v>
       </c>
       <c r="AH6" s="10" t="str">
@@ -2267,7 +2267,7 @@
         <v>115500</v>
       </c>
       <c r="AV6" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AW6" s="2"/>
@@ -2282,7 +2282,7 @@
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B7" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2345,11 +2345,11 @@
         <v/>
       </c>
       <c r="Y7" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z7" s="14">
-        <f>COUNTIFS($F$1:F7,F7,$K$1:K7,K7)+1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AA7" s="18" t="str">
@@ -2357,7 +2357,7 @@
         <v>5.002174</v>
       </c>
       <c r="AB7" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC7" s="1" t="str">
@@ -2369,7 +2369,7 @@
         <v>00000000</v>
       </c>
       <c r="AE7" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF7" s="13">
@@ -2377,7 +2377,7 @@
         <v>19958.669999999998</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>114999.98</v>
       </c>
       <c r="AH7" s="10" t="str">
@@ -2385,7 +2385,7 @@
         <v>95041.31</v>
       </c>
       <c r="AI7" s="10" t="str">
-        <f t="shared" ref="AI7:AI17" si="26">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
+        <f t="shared" ref="AI7:AI17" si="27">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
       <c r="AJ7" s="2"/>
@@ -2431,7 +2431,7 @@
         <v>115000</v>
       </c>
       <c r="AV7" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AW7" s="2"/>
@@ -2446,7 +2446,7 @@
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B8" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2482,7 +2482,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" ref="L8:L13" ca="1" si="27">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <f t="shared" ref="L8:L13" ca="1" si="28">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
       <c r="M8" s="2"/>
@@ -2510,11 +2510,11 @@
         <v/>
       </c>
       <c r="Y8" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z8" s="14">
-        <f>COUNTIFS($F$1:F8,F8,$K$1:K8,K8)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA8" s="18" t="str">
@@ -2522,7 +2522,7 @@
         <v>10.004349</v>
       </c>
       <c r="AB8" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC8" s="1" t="str">
@@ -2534,7 +2534,7 @@
         <v>00000000</v>
       </c>
       <c r="AE8" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF8" s="13">
@@ -2542,7 +2542,7 @@
         <v>39917.35</v>
       </c>
       <c r="AG8" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>229999.98</v>
       </c>
       <c r="AH8" s="10" t="str">
@@ -2550,7 +2550,7 @@
         <v>190082.63</v>
       </c>
       <c r="AI8" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.02</v>
       </c>
       <c r="AJ8" s="2"/>
@@ -2596,7 +2596,7 @@
         <v>230000</v>
       </c>
       <c r="AV8" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AW8" s="2"/>
@@ -2611,7 +2611,7 @@
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B9" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2647,7 +2647,7 @@
         <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M9" s="2"/>
@@ -2675,11 +2675,11 @@
         <v/>
       </c>
       <c r="Y9" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z9" s="14">
-        <f>COUNTIFS($F$1:F9,F9,$K$1:K9,K9)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA9" s="18" t="str">
@@ -2687,7 +2687,7 @@
         <v>1.022183</v>
       </c>
       <c r="AB9" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC9" s="1" t="str">
@@ -2699,7 +2699,7 @@
         <v>00000000</v>
       </c>
       <c r="AE9" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF9" s="13">
@@ -2707,7 +2707,7 @@
         <v>4078.51</v>
       </c>
       <c r="AG9" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23499.99</v>
       </c>
       <c r="AH9" s="10" t="str">
@@ -2715,7 +2715,7 @@
         <v>19421.48</v>
       </c>
       <c r="AI9" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.01</v>
       </c>
       <c r="AJ9" s="2"/>
@@ -2761,7 +2761,7 @@
         <v>23500</v>
       </c>
       <c r="AV9" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AW9" s="2"/>
@@ -2776,7 +2776,7 @@
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B10" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2812,7 +2812,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M10" s="2"/>
@@ -2840,11 +2840,11 @@
         <v/>
       </c>
       <c r="Y10" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z10" s="14">
-        <f>COUNTIFS($F$1:F10,F10,$K$1:K10,K10)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA10" s="18" t="str">
@@ -2852,7 +2852,7 @@
         <v>1.043932</v>
       </c>
       <c r="AB10" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC10" s="1" t="str">
@@ -2864,7 +2864,7 @@
         <v>00000000</v>
       </c>
       <c r="AE10" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF10" s="13">
@@ -2872,7 +2872,7 @@
         <v>4165.29</v>
       </c>
       <c r="AG10" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>24000</v>
       </c>
       <c r="AH10" s="10" t="str">
@@ -2880,7 +2880,7 @@
         <v>19834.71</v>
       </c>
       <c r="AI10" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ10" s="2"/>
@@ -2926,7 +2926,7 @@
         <v>24000</v>
       </c>
       <c r="AV10" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AW10" s="2"/>
@@ -2941,7 +2941,7 @@
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B11" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2977,7 +2977,7 @@
         <v>56</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M11" s="2"/>
@@ -3005,11 +3005,11 @@
         <v/>
       </c>
       <c r="Y11" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z11" s="14">
-        <f>COUNTIFS($F$1:F11,F11,$K$1:K11,K11)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA11" s="18" t="str">
@@ -3017,7 +3017,7 @@
         <v>1.3</v>
       </c>
       <c r="AB11" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10000.00</v>
       </c>
       <c r="AC11" s="1" t="str">
@@ -3029,7 +3029,7 @@
         <v>00000000</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF11" s="13">
@@ -3037,7 +3037,7 @@
         <v>2256.1999999999998</v>
       </c>
       <c r="AG11" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13000</v>
       </c>
       <c r="AH11" s="10" t="str">
@@ -3045,7 +3045,7 @@
         <v>13000.00</v>
       </c>
       <c r="AI11" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ11" s="2"/>
@@ -3091,7 +3091,7 @@
         <v>13000</v>
       </c>
       <c r="AV11" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.3</v>
       </c>
       <c r="AW11" s="2"/>
@@ -3104,7 +3104,7 @@
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B12" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -3140,7 +3140,7 @@
         <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M12" s="2"/>
@@ -3168,11 +3168,11 @@
         <v/>
       </c>
       <c r="Y12" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z12" s="14">
-        <f>COUNTIFS($F$1:F12,F12,$K$1:K12,K12)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA12" s="18" t="str">
@@ -3180,7 +3180,7 @@
         <v>1.210526</v>
       </c>
       <c r="AB12" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC12" s="1" t="str">
@@ -3192,7 +3192,7 @@
         <v>00000000</v>
       </c>
       <c r="AE12" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF12" s="13">
@@ -3200,7 +3200,7 @@
         <v>3991.74</v>
       </c>
       <c r="AG12" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23000</v>
       </c>
       <c r="AH12" s="10" t="str">
@@ -3208,7 +3208,7 @@
         <v>23000.00</v>
       </c>
       <c r="AI12" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ12" s="2"/>
@@ -3254,7 +3254,7 @@
         <v>23000</v>
       </c>
       <c r="AV12" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AW12" s="2"/>
@@ -3267,7 +3267,7 @@
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B13" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M13" s="2"/>
@@ -3327,19 +3327,19 @@
         <v/>
       </c>
       <c r="Y13" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z13" s="14">
-        <f>COUNTIFS($F$1:F13,F13,$K$1:K13,K13)+1</f>
-        <v>2</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="AA13" s="18" t="str">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="AB13" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC13" s="1" t="str">
@@ -3351,7 +3351,7 @@
         <v>00000000</v>
       </c>
       <c r="AE13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF13" s="13">
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28500</v>
       </c>
       <c r="AH13" s="10" t="str">
@@ -3367,7 +3367,7 @@
         <v>28500.00</v>
       </c>
       <c r="AI13" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ13" s="2"/>
@@ -3413,7 +3413,7 @@
         <v>28500</v>
       </c>
       <c r="AV13" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5</v>
       </c>
       <c r="AW13" s="2"/>
@@ -3426,7 +3426,7 @@
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B14" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3497,11 +3497,11 @@
         <v/>
       </c>
       <c r="Y14" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z14" s="14">
-        <f>COUNTIFS($F$1:F14,F14,$K$1:K14,K14)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA14" s="18" t="str">
@@ -3509,7 +3509,7 @@
         <v>7.024793</v>
       </c>
       <c r="AB14" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC14" s="1" t="str">
@@ -3521,7 +3521,7 @@
         <v>00000150</v>
       </c>
       <c r="AE14" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF14" s="13">
@@ -3529,7 +3529,7 @@
         <v>28028.92</v>
       </c>
       <c r="AG14" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>161499.99</v>
       </c>
       <c r="AH14" s="10" t="str">
@@ -3537,7 +3537,7 @@
         <v>133471.07</v>
       </c>
       <c r="AI14" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.01</v>
       </c>
       <c r="AJ14" s="2"/>
@@ -3583,7 +3583,7 @@
         <v>161500</v>
       </c>
       <c r="AV14" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AW14" s="2"/>
@@ -3596,7 +3596,7 @@
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B15" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="D15" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -3667,11 +3667,11 @@
         <v/>
       </c>
       <c r="Y15" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z15" s="14">
-        <f>COUNTIFS($F$1:F15,F15,$K$1:K15,K15)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA15" s="18" t="str">
@@ -3679,7 +3679,7 @@
         <v>1.5</v>
       </c>
       <c r="AB15" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC15" s="1" t="str">
@@ -3691,7 +3691,7 @@
         <v>00000152</v>
       </c>
       <c r="AE15" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF15" s="13">
@@ -3699,7 +3699,7 @@
         <v>4946.28</v>
       </c>
       <c r="AG15" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28500</v>
       </c>
       <c r="AH15" s="10" t="str">
@@ -3707,7 +3707,7 @@
         <v>28500.00</v>
       </c>
       <c r="AI15" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ15" s="2"/>
@@ -3753,7 +3753,7 @@
         <v>28500</v>
       </c>
       <c r="AV15" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5</v>
       </c>
       <c r="AW15" s="2"/>
@@ -3766,7 +3766,7 @@
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B16" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="D16" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -3837,11 +3837,11 @@
         <v/>
       </c>
       <c r="Y16" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z16" s="14">
-        <f>COUNTIFS($F$1:F16,F16,$K$1:K16,K16)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA16" s="18" t="str">
@@ -3849,7 +3849,7 @@
         <v>7.003044</v>
       </c>
       <c r="AB16" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC16" s="1" t="str">
@@ -3861,7 +3861,7 @@
         <v>00000151</v>
       </c>
       <c r="AE16" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF16" s="13">
@@ -3869,7 +3869,7 @@
         <v>27942.15</v>
       </c>
       <c r="AG16" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>160999.99</v>
       </c>
       <c r="AH16" s="10" t="str">
@@ -3877,7 +3877,7 @@
         <v>133057.84</v>
       </c>
       <c r="AI16" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.01</v>
       </c>
       <c r="AJ16" s="2"/>
@@ -3923,7 +3923,7 @@
         <v>161000</v>
       </c>
       <c r="AV16" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.003044</v>
       </c>
       <c r="AW16" s="2"/>
@@ -3936,7 +3936,7 @@
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B17" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="D17" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -4007,11 +4007,11 @@
         <v/>
       </c>
       <c r="Y17" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z17" s="14">
-        <f>COUNTIFS($F$1:F17,F17,$K$1:K17,K17)+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA17" s="18" t="str">
@@ -4019,7 +4019,7 @@
         <v>1.5</v>
       </c>
       <c r="AB17" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC17" s="1" t="str">
@@ -4031,7 +4031,7 @@
         <v>00000153</v>
       </c>
       <c r="AE17" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF17" s="13">
@@ -4039,7 +4039,7 @@
         <v>4946.28</v>
       </c>
       <c r="AG17" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28500</v>
       </c>
       <c r="AH17" s="10" t="str">
@@ -4047,7 +4047,7 @@
         <v>28500.00</v>
       </c>
       <c r="AI17" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.00</v>
       </c>
       <c r="AJ17" s="2"/>
@@ -4093,7 +4093,7 @@
         <v>28500</v>
       </c>
       <c r="AV17" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5</v>
       </c>
       <c r="AW17" s="2"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05420977-D2CA-43ED-A60E-0ACE3D0EC790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165566F9-B5D2-42E2-B014-8DB3D063E71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1450,7 +1450,7 @@
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B2" s="9">
         <f ca="1">DATE(YEAR(C2),MONTH(C2),1)</f>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D2" s="9">
         <f ca="1">A2+14</f>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1517,7 +1517,7 @@
         <v/>
       </c>
       <c r="Z2" s="14">
-        <f>COUNTIFS(K1:K2,K2,F1:F2,F2,J1:J2,J2)+1</f>
+        <f>COUNTIFS(E1:E2,E2,F1:F2,F2,K1:K2,K2)+1</f>
         <v>2</v>
       </c>
       <c r="AA2" s="18" t="str">
@@ -1614,7 +1614,7 @@
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f t="shared" ref="A3:A17" ca="1" si="15">TODAY()</f>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B3" s="9">
         <f t="shared" ref="B3:B17" ca="1" si="16">DATE(YEAR(C3),MONTH(C3),1)</f>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D17" ca="1" si="18">A3+14</f>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v/>
       </c>
       <c r="Z3" s="14">
-        <f t="shared" ref="Z3:Z17" si="21">COUNTIFS(K2:K3,K3,F2:F3,F3,J2:J3,J3)+1</f>
+        <f t="shared" ref="Z3:Z17" si="21">COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)+1</f>
         <v>2</v>
       </c>
       <c r="AA3" s="18" t="str">
@@ -1779,7 +1779,7 @@
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B4" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D4" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1944,7 +1944,7 @@
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -2109,7 +2109,7 @@
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2282,7 +2282,7 @@
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B7" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2446,7 +2446,7 @@
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B8" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2611,7 +2611,7 @@
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B9" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2776,7 +2776,7 @@
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B10" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2941,7 +2941,7 @@
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B11" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -3104,7 +3104,7 @@
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B12" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -3267,7 +3267,7 @@
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B13" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="Z13" s="14">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="18" t="str">
         <f t="shared" si="1"/>
@@ -3426,7 +3426,7 @@
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B14" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3596,7 +3596,7 @@
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B15" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="D15" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -3766,7 +3766,7 @@
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B16" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="D16" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -3936,7 +3936,7 @@
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B17" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="D17" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165566F9-B5D2-42E2-B014-8DB3D063E71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D7482B-4B75-4CA1-B54C-8E624A9FBC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1450,7 +1450,7 @@
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B2" s="9">
         <f ca="1">DATE(YEAR(C2),MONTH(C2),1)</f>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D2" s="9">
         <f ca="1">A2+14</f>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1566,36 +1566,36 @@
         <v>30525390086-1</v>
       </c>
       <c r="AM2" s="1">
-        <f t="shared" ref="AM2:AM17" si="7">IF(K1=K2,1,0)</f>
+        <f>COUNTIFS(E1:E2,E2,F1:F2,F2,K1:K2,K2)-1</f>
         <v>0</v>
       </c>
       <c r="AN2" s="1">
-        <f t="shared" ref="AN2:AN17" si="8">IF(K2=K3,1,0)</f>
+        <f t="shared" ref="AN2:AN16" ca="1" si="7">IF(A3="",0,COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)-1)</f>
         <v>0</v>
       </c>
       <c r="AO2" s="1" t="str">
-        <f t="shared" ref="AO2:AO17" si="9">RIGHT(F2)</f>
+        <f t="shared" ref="AO2:AO17" si="8">RIGHT(F2)</f>
         <v>A</v>
       </c>
       <c r="AP2" s="1">
-        <f t="shared" ref="AP2:AP17" si="10">IF(LEFT(F2,4)="Nota",0,1)</f>
+        <f t="shared" ref="AP2:AP17" si="9">IF(LEFT(F2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="13">
-        <f t="shared" ref="AR2:AR17" si="11">IF(RIGHT(F2,1)="A",ROUND(O2*N2*(1+Q2),2),AG2)</f>
+        <f t="shared" ref="AR2:AR17" si="10">IF(RIGHT(F2,1)="A",ROUND(O2*N2*(1+Q2),2),AG2)</f>
         <v>160999.98000000001</v>
       </c>
       <c r="AS2" s="13">
-        <f t="shared" ref="AS2:AS17" si="12">ROUND((AR2/(1+Q2)),2)</f>
+        <f t="shared" ref="AS2:AS17" si="11">ROUND((AR2/(1+Q2)),2)</f>
         <v>133057.82999999999</v>
       </c>
       <c r="AT2" s="20">
-        <f t="shared" ref="AT2:AT17" si="13">IF(AO2="A",ROUND(AS2/O2,6),AR2/O2)</f>
+        <f t="shared" ref="AT2:AT17" si="12">IF(AO2="A",ROUND(AS2/O2,6),AR2/O2)</f>
         <v>7.003044</v>
       </c>
       <c r="AU2" s="13">
-        <f t="shared" ref="AU2:AU17" si="14">IF(AO2="A",ROUND(CEILING(O2*N2*(1+Q2),500),2),ROUND(CEILING(O2*N2,500),2))</f>
+        <f t="shared" ref="AU2:AU17" si="13">IF(AO2="A",ROUND(CEILING(O2*N2*(1+Q2),500),2),ROUND(CEILING(O2*N2,500),2))</f>
         <v>161000</v>
       </c>
       <c r="AV2" s="20">
@@ -1613,20 +1613,20 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A17" ca="1" si="15">TODAY()</f>
-        <v>45146</v>
+        <f t="shared" ref="A3:A17" ca="1" si="14">TODAY()</f>
+        <v>45147</v>
       </c>
       <c r="B3" s="9">
-        <f t="shared" ref="B3:B17" ca="1" si="16">DATE(YEAR(C3),MONTH(C3),1)</f>
+        <f t="shared" ref="B3:B17" ca="1" si="15">DATE(YEAR(C3),MONTH(C3),1)</f>
         <v>45108</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C17" ca="1" si="17">EOMONTH(A3,-1)</f>
+        <f t="shared" ref="C3:C17" ca="1" si="16">EOMONTH(A3,-1)</f>
         <v>45138</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D17" ca="1" si="18">A3+14</f>
-        <v>45160</v>
+        <f t="shared" ref="D3:D17" ca="1" si="17">A3+14</f>
+        <v>45161</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1661,7 +1661,7 @@
         <v>19000</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P17" si="19">N3*O3</f>
+        <f t="shared" ref="P3:P17" si="18">N3*O3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="Q3" s="11" t="s">
@@ -1674,7 +1674,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X17" si="20">SUBSTITUTE(V3,",",".")</f>
+        <f t="shared" ref="X3:X17" si="19">SUBSTITUTE(V3,",",".")</f>
         <v/>
       </c>
       <c r="Y3" s="1" t="str">
@@ -1682,7 +1682,7 @@
         <v/>
       </c>
       <c r="Z3" s="14">
-        <f t="shared" ref="Z3:Z17" si="21">COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)+1</f>
+        <f t="shared" ref="Z3:Z17" si="20">COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)+1</f>
         <v>2</v>
       </c>
       <c r="AA3" s="18" t="str">
@@ -1690,7 +1690,7 @@
         <v>8.025228</v>
       </c>
       <c r="AB3" s="18" t="str">
-        <f t="shared" ref="AB3:AB17" si="22">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
+        <f t="shared" ref="AB3:AB17" si="21">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AC3" s="1" t="str">
@@ -1702,7 +1702,7 @@
         <v>00000000</v>
       </c>
       <c r="AE3" s="9">
-        <f t="shared" ref="AE3:AE17" si="23">U3</f>
+        <f t="shared" ref="AE3:AE17" si="22">U3</f>
         <v>0</v>
       </c>
       <c r="AF3" s="13">
@@ -1710,7 +1710,7 @@
         <v>32020.66</v>
       </c>
       <c r="AG3" s="13">
-        <f t="shared" ref="AG3:AG17" si="24">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
+        <f t="shared" ref="AG3:AG17" si="23">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
         <v>184499.99</v>
       </c>
       <c r="AH3" s="10" t="str">
@@ -1731,40 +1731,40 @@
         <v>30525733870-1</v>
       </c>
       <c r="AM3" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)-1</f>
         <v>0</v>
       </c>
       <c r="AN3" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AP3" s="1">
         <f t="shared" si="9"/>
-        <v>A</v>
-      </c>
-      <c r="AP3" s="1">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="13">
+        <f t="shared" si="10"/>
+        <v>184499.99</v>
+      </c>
+      <c r="AS3" s="13">
         <f t="shared" si="11"/>
-        <v>184499.99</v>
-      </c>
-      <c r="AS3" s="13">
+        <v>152479.32999999999</v>
+      </c>
+      <c r="AT3" s="20">
         <f t="shared" si="12"/>
-        <v>152479.32999999999</v>
-      </c>
-      <c r="AT3" s="20">
+        <v>8.0252280000000003</v>
+      </c>
+      <c r="AU3" s="13">
         <f t="shared" si="13"/>
-        <v>8.0252280000000003</v>
-      </c>
-      <c r="AU3" s="13">
-        <f t="shared" si="14"/>
         <v>184500</v>
       </c>
       <c r="AV3" s="20">
-        <f t="shared" ref="AV3:AV17" si="25">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
+        <f t="shared" ref="AV3:AV17" si="24">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
         <v>8.0252280000000003</v>
       </c>
       <c r="AW3" s="2"/>
@@ -1778,20 +1778,20 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B4" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B4" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C4" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C4" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D4" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1826,7 +1826,7 @@
         <v>19000</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>190082.63099999999</v>
       </c>
       <c r="Q4" s="11" t="s">
@@ -1839,15 +1839,15 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f t="shared" ref="Y4:Y17" si="25">SUBSTITUTE(W4,",",".")</f>
+        <v/>
+      </c>
+      <c r="Z4" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y4" s="1" t="str">
-        <f t="shared" ref="Y4:Y17" si="26">SUBSTITUTE(W4,",",".")</f>
-        <v/>
-      </c>
-      <c r="Z4" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA4" s="18" t="str">
@@ -1855,7 +1855,7 @@
         <v>10.004349</v>
       </c>
       <c r="AB4" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC4" s="1" t="str">
@@ -1867,7 +1867,7 @@
         <v>00000000</v>
       </c>
       <c r="AE4" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF4" s="13">
@@ -1875,7 +1875,7 @@
         <v>39917.35</v>
       </c>
       <c r="AG4" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>229999.98</v>
       </c>
       <c r="AH4" s="10" t="str">
@@ -1896,40 +1896,40 @@
         <v>30610252334-1</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E3:E4,E4,F3:F4,F4,K3:K4,K4)-1</f>
         <v>0</v>
       </c>
       <c r="AN4" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AP4" s="1">
         <f t="shared" si="9"/>
-        <v>A</v>
-      </c>
-      <c r="AP4" s="1">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="13">
+        <f t="shared" si="10"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AS4" s="13">
         <f t="shared" si="11"/>
-        <v>229999.98</v>
-      </c>
-      <c r="AS4" s="13">
+        <v>190082.63</v>
+      </c>
+      <c r="AT4" s="20">
         <f t="shared" si="12"/>
-        <v>190082.63</v>
-      </c>
-      <c r="AT4" s="20">
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AU4" s="13">
         <f t="shared" si="13"/>
-        <v>10.004348999999999</v>
-      </c>
-      <c r="AU4" s="13">
-        <f t="shared" si="14"/>
         <v>230000</v>
       </c>
       <c r="AV4" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AW4" s="2"/>
@@ -1943,20 +1943,20 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B5" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B5" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C5" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C5" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D5" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1991,7 +1991,7 @@
         <v>19000</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>171487.59700000001</v>
       </c>
       <c r="Q5" s="11" t="s">
@@ -2004,15 +2004,15 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z5" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y5" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z5" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA5" s="18" t="str">
@@ -2020,7 +2020,7 @@
         <v>9.025663</v>
       </c>
       <c r="AB5" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC5" s="1" t="str">
@@ -2032,7 +2032,7 @@
         <v>00000000</v>
       </c>
       <c r="AE5" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF5" s="13">
@@ -2040,7 +2040,7 @@
         <v>36012.400000000001</v>
       </c>
       <c r="AG5" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>207500</v>
       </c>
       <c r="AH5" s="10" t="str">
@@ -2061,40 +2061,40 @@
         <v>30710964277-1</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E4:E5,E5,F4:F5,F5,K4:K5,K5)-1</f>
         <v>0</v>
       </c>
       <c r="AN5" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AP5" s="1">
         <f t="shared" si="9"/>
-        <v>A</v>
-      </c>
-      <c r="AP5" s="1">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="13">
+        <f t="shared" si="10"/>
+        <v>207499.99</v>
+      </c>
+      <c r="AS5" s="13">
         <f t="shared" si="11"/>
-        <v>207499.99</v>
-      </c>
-      <c r="AS5" s="13">
+        <v>171487.6</v>
+      </c>
+      <c r="AT5" s="20">
         <f t="shared" si="12"/>
-        <v>171487.6</v>
-      </c>
-      <c r="AT5" s="20">
+        <v>9.0256629999999998</v>
+      </c>
+      <c r="AU5" s="13">
         <f t="shared" si="13"/>
-        <v>9.0256629999999998</v>
-      </c>
-      <c r="AU5" s="13">
-        <f t="shared" si="14"/>
         <v>207500</v>
       </c>
       <c r="AV5" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AW5" s="2"/>
@@ -2108,20 +2108,20 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B6" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B6" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C6" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C6" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D6" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2156,7 +2156,7 @@
         <v>19000</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>95454.536999999997</v>
       </c>
       <c r="Q6" s="11" t="s">
@@ -2177,15 +2177,15 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z6" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y6" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z6" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA6" s="18" t="str">
@@ -2193,7 +2193,7 @@
         <v>5.023923</v>
       </c>
       <c r="AB6" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC6" s="1" t="str">
@@ -2205,7 +2205,7 @@
         <v>00000003</v>
       </c>
       <c r="AE6" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>44816</v>
       </c>
       <c r="AF6" s="13">
@@ -2213,7 +2213,7 @@
         <v>20045.45</v>
       </c>
       <c r="AG6" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>115499.99</v>
       </c>
       <c r="AH6" s="10" t="str">
@@ -2234,40 +2234,40 @@
         <v>33610006189-1</v>
       </c>
       <c r="AM6" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E5:E6,E6,F5:F6,F6,K5:K6,K6)-1</f>
         <v>0</v>
       </c>
       <c r="AN6" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AO6" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AP6" s="1">
         <f t="shared" si="9"/>
-        <v>A</v>
-      </c>
-      <c r="AP6" s="1">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="13">
+        <f t="shared" si="10"/>
+        <v>115499.99</v>
+      </c>
+      <c r="AS6" s="13">
         <f t="shared" si="11"/>
-        <v>115499.99</v>
-      </c>
-      <c r="AS6" s="13">
+        <v>95454.54</v>
+      </c>
+      <c r="AT6" s="20">
         <f t="shared" si="12"/>
-        <v>95454.54</v>
-      </c>
-      <c r="AT6" s="20">
+        <v>5.0239229999999999</v>
+      </c>
+      <c r="AU6" s="13">
         <f t="shared" si="13"/>
-        <v>5.0239229999999999</v>
-      </c>
-      <c r="AU6" s="13">
-        <f t="shared" si="14"/>
         <v>115500</v>
       </c>
       <c r="AV6" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AW6" s="2"/>
@@ -2281,20 +2281,20 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B7" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B7" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C7" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C7" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D7" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D7" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2328,7 +2328,7 @@
         <v>19000</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>95041.305999999997</v>
       </c>
       <c r="Q7" s="11" t="s">
@@ -2341,15 +2341,15 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z7" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y7" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z7" s="14">
-        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AA7" s="18" t="str">
@@ -2357,7 +2357,7 @@
         <v>5.002174</v>
       </c>
       <c r="AB7" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC7" s="1" t="str">
@@ -2369,7 +2369,7 @@
         <v>00000000</v>
       </c>
       <c r="AE7" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF7" s="13">
@@ -2377,7 +2377,7 @@
         <v>19958.669999999998</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>114999.98</v>
       </c>
       <c r="AH7" s="10" t="str">
@@ -2385,7 +2385,7 @@
         <v>95041.31</v>
       </c>
       <c r="AI7" s="10" t="str">
-        <f t="shared" ref="AI7:AI17" si="27">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
+        <f t="shared" ref="AI7:AI17" si="26">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
       <c r="AJ7" s="2"/>
@@ -2398,40 +2398,40 @@
         <v>33610006189-2</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E6:E7,E7,F6:F7,F7,K6:K7,K7)-1</f>
         <v>1</v>
       </c>
       <c r="AN7" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AP7" s="1">
         <f t="shared" si="9"/>
-        <v>A</v>
-      </c>
-      <c r="AP7" s="1">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="13">
+        <f t="shared" si="10"/>
+        <v>114999.98</v>
+      </c>
+      <c r="AS7" s="13">
         <f t="shared" si="11"/>
-        <v>114999.98</v>
-      </c>
-      <c r="AS7" s="13">
+        <v>95041.31</v>
+      </c>
+      <c r="AT7" s="20">
         <f t="shared" si="12"/>
-        <v>95041.31</v>
-      </c>
-      <c r="AT7" s="20">
+        <v>5.0021740000000001</v>
+      </c>
+      <c r="AU7" s="13">
         <f t="shared" si="13"/>
-        <v>5.0021740000000001</v>
-      </c>
-      <c r="AU7" s="13">
-        <f t="shared" si="14"/>
         <v>115000</v>
       </c>
       <c r="AV7" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AW7" s="2"/>
@@ -2445,20 +2445,20 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B8" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B8" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C8" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C8" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D8" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2482,7 +2482,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" ref="L8:L13" ca="1" si="28">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <f t="shared" ref="L8:L13" ca="1" si="27">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
       <c r="M8" s="2"/>
@@ -2493,7 +2493,7 @@
         <v>19000</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>190082.63099999999</v>
       </c>
       <c r="Q8" s="11" t="s">
@@ -2506,15 +2506,15 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z8" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y8" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z8" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA8" s="18" t="str">
@@ -2522,7 +2522,7 @@
         <v>10.004349</v>
       </c>
       <c r="AB8" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC8" s="1" t="str">
@@ -2534,7 +2534,7 @@
         <v>00000000</v>
       </c>
       <c r="AE8" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF8" s="13">
@@ -2542,7 +2542,7 @@
         <v>39917.35</v>
       </c>
       <c r="AG8" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>229999.98</v>
       </c>
       <c r="AH8" s="10" t="str">
@@ -2550,7 +2550,7 @@
         <v>190082.63</v>
       </c>
       <c r="AI8" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.02</v>
       </c>
       <c r="AJ8" s="2"/>
@@ -2563,40 +2563,40 @@
         <v>33615420269-1</v>
       </c>
       <c r="AM8" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E7:E8,E8,F7:F8,F8,K7:K8,K8)-1</f>
         <v>0</v>
       </c>
       <c r="AN8" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AP8" s="1">
         <f t="shared" si="9"/>
-        <v>A</v>
-      </c>
-      <c r="AP8" s="1">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="13">
+        <f t="shared" si="10"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AS8" s="13">
         <f t="shared" si="11"/>
-        <v>229999.98</v>
-      </c>
-      <c r="AS8" s="13">
+        <v>190082.63</v>
+      </c>
+      <c r="AT8" s="20">
         <f t="shared" si="12"/>
-        <v>190082.63</v>
-      </c>
-      <c r="AT8" s="20">
+        <v>10.004348999999999</v>
+      </c>
+      <c r="AU8" s="13">
         <f t="shared" si="13"/>
-        <v>10.004348999999999</v>
-      </c>
-      <c r="AU8" s="13">
-        <f t="shared" si="14"/>
         <v>230000</v>
       </c>
       <c r="AV8" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AW8" s="2"/>
@@ -2610,20 +2610,20 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B9" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B9" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C9" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C9" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D9" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2647,7 +2647,7 @@
         <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M9" s="2"/>
@@ -2658,7 +2658,7 @@
         <v>19000</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>19421.477000000003</v>
       </c>
       <c r="Q9" s="11" t="s">
@@ -2671,15 +2671,15 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z9" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y9" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z9" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA9" s="18" t="str">
@@ -2687,7 +2687,7 @@
         <v>1.022183</v>
       </c>
       <c r="AB9" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC9" s="1" t="str">
@@ -2699,7 +2699,7 @@
         <v>00000000</v>
       </c>
       <c r="AE9" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF9" s="13">
@@ -2707,7 +2707,7 @@
         <v>4078.51</v>
       </c>
       <c r="AG9" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>23499.99</v>
       </c>
       <c r="AH9" s="10" t="str">
@@ -2715,7 +2715,7 @@
         <v>19421.48</v>
       </c>
       <c r="AI9" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.01</v>
       </c>
       <c r="AJ9" s="2"/>
@@ -2728,40 +2728,40 @@
         <v>20147130202-1</v>
       </c>
       <c r="AM9" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E8:E9,E9,F8:F9,F9,K8:K9,K9)-1</f>
         <v>0</v>
       </c>
       <c r="AN9" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AP9" s="1">
         <f t="shared" si="9"/>
-        <v>A</v>
-      </c>
-      <c r="AP9" s="1">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="13">
+        <f t="shared" si="10"/>
+        <v>23499.99</v>
+      </c>
+      <c r="AS9" s="13">
         <f t="shared" si="11"/>
-        <v>23499.99</v>
-      </c>
-      <c r="AS9" s="13">
+        <v>19421.48</v>
+      </c>
+      <c r="AT9" s="20">
         <f t="shared" si="12"/>
-        <v>19421.48</v>
-      </c>
-      <c r="AT9" s="20">
+        <v>1.0221830000000001</v>
+      </c>
+      <c r="AU9" s="13">
         <f t="shared" si="13"/>
-        <v>1.0221830000000001</v>
-      </c>
-      <c r="AU9" s="13">
-        <f t="shared" si="14"/>
         <v>23500</v>
       </c>
       <c r="AV9" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AW9" s="2"/>
@@ -2775,20 +2775,20 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B10" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B10" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C10" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C10" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2812,7 +2812,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M10" s="2"/>
@@ -2823,7 +2823,7 @@
         <v>19000</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>19834.708000000002</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -2836,15 +2836,15 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z10" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y10" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z10" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA10" s="18" t="str">
@@ -2852,7 +2852,7 @@
         <v>1.043932</v>
       </c>
       <c r="AB10" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC10" s="1" t="str">
@@ -2864,7 +2864,7 @@
         <v>00000000</v>
       </c>
       <c r="AE10" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF10" s="13">
@@ -2872,7 +2872,7 @@
         <v>4165.29</v>
       </c>
       <c r="AG10" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>24000</v>
       </c>
       <c r="AH10" s="10" t="str">
@@ -2880,7 +2880,7 @@
         <v>19834.71</v>
       </c>
       <c r="AI10" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
       <c r="AJ10" s="2"/>
@@ -2893,40 +2893,40 @@
         <v>20374730429-1</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E9:E10,E10,F9:F10,F10,K9:K10,K10)-1</f>
         <v>0</v>
       </c>
       <c r="AN10" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AO10" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AP10" s="1">
         <f t="shared" si="9"/>
-        <v>A</v>
-      </c>
-      <c r="AP10" s="1">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="13">
+        <f t="shared" si="10"/>
+        <v>24000</v>
+      </c>
+      <c r="AS10" s="13">
         <f t="shared" si="11"/>
+        <v>19834.71</v>
+      </c>
+      <c r="AT10" s="20">
+        <f t="shared" si="12"/>
+        <v>1.0439320000000001</v>
+      </c>
+      <c r="AU10" s="13">
+        <f t="shared" si="13"/>
         <v>24000</v>
       </c>
-      <c r="AS10" s="13">
-        <f t="shared" si="12"/>
-        <v>19834.71</v>
-      </c>
-      <c r="AT10" s="20">
-        <f t="shared" si="13"/>
-        <v>1.0439320000000001</v>
-      </c>
-      <c r="AU10" s="13">
-        <f t="shared" si="14"/>
-        <v>24000</v>
-      </c>
       <c r="AV10" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AW10" s="2"/>
@@ -2940,20 +2940,20 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B11" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B11" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C11" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C11" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D11" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2977,7 +2977,7 @@
         <v>56</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M11" s="2"/>
@@ -2988,7 +2988,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>13000</v>
       </c>
       <c r="Q11" s="11" t="s">
@@ -3001,15 +3001,15 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z11" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y11" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z11" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA11" s="18" t="str">
@@ -3017,7 +3017,7 @@
         <v>1.3</v>
       </c>
       <c r="AB11" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>10000.00</v>
       </c>
       <c r="AC11" s="1" t="str">
@@ -3029,7 +3029,7 @@
         <v>00000000</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF11" s="13">
@@ -3037,7 +3037,7 @@
         <v>2256.1999999999998</v>
       </c>
       <c r="AG11" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>13000</v>
       </c>
       <c r="AH11" s="10" t="str">
@@ -3045,7 +3045,7 @@
         <v>13000.00</v>
       </c>
       <c r="AI11" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
       <c r="AJ11" s="2"/>
@@ -3058,40 +3058,40 @@
         <v>37473042-1</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>COUNTIFS(E10:E11,E11,F10:F11,F11,K10:K11,K11)-1</f>
+        <v>0</v>
       </c>
       <c r="AN11" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO11" s="1" t="str">
+        <v>B</v>
+      </c>
+      <c r="AP11" s="1">
         <f t="shared" si="9"/>
-        <v>B</v>
-      </c>
-      <c r="AP11" s="1">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="13">
+        <f t="shared" si="10"/>
+        <v>13000</v>
+      </c>
+      <c r="AS11" s="13">
         <f t="shared" si="11"/>
+        <v>10743.8</v>
+      </c>
+      <c r="AT11" s="20">
+        <f t="shared" si="12"/>
+        <v>1.3</v>
+      </c>
+      <c r="AU11" s="13">
+        <f t="shared" si="13"/>
         <v>13000</v>
       </c>
-      <c r="AS11" s="13">
-        <f t="shared" si="12"/>
-        <v>10743.8</v>
-      </c>
-      <c r="AT11" s="20">
-        <f t="shared" si="13"/>
-        <v>1.3</v>
-      </c>
-      <c r="AU11" s="13">
-        <f t="shared" si="14"/>
-        <v>13000</v>
-      </c>
       <c r="AV11" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.3</v>
       </c>
       <c r="AW11" s="2"/>
@@ -3103,20 +3103,20 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B12" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B12" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C12" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C12" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -3140,7 +3140,7 @@
         <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M12" s="2"/>
@@ -3151,7 +3151,7 @@
         <v>19000</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>23000</v>
       </c>
       <c r="Q12" s="11" t="s">
@@ -3164,15 +3164,15 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y12" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z12" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y12" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z12" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA12" s="18" t="str">
@@ -3180,7 +3180,7 @@
         <v>1.210526</v>
       </c>
       <c r="AB12" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC12" s="1" t="str">
@@ -3192,7 +3192,7 @@
         <v>00000000</v>
       </c>
       <c r="AE12" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF12" s="13">
@@ -3200,7 +3200,7 @@
         <v>3991.74</v>
       </c>
       <c r="AG12" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>23000</v>
       </c>
       <c r="AH12" s="10" t="str">
@@ -3208,7 +3208,7 @@
         <v>23000.00</v>
       </c>
       <c r="AI12" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
       <c r="AJ12" s="2"/>
@@ -3221,40 +3221,40 @@
         <v>30707354719-1</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E11:E12,E12,F11:F12,F12,K11:K12,K12)-1</f>
         <v>0</v>
       </c>
       <c r="AN12" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="1" t="str">
+        <v>B</v>
+      </c>
+      <c r="AP12" s="1">
         <f t="shared" si="9"/>
-        <v>B</v>
-      </c>
-      <c r="AP12" s="1">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="13">
+        <f t="shared" si="10"/>
+        <v>23000</v>
+      </c>
+      <c r="AS12" s="13">
         <f t="shared" si="11"/>
+        <v>19008.259999999998</v>
+      </c>
+      <c r="AT12" s="20">
+        <f t="shared" si="12"/>
+        <v>1.2105263157894737</v>
+      </c>
+      <c r="AU12" s="13">
+        <f t="shared" si="13"/>
         <v>23000</v>
       </c>
-      <c r="AS12" s="13">
-        <f t="shared" si="12"/>
-        <v>19008.259999999998</v>
-      </c>
-      <c r="AT12" s="20">
-        <f t="shared" si="13"/>
-        <v>1.2105263157894737</v>
-      </c>
-      <c r="AU12" s="13">
-        <f t="shared" si="14"/>
-        <v>23000</v>
-      </c>
       <c r="AV12" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AW12" s="2"/>
@@ -3266,20 +3266,20 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B13" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B13" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C13" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C13" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D13" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D13" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M13" s="2"/>
@@ -3312,7 +3312,7 @@
         <v>19000</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>28500</v>
       </c>
       <c r="Q13" s="11"/>
@@ -3323,15 +3323,15 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y13" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z13" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y13" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z13" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA13" s="18" t="str">
@@ -3339,7 +3339,7 @@
         <v>1.5</v>
       </c>
       <c r="AB13" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC13" s="1" t="str">
@@ -3351,7 +3351,7 @@
         <v>00000000</v>
       </c>
       <c r="AE13" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF13" s="13">
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>28500</v>
       </c>
       <c r="AH13" s="10" t="str">
@@ -3367,7 +3367,7 @@
         <v>28500.00</v>
       </c>
       <c r="AI13" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
       <c r="AJ13" s="2"/>
@@ -3380,40 +3380,40 @@
         <v>-0</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E12:E13,E13,F12:F13,F13,K12:K13,K13)-1</f>
         <v>0</v>
       </c>
       <c r="AN13" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO13" s="1" t="str">
+        <v>C</v>
+      </c>
+      <c r="AP13" s="1">
         <f t="shared" si="9"/>
-        <v>C</v>
-      </c>
-      <c r="AP13" s="1">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="13">
+        <f t="shared" si="10"/>
+        <v>28500</v>
+      </c>
+      <c r="AS13" s="13">
         <f t="shared" si="11"/>
         <v>28500</v>
       </c>
-      <c r="AS13" s="13">
+      <c r="AT13" s="20">
         <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AU13" s="13">
+        <f t="shared" si="13"/>
         <v>28500</v>
       </c>
-      <c r="AT13" s="20">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
-      </c>
-      <c r="AU13" s="13">
-        <f t="shared" si="14"/>
-        <v>28500</v>
-      </c>
       <c r="AV13" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="AW13" s="2"/>
@@ -3425,20 +3425,20 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B14" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B14" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C14" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C14" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D14" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D14" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3472,7 +3472,7 @@
         <v>19000</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>133471.06700000001</v>
       </c>
       <c r="Q14" s="11" t="s">
@@ -3493,15 +3493,15 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z14" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y14" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z14" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA14" s="18" t="str">
@@ -3509,7 +3509,7 @@
         <v>7.024793</v>
       </c>
       <c r="AB14" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC14" s="1" t="str">
@@ -3521,7 +3521,7 @@
         <v>00000150</v>
       </c>
       <c r="AE14" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>44816</v>
       </c>
       <c r="AF14" s="13">
@@ -3529,7 +3529,7 @@
         <v>28028.92</v>
       </c>
       <c r="AG14" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>161499.99</v>
       </c>
       <c r="AH14" s="10" t="str">
@@ -3537,7 +3537,7 @@
         <v>133471.07</v>
       </c>
       <c r="AI14" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.01</v>
       </c>
       <c r="AJ14" s="2"/>
@@ -3550,40 +3550,40 @@
         <v>30684125792-1</v>
       </c>
       <c r="AM14" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E13:E14,E14,F13:F14,F14,K13:K14,K14)-1</f>
         <v>0</v>
       </c>
       <c r="AN14" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AP14" s="1">
         <f t="shared" si="9"/>
-        <v>A</v>
-      </c>
-      <c r="AP14" s="1">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="13">
+        <f t="shared" si="10"/>
+        <v>161499.99</v>
+      </c>
+      <c r="AS14" s="13">
         <f t="shared" si="11"/>
-        <v>161499.99</v>
-      </c>
-      <c r="AS14" s="13">
+        <v>133471.07</v>
+      </c>
+      <c r="AT14" s="20">
         <f t="shared" si="12"/>
-        <v>133471.07</v>
-      </c>
-      <c r="AT14" s="20">
+        <v>7.0247929999999998</v>
+      </c>
+      <c r="AU14" s="13">
         <f t="shared" si="13"/>
-        <v>7.0247929999999998</v>
-      </c>
-      <c r="AU14" s="13">
-        <f t="shared" si="14"/>
         <v>161500</v>
       </c>
       <c r="AV14" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AW14" s="2"/>
@@ -3595,20 +3595,20 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B15" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B15" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C15" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C15" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D15" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D15" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -3642,7 +3642,7 @@
         <v>19000</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>28500</v>
       </c>
       <c r="Q15" s="11" t="s">
@@ -3663,15 +3663,15 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y15" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z15" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y15" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z15" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA15" s="18" t="str">
@@ -3679,7 +3679,7 @@
         <v>1.5</v>
       </c>
       <c r="AB15" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC15" s="1" t="str">
@@ -3691,7 +3691,7 @@
         <v>00000152</v>
       </c>
       <c r="AE15" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>44816</v>
       </c>
       <c r="AF15" s="13">
@@ -3699,7 +3699,7 @@
         <v>4946.28</v>
       </c>
       <c r="AG15" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>28500</v>
       </c>
       <c r="AH15" s="10" t="str">
@@ -3707,7 +3707,7 @@
         <v>28500.00</v>
       </c>
       <c r="AI15" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
       <c r="AJ15" s="2"/>
@@ -3720,40 +3720,40 @@
         <v>30707354719-2</v>
       </c>
       <c r="AM15" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E14:E15,E15,F14:F15,F15,K14:K15,K15)-1</f>
         <v>0</v>
       </c>
       <c r="AN15" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="1" t="str">
+        <v>B</v>
+      </c>
+      <c r="AP15" s="1">
         <f t="shared" si="9"/>
-        <v>B</v>
-      </c>
-      <c r="AP15" s="1">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="13">
+        <f t="shared" si="10"/>
+        <v>28500</v>
+      </c>
+      <c r="AS15" s="13">
         <f t="shared" si="11"/>
+        <v>23553.72</v>
+      </c>
+      <c r="AT15" s="20">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AU15" s="13">
+        <f t="shared" si="13"/>
         <v>28500</v>
       </c>
-      <c r="AS15" s="13">
-        <f t="shared" si="12"/>
-        <v>23553.72</v>
-      </c>
-      <c r="AT15" s="20">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
-      </c>
-      <c r="AU15" s="13">
-        <f t="shared" si="14"/>
-        <v>28500</v>
-      </c>
       <c r="AV15" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="AW15" s="2"/>
@@ -3765,20 +3765,20 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B16" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B16" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C16" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C16" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D16" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D16" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -3812,7 +3812,7 @@
         <v>19000</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>133057.83600000001</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -3833,15 +3833,15 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y16" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z16" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y16" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z16" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA16" s="18" t="str">
@@ -3849,7 +3849,7 @@
         <v>7.003044</v>
       </c>
       <c r="AB16" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC16" s="1" t="str">
@@ -3861,7 +3861,7 @@
         <v>00000151</v>
       </c>
       <c r="AE16" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>44816</v>
       </c>
       <c r="AF16" s="13">
@@ -3869,7 +3869,7 @@
         <v>27942.15</v>
       </c>
       <c r="AG16" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>160999.99</v>
       </c>
       <c r="AH16" s="10" t="str">
@@ -3877,7 +3877,7 @@
         <v>133057.84</v>
       </c>
       <c r="AI16" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.01</v>
       </c>
       <c r="AJ16" s="2"/>
@@ -3890,40 +3890,40 @@
         <v>30684125792-2</v>
       </c>
       <c r="AM16" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E15:E16,E16,F15:F16,F16,K15:K16,K16)-1</f>
         <v>0</v>
       </c>
       <c r="AN16" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO16" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="AP16" s="1">
         <f t="shared" si="9"/>
-        <v>A</v>
-      </c>
-      <c r="AP16" s="1">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="13">
+        <f t="shared" si="10"/>
+        <v>160999.98000000001</v>
+      </c>
+      <c r="AS16" s="13">
         <f t="shared" si="11"/>
-        <v>160999.98000000001</v>
-      </c>
-      <c r="AS16" s="13">
+        <v>133057.82999999999</v>
+      </c>
+      <c r="AT16" s="20">
         <f t="shared" si="12"/>
-        <v>133057.82999999999</v>
-      </c>
-      <c r="AT16" s="20">
+        <v>7.003044</v>
+      </c>
+      <c r="AU16" s="13">
         <f t="shared" si="13"/>
-        <v>7.003044</v>
-      </c>
-      <c r="AU16" s="13">
-        <f t="shared" si="14"/>
         <v>161000</v>
       </c>
       <c r="AV16" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>7.003044</v>
       </c>
       <c r="AW16" s="2"/>
@@ -3935,20 +3935,20 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
+        <f t="shared" ca="1" si="14"/>
+        <v>45147</v>
+      </c>
+      <c r="B17" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>45146</v>
-      </c>
-      <c r="B17" s="9">
+        <v>45108</v>
+      </c>
+      <c r="C17" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>45108</v>
-      </c>
-      <c r="C17" s="9">
+        <v>45138</v>
+      </c>
+      <c r="D17" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>45138</v>
-      </c>
-      <c r="D17" s="9">
-        <f t="shared" ca="1" si="18"/>
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -3982,7 +3982,7 @@
         <v>19000</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>28500</v>
       </c>
       <c r="Q17" s="11" t="s">
@@ -4003,15 +4003,15 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z17" s="14">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Y17" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Z17" s="14">
-        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA17" s="18" t="str">
@@ -4019,7 +4019,7 @@
         <v>1.5</v>
       </c>
       <c r="AB17" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19000.00</v>
       </c>
       <c r="AC17" s="1" t="str">
@@ -4031,7 +4031,7 @@
         <v>00000153</v>
       </c>
       <c r="AE17" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>44816</v>
       </c>
       <c r="AF17" s="13">
@@ -4039,7 +4039,7 @@
         <v>4946.28</v>
       </c>
       <c r="AG17" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>28500</v>
       </c>
       <c r="AH17" s="10" t="str">
@@ -4047,7 +4047,7 @@
         <v>28500.00</v>
       </c>
       <c r="AI17" s="10" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.00</v>
       </c>
       <c r="AJ17" s="2"/>
@@ -4060,40 +4060,40 @@
         <v>37473042-2</v>
       </c>
       <c r="AM17" s="1">
-        <f t="shared" si="7"/>
+        <f>COUNTIFS(E16:E17,E17,F16:F17,F17,K16:K17,K17)-1</f>
         <v>0</v>
       </c>
       <c r="AN17" s="1">
+        <f>IF(A18="",0,COUNTIFS(E17:E18,E18,F17:F18,F18,K17:K18,K18)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO17" s="1" t="str">
+        <v>B</v>
+      </c>
+      <c r="AP17" s="1">
         <f t="shared" si="9"/>
-        <v>B</v>
-      </c>
-      <c r="AP17" s="1">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="13">
+        <f t="shared" si="10"/>
+        <v>28500</v>
+      </c>
+      <c r="AS17" s="13">
         <f t="shared" si="11"/>
+        <v>23553.72</v>
+      </c>
+      <c r="AT17" s="20">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AU17" s="13">
+        <f t="shared" si="13"/>
         <v>28500</v>
       </c>
-      <c r="AS17" s="13">
-        <f t="shared" si="12"/>
-        <v>23553.72</v>
-      </c>
-      <c r="AT17" s="20">
-        <f t="shared" si="13"/>
-        <v>1.5</v>
-      </c>
-      <c r="AU17" s="13">
-        <f t="shared" si="14"/>
-        <v>28500</v>
-      </c>
       <c r="AV17" s="20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.5</v>
       </c>
       <c r="AW17" s="2"/>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D7482B-4B75-4CA1-B54C-8E624A9FBC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79206686-E387-45C4-9E36-961219BC4565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factura" sheetId="2" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AZ$17</definedName>
   </definedNames>
@@ -328,7 +331,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +465,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -858,7 +867,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -883,6 +892,7 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -946,6 +956,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Control"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="D1" t="str">
+            <v>AUX</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Facturado</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="D2" t="str">
+            <v>33610006189-1</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>ü</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3" t="str">
+            <v>33610006189-2</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>ü</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>30610252334-1</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>ü</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1562,47 +1621,50 @@
         <v>2</v>
       </c>
       <c r="AL2" s="15" t="str">
-        <f>J2&amp;"-"&amp;COUNTIF($J$1:J2,J2)</f>
-        <v>30525390086-1</v>
+        <f>J2&amp;"-"&amp;AK2</f>
+        <v>30525390086-2</v>
       </c>
       <c r="AM2" s="1">
-        <f>COUNTIFS(E1:E2,E2,F1:F2,F2,K1:K2,K2)-1</f>
+        <f t="shared" ref="AM2:AM17" si="7">COUNTIFS(E1:E2,E2,F1:F2,F2,K1:K2,K2)-1</f>
         <v>0</v>
       </c>
       <c r="AN2" s="1">
-        <f t="shared" ref="AN2:AN16" ca="1" si="7">IF(A3="",0,COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)-1)</f>
+        <f t="shared" ref="AN2:AN16" ca="1" si="8">IF(A3="",0,COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)-1)</f>
         <v>0</v>
       </c>
       <c r="AO2" s="1" t="str">
-        <f t="shared" ref="AO2:AO17" si="8">RIGHT(F2)</f>
+        <f t="shared" ref="AO2:AO17" si="9">RIGHT(F2)</f>
         <v>A</v>
       </c>
       <c r="AP2" s="1">
-        <f t="shared" ref="AP2:AP17" si="9">IF(LEFT(F2,4)="Nota",0,1)</f>
+        <f t="shared" ref="AP2:AP17" si="10">IF(LEFT(F2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="13">
-        <f t="shared" ref="AR2:AR17" si="10">IF(RIGHT(F2,1)="A",ROUND(O2*N2*(1+Q2),2),AG2)</f>
+        <f t="shared" ref="AR2:AR17" si="11">IF(RIGHT(F2,1)="A",ROUND(O2*N2*(1+Q2),2),AG2)</f>
         <v>160999.98000000001</v>
       </c>
       <c r="AS2" s="13">
-        <f t="shared" ref="AS2:AS17" si="11">ROUND((AR2/(1+Q2)),2)</f>
+        <f t="shared" ref="AS2:AS17" si="12">ROUND((AR2/(1+Q2)),2)</f>
         <v>133057.82999999999</v>
       </c>
       <c r="AT2" s="20">
-        <f t="shared" ref="AT2:AT17" si="12">IF(AO2="A",ROUND(AS2/O2,6),AR2/O2)</f>
+        <f t="shared" ref="AT2:AT17" si="13">IF(AO2="A",ROUND(AS2/O2,6),AR2/O2)</f>
         <v>7.003044</v>
       </c>
       <c r="AU2" s="13">
-        <f t="shared" ref="AU2:AU17" si="13">IF(AO2="A",ROUND(CEILING(O2*N2*(1+Q2),500),2),ROUND(CEILING(O2*N2,500),2))</f>
+        <f t="shared" ref="AU2:AU17" si="14">IF(AO2="A",ROUND(CEILING(O2*N2*(1+Q2),500),2),ROUND(CEILING(O2*N2,500),2))</f>
         <v>161000</v>
       </c>
       <c r="AV2" s="20">
         <f>IF(AO2="A",ROUND(AS2/O2,6),AU2/O2)</f>
         <v>7.003044</v>
       </c>
-      <c r="AW2" s="2"/>
+      <c r="AW2" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL2,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX2" s="2"/>
       <c r="AY2" s="2" t="s">
         <v>92</v>
@@ -1613,19 +1675,19 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A17" ca="1" si="14">TODAY()</f>
+        <f t="shared" ref="A3:A17" ca="1" si="15">TODAY()</f>
         <v>45147</v>
       </c>
       <c r="B3" s="9">
-        <f t="shared" ref="B3:B17" ca="1" si="15">DATE(YEAR(C3),MONTH(C3),1)</f>
+        <f t="shared" ref="B3:B17" ca="1" si="16">DATE(YEAR(C3),MONTH(C3),1)</f>
         <v>45108</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C17" ca="1" si="16">EOMONTH(A3,-1)</f>
+        <f t="shared" ref="C3:C17" ca="1" si="17">EOMONTH(A3,-1)</f>
         <v>45138</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D17" ca="1" si="17">A3+14</f>
+        <f t="shared" ref="D3:D17" ca="1" si="18">A3+14</f>
         <v>45161</v>
       </c>
       <c r="E3" s="2">
@@ -1661,7 +1723,7 @@
         <v>19000</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P17" si="18">N3*O3</f>
+        <f t="shared" ref="P3:P17" si="19">N3*O3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="Q3" s="11" t="s">
@@ -1674,7 +1736,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3:X17" si="19">SUBSTITUTE(V3,",",".")</f>
+        <f t="shared" ref="X3:X17" si="20">SUBSTITUTE(V3,",",".")</f>
         <v/>
       </c>
       <c r="Y3" s="1" t="str">
@@ -1682,7 +1744,7 @@
         <v/>
       </c>
       <c r="Z3" s="14">
-        <f t="shared" ref="Z3:Z17" si="20">COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)+1</f>
+        <f t="shared" ref="Z3:Z17" si="21">COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)+1</f>
         <v>2</v>
       </c>
       <c r="AA3" s="18" t="str">
@@ -1690,7 +1752,7 @@
         <v>8.025228</v>
       </c>
       <c r="AB3" s="18" t="str">
-        <f t="shared" ref="AB3:AB17" si="21">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
+        <f t="shared" ref="AB3:AB17" si="22">SUBSTITUTE(TEXT(O3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AC3" s="1" t="str">
@@ -1702,7 +1764,7 @@
         <v>00000000</v>
       </c>
       <c r="AE3" s="9">
-        <f t="shared" ref="AE3:AE17" si="22">U3</f>
+        <f t="shared" ref="AE3:AE17" si="23">U3</f>
         <v>0</v>
       </c>
       <c r="AF3" s="13">
@@ -1710,7 +1772,7 @@
         <v>32020.66</v>
       </c>
       <c r="AG3" s="13">
-        <f t="shared" ref="AG3:AG17" si="23">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
+        <f t="shared" ref="AG3:AG17" si="24">IF(AO3="A",ROUND(P3+AF3,2),ROUND(P3,2))</f>
         <v>184499.99</v>
       </c>
       <c r="AH3" s="10" t="str">
@@ -1727,47 +1789,50 @@
         <v>3</v>
       </c>
       <c r="AL3" s="15" t="str">
-        <f>J3&amp;"-"&amp;COUNTIF($J$1:J3,J3)</f>
-        <v>30525733870-1</v>
+        <f t="shared" ref="AL3:AL17" si="25">J3&amp;"-"&amp;AK3</f>
+        <v>30525733870-3</v>
       </c>
       <c r="AM3" s="1">
-        <f>COUNTIFS(E2:E3,E3,F2:F3,F3,K2:K3,K3)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN3" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO3" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP3" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>184499.99</v>
       </c>
       <c r="AS3" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>152479.32999999999</v>
       </c>
       <c r="AT3" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.0252280000000003</v>
       </c>
       <c r="AU3" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>184500</v>
       </c>
       <c r="AV3" s="20">
-        <f t="shared" ref="AV3:AV17" si="24">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
+        <f t="shared" ref="AV3:AV17" si="26">IF(AO3="A",ROUND(AS3/O3,6),AU3/O3)</f>
         <v>8.0252280000000003</v>
       </c>
-      <c r="AW3" s="2"/>
+      <c r="AW3" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL3,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX3" s="2"/>
       <c r="AY3" s="2" t="s">
         <v>92</v>
@@ -1778,19 +1843,19 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B4" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E4" s="2">
@@ -1826,7 +1891,7 @@
         <v>19000</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>190082.63099999999</v>
       </c>
       <c r="Q4" s="11" t="s">
@@ -1839,15 +1904,15 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y4" s="1" t="str">
-        <f t="shared" ref="Y4:Y17" si="25">SUBSTITUTE(W4,",",".")</f>
+        <f t="shared" ref="Y4:Y17" si="27">SUBSTITUTE(W4,",",".")</f>
         <v/>
       </c>
       <c r="Z4" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA4" s="18" t="str">
@@ -1855,7 +1920,7 @@
         <v>10.004349</v>
       </c>
       <c r="AB4" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC4" s="1" t="str">
@@ -1867,7 +1932,7 @@
         <v>00000000</v>
       </c>
       <c r="AE4" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF4" s="13">
@@ -1875,7 +1940,7 @@
         <v>39917.35</v>
       </c>
       <c r="AG4" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>229999.98</v>
       </c>
       <c r="AH4" s="10" t="str">
@@ -1892,47 +1957,50 @@
         <v>4</v>
       </c>
       <c r="AL4" s="15" t="str">
-        <f>J4&amp;"-"&amp;COUNTIF($J$1:J4,J4)</f>
-        <v>30610252334-1</v>
+        <f t="shared" si="25"/>
+        <v>30610252334-4</v>
       </c>
       <c r="AM4" s="1">
-        <f>COUNTIFS(E3:E4,E4,F3:F4,F4,K3:K4,K4)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN4" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO4" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>229999.98</v>
       </c>
       <c r="AS4" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>190082.63</v>
       </c>
       <c r="AT4" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AU4" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>230000</v>
       </c>
       <c r="AV4" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10.004348999999999</v>
       </c>
-      <c r="AW4" s="2"/>
+      <c r="AW4" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL4,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX4" s="2"/>
       <c r="AY4" s="2" t="s">
         <v>92</v>
@@ -1943,19 +2011,19 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B5" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E5" s="2">
@@ -1991,7 +2059,7 @@
         <v>19000</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>171487.59700000001</v>
       </c>
       <c r="Q5" s="11" t="s">
@@ -2004,15 +2072,15 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y5" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z5" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA5" s="18" t="str">
@@ -2020,7 +2088,7 @@
         <v>9.025663</v>
       </c>
       <c r="AB5" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC5" s="1" t="str">
@@ -2032,7 +2100,7 @@
         <v>00000000</v>
       </c>
       <c r="AE5" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF5" s="13">
@@ -2040,7 +2108,7 @@
         <v>36012.400000000001</v>
       </c>
       <c r="AG5" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>207500</v>
       </c>
       <c r="AH5" s="10" t="str">
@@ -2057,47 +2125,50 @@
         <v>5</v>
       </c>
       <c r="AL5" s="15" t="str">
-        <f>J5&amp;"-"&amp;COUNTIF($J$1:J5,J5)</f>
-        <v>30710964277-1</v>
+        <f t="shared" si="25"/>
+        <v>30710964277-5</v>
       </c>
       <c r="AM5" s="1">
-        <f>COUNTIFS(E4:E5,E5,F4:F5,F5,K4:K5,K5)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN5" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO5" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>207499.99</v>
       </c>
       <c r="AS5" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>171487.6</v>
       </c>
       <c r="AT5" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AU5" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>207500</v>
       </c>
       <c r="AV5" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.0256629999999998</v>
       </c>
-      <c r="AW5" s="2"/>
+      <c r="AW5" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL5,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2" t="s">
         <v>92</v>
@@ -2108,19 +2179,19 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B6" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E6" s="2">
@@ -2156,7 +2227,7 @@
         <v>19000</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>95454.536999999997</v>
       </c>
       <c r="Q6" s="11" t="s">
@@ -2177,15 +2248,15 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y6" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z6" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA6" s="18" t="str">
@@ -2193,7 +2264,7 @@
         <v>5.023923</v>
       </c>
       <c r="AB6" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC6" s="1" t="str">
@@ -2205,7 +2276,7 @@
         <v>00000003</v>
       </c>
       <c r="AE6" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF6" s="13">
@@ -2213,7 +2284,7 @@
         <v>20045.45</v>
       </c>
       <c r="AG6" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>115499.99</v>
       </c>
       <c r="AH6" s="10" t="str">
@@ -2230,47 +2301,50 @@
         <v>6</v>
       </c>
       <c r="AL6" s="15" t="str">
-        <f>J6&amp;"-"&amp;COUNTIF($J$1:J6,J6)</f>
-        <v>33610006189-1</v>
+        <f t="shared" si="25"/>
+        <v>33610006189-6</v>
       </c>
       <c r="AM6" s="1">
-        <f>COUNTIFS(E5:E6,E6,F5:F6,F6,K5:K6,K6)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AO6" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>115499.99</v>
       </c>
       <c r="AS6" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95454.54</v>
       </c>
       <c r="AT6" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AU6" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>115500</v>
       </c>
       <c r="AV6" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.0239229999999999</v>
       </c>
-      <c r="AW6" s="2"/>
+      <c r="AW6" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL6,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX6" s="2"/>
       <c r="AY6" s="2" t="s">
         <v>92</v>
@@ -2281,19 +2355,19 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C7" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E7" s="2">
@@ -2328,7 +2402,7 @@
         <v>19000</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>95041.305999999997</v>
       </c>
       <c r="Q7" s="11" t="s">
@@ -2341,15 +2415,15 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y7" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z7" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AA7" s="18" t="str">
@@ -2357,7 +2431,7 @@
         <v>5.002174</v>
       </c>
       <c r="AB7" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC7" s="1" t="str">
@@ -2369,7 +2443,7 @@
         <v>00000000</v>
       </c>
       <c r="AE7" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF7" s="13">
@@ -2377,7 +2451,7 @@
         <v>19958.669999999998</v>
       </c>
       <c r="AG7" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>114999.98</v>
       </c>
       <c r="AH7" s="10" t="str">
@@ -2385,7 +2459,7 @@
         <v>95041.31</v>
       </c>
       <c r="AI7" s="10" t="str">
-        <f t="shared" ref="AI7:AI17" si="26">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
+        <f t="shared" ref="AI7:AI17" si="28">SUBSTITUTE(TEXT(ROUNDUP(AG7,0)-AG7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
       <c r="AJ7" s="2"/>
@@ -2394,47 +2468,50 @@
         <v>7</v>
       </c>
       <c r="AL7" s="15" t="str">
-        <f>J7&amp;"-"&amp;COUNTIF($J$1:J7,J7)</f>
-        <v>33610006189-2</v>
+        <f t="shared" si="25"/>
+        <v>33610006189-7</v>
       </c>
       <c r="AM7" s="1">
-        <f>COUNTIFS(E6:E7,E7,F6:F7,F7,K6:K7,K7)-1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO7" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>114999.98</v>
       </c>
       <c r="AS7" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>95041.31</v>
       </c>
       <c r="AT7" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AU7" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>115000</v>
       </c>
       <c r="AV7" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.0021740000000001</v>
       </c>
-      <c r="AW7" s="2"/>
+      <c r="AW7" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL7,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX7" s="2"/>
       <c r="AY7" s="2" t="s">
         <v>92</v>
@@ -2445,19 +2522,19 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B8" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E8" s="2">
@@ -2482,7 +2559,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" ref="L8:L13" ca="1" si="27">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
+        <f t="shared" ref="L8:L13" ca="1" si="29">"Honorarios "&amp;PROPER(TEXT(B8,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
       <c r="M8" s="2"/>
@@ -2493,7 +2570,7 @@
         <v>19000</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>190082.63099999999</v>
       </c>
       <c r="Q8" s="11" t="s">
@@ -2506,15 +2583,15 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y8" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z8" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA8" s="18" t="str">
@@ -2522,7 +2599,7 @@
         <v>10.004349</v>
       </c>
       <c r="AB8" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC8" s="1" t="str">
@@ -2534,7 +2611,7 @@
         <v>00000000</v>
       </c>
       <c r="AE8" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF8" s="13">
@@ -2542,7 +2619,7 @@
         <v>39917.35</v>
       </c>
       <c r="AG8" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>229999.98</v>
       </c>
       <c r="AH8" s="10" t="str">
@@ -2550,7 +2627,7 @@
         <v>190082.63</v>
       </c>
       <c r="AI8" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.02</v>
       </c>
       <c r="AJ8" s="2"/>
@@ -2559,47 +2636,50 @@
         <v>8</v>
       </c>
       <c r="AL8" s="15" t="str">
-        <f>J8&amp;"-"&amp;COUNTIF($J$1:J8,J8)</f>
-        <v>33615420269-1</v>
+        <f t="shared" si="25"/>
+        <v>33615420269-8</v>
       </c>
       <c r="AM8" s="1">
-        <f>COUNTIFS(E7:E8,E8,F7:F8,F8,K7:K8,K8)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO8" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>229999.98</v>
       </c>
       <c r="AS8" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>190082.63</v>
       </c>
       <c r="AT8" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AU8" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>230000</v>
       </c>
       <c r="AV8" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10.004348999999999</v>
       </c>
-      <c r="AW8" s="2"/>
+      <c r="AW8" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL8,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2" t="s">
         <v>92</v>
@@ -2610,19 +2690,19 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B9" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E9" s="2">
@@ -2647,7 +2727,7 @@
         <v>57</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M9" s="2"/>
@@ -2658,7 +2738,7 @@
         <v>19000</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19421.477000000003</v>
       </c>
       <c r="Q9" s="11" t="s">
@@ -2671,15 +2751,15 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y9" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z9" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA9" s="18" t="str">
@@ -2687,7 +2767,7 @@
         <v>1.022183</v>
       </c>
       <c r="AB9" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC9" s="1" t="str">
@@ -2699,7 +2779,7 @@
         <v>00000000</v>
       </c>
       <c r="AE9" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF9" s="13">
@@ -2707,7 +2787,7 @@
         <v>4078.51</v>
       </c>
       <c r="AG9" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23499.99</v>
       </c>
       <c r="AH9" s="10" t="str">
@@ -2715,7 +2795,7 @@
         <v>19421.48</v>
       </c>
       <c r="AI9" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.01</v>
       </c>
       <c r="AJ9" s="2"/>
@@ -2724,47 +2804,50 @@
         <v>9</v>
       </c>
       <c r="AL9" s="15" t="str">
-        <f>J9&amp;"-"&amp;COUNTIF($J$1:J9,J9)</f>
-        <v>20147130202-1</v>
+        <f t="shared" si="25"/>
+        <v>20147130202-9</v>
       </c>
       <c r="AM9" s="1">
-        <f>COUNTIFS(E8:E9,E9,F8:F9,F9,K8:K9,K9)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO9" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23499.99</v>
       </c>
       <c r="AS9" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19421.48</v>
       </c>
       <c r="AT9" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AU9" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23500</v>
       </c>
       <c r="AV9" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0221830000000001</v>
       </c>
-      <c r="AW9" s="2"/>
+      <c r="AW9" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL9,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX9" s="2"/>
       <c r="AY9" s="2" t="s">
         <v>92</v>
@@ -2775,19 +2858,19 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B10" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C10" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E10" s="2">
@@ -2812,7 +2895,7 @@
         <v>56</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M10" s="2"/>
@@ -2823,7 +2906,7 @@
         <v>19000</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19834.708000000002</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -2836,15 +2919,15 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y10" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z10" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA10" s="18" t="str">
@@ -2852,7 +2935,7 @@
         <v>1.043932</v>
       </c>
       <c r="AB10" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC10" s="1" t="str">
@@ -2864,7 +2947,7 @@
         <v>00000000</v>
       </c>
       <c r="AE10" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF10" s="13">
@@ -2872,7 +2955,7 @@
         <v>4165.29</v>
       </c>
       <c r="AG10" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>24000</v>
       </c>
       <c r="AH10" s="10" t="str">
@@ -2880,7 +2963,7 @@
         <v>19834.71</v>
       </c>
       <c r="AI10" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.00</v>
       </c>
       <c r="AJ10" s="2"/>
@@ -2889,47 +2972,50 @@
         <v>10</v>
       </c>
       <c r="AL10" s="15" t="str">
-        <f>J10&amp;"-"&amp;COUNTIF($J$1:J10,J10)</f>
-        <v>20374730429-1</v>
+        <f t="shared" si="25"/>
+        <v>20374730429-10</v>
       </c>
       <c r="AM10" s="1">
-        <f>COUNTIFS(E9:E10,E10,F9:F10,F10,K9:K10,K10)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN10" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO10" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24000</v>
       </c>
       <c r="AS10" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19834.71</v>
       </c>
       <c r="AT10" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AU10" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>24000</v>
       </c>
       <c r="AV10" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0439320000000001</v>
       </c>
-      <c r="AW10" s="2"/>
+      <c r="AW10" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL10,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX10" s="2"/>
       <c r="AY10" s="2" t="s">
         <v>92</v>
@@ -2940,19 +3026,19 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B11" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C11" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E11" s="2">
@@ -2977,7 +3063,7 @@
         <v>56</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M11" s="2"/>
@@ -2988,7 +3074,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13000</v>
       </c>
       <c r="Q11" s="11" t="s">
@@ -3001,15 +3087,15 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y11" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z11" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA11" s="18" t="str">
@@ -3017,7 +3103,7 @@
         <v>1.3</v>
       </c>
       <c r="AB11" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10000.00</v>
       </c>
       <c r="AC11" s="1" t="str">
@@ -3029,7 +3115,7 @@
         <v>00000000</v>
       </c>
       <c r="AE11" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF11" s="13">
@@ -3037,7 +3123,7 @@
         <v>2256.1999999999998</v>
       </c>
       <c r="AG11" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13000</v>
       </c>
       <c r="AH11" s="10" t="str">
@@ -3045,7 +3131,7 @@
         <v>13000.00</v>
       </c>
       <c r="AI11" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.00</v>
       </c>
       <c r="AJ11" s="2"/>
@@ -3054,47 +3140,50 @@
         <v>11</v>
       </c>
       <c r="AL11" s="15" t="str">
-        <f>J11&amp;"-"&amp;COUNTIF($J$1:J11,J11)</f>
-        <v>37473042-1</v>
+        <f t="shared" si="25"/>
+        <v>37473042-11</v>
       </c>
       <c r="AM11" s="1">
-        <f>COUNTIFS(E10:E11,E11,F10:F11,F11,K10:K11,K11)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO11" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B</v>
       </c>
       <c r="AP11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13000</v>
       </c>
       <c r="AS11" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10743.8</v>
       </c>
       <c r="AT11" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3</v>
       </c>
       <c r="AU11" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13000</v>
       </c>
       <c r="AV11" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.3</v>
       </c>
-      <c r="AW11" s="2"/>
+      <c r="AW11" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL11,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2" t="s">
         <v>93</v>
@@ -3103,19 +3192,19 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B12" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E12" s="2">
@@ -3140,7 +3229,7 @@
         <v>60</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M12" s="2"/>
@@ -3151,7 +3240,7 @@
         <v>19000</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23000</v>
       </c>
       <c r="Q12" s="11" t="s">
@@ -3164,15 +3253,15 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y12" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z12" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA12" s="18" t="str">
@@ -3180,7 +3269,7 @@
         <v>1.210526</v>
       </c>
       <c r="AB12" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC12" s="1" t="str">
@@ -3192,7 +3281,7 @@
         <v>00000000</v>
       </c>
       <c r="AE12" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF12" s="13">
@@ -3200,7 +3289,7 @@
         <v>3991.74</v>
       </c>
       <c r="AG12" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23000</v>
       </c>
       <c r="AH12" s="10" t="str">
@@ -3208,7 +3297,7 @@
         <v>23000.00</v>
       </c>
       <c r="AI12" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.00</v>
       </c>
       <c r="AJ12" s="2"/>
@@ -3217,47 +3306,50 @@
         <v>12</v>
       </c>
       <c r="AL12" s="15" t="str">
-        <f>J12&amp;"-"&amp;COUNTIF($J$1:J12,J12)</f>
-        <v>30707354719-1</v>
+        <f t="shared" si="25"/>
+        <v>30707354719-12</v>
       </c>
       <c r="AM12" s="1">
-        <f>COUNTIFS(E11:E12,E12,F11:F12,F12,K11:K12,K12)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO12" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B</v>
       </c>
       <c r="AP12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23000</v>
       </c>
       <c r="AS12" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19008.259999999998</v>
       </c>
       <c r="AT12" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="AU12" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>23000</v>
       </c>
       <c r="AV12" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.2105263157894737</v>
       </c>
-      <c r="AW12" s="2"/>
+      <c r="AW12" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL12,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2" t="s">
         <v>93</v>
@@ -3266,19 +3358,19 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B13" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E13" s="2">
@@ -3301,7 +3393,7 @@
         <v>70</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="M13" s="2"/>
@@ -3312,7 +3404,7 @@
         <v>19000</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28500</v>
       </c>
       <c r="Q13" s="11"/>
@@ -3323,15 +3415,15 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y13" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z13" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA13" s="18" t="str">
@@ -3339,7 +3431,7 @@
         <v>1.5</v>
       </c>
       <c r="AB13" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC13" s="1" t="str">
@@ -3351,7 +3443,7 @@
         <v>00000000</v>
       </c>
       <c r="AE13" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF13" s="13">
@@ -3359,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28500</v>
       </c>
       <c r="AH13" s="10" t="str">
@@ -3367,7 +3459,7 @@
         <v>28500.00</v>
       </c>
       <c r="AI13" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.00</v>
       </c>
       <c r="AJ13" s="2"/>
@@ -3376,47 +3468,50 @@
         <v>13</v>
       </c>
       <c r="AL13" s="15" t="str">
-        <f>J13&amp;"-"&amp;COUNTIF($J$1:J13,J13)</f>
-        <v>-0</v>
+        <f t="shared" si="25"/>
+        <v>-13</v>
       </c>
       <c r="AM13" s="1">
-        <f>COUNTIFS(E12:E13,E13,F12:F13,F13,K12:K13,K13)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO13" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>C</v>
       </c>
       <c r="AP13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="13">
-        <f t="shared" si="10"/>
-        <v>28500</v>
-      </c>
-      <c r="AS13" s="13">
         <f t="shared" si="11"/>
         <v>28500</v>
       </c>
+      <c r="AS13" s="13">
+        <f t="shared" si="12"/>
+        <v>28500</v>
+      </c>
       <c r="AT13" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="AU13" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28500</v>
       </c>
       <c r="AV13" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
-      <c r="AW13" s="2"/>
+      <c r="AW13" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL13,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX13" s="2"/>
       <c r="AY13" s="2" t="s">
         <v>93</v>
@@ -3425,19 +3520,19 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B14" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E14" s="2">
@@ -3472,7 +3567,7 @@
         <v>19000</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>133471.06700000001</v>
       </c>
       <c r="Q14" s="11" t="s">
@@ -3493,15 +3588,15 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y14" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z14" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA14" s="18" t="str">
@@ -3509,7 +3604,7 @@
         <v>7.024793</v>
       </c>
       <c r="AB14" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC14" s="1" t="str">
@@ -3521,7 +3616,7 @@
         <v>00000150</v>
       </c>
       <c r="AE14" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF14" s="13">
@@ -3529,7 +3624,7 @@
         <v>28028.92</v>
       </c>
       <c r="AG14" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>161499.99</v>
       </c>
       <c r="AH14" s="10" t="str">
@@ -3537,7 +3632,7 @@
         <v>133471.07</v>
       </c>
       <c r="AI14" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.01</v>
       </c>
       <c r="AJ14" s="2"/>
@@ -3546,47 +3641,50 @@
         <v>14</v>
       </c>
       <c r="AL14" s="15" t="str">
-        <f>J14&amp;"-"&amp;COUNTIF($J$1:J14,J14)</f>
-        <v>30684125792-1</v>
+        <f t="shared" si="25"/>
+        <v>30684125792-14</v>
       </c>
       <c r="AM14" s="1">
-        <f>COUNTIFS(E13:E14,E14,F13:F14,F14,K13:K14,K14)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO14" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>161499.99</v>
       </c>
       <c r="AS14" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>133471.07</v>
       </c>
       <c r="AT14" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AU14" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>161500</v>
       </c>
       <c r="AV14" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.0247929999999998</v>
       </c>
-      <c r="AW14" s="2"/>
+      <c r="AW14" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL14,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX14" s="2"/>
       <c r="AY14" s="2" t="s">
         <v>93</v>
@@ -3595,19 +3693,19 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B15" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C15" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E15" s="2">
@@ -3642,7 +3740,7 @@
         <v>19000</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28500</v>
       </c>
       <c r="Q15" s="11" t="s">
@@ -3663,15 +3761,15 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y15" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z15" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA15" s="18" t="str">
@@ -3679,7 +3777,7 @@
         <v>1.5</v>
       </c>
       <c r="AB15" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC15" s="1" t="str">
@@ -3691,7 +3789,7 @@
         <v>00000152</v>
       </c>
       <c r="AE15" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF15" s="13">
@@ -3699,7 +3797,7 @@
         <v>4946.28</v>
       </c>
       <c r="AG15" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28500</v>
       </c>
       <c r="AH15" s="10" t="str">
@@ -3707,7 +3805,7 @@
         <v>28500.00</v>
       </c>
       <c r="AI15" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.00</v>
       </c>
       <c r="AJ15" s="2"/>
@@ -3716,47 +3814,50 @@
         <v>15</v>
       </c>
       <c r="AL15" s="15" t="str">
-        <f>J15&amp;"-"&amp;COUNTIF($J$1:J15,J15)</f>
-        <v>30707354719-2</v>
+        <f t="shared" si="25"/>
+        <v>30707354719-15</v>
       </c>
       <c r="AM15" s="1">
-        <f>COUNTIFS(E14:E15,E15,F14:F15,F15,K14:K15,K15)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO15" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B</v>
       </c>
       <c r="AP15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28500</v>
       </c>
       <c r="AS15" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23553.72</v>
       </c>
       <c r="AT15" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="AU15" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28500</v>
       </c>
       <c r="AV15" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
-      <c r="AW15" s="2"/>
+      <c r="AW15" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL15,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX15" s="2"/>
       <c r="AY15" s="2" t="s">
         <v>93</v>
@@ -3765,19 +3866,19 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B16" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E16" s="2">
@@ -3812,7 +3913,7 @@
         <v>19000</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>133057.83600000001</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -3833,15 +3934,15 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y16" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z16" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA16" s="18" t="str">
@@ -3849,7 +3950,7 @@
         <v>7.003044</v>
       </c>
       <c r="AB16" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC16" s="1" t="str">
@@ -3861,7 +3962,7 @@
         <v>00000151</v>
       </c>
       <c r="AE16" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF16" s="13">
@@ -3869,7 +3970,7 @@
         <v>27942.15</v>
       </c>
       <c r="AG16" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>160999.99</v>
       </c>
       <c r="AH16" s="10" t="str">
@@ -3877,7 +3978,7 @@
         <v>133057.84</v>
       </c>
       <c r="AI16" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.01</v>
       </c>
       <c r="AJ16" s="2"/>
@@ -3886,47 +3987,50 @@
         <v>16</v>
       </c>
       <c r="AL16" s="15" t="str">
-        <f>J16&amp;"-"&amp;COUNTIF($J$1:J16,J16)</f>
-        <v>30684125792-2</v>
+        <f t="shared" si="25"/>
+        <v>30684125792-16</v>
       </c>
       <c r="AM16" s="1">
-        <f>COUNTIFS(E15:E16,E16,F15:F16,F16,K15:K16,K16)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN16" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AO16" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>A</v>
       </c>
       <c r="AP16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>160999.98000000001</v>
       </c>
       <c r="AS16" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>133057.82999999999</v>
       </c>
       <c r="AT16" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.003044</v>
       </c>
       <c r="AU16" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>161000</v>
       </c>
       <c r="AV16" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.003044</v>
       </c>
-      <c r="AW16" s="2"/>
+      <c r="AW16" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL16,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX16" s="2"/>
       <c r="AY16" s="2" t="s">
         <v>93</v>
@@ -3935,19 +4039,19 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45147</v>
       </c>
       <c r="B17" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>45108</v>
       </c>
       <c r="C17" s="9">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>45138</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>45161</v>
       </c>
       <c r="E17" s="2">
@@ -3982,7 +4086,7 @@
         <v>19000</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28500</v>
       </c>
       <c r="Q17" s="11" t="s">
@@ -4003,15 +4107,15 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y17" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z17" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AA17" s="18" t="str">
@@ -4019,7 +4123,7 @@
         <v>1.5</v>
       </c>
       <c r="AB17" s="18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19000.00</v>
       </c>
       <c r="AC17" s="1" t="str">
@@ -4031,7 +4135,7 @@
         <v>00000153</v>
       </c>
       <c r="AE17" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>44816</v>
       </c>
       <c r="AF17" s="13">
@@ -4039,7 +4143,7 @@
         <v>4946.28</v>
       </c>
       <c r="AG17" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28500</v>
       </c>
       <c r="AH17" s="10" t="str">
@@ -4047,7 +4151,7 @@
         <v>28500.00</v>
       </c>
       <c r="AI17" s="10" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.00</v>
       </c>
       <c r="AJ17" s="2"/>
@@ -4056,11 +4160,11 @@
         <v>17</v>
       </c>
       <c r="AL17" s="15" t="str">
-        <f>J17&amp;"-"&amp;COUNTIF($J$1:J17,J17)</f>
-        <v>37473042-2</v>
+        <f t="shared" si="25"/>
+        <v>37473042-17</v>
       </c>
       <c r="AM17" s="1">
-        <f>COUNTIFS(E16:E17,E17,F16:F17,F17,K16:K17,K17)-1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN17" s="1">
@@ -4068,35 +4172,38 @@
         <v>0</v>
       </c>
       <c r="AO17" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B</v>
       </c>
       <c r="AP17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28500</v>
       </c>
       <c r="AS17" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23553.72</v>
       </c>
       <c r="AT17" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="AU17" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28500</v>
       </c>
       <c r="AV17" s="20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
-      <c r="AW17" s="2"/>
+      <c r="AW17" s="22" t="str">
+        <f>IFERROR(VLOOKUP(AL17,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
       <c r="AX17" s="2"/>
       <c r="AY17" s="2" t="s">
         <v>93</v>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8902AC2-CAD5-447F-9711-F48D3729365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9D067D-90FD-46FE-8564-6AD332574543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factura" sheetId="2" r:id="rId1"/>
+    <sheet name="AUX" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$AZ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$BA$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C13855EB-33CF-4947-A82B-16E82617FCA1}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{C13855EB-33CF-4947-A82B-16E82617FCA1}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{955CC3E1-7240-4A3A-9513-B72EF6B08C47}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{955CC3E1-7240-4A3A-9513-B72EF6B08C47}">
       <text>
         <r>
           <rPr>
@@ -164,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{C9D61B62-D758-434C-B7AD-932B6BEC1456}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{C9D61B62-D758-434C-B7AD-932B6BEC1456}">
       <text>
         <r>
           <rPr>
@@ -193,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
   <si>
     <t>Fecha</t>
   </si>
@@ -475,6 +476,30 @@
   </si>
   <si>
     <t>Sin ST</t>
+  </si>
+  <si>
+    <t>Medio de Pago</t>
+  </si>
+  <si>
+    <t>Contado</t>
+  </si>
+  <si>
+    <t>Tarjeta de Débito</t>
+  </si>
+  <si>
+    <t>Tarjeta de Crédito</t>
+  </si>
+  <si>
+    <t>Cuenta Corriente</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Otra</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1053,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1053,8 +1078,7 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1139,14 +1163,126 @@
             <v>Facturado</v>
           </cell>
         </row>
+        <row r="2">
+          <cell r="D2"/>
+          <cell r="E2"/>
+        </row>
+        <row r="3">
+          <cell r="D3"/>
+          <cell r="E3"/>
+        </row>
+        <row r="4">
+          <cell r="D4"/>
+          <cell r="E4"/>
+        </row>
+        <row r="5">
+          <cell r="D5"/>
+          <cell r="E5"/>
+        </row>
+        <row r="6">
+          <cell r="D6"/>
+          <cell r="E6"/>
+        </row>
+        <row r="7">
+          <cell r="D7"/>
+          <cell r="E7"/>
+        </row>
+        <row r="8">
+          <cell r="D8"/>
+          <cell r="E8"/>
+        </row>
+        <row r="9">
+          <cell r="D9"/>
+          <cell r="E9"/>
+        </row>
+        <row r="10">
+          <cell r="D10"/>
+          <cell r="E10"/>
+        </row>
+        <row r="11">
+          <cell r="D11"/>
+          <cell r="E11"/>
+        </row>
+        <row r="12">
+          <cell r="D12"/>
+          <cell r="E12"/>
+        </row>
+        <row r="13">
+          <cell r="D13"/>
+          <cell r="E13"/>
+        </row>
+        <row r="14">
+          <cell r="D14"/>
+          <cell r="E14"/>
+        </row>
+        <row r="15">
+          <cell r="D15"/>
+          <cell r="E15"/>
+        </row>
+        <row r="16">
+          <cell r="D16"/>
+          <cell r="E16"/>
+        </row>
+        <row r="17">
+          <cell r="D17"/>
+          <cell r="E17"/>
+        </row>
+        <row r="18">
+          <cell r="D18"/>
+          <cell r="E18"/>
+        </row>
+        <row r="19">
+          <cell r="D19"/>
+          <cell r="E19"/>
+        </row>
+        <row r="20">
+          <cell r="D20"/>
+          <cell r="E20"/>
+        </row>
+        <row r="21">
+          <cell r="D21"/>
+          <cell r="E21"/>
+        </row>
+        <row r="22">
+          <cell r="D22"/>
+          <cell r="E22"/>
+        </row>
+        <row r="23">
+          <cell r="D23"/>
+          <cell r="E23"/>
+        </row>
+        <row r="24">
+          <cell r="D24"/>
+          <cell r="E24"/>
+        </row>
+        <row r="25">
+          <cell r="D25"/>
+          <cell r="E25"/>
+        </row>
+        <row r="26">
+          <cell r="D26"/>
+          <cell r="E26"/>
+        </row>
+        <row r="27">
+          <cell r="D27"/>
+          <cell r="E27"/>
+        </row>
+        <row r="28">
+          <cell r="D28"/>
+          <cell r="E28"/>
+        </row>
+        <row r="29">
+          <cell r="D29"/>
+          <cell r="E29"/>
+        </row>
+        <row r="30">
+          <cell r="D30"/>
+          <cell r="E30"/>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1446,12 +1582,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ17"/>
+  <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,36 +1604,37 @@
     <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="9.140625" customWidth="1"/>
-    <col min="28" max="31" width="8" customWidth="1"/>
-    <col min="32" max="36" width="9.140625" customWidth="1"/>
-    <col min="37" max="37" width="11" customWidth="1"/>
-    <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11" customWidth="1"/>
-    <col min="41" max="41" width="11.5703125" customWidth="1"/>
-    <col min="42" max="42" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6" customWidth="1"/>
-    <col min="45" max="45" width="5.85546875" customWidth="1"/>
-    <col min="46" max="46" width="4" customWidth="1"/>
-    <col min="47" max="47" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="9.140625" customWidth="1"/>
+    <col min="29" max="32" width="8" customWidth="1"/>
+    <col min="33" max="37" width="9.140625" customWidth="1"/>
+    <col min="38" max="38" width="11" customWidth="1"/>
+    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11" customWidth="1"/>
+    <col min="42" max="42" width="11.5703125" customWidth="1"/>
+    <col min="43" max="43" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6" customWidth="1"/>
+    <col min="46" max="46" width="5.85546875" customWidth="1"/>
+    <col min="47" max="47" width="4" customWidth="1"/>
+    <col min="48" max="48" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -1542,125 +1679,128 @@
       <c r="P1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AT1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AU1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AV1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AV1" s="17" t="s">
+      <c r="AW1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AW1" s="17" t="s">
+      <c r="AX1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AY1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AY1" s="19" t="s">
+      <c r="AZ1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AZ1" s="19" t="s">
+      <c r="BA1" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f>CONCATENATE(J2," - ",O2," - ",P2," - ",R2)</f>
+        <f>CONCATENATE(J2," - ",O2," - ",P2," - ",S2)</f>
         <v>2 - 30525390086 - COCA COLA FEMSA DE BUENOS AIRES S A - Ajustes Marzo/Abril 2022</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ2,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR2,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D2" s="2" t="s">
@@ -1706,133 +1846,136 @@
       <c r="P2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="6" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="4">
+      <c r="T2" s="2"/>
+      <c r="U2" s="4">
         <v>7.003044</v>
       </c>
-      <c r="U2" s="5">
+      <c r="V2" s="5">
         <v>19000</v>
       </c>
-      <c r="V2" s="5">
-        <f>T2*U2</f>
+      <c r="W2" s="5">
+        <f>U2*V2</f>
         <v>133057.83600000001</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="1" t="str">
-        <f>SUBSTITUTE(AB2,",",".")</f>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="1" t="str">
+        <f>SUBSTITUTE(AC2,",",".")</f>
         <v/>
       </c>
-      <c r="AE2" s="1" t="str">
-        <f t="shared" ref="AE2" si="0">SUBSTITUTE(AC2,",",".")</f>
+      <c r="AF2" s="1" t="str">
+        <f t="shared" ref="AF2" si="0">SUBSTITUTE(AD2,",",".")</f>
         <v/>
       </c>
-      <c r="AF2" s="14">
+      <c r="AG2" s="14">
         <f>COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)+1</f>
         <v>2</v>
       </c>
-      <c r="AG2" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT2="A",ROUND(V2/U2,6),ROUND(AM2/U2,6)),",",".")</f>
+      <c r="AH2" s="18" t="str">
+        <f t="shared" ref="AH2:AH17" si="1">SUBSTITUTE(IF(AU2="A",ROUND(W2/V2,6),ROUND(AN2/V2,6)),",",".")</f>
         <v>7.003044</v>
       </c>
-      <c r="AH2" s="18" t="str">
-        <f>SUBSTITUTE(TEXT(U2,"0,00"),",",".")</f>
+      <c r="AI2" s="18" t="str">
+        <f>SUBSTITUTE(TEXT(V2,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
-      <c r="AI2" s="1" t="str">
-        <f t="shared" ref="AI2:AI17" si="1">TEXT(Y2,"00000")</f>
+      <c r="AJ2" s="1" t="str">
+        <f t="shared" ref="AJ2:AJ17" si="2">TEXT(Z2,"00000")</f>
         <v>00000</v>
       </c>
-      <c r="AJ2" s="1" t="str">
-        <f t="shared" ref="AJ2:AJ17" si="2">TEXT(Z2,"00000000")</f>
+      <c r="AK2" s="1" t="str">
+        <f t="shared" ref="AK2:AK17" si="3">TEXT(AA2,"00000000")</f>
         <v>00000000</v>
       </c>
-      <c r="AK2" s="9">
-        <f>AA2</f>
+      <c r="AL2" s="9">
+        <f>AB2</f>
         <v>0</v>
       </c>
-      <c r="AL2" s="13">
-        <f>IF(AT2="A",ROUND(V2*W2,2),ROUND(V2*W2/(1+W2),2))</f>
+      <c r="AM2" s="13">
+        <f t="shared" ref="AM2:AM17" si="4">IF(AU2="A",ROUND(W2*X2,2),ROUND(W2*X2/(1+X2),2))</f>
         <v>27942.15</v>
       </c>
-      <c r="AM2" s="13">
-        <f>IF(AT2="A",ROUND(V2+AL2,2),ROUND(V2,2))</f>
+      <c r="AN2" s="13">
+        <f t="shared" ref="AN2:AN17" si="5">IF(AU2="A",ROUND(W2+AM2,2),ROUND(W2,2))</f>
         <v>160999.99</v>
       </c>
-      <c r="AN2" s="10" t="str">
-        <f>IF(RIGHT(K2,1)="A",SUBSTITUTE(TEXT(V2,"0,00"),",","."),SUBSTITUTE(TEXT(AM2,"0,00"),",","."))</f>
+      <c r="AO2" s="10" t="str">
+        <f>IF(RIGHT(K2,1)="A",SUBSTITUTE(TEXT(W2,"0,00"),",","."),SUBSTITUTE(TEXT(AN2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
-      <c r="AO2" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AM2,0)-AM2,"0,00"),",",".")</f>
+      <c r="AP2" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AN2,0)-AN2,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AP2" s="1">
-        <f>ROW(P2)</f>
+      <c r="AQ2" s="1">
+        <f t="shared" ref="AQ2:AQ17" si="6">ROW(P2)</f>
         <v>2</v>
       </c>
-      <c r="AQ2" s="15" t="str">
-        <f>O2&amp;"-"&amp;AP2</f>
+      <c r="AR2" s="15" t="str">
+        <f>O2&amp;"-"&amp;AQ2</f>
         <v>30525390086-2</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AS2" s="1">
         <f>COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)-1</f>
         <v>0</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AT2" s="1">
         <f ca="1">IF(F3="",0,COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT2" s="1" t="str">
-        <f>RIGHT(K2)</f>
+      <c r="AU2" s="1" t="str">
+        <f t="shared" ref="AU2:AU17" si="7">RIGHT(K2)</f>
         <v>A</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AV2" s="1">
         <f>IF(LEFT(K2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AV2" s="13">
-        <f>IF(RIGHT(K2,1)="A",ROUND(U2*T2*(1+W2),2),AM2)</f>
+      <c r="AW2" s="13">
+        <f>IF(RIGHT(K2,1)="A",ROUND(V2*U2*(1+X2),2),AN2)</f>
         <v>160999.98000000001</v>
       </c>
-      <c r="AW2" s="13">
-        <f>ROUND((AV2/(1+W2)),2)</f>
+      <c r="AX2" s="13">
+        <f t="shared" ref="AX2:AX17" si="8">ROUND((AW2/(1+X2)),2)</f>
         <v>133057.82999999999</v>
       </c>
-      <c r="AX2" s="20">
-        <f>IF(AT2="A",ROUND(AW2/U2,6),AV2/U2)</f>
+      <c r="AY2" s="20">
+        <f t="shared" ref="AY2:AY17" si="9">IF(AU2="A",ROUND(AX2/V2,6),AW2/V2)</f>
         <v>7.003044</v>
       </c>
-      <c r="AY2" s="13">
-        <f>IF(AT2="A",ROUND(CEILING(U2*T2*(1+W2),500),2),ROUND(CEILING(U2*T2,500),2))</f>
+      <c r="AZ2" s="13">
+        <f t="shared" ref="AZ2:AZ17" si="10">IF(AU2="A",ROUND(CEILING(V2*U2*(1+X2),500),2),ROUND(CEILING(V2*U2,500),2))</f>
         <v>161000</v>
       </c>
-      <c r="AZ2" s="20">
-        <f>IF(AT2="A",ROUND(AW2/U2,6),AY2/U2)</f>
+      <c r="BA2" s="20">
+        <f t="shared" ref="BA2:BA17" si="11">IF(AU2="A",ROUND(AX2/V2,6),AZ2/V2)</f>
         <v>7.003044</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f ca="1">CONCATENATE(J3," - ",O3," - ",P3," - ",R3)</f>
+        <f ca="1">CONCATENATE(J3," - ",O3," - ",P3," - ",S3)</f>
         <v>2 - 30525733870 - PRICE WATERHOUSE &amp; CO SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Julio</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ3,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR3,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D3" s="2" t="s">
@@ -1842,19 +1985,19 @@
         <v>90</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F17" ca="1" si="3">TODAY()</f>
+        <f t="shared" ref="F3:F17" ca="1" si="12">TODAY()</f>
         <v>45149</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G17" ca="1" si="4">DATE(YEAR(H3),MONTH(H3),1)</f>
+        <f t="shared" ref="G3:G17" ca="1" si="13">DATE(YEAR(H3),MONTH(H3),1)</f>
         <v>45108</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H17" ca="1" si="5">EOMONTH(F3,-1)</f>
+        <f t="shared" ref="H3:H17" ca="1" si="14">EOMONTH(F3,-1)</f>
         <v>45138</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" ref="I3:I17" ca="1" si="6">F3+14</f>
+        <f t="shared" ref="I3:I17" ca="1" si="15">F3+14</f>
         <v>45163</v>
       </c>
       <c r="J3" s="2">
@@ -1878,134 +2021,137 @@
       <c r="P3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="1" t="str">
+      <c r="Q3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G3,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="4">
+      <c r="T3" s="2"/>
+      <c r="U3" s="4">
         <v>8.0252280000000003</v>
       </c>
-      <c r="U3" s="5">
+      <c r="V3" s="5">
         <v>19000</v>
       </c>
-      <c r="V3" s="5">
-        <f t="shared" ref="V3:V17" si="7">T3*U3</f>
+      <c r="W3" s="5">
+        <f t="shared" ref="W3:W17" si="16">U3*V3</f>
         <v>152479.33199999999</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="2"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="12"/>
       <c r="AC3" s="2"/>
-      <c r="AD3" s="1" t="str">
-        <f t="shared" ref="AD3:AD17" si="8">SUBSTITUTE(AB3,",",".")</f>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="1" t="str">
+        <f t="shared" ref="AE3:AE17" si="17">SUBSTITUTE(AC3,",",".")</f>
         <v/>
       </c>
-      <c r="AE3" s="1" t="str">
-        <f>SUBSTITUTE(AC3,",",".")</f>
+      <c r="AF3" s="1" t="str">
+        <f>SUBSTITUTE(AD3,",",".")</f>
         <v/>
       </c>
-      <c r="AF3" s="14">
+      <c r="AG3" s="14">
         <f>COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)+1</f>
         <v>2</v>
       </c>
-      <c r="AG3" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT3="A",ROUND(V3/U3,6),ROUND(AM3/U3,6)),",",".")</f>
+      <c r="AH3" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>8.025228</v>
       </c>
-      <c r="AH3" s="18" t="str">
-        <f t="shared" ref="AH3:AH17" si="9">SUBSTITUTE(TEXT(U3,"0,00"),",",".")</f>
+      <c r="AI3" s="18" t="str">
+        <f t="shared" ref="AI3:AI17" si="18">SUBSTITUTE(TEXT(V3,"0,00"),",",".")</f>
         <v>19000.00</v>
-      </c>
-      <c r="AI3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
       </c>
       <c r="AJ3" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AK3" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="AK3" s="9">
-        <f t="shared" ref="AK3:AK17" si="10">AA3</f>
+      <c r="AL3" s="9">
+        <f t="shared" ref="AL3:AL17" si="19">AB3</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="13">
-        <f>IF(AT3="A",ROUND(V3*W3,2),ROUND(V3*W3/(1+W3),2))</f>
+      <c r="AM3" s="13">
+        <f t="shared" si="4"/>
         <v>32020.66</v>
       </c>
-      <c r="AM3" s="13">
-        <f>IF(AT3="A",ROUND(V3+AL3,2),ROUND(V3,2))</f>
+      <c r="AN3" s="13">
+        <f t="shared" si="5"/>
         <v>184499.99</v>
       </c>
-      <c r="AN3" s="10" t="str">
-        <f>IF(RIGHT(K3,1)="A",SUBSTITUTE(TEXT(V3,"0,00"),",","."),SUBSTITUTE(TEXT(AM3,"0,00"),",","."))</f>
+      <c r="AO3" s="10" t="str">
+        <f>IF(RIGHT(K3,1)="A",SUBSTITUTE(TEXT(W3,"0,00"),",","."),SUBSTITUTE(TEXT(AN3,"0,00"),",","."))</f>
         <v>152479.33</v>
       </c>
-      <c r="AO3" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AM3,0)-AM3,"0,00"),",",".")</f>
+      <c r="AP3" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AN3,0)-AN3,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AP3" s="1">
-        <f>ROW(P3)</f>
+      <c r="AQ3" s="1">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="AQ3" s="15" t="str">
-        <f>O3&amp;"-"&amp;AP3</f>
+      <c r="AR3" s="15" t="str">
+        <f>O3&amp;"-"&amp;AQ3</f>
         <v>30525733870-3</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AS3" s="1">
         <f>COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)-1</f>
         <v>0</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AT3" s="1">
         <f ca="1">IF(F4="",0,COUNTIFS(J3:J4,J4,K3:K4,K4,P3:P4,P4)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="1" t="str">
-        <f>RIGHT(K3)</f>
+      <c r="AU3" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AV3" s="1">
         <f>IF(LEFT(K3,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AV3" s="13">
-        <f>IF(RIGHT(K3,1)="A",ROUND(U3*T3*(1+W3),2),AM3)</f>
+      <c r="AW3" s="13">
+        <f>IF(RIGHT(K3,1)="A",ROUND(V3*U3*(1+X3),2),AN3)</f>
         <v>184499.99</v>
       </c>
-      <c r="AW3" s="13">
-        <f>ROUND((AV3/(1+W3)),2)</f>
+      <c r="AX3" s="13">
+        <f t="shared" si="8"/>
         <v>152479.32999999999</v>
       </c>
-      <c r="AX3" s="20">
-        <f>IF(AT3="A",ROUND(AW3/U3,6),AV3/U3)</f>
+      <c r="AY3" s="20">
+        <f t="shared" si="9"/>
         <v>8.0252280000000003</v>
       </c>
-      <c r="AY3" s="13">
-        <f>IF(AT3="A",ROUND(CEILING(U3*T3*(1+W3),500),2),ROUND(CEILING(U3*T3,500),2))</f>
+      <c r="AZ3" s="13">
+        <f t="shared" si="10"/>
         <v>184500</v>
       </c>
-      <c r="AZ3" s="20">
-        <f>IF(AT3="A",ROUND(AW3/U3,6),AY3/U3)</f>
+      <c r="BA3" s="20">
+        <f t="shared" si="11"/>
         <v>8.0252280000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f ca="1">CONCATENATE(J4," - ",O4," - ",P4," - ",R4)</f>
+        <f ca="1">CONCATENATE(J4," - ",O4," - ",P4," - ",S4)</f>
         <v>2 - 30610252334 - ARCOS DORADOS ARGENTINA SOCIEDAD ANONIMA - Honorarios Julio</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ4,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR4,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D4" s="2" t="s">
@@ -2015,19 +2161,19 @@
         <v>90</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J4" s="2">
@@ -2051,134 +2197,137 @@
       <c r="P4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="1" t="str">
+      <c r="Q4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G4,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="4">
+      <c r="T4" s="2"/>
+      <c r="U4" s="4">
         <v>10.004348999999999</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="5">
         <v>19000</v>
       </c>
-      <c r="V4" s="5">
-        <f t="shared" si="7"/>
+      <c r="W4" s="5">
+        <f t="shared" si="16"/>
         <v>190082.63099999999</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="2"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="12"/>
       <c r="AC4" s="2"/>
-      <c r="AD4" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE4" s="1" t="str">
-        <f t="shared" ref="AE4:AE17" si="11">SUBSTITUTE(AC4,",",".")</f>
+      <c r="AF4" s="1" t="str">
+        <f t="shared" ref="AF4:AF17" si="20">SUBSTITUTE(AD4,",",".")</f>
         <v/>
       </c>
-      <c r="AF4" s="14">
+      <c r="AG4" s="14">
         <f>COUNTIFS(J3:J4,J4,K3:K4,K4,P3:P4,P4)+1</f>
         <v>2</v>
       </c>
-      <c r="AG4" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT4="A",ROUND(V4/U4,6),ROUND(AM4/U4,6)),",",".")</f>
+      <c r="AH4" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>10.004349</v>
       </c>
-      <c r="AH4" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI4" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
       </c>
       <c r="AJ4" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AK4" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="AK4" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL4" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="13">
-        <f>IF(AT4="A",ROUND(V4*W4,2),ROUND(V4*W4/(1+W4),2))</f>
+      <c r="AM4" s="13">
+        <f t="shared" si="4"/>
         <v>39917.35</v>
       </c>
-      <c r="AM4" s="13">
-        <f>IF(AT4="A",ROUND(V4+AL4,2),ROUND(V4,2))</f>
+      <c r="AN4" s="13">
+        <f t="shared" si="5"/>
         <v>229999.98</v>
       </c>
-      <c r="AN4" s="10" t="str">
-        <f>IF(RIGHT(K4,1)="A",SUBSTITUTE(TEXT(V4,"0,00"),",","."),SUBSTITUTE(TEXT(AM4,"0,00"),",","."))</f>
+      <c r="AO4" s="10" t="str">
+        <f>IF(RIGHT(K4,1)="A",SUBSTITUTE(TEXT(W4,"0,00"),",","."),SUBSTITUTE(TEXT(AN4,"0,00"),",","."))</f>
         <v>190082.63</v>
       </c>
-      <c r="AO4" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AM4,0)-AM4,"0,00"),",",".")</f>
+      <c r="AP4" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AN4,0)-AN4,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
-      <c r="AP4" s="1">
-        <f>ROW(P4)</f>
+      <c r="AQ4" s="1">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="AQ4" s="15" t="str">
-        <f>O4&amp;"-"&amp;AP4</f>
+      <c r="AR4" s="15" t="str">
+        <f>O4&amp;"-"&amp;AQ4</f>
         <v>30610252334-4</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AS4" s="1">
         <f>COUNTIFS(J3:J4,J4,K3:K4,K4,P3:P4,P4)-1</f>
         <v>0</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AT4" s="1">
         <f ca="1">IF(F5="",0,COUNTIFS(J4:J5,J5,K4:K5,K5,P4:P5,P5)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT4" s="1" t="str">
-        <f>RIGHT(K4)</f>
+      <c r="AU4" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AV4" s="1">
         <f>IF(LEFT(K4,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AV4" s="13">
-        <f>IF(RIGHT(K4,1)="A",ROUND(U4*T4*(1+W4),2),AM4)</f>
+      <c r="AW4" s="13">
+        <f>IF(RIGHT(K4,1)="A",ROUND(V4*U4*(1+X4),2),AN4)</f>
         <v>229999.98</v>
       </c>
-      <c r="AW4" s="13">
-        <f>ROUND((AV4/(1+W4)),2)</f>
+      <c r="AX4" s="13">
+        <f t="shared" si="8"/>
         <v>190082.63</v>
       </c>
-      <c r="AX4" s="20">
-        <f>IF(AT4="A",ROUND(AW4/U4,6),AV4/U4)</f>
+      <c r="AY4" s="20">
+        <f t="shared" si="9"/>
         <v>10.004348999999999</v>
       </c>
-      <c r="AY4" s="13">
-        <f>IF(AT4="A",ROUND(CEILING(U4*T4*(1+W4),500),2),ROUND(CEILING(U4*T4,500),2))</f>
+      <c r="AZ4" s="13">
+        <f t="shared" si="10"/>
         <v>230000</v>
       </c>
-      <c r="AZ4" s="20">
-        <f>IF(AT4="A",ROUND(AW4/U4,6),AY4/U4)</f>
+      <c r="BA4" s="20">
+        <f t="shared" si="11"/>
         <v>10.004348999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f ca="1">CONCATENATE(J5," - ",O5," - ",P5," - ",R5)</f>
+        <f ca="1">CONCATENATE(J5," - ",O5," - ",P5," - ",S5)</f>
         <v>2 - 30710964277 - LAKAUT S.A. - Honorarios Julio</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ5,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR5,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D5" s="2" t="s">
@@ -2188,19 +2337,19 @@
         <v>90</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J5" s="2">
@@ -2224,134 +2373,137 @@
       <c r="P5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="1" t="str">
+      <c r="Q5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G5,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="4">
+      <c r="T5" s="2"/>
+      <c r="U5" s="4">
         <v>9.0256629999999998</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <v>19000</v>
       </c>
-      <c r="V5" s="5">
-        <f t="shared" si="7"/>
+      <c r="W5" s="5">
+        <f t="shared" si="16"/>
         <v>171487.59700000001</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="X5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="2"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="12"/>
       <c r="AC5" s="2"/>
-      <c r="AD5" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE5" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF5" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF5" s="14">
+      <c r="AG5" s="14">
         <f>COUNTIFS(J4:J5,J5,K4:K5,K5,P4:P5,P5)+1</f>
         <v>2</v>
       </c>
-      <c r="AG5" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT5="A",ROUND(V5/U5,6),ROUND(AM5/U5,6)),",",".")</f>
+      <c r="AH5" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>9.025663</v>
       </c>
-      <c r="AH5" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI5" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
       </c>
       <c r="AJ5" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AK5" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="AK5" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL5" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL5" s="13">
-        <f>IF(AT5="A",ROUND(V5*W5,2),ROUND(V5*W5/(1+W5),2))</f>
+      <c r="AM5" s="13">
+        <f t="shared" si="4"/>
         <v>36012.400000000001</v>
       </c>
-      <c r="AM5" s="13">
-        <f>IF(AT5="A",ROUND(V5+AL5,2),ROUND(V5,2))</f>
+      <c r="AN5" s="13">
+        <f t="shared" si="5"/>
         <v>207500</v>
       </c>
-      <c r="AN5" s="10" t="str">
-        <f>IF(RIGHT(K5,1)="A",SUBSTITUTE(TEXT(V5,"0,00"),",","."),SUBSTITUTE(TEXT(AM5,"0,00"),",","."))</f>
+      <c r="AO5" s="10" t="str">
+        <f>IF(RIGHT(K5,1)="A",SUBSTITUTE(TEXT(W5,"0,00"),",","."),SUBSTITUTE(TEXT(AN5,"0,00"),",","."))</f>
         <v>171487.60</v>
       </c>
-      <c r="AO5" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AM5,0)-AM5,"0,00"),",",".")</f>
+      <c r="AP5" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AN5,0)-AN5,"0,00"),",",".")</f>
         <v>0.00</v>
       </c>
-      <c r="AP5" s="1">
-        <f>ROW(P5)</f>
+      <c r="AQ5" s="1">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="AQ5" s="15" t="str">
-        <f>O5&amp;"-"&amp;AP5</f>
+      <c r="AR5" s="15" t="str">
+        <f>O5&amp;"-"&amp;AQ5</f>
         <v>30710964277-5</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AS5" s="1">
         <f>COUNTIFS(J4:J5,J5,K4:K5,K5,P4:P5,P5)-1</f>
         <v>0</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AT5" s="1">
         <f ca="1">IF(F6="",0,COUNTIFS(J5:J6,J6,K5:K6,K6,P5:P6,P6)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="1" t="str">
-        <f>RIGHT(K5)</f>
+      <c r="AU5" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AV5" s="1">
         <f>IF(LEFT(K5,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AV5" s="13">
-        <f>IF(RIGHT(K5,1)="A",ROUND(U5*T5*(1+W5),2),AM5)</f>
+      <c r="AW5" s="13">
+        <f>IF(RIGHT(K5,1)="A",ROUND(V5*U5*(1+X5),2),AN5)</f>
         <v>207499.99</v>
       </c>
-      <c r="AW5" s="13">
-        <f>ROUND((AV5/(1+W5)),2)</f>
+      <c r="AX5" s="13">
+        <f t="shared" si="8"/>
         <v>171487.6</v>
       </c>
-      <c r="AX5" s="20">
-        <f>IF(AT5="A",ROUND(AW5/U5,6),AV5/U5)</f>
+      <c r="AY5" s="20">
+        <f t="shared" si="9"/>
         <v>9.0256629999999998</v>
       </c>
-      <c r="AY5" s="13">
-        <f>IF(AT5="A",ROUND(CEILING(U5*T5*(1+W5),500),2),ROUND(CEILING(U5*T5,500),2))</f>
+      <c r="AZ5" s="13">
+        <f t="shared" si="10"/>
         <v>207500</v>
       </c>
-      <c r="AZ5" s="20">
-        <f>IF(AT5="A",ROUND(AW5/U5,6),AY5/U5)</f>
+      <c r="BA5" s="20">
+        <f t="shared" si="11"/>
         <v>9.0256629999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f ca="1">CONCATENATE(J6," - ",O6," - ",P6," - ",R6)</f>
+        <f ca="1">CONCATENATE(J6," - ",O6," - ",P6," - ",S6)</f>
         <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Julio</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ6,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR6,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D6" s="2" t="s">
@@ -2361,19 +2513,19 @@
         <v>90</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J6" s="2">
@@ -2397,142 +2549,145 @@
       <c r="P6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="1" t="str">
+      <c r="Q6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G6,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="4">
+      <c r="T6" s="2"/>
+      <c r="U6" s="4">
         <v>5.0239229999999999</v>
       </c>
-      <c r="U6" s="5">
+      <c r="V6" s="5">
         <v>19000</v>
       </c>
-      <c r="V6" s="5">
-        <f t="shared" si="7"/>
+      <c r="W6" s="5">
+        <f t="shared" si="16"/>
         <v>95454.536999999997</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="X6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Z6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="AA6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AB6" s="12">
         <v>44816</v>
       </c>
-      <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE6" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF6" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF6" s="14">
+      <c r="AG6" s="14">
         <f>COUNTIFS(J5:J6,J6,K5:K6,K6,P5:P6,P6)+1</f>
         <v>2</v>
       </c>
-      <c r="AG6" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT6="A",ROUND(V6/U6,6),ROUND(AM6/U6,6)),",",".")</f>
+      <c r="AH6" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>5.023923</v>
       </c>
-      <c r="AH6" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI6" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00002</v>
       </c>
       <c r="AJ6" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AK6" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000003</v>
       </c>
-      <c r="AK6" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL6" s="9">
+        <f t="shared" si="19"/>
         <v>44816</v>
       </c>
-      <c r="AL6" s="13">
-        <f>IF(AT6="A",ROUND(V6*W6,2),ROUND(V6*W6/(1+W6),2))</f>
+      <c r="AM6" s="13">
+        <f t="shared" si="4"/>
         <v>20045.45</v>
       </c>
-      <c r="AM6" s="13">
-        <f>IF(AT6="A",ROUND(V6+AL6,2),ROUND(V6,2))</f>
+      <c r="AN6" s="13">
+        <f t="shared" si="5"/>
         <v>115499.99</v>
       </c>
-      <c r="AN6" s="10" t="str">
-        <f>IF(RIGHT(K6,1)="A",SUBSTITUTE(TEXT(V6,"0,00"),",","."),SUBSTITUTE(TEXT(AM6,"0,00"),",","."))</f>
+      <c r="AO6" s="10" t="str">
+        <f>IF(RIGHT(K6,1)="A",SUBSTITUTE(TEXT(W6,"0,00"),",","."),SUBSTITUTE(TEXT(AN6,"0,00"),",","."))</f>
         <v>95454.54</v>
       </c>
-      <c r="AO6" s="10" t="str">
-        <f>SUBSTITUTE(TEXT(ROUNDUP(AM6,0)-AM6,"0,00"),",",".")</f>
+      <c r="AP6" s="10" t="str">
+        <f>SUBSTITUTE(TEXT(ROUNDUP(AN6,0)-AN6,"0,00"),",",".")</f>
         <v>0.01</v>
       </c>
-      <c r="AP6" s="1">
-        <f>ROW(P6)</f>
+      <c r="AQ6" s="1">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="AQ6" s="15" t="str">
-        <f>O6&amp;"-"&amp;AP6</f>
+      <c r="AR6" s="15" t="str">
+        <f>O6&amp;"-"&amp;AQ6</f>
         <v>33610006189-6</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AS6" s="1">
         <f>COUNTIFS(J5:J6,J6,K5:K6,K6,P5:P6,P6)-1</f>
         <v>0</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AT6" s="1">
         <f ca="1">IF(F7="",0,COUNTIFS(J6:J7,J7,K6:K7,K7,P6:P7,P7)-1)</f>
         <v>1</v>
       </c>
-      <c r="AT6" s="1" t="str">
-        <f>RIGHT(K6)</f>
+      <c r="AU6" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AV6" s="1">
         <f>IF(LEFT(K6,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AV6" s="13">
-        <f>IF(RIGHT(K6,1)="A",ROUND(U6*T6*(1+W6),2),AM6)</f>
+      <c r="AW6" s="13">
+        <f>IF(RIGHT(K6,1)="A",ROUND(V6*U6*(1+X6),2),AN6)</f>
         <v>115499.99</v>
       </c>
-      <c r="AW6" s="13">
-        <f>ROUND((AV6/(1+W6)),2)</f>
+      <c r="AX6" s="13">
+        <f t="shared" si="8"/>
         <v>95454.54</v>
       </c>
-      <c r="AX6" s="20">
-        <f>IF(AT6="A",ROUND(AW6/U6,6),AV6/U6)</f>
+      <c r="AY6" s="20">
+        <f t="shared" si="9"/>
         <v>5.0239229999999999</v>
       </c>
-      <c r="AY6" s="13">
-        <f>IF(AT6="A",ROUND(CEILING(U6*T6*(1+W6),500),2),ROUND(CEILING(U6*T6,500),2))</f>
+      <c r="AZ6" s="13">
+        <f t="shared" si="10"/>
         <v>115500</v>
       </c>
-      <c r="AZ6" s="20">
-        <f>IF(AT6="A",ROUND(AW6/U6,6),AY6/U6)</f>
+      <c r="BA6" s="20">
+        <f t="shared" si="11"/>
         <v>5.0239229999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>CONCATENATE(J7," - ",O7," - ",P7," - ",R7)</f>
+        <f>CONCATENATE(J7," - ",O7," - ",P7," - ",S7)</f>
         <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Horas extra</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ7,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR7,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D7" s="2" t="s">
@@ -2542,19 +2697,19 @@
         <v>90</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J7" s="2">
@@ -2578,133 +2733,136 @@
       <c r="P7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="6" t="s">
+      <c r="Q7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="4">
+      <c r="T7" s="2"/>
+      <c r="U7" s="4">
         <v>5.0021740000000001</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="5">
         <v>19000</v>
       </c>
-      <c r="V7" s="5">
-        <f t="shared" si="7"/>
+      <c r="W7" s="5">
+        <f t="shared" si="16"/>
         <v>95041.305999999997</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="X7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="2"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="12"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE7" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF7" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF7" s="14">
+      <c r="AG7" s="14">
         <f>COUNTIFS(J6:J7,J7,K6:K7,K7,P6:P7,P7)+1</f>
         <v>3</v>
       </c>
-      <c r="AG7" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT7="A",ROUND(V7/U7,6),ROUND(AM7/U7,6)),",",".")</f>
+      <c r="AH7" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>5.002174</v>
       </c>
-      <c r="AH7" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI7" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
       </c>
       <c r="AJ7" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AK7" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="AK7" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL7" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="13">
-        <f>IF(AT7="A",ROUND(V7*W7,2),ROUND(V7*W7/(1+W7),2))</f>
+      <c r="AM7" s="13">
+        <f t="shared" si="4"/>
         <v>19958.669999999998</v>
       </c>
-      <c r="AM7" s="13">
-        <f>IF(AT7="A",ROUND(V7+AL7,2),ROUND(V7,2))</f>
+      <c r="AN7" s="13">
+        <f t="shared" si="5"/>
         <v>114999.98</v>
       </c>
-      <c r="AN7" s="10" t="str">
-        <f>IF(RIGHT(K7,1)="A",SUBSTITUTE(TEXT(V7,"0,00"),",","."),SUBSTITUTE(TEXT(AM7,"0,00"),",","."))</f>
+      <c r="AO7" s="10" t="str">
+        <f>IF(RIGHT(K7,1)="A",SUBSTITUTE(TEXT(W7,"0,00"),",","."),SUBSTITUTE(TEXT(AN7,"0,00"),",","."))</f>
         <v>95041.31</v>
       </c>
-      <c r="AO7" s="10" t="str">
-        <f t="shared" ref="AO7:AO17" si="12">SUBSTITUTE(TEXT(ROUNDUP(AM7,0)-AM7,"0,00"),",",".")</f>
+      <c r="AP7" s="10" t="str">
+        <f t="shared" ref="AP7:AP17" si="21">SUBSTITUTE(TEXT(ROUNDUP(AN7,0)-AN7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
-      <c r="AP7" s="1">
-        <f>ROW(P7)</f>
+      <c r="AQ7" s="1">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="AQ7" s="15" t="str">
-        <f>O7&amp;"-"&amp;AP7</f>
+      <c r="AR7" s="15" t="str">
+        <f>O7&amp;"-"&amp;AQ7</f>
         <v>33610006189-7</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AS7" s="1">
         <f>COUNTIFS(J6:J7,J7,K6:K7,K7,P6:P7,P7)-1</f>
         <v>1</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AT7" s="1">
         <f ca="1">IF(F8="",0,COUNTIFS(J7:J8,J8,K7:K8,K8,P7:P8,P8)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="1" t="str">
-        <f>RIGHT(K7)</f>
+      <c r="AU7" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AV7" s="1">
         <f>IF(LEFT(K7,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AV7" s="13">
-        <f>IF(RIGHT(K7,1)="A",ROUND(U7*T7*(1+W7),2),AM7)</f>
+      <c r="AW7" s="13">
+        <f>IF(RIGHT(K7,1)="A",ROUND(V7*U7*(1+X7),2),AN7)</f>
         <v>114999.98</v>
       </c>
-      <c r="AW7" s="13">
-        <f>ROUND((AV7/(1+W7)),2)</f>
+      <c r="AX7" s="13">
+        <f t="shared" si="8"/>
         <v>95041.31</v>
       </c>
-      <c r="AX7" s="20">
-        <f>IF(AT7="A",ROUND(AW7/U7,6),AV7/U7)</f>
+      <c r="AY7" s="20">
+        <f t="shared" si="9"/>
         <v>5.0021740000000001</v>
       </c>
-      <c r="AY7" s="13">
-        <f>IF(AT7="A",ROUND(CEILING(U7*T7*(1+W7),500),2),ROUND(CEILING(U7*T7,500),2))</f>
+      <c r="AZ7" s="13">
+        <f t="shared" si="10"/>
         <v>115000</v>
       </c>
-      <c r="AZ7" s="20">
-        <f>IF(AT7="A",ROUND(AW7/U7,6),AY7/U7)</f>
+      <c r="BA7" s="20">
+        <f t="shared" si="11"/>
         <v>5.0021740000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f ca="1">CONCATENATE(J8," - ",O8," - ",P8," - ",R8)</f>
+        <f ca="1">CONCATENATE(J8," - ",O8," - ",P8," - ",S8)</f>
         <v>2 - 33615420269 - AUSTRAL LINEAS AEREAS CIELOS DEL SUR S A - Honorarios Julio</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ8,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR8,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D8" s="2" t="s">
@@ -2714,19 +2872,19 @@
         <v>90</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J8" s="2">
@@ -2750,134 +2908,137 @@
       <c r="P8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="1" t="str">
-        <f t="shared" ref="R8:R13" ca="1" si="13">"Honorarios "&amp;PROPER(TEXT(G8,"mmmm"))</f>
+      <c r="Q8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="1" t="str">
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(G8,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="4">
+      <c r="T8" s="2"/>
+      <c r="U8" s="4">
         <v>10.004348999999999</v>
       </c>
-      <c r="U8" s="5">
+      <c r="V8" s="5">
         <v>19000</v>
       </c>
-      <c r="V8" s="5">
-        <f t="shared" si="7"/>
+      <c r="W8" s="5">
+        <f t="shared" si="16"/>
         <v>190082.63099999999</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="X8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="2"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="12"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE8" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF8" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF8" s="14">
+      <c r="AG8" s="14">
         <f>COUNTIFS(J7:J8,J8,K7:K8,K8,P7:P8,P8)+1</f>
         <v>2</v>
       </c>
-      <c r="AG8" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT8="A",ROUND(V8/U8,6),ROUND(AM8/U8,6)),",",".")</f>
+      <c r="AH8" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>10.004349</v>
       </c>
-      <c r="AH8" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI8" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
       </c>
       <c r="AJ8" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AK8" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="AK8" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL8" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="13">
-        <f>IF(AT8="A",ROUND(V8*W8,2),ROUND(V8*W8/(1+W8),2))</f>
+      <c r="AM8" s="13">
+        <f t="shared" si="4"/>
         <v>39917.35</v>
       </c>
-      <c r="AM8" s="13">
-        <f>IF(AT8="A",ROUND(V8+AL8,2),ROUND(V8,2))</f>
+      <c r="AN8" s="13">
+        <f t="shared" si="5"/>
         <v>229999.98</v>
       </c>
-      <c r="AN8" s="10" t="str">
-        <f>IF(RIGHT(K8,1)="A",SUBSTITUTE(TEXT(V8,"0,00"),",","."),SUBSTITUTE(TEXT(AM8,"0,00"),",","."))</f>
+      <c r="AO8" s="10" t="str">
+        <f>IF(RIGHT(K8,1)="A",SUBSTITUTE(TEXT(W8,"0,00"),",","."),SUBSTITUTE(TEXT(AN8,"0,00"),",","."))</f>
         <v>190082.63</v>
       </c>
-      <c r="AO8" s="10" t="str">
-        <f t="shared" si="12"/>
+      <c r="AP8" s="10" t="str">
+        <f t="shared" si="21"/>
         <v>0.02</v>
       </c>
-      <c r="AP8" s="1">
-        <f>ROW(P8)</f>
+      <c r="AQ8" s="1">
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="AQ8" s="15" t="str">
-        <f>O8&amp;"-"&amp;AP8</f>
+      <c r="AR8" s="15" t="str">
+        <f>O8&amp;"-"&amp;AQ8</f>
         <v>33615420269-8</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AS8" s="1">
         <f>COUNTIFS(J7:J8,J8,K7:K8,K8,P7:P8,P8)-1</f>
         <v>0</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AT8" s="1">
         <f ca="1">IF(F9="",0,COUNTIFS(J8:J9,J9,K8:K9,K9,P8:P9,P9)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="1" t="str">
-        <f>RIGHT(K8)</f>
+      <c r="AU8" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AV8" s="1">
         <f>IF(LEFT(K8,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AV8" s="13">
-        <f>IF(RIGHT(K8,1)="A",ROUND(U8*T8*(1+W8),2),AM8)</f>
+      <c r="AW8" s="13">
+        <f>IF(RIGHT(K8,1)="A",ROUND(V8*U8*(1+X8),2),AN8)</f>
         <v>229999.98</v>
       </c>
-      <c r="AW8" s="13">
-        <f>ROUND((AV8/(1+W8)),2)</f>
+      <c r="AX8" s="13">
+        <f t="shared" si="8"/>
         <v>190082.63</v>
       </c>
-      <c r="AX8" s="20">
-        <f>IF(AT8="A",ROUND(AW8/U8,6),AV8/U8)</f>
+      <c r="AY8" s="20">
+        <f t="shared" si="9"/>
         <v>10.004348999999999</v>
       </c>
-      <c r="AY8" s="13">
-        <f>IF(AT8="A",ROUND(CEILING(U8*T8*(1+W8),500),2),ROUND(CEILING(U8*T8,500),2))</f>
+      <c r="AZ8" s="13">
+        <f t="shared" si="10"/>
         <v>230000</v>
       </c>
-      <c r="AZ8" s="20">
-        <f>IF(AT8="A",ROUND(AW8/U8,6),AY8/U8)</f>
+      <c r="BA8" s="20">
+        <f t="shared" si="11"/>
         <v>10.004348999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f ca="1">CONCATENATE(J9," - ",O9," - ",P9," - ",R9)</f>
+        <f ca="1">CONCATENATE(J9," - ",O9," - ",P9," - ",S9)</f>
         <v>2 - 20147130202 - BUSTOS JOSE MARTIN - Honorarios Julio</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ9,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR9,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D9" s="2" t="s">
@@ -2887,19 +3048,19 @@
         <v>90</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J9" s="2">
@@ -2923,134 +3084,137 @@
       <c r="P9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Q9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="1" t="str">
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(G9,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="4">
+      <c r="T9" s="2"/>
+      <c r="U9" s="4">
         <v>1.0221830000000001</v>
       </c>
-      <c r="U9" s="5">
+      <c r="V9" s="5">
         <v>19000</v>
       </c>
-      <c r="V9" s="5">
-        <f t="shared" si="7"/>
+      <c r="W9" s="5">
+        <f t="shared" si="16"/>
         <v>19421.477000000003</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="2"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="12"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE9" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF9" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF9" s="14">
+      <c r="AG9" s="14">
         <f>COUNTIFS(J8:J9,J9,K8:K9,K9,P8:P9,P9)+1</f>
         <v>2</v>
       </c>
-      <c r="AG9" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT9="A",ROUND(V9/U9,6),ROUND(AM9/U9,6)),",",".")</f>
+      <c r="AH9" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.022183</v>
       </c>
-      <c r="AH9" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI9" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
       </c>
       <c r="AJ9" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AK9" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="AK9" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL9" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="13">
-        <f>IF(AT9="A",ROUND(V9*W9,2),ROUND(V9*W9/(1+W9),2))</f>
+      <c r="AM9" s="13">
+        <f t="shared" si="4"/>
         <v>4078.51</v>
       </c>
-      <c r="AM9" s="13">
-        <f>IF(AT9="A",ROUND(V9+AL9,2),ROUND(V9,2))</f>
+      <c r="AN9" s="13">
+        <f t="shared" si="5"/>
         <v>23499.99</v>
       </c>
-      <c r="AN9" s="10" t="str">
-        <f>IF(RIGHT(K9,1)="A",SUBSTITUTE(TEXT(V9,"0,00"),",","."),SUBSTITUTE(TEXT(AM9,"0,00"),",","."))</f>
+      <c r="AO9" s="10" t="str">
+        <f>IF(RIGHT(K9,1)="A",SUBSTITUTE(TEXT(W9,"0,00"),",","."),SUBSTITUTE(TEXT(AN9,"0,00"),",","."))</f>
         <v>19421.48</v>
       </c>
-      <c r="AO9" s="10" t="str">
-        <f t="shared" si="12"/>
+      <c r="AP9" s="10" t="str">
+        <f t="shared" si="21"/>
         <v>0.01</v>
       </c>
-      <c r="AP9" s="1">
-        <f>ROW(P9)</f>
+      <c r="AQ9" s="1">
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="AQ9" s="15" t="str">
-        <f>O9&amp;"-"&amp;AP9</f>
+      <c r="AR9" s="15" t="str">
+        <f>O9&amp;"-"&amp;AQ9</f>
         <v>20147130202-9</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AS9" s="1">
         <f>COUNTIFS(J8:J9,J9,K8:K9,K9,P8:P9,P9)-1</f>
         <v>0</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AT9" s="1">
         <f ca="1">IF(F10="",0,COUNTIFS(J9:J10,J10,K9:K10,K10,P9:P10,P10)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT9" s="1" t="str">
-        <f>RIGHT(K9)</f>
+      <c r="AU9" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AV9" s="1">
         <f>IF(LEFT(K9,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AV9" s="13">
-        <f>IF(RIGHT(K9,1)="A",ROUND(U9*T9*(1+W9),2),AM9)</f>
+      <c r="AW9" s="13">
+        <f>IF(RIGHT(K9,1)="A",ROUND(V9*U9*(1+X9),2),AN9)</f>
         <v>23499.99</v>
       </c>
-      <c r="AW9" s="13">
-        <f>ROUND((AV9/(1+W9)),2)</f>
+      <c r="AX9" s="13">
+        <f t="shared" si="8"/>
         <v>19421.48</v>
       </c>
-      <c r="AX9" s="20">
-        <f>IF(AT9="A",ROUND(AW9/U9,6),AV9/U9)</f>
+      <c r="AY9" s="20">
+        <f t="shared" si="9"/>
         <v>1.0221830000000001</v>
       </c>
-      <c r="AY9" s="13">
-        <f>IF(AT9="A",ROUND(CEILING(U9*T9*(1+W9),500),2),ROUND(CEILING(U9*T9,500),2))</f>
+      <c r="AZ9" s="13">
+        <f t="shared" si="10"/>
         <v>23500</v>
       </c>
-      <c r="AZ9" s="20">
-        <f>IF(AT9="A",ROUND(AW9/U9,6),AY9/U9)</f>
+      <c r="BA9" s="20">
+        <f t="shared" si="11"/>
         <v>1.0221830000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f ca="1">CONCATENATE(J10," - ",O10," - ",P10," - ",R10)</f>
+        <f ca="1">CONCATENATE(J10," - ",O10," - ",P10," - ",S10)</f>
         <v>2 - 20374730429 - BUSTOS PIASENTINI AGUSTIN - Honorarios Julio</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ10,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR10,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D10" s="2" t="s">
@@ -3060,19 +3224,19 @@
         <v>90</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J10" s="2">
@@ -3096,134 +3260,137 @@
       <c r="P10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Q10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="1" t="str">
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(G10,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="4">
+      <c r="T10" s="2"/>
+      <c r="U10" s="4">
         <v>1.0439320000000001</v>
       </c>
-      <c r="U10" s="5">
+      <c r="V10" s="5">
         <v>19000</v>
       </c>
-      <c r="V10" s="5">
-        <f t="shared" si="7"/>
+      <c r="W10" s="5">
+        <f t="shared" si="16"/>
         <v>19834.708000000002</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="X10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="2"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="12"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE10" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF10" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF10" s="14">
+      <c r="AG10" s="14">
         <f>COUNTIFS(J9:J10,J10,K9:K10,K10,P9:P10,P10)+1</f>
         <v>2</v>
       </c>
-      <c r="AG10" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT10="A",ROUND(V10/U10,6),ROUND(AM10/U10,6)),",",".")</f>
+      <c r="AH10" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.043932</v>
       </c>
-      <c r="AH10" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI10" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
       </c>
       <c r="AJ10" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AK10" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="AK10" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL10" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL10" s="13">
-        <f>IF(AT10="A",ROUND(V10*W10,2),ROUND(V10*W10/(1+W10),2))</f>
+      <c r="AM10" s="13">
+        <f t="shared" si="4"/>
         <v>4165.29</v>
       </c>
-      <c r="AM10" s="13">
-        <f>IF(AT10="A",ROUND(V10+AL10,2),ROUND(V10,2))</f>
+      <c r="AN10" s="13">
+        <f t="shared" si="5"/>
         <v>24000</v>
       </c>
-      <c r="AN10" s="10" t="str">
-        <f>IF(RIGHT(K10,1)="A",SUBSTITUTE(TEXT(V10,"0,00"),",","."),SUBSTITUTE(TEXT(AM10,"0,00"),",","."))</f>
+      <c r="AO10" s="10" t="str">
+        <f>IF(RIGHT(K10,1)="A",SUBSTITUTE(TEXT(W10,"0,00"),",","."),SUBSTITUTE(TEXT(AN10,"0,00"),",","."))</f>
         <v>19834.71</v>
       </c>
-      <c r="AO10" s="10" t="str">
-        <f t="shared" si="12"/>
+      <c r="AP10" s="10" t="str">
+        <f t="shared" si="21"/>
         <v>0.00</v>
       </c>
-      <c r="AP10" s="1">
-        <f>ROW(P10)</f>
+      <c r="AQ10" s="1">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="AQ10" s="15" t="str">
-        <f>O10&amp;"-"&amp;AP10</f>
+      <c r="AR10" s="15" t="str">
+        <f>O10&amp;"-"&amp;AQ10</f>
         <v>20374730429-10</v>
       </c>
-      <c r="AR10" s="1">
+      <c r="AS10" s="1">
         <f>COUNTIFS(J9:J10,J10,K9:K10,K10,P9:P10,P10)-1</f>
         <v>0</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AT10" s="1">
         <f ca="1">IF(F11="",0,COUNTIFS(J10:J11,J11,K10:K11,K11,P10:P11,P11)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT10" s="1" t="str">
-        <f>RIGHT(K10)</f>
+      <c r="AU10" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-      <c r="AU10" s="1">
+      <c r="AV10" s="1">
         <f>IF(LEFT(K10,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AV10" s="13">
-        <f>IF(RIGHT(K10,1)="A",ROUND(U10*T10*(1+W10),2),AM10)</f>
+      <c r="AW10" s="13">
+        <f>IF(RIGHT(K10,1)="A",ROUND(V10*U10*(1+X10),2),AN10)</f>
         <v>24000</v>
       </c>
-      <c r="AW10" s="13">
-        <f>ROUND((AV10/(1+W10)),2)</f>
+      <c r="AX10" s="13">
+        <f t="shared" si="8"/>
         <v>19834.71</v>
       </c>
-      <c r="AX10" s="20">
-        <f>IF(AT10="A",ROUND(AW10/U10,6),AV10/U10)</f>
+      <c r="AY10" s="20">
+        <f t="shared" si="9"/>
         <v>1.0439320000000001</v>
       </c>
-      <c r="AY10" s="13">
-        <f>IF(AT10="A",ROUND(CEILING(U10*T10*(1+W10),500),2),ROUND(CEILING(U10*T10,500),2))</f>
+      <c r="AZ10" s="13">
+        <f t="shared" si="10"/>
         <v>24000</v>
       </c>
-      <c r="AZ10" s="20">
-        <f>IF(AT10="A",ROUND(AW10/U10,6),AY10/U10)</f>
+      <c r="BA10" s="20">
+        <f t="shared" si="11"/>
         <v>1.0439320000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f ca="1">CONCATENATE(J11," - ",O11," - ",P11," - ",R11)</f>
+        <f ca="1">CONCATENATE(J11," - ",O11," - ",P11," - ",S11)</f>
         <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Honorarios Julio</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ11,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR11,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D11" s="2" t="s">
@@ -3231,19 +3398,19 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J11" s="2">
@@ -3267,134 +3434,137 @@
       <c r="P11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Q11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="1" t="str">
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(G11,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="4">
+      <c r="T11" s="2"/>
+      <c r="U11" s="4">
         <v>1.3</v>
       </c>
-      <c r="U11" s="5">
+      <c r="V11" s="5">
         <v>10000</v>
       </c>
-      <c r="V11" s="5">
-        <f t="shared" si="7"/>
+      <c r="W11" s="5">
+        <f t="shared" si="16"/>
         <v>13000</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="X11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="2"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="12"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE11" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF11" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF11" s="14">
+      <c r="AG11" s="14">
         <f>COUNTIFS(J10:J11,J11,K10:K11,K11,P10:P11,P11)+1</f>
         <v>2</v>
       </c>
-      <c r="AG11" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT11="A",ROUND(V11/U11,6),ROUND(AM11/U11,6)),",",".")</f>
+      <c r="AH11" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="AH11" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI11" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>10000.00</v>
-      </c>
-      <c r="AI11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
       </c>
       <c r="AJ11" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AK11" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="AK11" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL11" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL11" s="13">
-        <f>IF(AT11="A",ROUND(V11*W11,2),ROUND(V11*W11/(1+W11),2))</f>
+      <c r="AM11" s="13">
+        <f t="shared" si="4"/>
         <v>2256.1999999999998</v>
       </c>
-      <c r="AM11" s="13">
-        <f>IF(AT11="A",ROUND(V11+AL11,2),ROUND(V11,2))</f>
+      <c r="AN11" s="13">
+        <f t="shared" si="5"/>
         <v>13000</v>
       </c>
-      <c r="AN11" s="10" t="str">
-        <f>IF(RIGHT(K11,1)="A",SUBSTITUTE(TEXT(V11,"0,00"),",","."),SUBSTITUTE(TEXT(AM11,"0,00"),",","."))</f>
+      <c r="AO11" s="10" t="str">
+        <f>IF(RIGHT(K11,1)="A",SUBSTITUTE(TEXT(W11,"0,00"),",","."),SUBSTITUTE(TEXT(AN11,"0,00"),",","."))</f>
         <v>13000.00</v>
       </c>
-      <c r="AO11" s="10" t="str">
-        <f t="shared" si="12"/>
+      <c r="AP11" s="10" t="str">
+        <f t="shared" si="21"/>
         <v>0.00</v>
       </c>
-      <c r="AP11" s="1">
-        <f>ROW(P11)</f>
+      <c r="AQ11" s="1">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="AQ11" s="15" t="str">
-        <f>O11&amp;"-"&amp;AP11</f>
+      <c r="AR11" s="15" t="str">
+        <f>O11&amp;"-"&amp;AQ11</f>
         <v>37473042-11</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="AS11" s="1">
         <f>COUNTIFS(J10:J11,J11,K10:K11,K11,P10:P11,P11)-1</f>
         <v>0</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AT11" s="1">
         <f ca="1">IF(F12="",0,COUNTIFS(J11:J12,J12,K11:K12,K12,P11:P12,P12)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT11" s="1" t="str">
-        <f>RIGHT(K11)</f>
+      <c r="AU11" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>B</v>
       </c>
-      <c r="AU11" s="1">
+      <c r="AV11" s="1">
         <f>IF(LEFT(K11,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AV11" s="13">
-        <f>IF(RIGHT(K11,1)="A",ROUND(U11*T11*(1+W11),2),AM11)</f>
+      <c r="AW11" s="13">
+        <f>IF(RIGHT(K11,1)="A",ROUND(V11*U11*(1+X11),2),AN11)</f>
         <v>13000</v>
       </c>
-      <c r="AW11" s="13">
-        <f>ROUND((AV11/(1+W11)),2)</f>
+      <c r="AX11" s="13">
+        <f t="shared" si="8"/>
         <v>10743.8</v>
       </c>
-      <c r="AX11" s="20">
-        <f>IF(AT11="A",ROUND(AW11/U11,6),AV11/U11)</f>
+      <c r="AY11" s="20">
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
-      <c r="AY11" s="13">
-        <f>IF(AT11="A",ROUND(CEILING(U11*T11*(1+W11),500),2),ROUND(CEILING(U11*T11,500),2))</f>
+      <c r="AZ11" s="13">
+        <f t="shared" si="10"/>
         <v>13000</v>
       </c>
-      <c r="AZ11" s="20">
-        <f>IF(AT11="A",ROUND(AW11/U11,6),AY11/U11)</f>
+      <c r="BA11" s="20">
+        <f t="shared" si="11"/>
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
-        <f ca="1">CONCATENATE(J12," - ",O12," - ",P12," - ",R12)</f>
+        <f ca="1">CONCATENATE(J12," - ",O12," - ",P12," - ",S12)</f>
         <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Honorarios Julio</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ12,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR12,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D12" s="2" t="s">
@@ -3402,19 +3572,19 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J12" s="2">
@@ -3438,134 +3608,137 @@
       <c r="P12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Q12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="1" t="str">
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(G12,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="4">
+      <c r="T12" s="2"/>
+      <c r="U12" s="4">
         <v>1.2105263157894737</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="5">
         <v>19000</v>
       </c>
-      <c r="V12" s="5">
-        <f t="shared" si="7"/>
+      <c r="W12" s="5">
+        <f t="shared" si="16"/>
         <v>23000</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="X12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="2"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="12"/>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE12" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF12" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF12" s="14">
+      <c r="AG12" s="14">
         <f>COUNTIFS(J11:J12,J12,K11:K12,K12,P11:P12,P12)+1</f>
         <v>2</v>
       </c>
-      <c r="AG12" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT12="A",ROUND(V12/U12,6),ROUND(AM12/U12,6)),",",".")</f>
+      <c r="AH12" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.210526</v>
       </c>
-      <c r="AH12" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI12" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
       </c>
       <c r="AJ12" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AK12" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="AK12" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL12" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="13">
-        <f>IF(AT12="A",ROUND(V12*W12,2),ROUND(V12*W12/(1+W12),2))</f>
+      <c r="AM12" s="13">
+        <f t="shared" si="4"/>
         <v>3991.74</v>
       </c>
-      <c r="AM12" s="13">
-        <f>IF(AT12="A",ROUND(V12+AL12,2),ROUND(V12,2))</f>
+      <c r="AN12" s="13">
+        <f t="shared" si="5"/>
         <v>23000</v>
       </c>
-      <c r="AN12" s="10" t="str">
-        <f>IF(RIGHT(K12,1)="A",SUBSTITUTE(TEXT(V12,"0,00"),",","."),SUBSTITUTE(TEXT(AM12,"0,00"),",","."))</f>
+      <c r="AO12" s="10" t="str">
+        <f>IF(RIGHT(K12,1)="A",SUBSTITUTE(TEXT(W12,"0,00"),",","."),SUBSTITUTE(TEXT(AN12,"0,00"),",","."))</f>
         <v>23000.00</v>
       </c>
-      <c r="AO12" s="10" t="str">
-        <f t="shared" si="12"/>
+      <c r="AP12" s="10" t="str">
+        <f t="shared" si="21"/>
         <v>0.00</v>
       </c>
-      <c r="AP12" s="1">
-        <f>ROW(P12)</f>
+      <c r="AQ12" s="1">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="AQ12" s="15" t="str">
-        <f>O12&amp;"-"&amp;AP12</f>
+      <c r="AR12" s="15" t="str">
+        <f>O12&amp;"-"&amp;AQ12</f>
         <v>30707354719-12</v>
       </c>
-      <c r="AR12" s="1">
+      <c r="AS12" s="1">
         <f>COUNTIFS(J11:J12,J12,K11:K12,K12,P11:P12,P12)-1</f>
         <v>0</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="AT12" s="1">
         <f ca="1">IF(F13="",0,COUNTIFS(J12:J13,J13,K12:K13,K13,P12:P13,P13)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT12" s="1" t="str">
-        <f>RIGHT(K12)</f>
+      <c r="AU12" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>B</v>
       </c>
-      <c r="AU12" s="1">
+      <c r="AV12" s="1">
         <f>IF(LEFT(K12,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AV12" s="13">
-        <f>IF(RIGHT(K12,1)="A",ROUND(U12*T12*(1+W12),2),AM12)</f>
+      <c r="AW12" s="13">
+        <f>IF(RIGHT(K12,1)="A",ROUND(V12*U12*(1+X12),2),AN12)</f>
         <v>23000</v>
       </c>
-      <c r="AW12" s="13">
-        <f>ROUND((AV12/(1+W12)),2)</f>
+      <c r="AX12" s="13">
+        <f t="shared" si="8"/>
         <v>19008.259999999998</v>
       </c>
-      <c r="AX12" s="20">
-        <f>IF(AT12="A",ROUND(AW12/U12,6),AV12/U12)</f>
+      <c r="AY12" s="20">
+        <f t="shared" si="9"/>
         <v>1.2105263157894737</v>
       </c>
-      <c r="AY12" s="13">
-        <f>IF(AT12="A",ROUND(CEILING(U12*T12*(1+W12),500),2),ROUND(CEILING(U12*T12,500),2))</f>
+      <c r="AZ12" s="13">
+        <f t="shared" si="10"/>
         <v>23000</v>
       </c>
-      <c r="AZ12" s="20">
-        <f>IF(AT12="A",ROUND(AW12/U12,6),AY12/U12)</f>
+      <c r="BA12" s="20">
+        <f t="shared" si="11"/>
         <v>1.2105263157894737</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
-        <f ca="1">CONCATENATE(J13," - ",O13," - ",P13," - ",R13)</f>
+        <f ca="1">CONCATENATE(J13," - ",O13," - ",P13," - ",S13)</f>
         <v>1 -  - MARTIN BUSTOS - Honorarios Julio</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ13,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR13,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D13" s="2" t="s">
@@ -3573,19 +3746,19 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J13" s="2">
@@ -3607,132 +3780,135 @@
       <c r="P13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="1" t="str">
-        <f t="shared" ca="1" si="13"/>
+      <c r="Q13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="1" t="str">
+        <f ca="1">"Honorarios "&amp;PROPER(TEXT(G13,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="4">
+      <c r="T13" s="2"/>
+      <c r="U13" s="4">
         <v>1.5</v>
       </c>
-      <c r="U13" s="5">
+      <c r="V13" s="5">
         <v>19000</v>
       </c>
-      <c r="V13" s="5">
-        <f t="shared" si="7"/>
+      <c r="W13" s="5">
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
-      <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="2"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="12"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE13" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF13" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF13" s="14">
+      <c r="AG13" s="14">
         <f>COUNTIFS(J12:J13,J13,K12:K13,K13,P12:P13,P13)+1</f>
         <v>2</v>
       </c>
-      <c r="AG13" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT13="A",ROUND(V13/U13,6),ROUND(AM13/U13,6)),",",".")</f>
+      <c r="AH13" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="AH13" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI13" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00000</v>
       </c>
       <c r="AJ13" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00000</v>
+      </c>
+      <c r="AK13" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
-      <c r="AK13" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL13" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="13">
-        <f>IF(AT13="A",ROUND(V13*W13,2),ROUND(V13*W13/(1+W13),2))</f>
+      <c r="AM13" s="13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AM13" s="13">
-        <f>IF(AT13="A",ROUND(V13+AL13,2),ROUND(V13,2))</f>
+      <c r="AN13" s="13">
+        <f t="shared" si="5"/>
         <v>28500</v>
       </c>
-      <c r="AN13" s="10" t="str">
-        <f>IF(RIGHT(K13,1)="A",SUBSTITUTE(TEXT(V13,"0,00"),",","."),SUBSTITUTE(TEXT(AM13,"0,00"),",","."))</f>
+      <c r="AO13" s="10" t="str">
+        <f>IF(RIGHT(K13,1)="A",SUBSTITUTE(TEXT(W13,"0,00"),",","."),SUBSTITUTE(TEXT(AN13,"0,00"),",","."))</f>
         <v>28500.00</v>
       </c>
-      <c r="AO13" s="10" t="str">
-        <f t="shared" si="12"/>
+      <c r="AP13" s="10" t="str">
+        <f t="shared" si="21"/>
         <v>0.00</v>
       </c>
-      <c r="AP13" s="1">
-        <f>ROW(P13)</f>
+      <c r="AQ13" s="1">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="AQ13" s="15" t="str">
-        <f>O13&amp;"-"&amp;AP13</f>
+      <c r="AR13" s="15" t="str">
+        <f>O13&amp;"-"&amp;AQ13</f>
         <v>-13</v>
       </c>
-      <c r="AR13" s="1">
+      <c r="AS13" s="1">
         <f>COUNTIFS(J12:J13,J13,K12:K13,K13,P12:P13,P13)-1</f>
         <v>0</v>
       </c>
-      <c r="AS13" s="1">
+      <c r="AT13" s="1">
         <f ca="1">IF(F14="",0,COUNTIFS(J13:J14,J14,K13:K14,K14,P13:P14,P14)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="1" t="str">
-        <f>RIGHT(K13)</f>
+      <c r="AU13" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>C</v>
       </c>
-      <c r="AU13" s="1">
+      <c r="AV13" s="1">
         <f>IF(LEFT(K13,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
-      <c r="AV13" s="13">
-        <f>IF(RIGHT(K13,1)="A",ROUND(U13*T13*(1+W13),2),AM13)</f>
+      <c r="AW13" s="13">
+        <f>IF(RIGHT(K13,1)="A",ROUND(V13*U13*(1+X13),2),AN13)</f>
         <v>28500</v>
       </c>
-      <c r="AW13" s="13">
-        <f>ROUND((AV13/(1+W13)),2)</f>
+      <c r="AX13" s="13">
+        <f t="shared" si="8"/>
         <v>28500</v>
       </c>
-      <c r="AX13" s="20">
-        <f>IF(AT13="A",ROUND(AW13/U13,6),AV13/U13)</f>
+      <c r="AY13" s="20">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="AY13" s="13">
-        <f>IF(AT13="A",ROUND(CEILING(U13*T13*(1+W13),500),2),ROUND(CEILING(U13*T13,500),2))</f>
+      <c r="AZ13" s="13">
+        <f t="shared" si="10"/>
         <v>28500</v>
       </c>
-      <c r="AZ13" s="20">
-        <f>IF(AT13="A",ROUND(AW13/U13,6),AY13/U13)</f>
+      <c r="BA13" s="20">
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
-        <f>CONCATENATE(J14," - ",O14," - ",P14," - ",R14)</f>
+        <f>CONCATENATE(J14," - ",O14," - ",P14," - ",S14)</f>
         <v>2 - 30684125792 - SAMSUNG ELECTRONICS ARGENTINA S A - Ajuste Honorarios</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ14,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR14,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D14" s="2" t="s">
@@ -3740,19 +3916,19 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J14" s="2">
@@ -3776,141 +3952,144 @@
       <c r="P14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="6" t="s">
+      <c r="Q14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="4">
+      <c r="T14" s="2"/>
+      <c r="U14" s="4">
         <v>7.0247929999999998</v>
       </c>
-      <c r="U14" s="5">
+      <c r="V14" s="5">
         <v>19000</v>
       </c>
-      <c r="V14" s="5">
-        <f t="shared" si="7"/>
+      <c r="W14" s="5">
+        <f t="shared" si="16"/>
         <v>133471.06700000001</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="X14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X14" s="11" t="s">
+      <c r="Y14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Z14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="AA14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AB14" s="12">
         <v>44816</v>
       </c>
-      <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-      <c r="AD14" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE14" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF14" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF14" s="14">
+      <c r="AG14" s="14">
         <f>COUNTIFS(J13:J14,J14,K13:K14,K14,P13:P14,P14)+1</f>
         <v>2</v>
       </c>
-      <c r="AG14" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT14="A",ROUND(V14/U14,6),ROUND(AM14/U14,6)),",",".")</f>
+      <c r="AH14" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>7.024793</v>
       </c>
-      <c r="AH14" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI14" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00002</v>
       </c>
       <c r="AJ14" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AK14" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000150</v>
       </c>
-      <c r="AK14" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL14" s="9">
+        <f t="shared" si="19"/>
         <v>44816</v>
       </c>
-      <c r="AL14" s="13">
-        <f>IF(AT14="A",ROUND(V14*W14,2),ROUND(V14*W14/(1+W14),2))</f>
+      <c r="AM14" s="13">
+        <f t="shared" si="4"/>
         <v>28028.92</v>
       </c>
-      <c r="AM14" s="13">
-        <f>IF(AT14="A",ROUND(V14+AL14,2),ROUND(V14,2))</f>
+      <c r="AN14" s="13">
+        <f t="shared" si="5"/>
         <v>161499.99</v>
       </c>
-      <c r="AN14" s="10" t="str">
-        <f>IF(RIGHT(K14,1)="A",SUBSTITUTE(TEXT(V14,"0,00"),",","."),SUBSTITUTE(TEXT(AM14,"0,00"),",","."))</f>
+      <c r="AO14" s="10" t="str">
+        <f>IF(RIGHT(K14,1)="A",SUBSTITUTE(TEXT(W14,"0,00"),",","."),SUBSTITUTE(TEXT(AN14,"0,00"),",","."))</f>
         <v>133471.07</v>
       </c>
-      <c r="AO14" s="10" t="str">
-        <f t="shared" si="12"/>
+      <c r="AP14" s="10" t="str">
+        <f t="shared" si="21"/>
         <v>0.01</v>
       </c>
-      <c r="AP14" s="1">
-        <f>ROW(P14)</f>
+      <c r="AQ14" s="1">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="AQ14" s="15" t="str">
-        <f>O14&amp;"-"&amp;AP14</f>
+      <c r="AR14" s="15" t="str">
+        <f>O14&amp;"-"&amp;AQ14</f>
         <v>30684125792-14</v>
       </c>
-      <c r="AR14" s="1">
+      <c r="AS14" s="1">
         <f>COUNTIFS(J13:J14,J14,K13:K14,K14,P13:P14,P14)-1</f>
         <v>0</v>
       </c>
-      <c r="AS14" s="1">
+      <c r="AT14" s="1">
         <f ca="1">IF(F15="",0,COUNTIFS(J14:J15,J15,K14:K15,K15,P14:P15,P15)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="1" t="str">
-        <f>RIGHT(K14)</f>
+      <c r="AU14" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-      <c r="AU14" s="1">
+      <c r="AV14" s="1">
         <f>IF(LEFT(K14,4)="Nota",0,1)</f>
         <v>0</v>
       </c>
-      <c r="AV14" s="13">
-        <f>IF(RIGHT(K14,1)="A",ROUND(U14*T14*(1+W14),2),AM14)</f>
+      <c r="AW14" s="13">
+        <f>IF(RIGHT(K14,1)="A",ROUND(V14*U14*(1+X14),2),AN14)</f>
         <v>161499.99</v>
       </c>
-      <c r="AW14" s="13">
-        <f>ROUND((AV14/(1+W14)),2)</f>
+      <c r="AX14" s="13">
+        <f t="shared" si="8"/>
         <v>133471.07</v>
       </c>
-      <c r="AX14" s="20">
-        <f>IF(AT14="A",ROUND(AW14/U14,6),AV14/U14)</f>
+      <c r="AY14" s="20">
+        <f t="shared" si="9"/>
         <v>7.0247929999999998</v>
       </c>
-      <c r="AY14" s="13">
-        <f>IF(AT14="A",ROUND(CEILING(U14*T14*(1+W14),500),2),ROUND(CEILING(U14*T14,500),2))</f>
+      <c r="AZ14" s="13">
+        <f t="shared" si="10"/>
         <v>161500</v>
       </c>
-      <c r="AZ14" s="20">
-        <f>IF(AT14="A",ROUND(AW14/U14,6),AY14/U14)</f>
+      <c r="BA14" s="20">
+        <f t="shared" si="11"/>
         <v>7.0247929999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
-        <f>CONCATENATE(J15," - ",O15," - ",P15," - ",R15)</f>
+        <f>CONCATENATE(J15," - ",O15," - ",P15," - ",S15)</f>
         <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Ajuste</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ15,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR15,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D15" s="2" t="s">
@@ -3918,19 +4097,19 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J15" s="2">
@@ -3954,141 +4133,144 @@
       <c r="P15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="6" t="s">
+      <c r="Q15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="4">
+      <c r="T15" s="2"/>
+      <c r="U15" s="4">
         <v>1.5</v>
       </c>
-      <c r="U15" s="5">
+      <c r="V15" s="5">
         <v>19000</v>
       </c>
-      <c r="V15" s="5">
-        <f t="shared" si="7"/>
+      <c r="W15" s="5">
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AA15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AB15" s="12">
         <v>44816</v>
       </c>
-      <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE15" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF15" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF15" s="14">
+      <c r="AG15" s="14">
         <f>COUNTIFS(J14:J15,J15,K14:K15,K15,P14:P15,P15)+1</f>
         <v>2</v>
       </c>
-      <c r="AG15" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT15="A",ROUND(V15/U15,6),ROUND(AM15/U15,6)),",",".")</f>
+      <c r="AH15" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="AH15" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI15" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00002</v>
       </c>
       <c r="AJ15" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AK15" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000152</v>
       </c>
-      <c r="AK15" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL15" s="9">
+        <f t="shared" si="19"/>
         <v>44816</v>
       </c>
-      <c r="AL15" s="13">
-        <f>IF(AT15="A",ROUND(V15*W15,2),ROUND(V15*W15/(1+W15),2))</f>
+      <c r="AM15" s="13">
+        <f t="shared" si="4"/>
         <v>4946.28</v>
       </c>
-      <c r="AM15" s="13">
-        <f>IF(AT15="A",ROUND(V15+AL15,2),ROUND(V15,2))</f>
+      <c r="AN15" s="13">
+        <f t="shared" si="5"/>
         <v>28500</v>
       </c>
-      <c r="AN15" s="10" t="str">
-        <f>IF(RIGHT(K15,1)="A",SUBSTITUTE(TEXT(V15,"0,00"),",","."),SUBSTITUTE(TEXT(AM15,"0,00"),",","."))</f>
+      <c r="AO15" s="10" t="str">
+        <f>IF(RIGHT(K15,1)="A",SUBSTITUTE(TEXT(W15,"0,00"),",","."),SUBSTITUTE(TEXT(AN15,"0,00"),",","."))</f>
         <v>28500.00</v>
       </c>
-      <c r="AO15" s="10" t="str">
-        <f t="shared" si="12"/>
+      <c r="AP15" s="10" t="str">
+        <f t="shared" si="21"/>
         <v>0.00</v>
       </c>
-      <c r="AP15" s="1">
-        <f>ROW(P15)</f>
+      <c r="AQ15" s="1">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="AQ15" s="15" t="str">
-        <f>O15&amp;"-"&amp;AP15</f>
+      <c r="AR15" s="15" t="str">
+        <f>O15&amp;"-"&amp;AQ15</f>
         <v>30707354719-15</v>
       </c>
-      <c r="AR15" s="1">
+      <c r="AS15" s="1">
         <f>COUNTIFS(J14:J15,J15,K14:K15,K15,P14:P15,P15)-1</f>
         <v>0</v>
       </c>
-      <c r="AS15" s="1">
+      <c r="AT15" s="1">
         <f ca="1">IF(F16="",0,COUNTIFS(J15:J16,J16,K15:K16,K16,P15:P16,P16)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT15" s="1" t="str">
-        <f>RIGHT(K15)</f>
+      <c r="AU15" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>B</v>
       </c>
-      <c r="AU15" s="1">
+      <c r="AV15" s="1">
         <f>IF(LEFT(K15,4)="Nota",0,1)</f>
         <v>0</v>
       </c>
-      <c r="AV15" s="13">
-        <f>IF(RIGHT(K15,1)="A",ROUND(U15*T15*(1+W15),2),AM15)</f>
+      <c r="AW15" s="13">
+        <f>IF(RIGHT(K15,1)="A",ROUND(V15*U15*(1+X15),2),AN15)</f>
         <v>28500</v>
       </c>
-      <c r="AW15" s="13">
-        <f>ROUND((AV15/(1+W15)),2)</f>
+      <c r="AX15" s="13">
+        <f t="shared" si="8"/>
         <v>23553.72</v>
       </c>
-      <c r="AX15" s="20">
-        <f>IF(AT15="A",ROUND(AW15/U15,6),AV15/U15)</f>
+      <c r="AY15" s="20">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="AY15" s="13">
-        <f>IF(AT15="A",ROUND(CEILING(U15*T15*(1+W15),500),2),ROUND(CEILING(U15*T15,500),2))</f>
+      <c r="AZ15" s="13">
+        <f t="shared" si="10"/>
         <v>28500</v>
       </c>
-      <c r="AZ15" s="20">
-        <f>IF(AT15="A",ROUND(AW15/U15,6),AY15/U15)</f>
+      <c r="BA15" s="20">
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f>CONCATENATE(J16," - ",O16," - ",P16," - ",R16)</f>
+        <f>CONCATENATE(J16," - ",O16," - ",P16," - ",S16)</f>
         <v>2 - 30684125792 - SAMSUNG ELECTRONICS ARGENTINA S A - Ajuste Honorarios</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ16,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR16,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D16" s="2" t="s">
@@ -4096,19 +4278,19 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J16" s="2">
@@ -4132,141 +4314,144 @@
       <c r="P16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="6" t="s">
+      <c r="Q16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="4">
+      <c r="T16" s="2"/>
+      <c r="U16" s="4">
         <v>7.003044</v>
       </c>
-      <c r="U16" s="5">
+      <c r="V16" s="5">
         <v>19000</v>
       </c>
-      <c r="V16" s="5">
-        <f t="shared" si="7"/>
+      <c r="W16" s="5">
+        <f t="shared" si="16"/>
         <v>133057.83600000001</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="X16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="Y16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Y16" s="11" t="s">
+      <c r="Z16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AB16" s="12">
         <v>44816</v>
       </c>
-      <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
-      <c r="AD16" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE16" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF16" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF16" s="14">
+      <c r="AG16" s="14">
         <f>COUNTIFS(J15:J16,J16,K15:K16,K16,P15:P16,P16)+1</f>
         <v>2</v>
       </c>
-      <c r="AG16" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT16="A",ROUND(V16/U16,6),ROUND(AM16/U16,6)),",",".")</f>
+      <c r="AH16" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>7.003044</v>
       </c>
-      <c r="AH16" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI16" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00002</v>
       </c>
       <c r="AJ16" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AK16" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000151</v>
       </c>
-      <c r="AK16" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL16" s="9">
+        <f t="shared" si="19"/>
         <v>44816</v>
       </c>
-      <c r="AL16" s="13">
-        <f>IF(AT16="A",ROUND(V16*W16,2),ROUND(V16*W16/(1+W16),2))</f>
+      <c r="AM16" s="13">
+        <f t="shared" si="4"/>
         <v>27942.15</v>
       </c>
-      <c r="AM16" s="13">
-        <f>IF(AT16="A",ROUND(V16+AL16,2),ROUND(V16,2))</f>
+      <c r="AN16" s="13">
+        <f t="shared" si="5"/>
         <v>160999.99</v>
       </c>
-      <c r="AN16" s="10" t="str">
-        <f>IF(RIGHT(K16,1)="A",SUBSTITUTE(TEXT(V16,"0,00"),",","."),SUBSTITUTE(TEXT(AM16,"0,00"),",","."))</f>
+      <c r="AO16" s="10" t="str">
+        <f>IF(RIGHT(K16,1)="A",SUBSTITUTE(TEXT(W16,"0,00"),",","."),SUBSTITUTE(TEXT(AN16,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
-      <c r="AO16" s="10" t="str">
-        <f t="shared" si="12"/>
+      <c r="AP16" s="10" t="str">
+        <f t="shared" si="21"/>
         <v>0.01</v>
       </c>
-      <c r="AP16" s="1">
-        <f>ROW(P16)</f>
+      <c r="AQ16" s="1">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="AQ16" s="15" t="str">
-        <f>O16&amp;"-"&amp;AP16</f>
+      <c r="AR16" s="15" t="str">
+        <f>O16&amp;"-"&amp;AQ16</f>
         <v>30684125792-16</v>
       </c>
-      <c r="AR16" s="1">
+      <c r="AS16" s="1">
         <f>COUNTIFS(J15:J16,J16,K15:K16,K16,P15:P16,P16)-1</f>
         <v>0</v>
       </c>
-      <c r="AS16" s="1">
+      <c r="AT16" s="1">
         <f ca="1">IF(F17="",0,COUNTIFS(J16:J17,J17,K16:K17,K17,P16:P17,P17)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT16" s="1" t="str">
-        <f>RIGHT(K16)</f>
+      <c r="AU16" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-      <c r="AU16" s="1">
+      <c r="AV16" s="1">
         <f>IF(LEFT(K16,4)="Nota",0,1)</f>
         <v>0</v>
       </c>
-      <c r="AV16" s="13">
-        <f>IF(RIGHT(K16,1)="A",ROUND(U16*T16*(1+W16),2),AM16)</f>
+      <c r="AW16" s="13">
+        <f>IF(RIGHT(K16,1)="A",ROUND(V16*U16*(1+X16),2),AN16)</f>
         <v>160999.98000000001</v>
       </c>
-      <c r="AW16" s="13">
-        <f>ROUND((AV16/(1+W16)),2)</f>
+      <c r="AX16" s="13">
+        <f t="shared" si="8"/>
         <v>133057.82999999999</v>
       </c>
-      <c r="AX16" s="20">
-        <f>IF(AT16="A",ROUND(AW16/U16,6),AV16/U16)</f>
+      <c r="AY16" s="20">
+        <f t="shared" si="9"/>
         <v>7.003044</v>
       </c>
-      <c r="AY16" s="13">
-        <f>IF(AT16="A",ROUND(CEILING(U16*T16*(1+W16),500),2),ROUND(CEILING(U16*T16,500),2))</f>
+      <c r="AZ16" s="13">
+        <f t="shared" si="10"/>
         <v>161000</v>
       </c>
-      <c r="AZ16" s="20">
-        <f>IF(AT16="A",ROUND(AW16/U16,6),AY16/U16)</f>
+      <c r="BA16" s="20">
+        <f t="shared" si="11"/>
         <v>7.003044</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f>CONCATENATE(J17," - ",O17," - ",P17," - ",R17)</f>
+        <f>CONCATENATE(J17," - ",O17," - ",P17," - ",S17)</f>
         <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Ajuste</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>IFERROR(VLOOKUP(AQ17,[1]Control!$D:$E,2,0),"")</f>
+        <f>IFERROR(VLOOKUP(AR17,[1]Control!$D:$E,2,0),"")</f>
         <v/>
       </c>
       <c r="D17" s="2" t="s">
@@ -4274,19 +4459,19 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="12"/>
         <v>45149</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="13"/>
         <v>45108</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="14"/>
         <v>45138</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="15"/>
         <v>45163</v>
       </c>
       <c r="J17" s="2">
@@ -4310,134 +4495,137 @@
       <c r="P17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="6" t="s">
+      <c r="Q17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="4">
+      <c r="T17" s="2"/>
+      <c r="U17" s="4">
         <v>1.5</v>
       </c>
-      <c r="U17" s="5">
+      <c r="V17" s="5">
         <v>19000</v>
       </c>
-      <c r="V17" s="5">
-        <f t="shared" si="7"/>
+      <c r="W17" s="5">
+        <f t="shared" si="16"/>
         <v>28500</v>
       </c>
-      <c r="W17" s="11" t="s">
+      <c r="X17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="X17" s="11" t="s">
+      <c r="Y17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Y17" s="11" t="s">
+      <c r="Z17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="AA17" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AB17" s="12">
         <v>44816</v>
       </c>
-      <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="1" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE17" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="AF17" s="1" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF17" s="14">
+      <c r="AG17" s="14">
         <f>COUNTIFS(J16:J17,J17,K16:K17,K17,P16:P17,P17)+1</f>
         <v>2</v>
       </c>
-      <c r="AG17" s="18" t="str">
-        <f>SUBSTITUTE(IF(AT17="A",ROUND(V17/U17,6),ROUND(AM17/U17,6)),",",".")</f>
+      <c r="AH17" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="AH17" s="18" t="str">
-        <f t="shared" si="9"/>
+      <c r="AI17" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>19000.00</v>
-      </c>
-      <c r="AI17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>00002</v>
       </c>
       <c r="AJ17" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>00002</v>
+      </c>
+      <c r="AK17" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>00000153</v>
       </c>
-      <c r="AK17" s="9">
-        <f t="shared" si="10"/>
+      <c r="AL17" s="9">
+        <f t="shared" si="19"/>
         <v>44816</v>
       </c>
-      <c r="AL17" s="13">
-        <f>IF(AT17="A",ROUND(V17*W17,2),ROUND(V17*W17/(1+W17),2))</f>
+      <c r="AM17" s="13">
+        <f t="shared" si="4"/>
         <v>4946.28</v>
       </c>
-      <c r="AM17" s="13">
-        <f>IF(AT17="A",ROUND(V17+AL17,2),ROUND(V17,2))</f>
+      <c r="AN17" s="13">
+        <f t="shared" si="5"/>
         <v>28500</v>
       </c>
-      <c r="AN17" s="10" t="str">
-        <f>IF(RIGHT(K17,1)="A",SUBSTITUTE(TEXT(V17,"0,00"),",","."),SUBSTITUTE(TEXT(AM17,"0,00"),",","."))</f>
+      <c r="AO17" s="10" t="str">
+        <f>IF(RIGHT(K17,1)="A",SUBSTITUTE(TEXT(W17,"0,00"),",","."),SUBSTITUTE(TEXT(AN17,"0,00"),",","."))</f>
         <v>28500.00</v>
       </c>
-      <c r="AO17" s="10" t="str">
-        <f t="shared" si="12"/>
+      <c r="AP17" s="10" t="str">
+        <f t="shared" si="21"/>
         <v>0.00</v>
       </c>
-      <c r="AP17" s="1">
-        <f>ROW(P17)</f>
+      <c r="AQ17" s="1">
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="AQ17" s="15" t="str">
-        <f>O17&amp;"-"&amp;AP17</f>
+      <c r="AR17" s="15" t="str">
+        <f>O17&amp;"-"&amp;AQ17</f>
         <v>37473042-17</v>
       </c>
-      <c r="AR17" s="1">
+      <c r="AS17" s="1">
         <f>COUNTIFS(J16:J17,J17,K16:K17,K17,P16:P17,P17)-1</f>
         <v>0</v>
       </c>
-      <c r="AS17" s="1">
+      <c r="AT17" s="1">
         <f>IF(F18="",0,COUNTIFS(J17:J18,J18,K17:K18,K18,P17:P18,P18)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT17" s="1" t="str">
-        <f>RIGHT(K17)</f>
+      <c r="AU17" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>B</v>
       </c>
-      <c r="AU17" s="1">
+      <c r="AV17" s="1">
         <f>IF(LEFT(K17,4)="Nota",0,1)</f>
         <v>0</v>
       </c>
-      <c r="AV17" s="13">
-        <f>IF(RIGHT(K17,1)="A",ROUND(U17*T17*(1+W17),2),AM17)</f>
+      <c r="AW17" s="13">
+        <f>IF(RIGHT(K17,1)="A",ROUND(V17*U17*(1+X17),2),AN17)</f>
         <v>28500</v>
       </c>
-      <c r="AW17" s="13">
-        <f>ROUND((AV17/(1+W17)),2)</f>
+      <c r="AX17" s="13">
+        <f t="shared" si="8"/>
         <v>23553.72</v>
       </c>
-      <c r="AX17" s="20">
-        <f>IF(AT17="A",ROUND(AW17/U17,6),AV17/U17)</f>
+      <c r="AY17" s="20">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="AY17" s="13">
-        <f>IF(AT17="A",ROUND(CEILING(U17*T17*(1+W17),500),2),ROUND(CEILING(U17*T17,500),2))</f>
+      <c r="AZ17" s="13">
+        <f t="shared" si="10"/>
         <v>28500</v>
       </c>
-      <c r="AZ17" s="20">
-        <f>IF(AT17="A",ROUND(AW17/U17,6),AY17/U17)</f>
+      <c r="BA17" s="20">
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:AX17">
+  <autoFilter ref="A1:BA17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:AY17">
     <sortCondition ref="K2:K17"/>
     <sortCondition ref="M2:M17"/>
     <sortCondition ref="O2:O17"/>
@@ -4450,5 +4638,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5F29146-8A7F-4F23-9AC1-FAE0489821E0}">
+          <x14:formula1>
+            <xm:f>AUX!$A$1:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q17</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02672CBB-43DE-4AAA-8B76-C230942F60E6}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9D067D-90FD-46FE-8564-6AD332574543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B55724-159F-4EBB-88C1-53FE973874F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,6 +66,78 @@
           </rPr>
           <t xml:space="preserve">
 Acá se pone el nombre a guardar de las facturas. Si se deja vacío se guarda con el nombre que define AFIP.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{145828BA-C2F6-4D99-9916-A141DEC4F2EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sin ST: SI: ejecutar cuando el bot no guarda los archivos con el nombre/ubicación definida</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F0D38E68-6A29-4ACF-8101-B3185BB736E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Si se desae guardar el Archivo poner SI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A6804AC2-672B-4DDA-AD87-CE9C0D7B96C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+la ubicación va desde el disco hasta la \final</t>
         </r>
       </text>
     </comment>
@@ -1053,7 +1125,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1078,7 +1150,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1587,7 +1658,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1864,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f>CONCATENATE(J2," - ",O2," - ",P2," - ",S2)</f>
+        <f t="shared" ref="A2:A17" si="0">CONCATENATE(J2," - ",O2," - ",P2," - ",S2)</f>
         <v>2 - 30525390086 - COCA COLA FEMSA DE BUENOS AIRES S A - Ajustes Marzo/Abril 2022</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1878,15 +1949,15 @@
         <v/>
       </c>
       <c r="AF2" s="1" t="str">
-        <f t="shared" ref="AF2" si="0">SUBSTITUTE(AD2,",",".")</f>
+        <f t="shared" ref="AF2" si="1">SUBSTITUTE(AD2,",",".")</f>
         <v/>
       </c>
       <c r="AG2" s="14">
-        <f>COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)+1</f>
+        <f t="shared" ref="AG2:AG17" si="2">COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)+1</f>
         <v>2</v>
       </c>
       <c r="AH2" s="18" t="str">
-        <f t="shared" ref="AH2:AH17" si="1">SUBSTITUTE(IF(AU2="A",ROUND(W2/V2,6),ROUND(AN2/V2,6)),",",".")</f>
+        <f t="shared" ref="AH2:AH17" si="3">SUBSTITUTE(IF(AU2="A",ROUND(W2/V2,6),ROUND(AN2/V2,6)),",",".")</f>
         <v>7.003044</v>
       </c>
       <c r="AI2" s="18" t="str">
@@ -1894,11 +1965,11 @@
         <v>19000.00</v>
       </c>
       <c r="AJ2" s="1" t="str">
-        <f t="shared" ref="AJ2:AJ17" si="2">TEXT(Z2,"00000")</f>
+        <f t="shared" ref="AJ2:AJ17" si="4">TEXT(Z2,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK2" s="1" t="str">
-        <f t="shared" ref="AK2:AK17" si="3">TEXT(AA2,"00000000")</f>
+        <f t="shared" ref="AK2:AK17" si="5">TEXT(AA2,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL2" s="9">
@@ -1906,15 +1977,15 @@
         <v>0</v>
       </c>
       <c r="AM2" s="13">
-        <f t="shared" ref="AM2:AM17" si="4">IF(AU2="A",ROUND(W2*X2,2),ROUND(W2*X2/(1+X2),2))</f>
+        <f t="shared" ref="AM2:AM17" si="6">IF(AU2="A",ROUND(W2*X2,2),ROUND(W2*X2/(1+X2),2))</f>
         <v>27942.15</v>
       </c>
       <c r="AN2" s="13">
-        <f t="shared" ref="AN2:AN17" si="5">IF(AU2="A",ROUND(W2+AM2,2),ROUND(W2,2))</f>
+        <f t="shared" ref="AN2:AN17" si="7">IF(AU2="A",ROUND(W2+AM2,2),ROUND(W2,2))</f>
         <v>160999.99</v>
       </c>
       <c r="AO2" s="10" t="str">
-        <f>IF(RIGHT(K2,1)="A",SUBSTITUTE(TEXT(W2,"0,00"),",","."),SUBSTITUTE(TEXT(AN2,"0,00"),",","."))</f>
+        <f t="shared" ref="AO2:AO17" si="8">IF(RIGHT(K2,1)="A",SUBSTITUTE(TEXT(W2,"0,00"),",","."),SUBSTITUTE(TEXT(AN2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
       <c r="AP2" s="10" t="str">
@@ -1922,53 +1993,53 @@
         <v>0.01</v>
       </c>
       <c r="AQ2" s="1">
-        <f t="shared" ref="AQ2:AQ17" si="6">ROW(P2)</f>
+        <f t="shared" ref="AQ2:AQ17" si="9">ROW(P2)</f>
         <v>2</v>
       </c>
       <c r="AR2" s="15" t="str">
-        <f>O2&amp;"-"&amp;AQ2</f>
+        <f t="shared" ref="AR2:AR17" si="10">O2&amp;"-"&amp;AQ2</f>
         <v>30525390086-2</v>
       </c>
       <c r="AS2" s="1">
-        <f>COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)-1</f>
+        <f t="shared" ref="AS2:AS17" si="11">COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)-1</f>
         <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <f ca="1">IF(F3="",0,COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)-1)</f>
+        <f t="shared" ref="AT2:AT17" ca="1" si="12">IF(F3="",0,COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)-1)</f>
         <v>0</v>
       </c>
       <c r="AU2" s="1" t="str">
-        <f t="shared" ref="AU2:AU17" si="7">RIGHT(K2)</f>
+        <f t="shared" ref="AU2:AU17" si="13">RIGHT(K2)</f>
         <v>A</v>
       </c>
       <c r="AV2" s="1">
-        <f>IF(LEFT(K2,4)="Nota",0,1)</f>
+        <f t="shared" ref="AV2:AV17" si="14">IF(LEFT(K2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW2" s="13">
-        <f>IF(RIGHT(K2,1)="A",ROUND(V2*U2*(1+X2),2),AN2)</f>
+        <f t="shared" ref="AW2:AW17" si="15">IF(RIGHT(K2,1)="A",ROUND(V2*U2*(1+X2),2),AN2)</f>
         <v>160999.98000000001</v>
       </c>
       <c r="AX2" s="13">
-        <f t="shared" ref="AX2:AX17" si="8">ROUND((AW2/(1+X2)),2)</f>
+        <f t="shared" ref="AX2:AX17" si="16">ROUND((AW2/(1+X2)),2)</f>
         <v>133057.82999999999</v>
       </c>
       <c r="AY2" s="20">
-        <f t="shared" ref="AY2:AY17" si="9">IF(AU2="A",ROUND(AX2/V2,6),AW2/V2)</f>
+        <f t="shared" ref="AY2:AY17" si="17">IF(AU2="A",ROUND(AX2/V2,6),AW2/V2)</f>
         <v>7.003044</v>
       </c>
       <c r="AZ2" s="13">
-        <f t="shared" ref="AZ2:AZ17" si="10">IF(AU2="A",ROUND(CEILING(V2*U2*(1+X2),500),2),ROUND(CEILING(V2*U2,500),2))</f>
+        <f t="shared" ref="AZ2:AZ17" si="18">IF(AU2="A",ROUND(CEILING(V2*U2*(1+X2),500),2),ROUND(CEILING(V2*U2,500),2))</f>
         <v>161000</v>
       </c>
       <c r="BA2" s="20">
-        <f t="shared" ref="BA2:BA17" si="11">IF(AU2="A",ROUND(AX2/V2,6),AZ2/V2)</f>
+        <f t="shared" ref="BA2:BA17" si="19">IF(AU2="A",ROUND(AX2/V2,6),AZ2/V2)</f>
         <v>7.003044</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f ca="1">CONCATENATE(J3," - ",O3," - ",P3," - ",S3)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2 - 30525733870 - PRICE WATERHOUSE &amp; CO SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Julio</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1985,19 +2056,19 @@
         <v>90</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F17" ca="1" si="12">TODAY()</f>
+        <f t="shared" ref="F3:F17" ca="1" si="20">TODAY()</f>
         <v>45149</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G17" ca="1" si="13">DATE(YEAR(H3),MONTH(H3),1)</f>
+        <f t="shared" ref="G3:G17" ca="1" si="21">DATE(YEAR(H3),MONTH(H3),1)</f>
         <v>45108</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H17" ca="1" si="14">EOMONTH(F3,-1)</f>
+        <f t="shared" ref="H3:H17" ca="1" si="22">EOMONTH(F3,-1)</f>
         <v>45138</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" ref="I3:I17" ca="1" si="15">F3+14</f>
+        <f t="shared" ref="I3:I17" ca="1" si="23">F3+14</f>
         <v>45163</v>
       </c>
       <c r="J3" s="2">
@@ -2037,7 +2108,7 @@
         <v>19000</v>
       </c>
       <c r="W3" s="5">
-        <f t="shared" ref="W3:W17" si="16">U3*V3</f>
+        <f t="shared" ref="W3:W17" si="24">U3*V3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="X3" s="11" t="s">
@@ -2050,7 +2121,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1" t="str">
-        <f t="shared" ref="AE3:AE17" si="17">SUBSTITUTE(AC3,",",".")</f>
+        <f t="shared" ref="AE3:AE17" si="25">SUBSTITUTE(AC3,",",".")</f>
         <v/>
       </c>
       <c r="AF3" s="1" t="str">
@@ -2058,39 +2129,39 @@
         <v/>
       </c>
       <c r="AG3" s="14">
-        <f>COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH3" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.025228</v>
       </c>
       <c r="AI3" s="18" t="str">
-        <f t="shared" ref="AI3:AI17" si="18">SUBSTITUTE(TEXT(V3,"0,00"),",",".")</f>
+        <f t="shared" ref="AI3:AI17" si="26">SUBSTITUTE(TEXT(V3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="AK3" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="AL3" s="9">
-        <f t="shared" ref="AL3:AL17" si="19">AB3</f>
+        <f t="shared" ref="AL3:AL17" si="27">AB3</f>
         <v>0</v>
       </c>
       <c r="AM3" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32020.66</v>
       </c>
       <c r="AN3" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>184499.99</v>
       </c>
       <c r="AO3" s="10" t="str">
-        <f>IF(RIGHT(K3,1)="A",SUBSTITUTE(TEXT(W3,"0,00"),",","."),SUBSTITUTE(TEXT(AN3,"0,00"),",","."))</f>
+        <f t="shared" si="8"/>
         <v>152479.33</v>
       </c>
       <c r="AP3" s="10" t="str">
@@ -2098,53 +2169,53 @@
         <v>0.01</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AR3" s="15" t="str">
-        <f>O3&amp;"-"&amp;AQ3</f>
+        <f t="shared" si="10"/>
         <v>30525733870-3</v>
       </c>
       <c r="AS3" s="1">
-        <f>COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <f ca="1">IF(F4="",0,COUNTIFS(J3:J4,J4,K3:K4,K4,P3:P4,P4)-1)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AU3" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AV3" s="1">
-        <f>IF(LEFT(K3,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AW3" s="13">
-        <f>IF(RIGHT(K3,1)="A",ROUND(V3*U3*(1+X3),2),AN3)</f>
+        <f t="shared" si="15"/>
         <v>184499.99</v>
       </c>
       <c r="AX3" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>152479.32999999999</v>
       </c>
       <c r="AY3" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>8.0252280000000003</v>
       </c>
       <c r="AZ3" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>184500</v>
       </c>
       <c r="BA3" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8.0252280000000003</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f ca="1">CONCATENATE(J4," - ",O4," - ",P4," - ",S4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2 - 30610252334 - ARCOS DORADOS ARGENTINA SOCIEDAD ANONIMA - Honorarios Julio</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2161,19 +2232,19 @@
         <v>90</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J4" s="2">
@@ -2213,7 +2284,7 @@
         <v>19000</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>190082.63099999999</v>
       </c>
       <c r="X4" s="11" t="s">
@@ -2226,47 +2297,47 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AF4" s="1" t="str">
-        <f t="shared" ref="AF4:AF17" si="20">SUBSTITUTE(AD4,",",".")</f>
+        <f t="shared" ref="AF4:AF17" si="28">SUBSTITUTE(AD4,",",".")</f>
         <v/>
       </c>
       <c r="AG4" s="14">
-        <f>COUNTIFS(J3:J4,J4,K3:K4,K4,P3:P4,P4)+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH4" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.004349</v>
       </c>
       <c r="AI4" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>19000.00</v>
       </c>
       <c r="AJ4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="AK4" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="AL4" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AM4" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>39917.35</v>
       </c>
       <c r="AN4" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>229999.98</v>
       </c>
       <c r="AO4" s="10" t="str">
-        <f>IF(RIGHT(K4,1)="A",SUBSTITUTE(TEXT(W4,"0,00"),",","."),SUBSTITUTE(TEXT(AN4,"0,00"),",","."))</f>
+        <f t="shared" si="8"/>
         <v>190082.63</v>
       </c>
       <c r="AP4" s="10" t="str">
@@ -2274,53 +2345,53 @@
         <v>0.02</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AR4" s="15" t="str">
-        <f>O4&amp;"-"&amp;AQ4</f>
+        <f t="shared" si="10"/>
         <v>30610252334-4</v>
       </c>
       <c r="AS4" s="1">
-        <f>COUNTIFS(J3:J4,J4,K3:K4,K4,P3:P4,P4)-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <f ca="1">IF(F5="",0,COUNTIFS(J4:J5,J5,K4:K5,K5,P4:P5,P5)-1)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AU4" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AV4" s="1">
-        <f>IF(LEFT(K4,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AW4" s="13">
-        <f>IF(RIGHT(K4,1)="A",ROUND(V4*U4*(1+X4),2),AN4)</f>
+        <f t="shared" si="15"/>
         <v>229999.98</v>
       </c>
       <c r="AX4" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>190082.63</v>
       </c>
       <c r="AY4" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AZ4" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>230000</v>
       </c>
       <c r="BA4" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>10.004348999999999</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f ca="1">CONCATENATE(J5," - ",O5," - ",P5," - ",S5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2 - 30710964277 - LAKAUT S.A. - Honorarios Julio</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2337,19 +2408,19 @@
         <v>90</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J5" s="2">
@@ -2389,7 +2460,7 @@
         <v>19000</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>171487.59700000001</v>
       </c>
       <c r="X5" s="11" t="s">
@@ -2402,47 +2473,47 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AF5" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AG5" s="14">
-        <f>COUNTIFS(J4:J5,J5,K4:K5,K5,P4:P5,P5)+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH5" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.025663</v>
       </c>
       <c r="AI5" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>19000.00</v>
       </c>
       <c r="AJ5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="AK5" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="AL5" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AM5" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36012.400000000001</v>
       </c>
       <c r="AN5" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>207500</v>
       </c>
       <c r="AO5" s="10" t="str">
-        <f>IF(RIGHT(K5,1)="A",SUBSTITUTE(TEXT(W5,"0,00"),",","."),SUBSTITUTE(TEXT(AN5,"0,00"),",","."))</f>
+        <f t="shared" si="8"/>
         <v>171487.60</v>
       </c>
       <c r="AP5" s="10" t="str">
@@ -2450,53 +2521,53 @@
         <v>0.00</v>
       </c>
       <c r="AQ5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AR5" s="15" t="str">
-        <f>O5&amp;"-"&amp;AQ5</f>
+        <f t="shared" si="10"/>
         <v>30710964277-5</v>
       </c>
       <c r="AS5" s="1">
-        <f>COUNTIFS(J4:J5,J5,K4:K5,K5,P4:P5,P5)-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <f ca="1">IF(F6="",0,COUNTIFS(J5:J6,J6,K5:K6,K6,P5:P6,P6)-1)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AU5" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AV5" s="1">
-        <f>IF(LEFT(K5,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AW5" s="13">
-        <f>IF(RIGHT(K5,1)="A",ROUND(V5*U5*(1+X5),2),AN5)</f>
+        <f t="shared" si="15"/>
         <v>207499.99</v>
       </c>
       <c r="AX5" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>171487.6</v>
       </c>
       <c r="AY5" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9.0256629999999998</v>
       </c>
       <c r="AZ5" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>207500</v>
       </c>
       <c r="BA5" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>9.0256629999999998</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f ca="1">CONCATENATE(J6," - ",O6," - ",P6," - ",S6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Julio</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2513,19 +2584,19 @@
         <v>90</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J6" s="2">
@@ -2565,7 +2636,7 @@
         <v>19000</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>95454.536999999997</v>
       </c>
       <c r="X6" s="11" t="s">
@@ -2586,47 +2657,47 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AF6" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AG6" s="14">
-        <f>COUNTIFS(J5:J6,J6,K5:K6,K6,P5:P6,P6)+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH6" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.023923</v>
       </c>
       <c r="AI6" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>19000.00</v>
       </c>
       <c r="AJ6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
       <c r="AK6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>00000003</v>
       </c>
       <c r="AL6" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>44816</v>
       </c>
       <c r="AM6" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20045.45</v>
       </c>
       <c r="AN6" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>115499.99</v>
       </c>
       <c r="AO6" s="10" t="str">
-        <f>IF(RIGHT(K6,1)="A",SUBSTITUTE(TEXT(W6,"0,00"),",","."),SUBSTITUTE(TEXT(AN6,"0,00"),",","."))</f>
+        <f t="shared" si="8"/>
         <v>95454.54</v>
       </c>
       <c r="AP6" s="10" t="str">
@@ -2634,53 +2705,53 @@
         <v>0.01</v>
       </c>
       <c r="AQ6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AR6" s="15" t="str">
-        <f>O6&amp;"-"&amp;AQ6</f>
+        <f t="shared" si="10"/>
         <v>33610006189-6</v>
       </c>
       <c r="AS6" s="1">
-        <f>COUNTIFS(J5:J6,J6,K5:K6,K6,P5:P6,P6)-1</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <f ca="1">IF(F7="",0,COUNTIFS(J6:J7,J7,K6:K7,K7,P6:P7,P7)-1)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AU6" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>A</v>
       </c>
       <c r="AV6" s="1">
-        <f>IF(LEFT(K6,4)="Nota",0,1)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AW6" s="13">
-        <f>IF(RIGHT(K6,1)="A",ROUND(V6*U6*(1+X6),2),AN6)</f>
+        <f t="shared" si="15"/>
         <v>115499.99</v>
       </c>
       <c r="AX6" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>95454.54</v>
       </c>
       <c r="AY6" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>5.0239229999999999</v>
       </c>
       <c r="AZ6" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>115500</v>
       </c>
       <c r="BA6" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5.0239229999999999</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f>CONCATENATE(J7," - ",O7," - ",P7," - ",S7)</f>
+        <f t="shared" si="0"/>
         <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Horas extra</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2697,19 +2768,19 @@
         <v>90</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J7" s="2">
@@ -2748,7 +2819,7 @@
         <v>19000</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>95041.305999999997</v>
       </c>
       <c r="X7" s="11" t="s">
@@ -2761,101 +2832,101 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AF7" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AG7" s="14">
-        <f>COUNTIFS(J6:J7,J7,K6:K7,K7,P6:P7,P7)+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AH7" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.002174</v>
       </c>
       <c r="AI7" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>19000.00</v>
       </c>
       <c r="AJ7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="AK7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="AL7" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AM7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>19958.669999999998</v>
       </c>
       <c r="AN7" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>114999.98</v>
       </c>
       <c r="AO7" s="10" t="str">
-        <f>IF(RIGHT(K7,1)="A",SUBSTITUTE(TEXT(W7,"0,00"),",","."),SUBSTITUTE(TEXT(AN7,"0,00"),",","."))</f>
-        <v>95041.31</v>
-      </c>
-      <c r="AP7" s="10" t="str">
-        <f t="shared" ref="AP7:AP17" si="21">SUBSTITUTE(TEXT(ROUNDUP(AN7,0)-AN7,"0,00"),",",".")</f>
-        <v>0.02</v>
-      </c>
-      <c r="AQ7" s="1">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="AR7" s="15" t="str">
-        <f>O7&amp;"-"&amp;AQ7</f>
-        <v>33610006189-7</v>
-      </c>
-      <c r="AS7" s="1">
-        <f>COUNTIFS(J6:J7,J7,K6:K7,K7,P6:P7,P7)-1</f>
-        <v>1</v>
-      </c>
-      <c r="AT7" s="1">
-        <f ca="1">IF(F8="",0,COUNTIFS(J7:J8,J8,K7:K8,K8,P7:P8,P8)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU7" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="AV7" s="1">
-        <f>IF(LEFT(K7,4)="Nota",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="AW7" s="13">
-        <f>IF(RIGHT(K7,1)="A",ROUND(V7*U7*(1+X7),2),AN7)</f>
-        <v>114999.98</v>
-      </c>
-      <c r="AX7" s="13">
         <f t="shared" si="8"/>
         <v>95041.31</v>
       </c>
+      <c r="AP7" s="10" t="str">
+        <f t="shared" ref="AP7:AP17" si="29">SUBSTITUTE(TEXT(ROUNDUP(AN7,0)-AN7,"0,00"),",",".")</f>
+        <v>0.02</v>
+      </c>
+      <c r="AQ7" s="1">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AR7" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>33610006189-7</v>
+      </c>
+      <c r="AS7" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AT7" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>A</v>
+      </c>
+      <c r="AV7" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AW7" s="13">
+        <f t="shared" si="15"/>
+        <v>114999.98</v>
+      </c>
+      <c r="AX7" s="13">
+        <f t="shared" si="16"/>
+        <v>95041.31</v>
+      </c>
       <c r="AY7" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>5.0021740000000001</v>
       </c>
       <c r="AZ7" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>115000</v>
       </c>
       <c r="BA7" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5.0021740000000001</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f ca="1">CONCATENATE(J8," - ",O8," - ",P8," - ",S8)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2 - 33615420269 - AUSTRAL LINEAS AEREAS CIELOS DEL SUR S A - Honorarios Julio</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2872,19 +2943,19 @@
         <v>90</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J8" s="2">
@@ -2913,7 +2984,7 @@
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="1" t="str">
-        <f ca="1">"Honorarios "&amp;PROPER(TEXT(G8,"mmmm"))</f>
+        <f t="shared" ref="S8:S13" ca="1" si="30">"Honorarios "&amp;PROPER(TEXT(G8,"mmmm"))</f>
         <v>Honorarios Julio</v>
       </c>
       <c r="T8" s="2"/>
@@ -2924,7 +2995,7 @@
         <v>19000</v>
       </c>
       <c r="W8" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>190082.63099999999</v>
       </c>
       <c r="X8" s="11" t="s">
@@ -2937,101 +3008,101 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AF8" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AG8" s="14">
-        <f>COUNTIFS(J7:J8,J8,K7:K8,K8,P7:P8,P8)+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH8" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.004349</v>
       </c>
       <c r="AI8" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>19000.00</v>
       </c>
       <c r="AJ8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="AK8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="AL8" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AM8" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>39917.35</v>
       </c>
       <c r="AN8" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>229999.98</v>
       </c>
       <c r="AO8" s="10" t="str">
-        <f>IF(RIGHT(K8,1)="A",SUBSTITUTE(TEXT(W8,"0,00"),",","."),SUBSTITUTE(TEXT(AN8,"0,00"),",","."))</f>
-        <v>190082.63</v>
-      </c>
-      <c r="AP8" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>0.02</v>
-      </c>
-      <c r="AQ8" s="1">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AR8" s="15" t="str">
-        <f>O8&amp;"-"&amp;AQ8</f>
-        <v>33615420269-8</v>
-      </c>
-      <c r="AS8" s="1">
-        <f>COUNTIFS(J7:J8,J8,K7:K8,K8,P7:P8,P8)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1">
-        <f ca="1">IF(F9="",0,COUNTIFS(J8:J9,J9,K8:K9,K9,P8:P9,P9)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU8" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="AV8" s="1">
-        <f>IF(LEFT(K8,4)="Nota",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="AW8" s="13">
-        <f>IF(RIGHT(K8,1)="A",ROUND(V8*U8*(1+X8),2),AN8)</f>
-        <v>229999.98</v>
-      </c>
-      <c r="AX8" s="13">
         <f t="shared" si="8"/>
         <v>190082.63</v>
       </c>
+      <c r="AP8" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>0.02</v>
+      </c>
+      <c r="AQ8" s="1">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AR8" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>33615420269-8</v>
+      </c>
+      <c r="AS8" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>A</v>
+      </c>
+      <c r="AV8" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AW8" s="13">
+        <f t="shared" si="15"/>
+        <v>229999.98</v>
+      </c>
+      <c r="AX8" s="13">
+        <f t="shared" si="16"/>
+        <v>190082.63</v>
+      </c>
       <c r="AY8" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>10.004348999999999</v>
       </c>
       <c r="AZ8" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>230000</v>
       </c>
       <c r="BA8" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>10.004348999999999</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f ca="1">CONCATENATE(J9," - ",O9," - ",P9," - ",S9)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2 - 20147130202 - BUSTOS JOSE MARTIN - Honorarios Julio</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3048,19 +3119,19 @@
         <v>90</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J9" s="2">
@@ -3089,7 +3160,7 @@
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="1" t="str">
-        <f ca="1">"Honorarios "&amp;PROPER(TEXT(G9,"mmmm"))</f>
+        <f t="shared" ca="1" si="30"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="T9" s="2"/>
@@ -3100,7 +3171,7 @@
         <v>19000</v>
       </c>
       <c r="W9" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>19421.477000000003</v>
       </c>
       <c r="X9" s="11" t="s">
@@ -3113,101 +3184,101 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AF9" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AG9" s="14">
-        <f>COUNTIFS(J8:J9,J9,K8:K9,K9,P8:P9,P9)+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH9" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.022183</v>
       </c>
       <c r="AI9" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>19000.00</v>
       </c>
       <c r="AJ9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="AK9" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="AL9" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AM9" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4078.51</v>
       </c>
       <c r="AN9" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23499.99</v>
       </c>
       <c r="AO9" s="10" t="str">
-        <f>IF(RIGHT(K9,1)="A",SUBSTITUTE(TEXT(W9,"0,00"),",","."),SUBSTITUTE(TEXT(AN9,"0,00"),",","."))</f>
-        <v>19421.48</v>
-      </c>
-      <c r="AP9" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>0.01</v>
-      </c>
-      <c r="AQ9" s="1">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="AR9" s="15" t="str">
-        <f>O9&amp;"-"&amp;AQ9</f>
-        <v>20147130202-9</v>
-      </c>
-      <c r="AS9" s="1">
-        <f>COUNTIFS(J8:J9,J9,K8:K9,K9,P8:P9,P9)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <f ca="1">IF(F10="",0,COUNTIFS(J9:J10,J10,K9:K10,K10,P9:P10,P10)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="AV9" s="1">
-        <f>IF(LEFT(K9,4)="Nota",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="AW9" s="13">
-        <f>IF(RIGHT(K9,1)="A",ROUND(V9*U9*(1+X9),2),AN9)</f>
-        <v>23499.99</v>
-      </c>
-      <c r="AX9" s="13">
         <f t="shared" si="8"/>
         <v>19421.48</v>
       </c>
+      <c r="AP9" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>0.01</v>
+      </c>
+      <c r="AQ9" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AR9" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>20147130202-9</v>
+      </c>
+      <c r="AS9" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>A</v>
+      </c>
+      <c r="AV9" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AW9" s="13">
+        <f t="shared" si="15"/>
+        <v>23499.99</v>
+      </c>
+      <c r="AX9" s="13">
+        <f t="shared" si="16"/>
+        <v>19421.48</v>
+      </c>
       <c r="AY9" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1.0221830000000001</v>
       </c>
       <c r="AZ9" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>23500</v>
       </c>
       <c r="BA9" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.0221830000000001</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f ca="1">CONCATENATE(J10," - ",O10," - ",P10," - ",S10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2 - 20374730429 - BUSTOS PIASENTINI AGUSTIN - Honorarios Julio</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3224,19 +3295,19 @@
         <v>90</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J10" s="2">
@@ -3265,7 +3336,7 @@
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="1" t="str">
-        <f ca="1">"Honorarios "&amp;PROPER(TEXT(G10,"mmmm"))</f>
+        <f t="shared" ca="1" si="30"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="T10" s="2"/>
@@ -3276,7 +3347,7 @@
         <v>19000</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>19834.708000000002</v>
       </c>
       <c r="X10" s="11" t="s">
@@ -3289,101 +3360,101 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AF10" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AG10" s="14">
-        <f>COUNTIFS(J9:J10,J10,K9:K10,K10,P9:P10,P10)+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH10" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.043932</v>
       </c>
       <c r="AI10" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>19000.00</v>
       </c>
       <c r="AJ10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>00000</v>
       </c>
       <c r="AK10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="AL10" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AM10" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4165.29</v>
       </c>
       <c r="AN10" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24000</v>
       </c>
       <c r="AO10" s="10" t="str">
-        <f>IF(RIGHT(K10,1)="A",SUBSTITUTE(TEXT(W10,"0,00"),",","."),SUBSTITUTE(TEXT(AN10,"0,00"),",","."))</f>
-        <v>19834.71</v>
-      </c>
-      <c r="AP10" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>0.00</v>
-      </c>
-      <c r="AQ10" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AR10" s="15" t="str">
-        <f>O10&amp;"-"&amp;AQ10</f>
-        <v>20374730429-10</v>
-      </c>
-      <c r="AS10" s="1">
-        <f>COUNTIFS(J9:J10,J10,K9:K10,K10,P9:P10,P10)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AT10" s="1">
-        <f ca="1">IF(F11="",0,COUNTIFS(J10:J11,J11,K10:K11,K11,P10:P11,P11)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU10" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="AV10" s="1">
-        <f>IF(LEFT(K10,4)="Nota",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="AW10" s="13">
-        <f>IF(RIGHT(K10,1)="A",ROUND(V10*U10*(1+X10),2),AN10)</f>
-        <v>24000</v>
-      </c>
-      <c r="AX10" s="13">
         <f t="shared" si="8"/>
         <v>19834.71</v>
       </c>
+      <c r="AP10" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>0.00</v>
+      </c>
+      <c r="AQ10" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AR10" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>20374730429-10</v>
+      </c>
+      <c r="AS10" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>A</v>
+      </c>
+      <c r="AV10" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AW10" s="13">
+        <f t="shared" si="15"/>
+        <v>24000</v>
+      </c>
+      <c r="AX10" s="13">
+        <f t="shared" si="16"/>
+        <v>19834.71</v>
+      </c>
       <c r="AY10" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1.0439320000000001</v>
       </c>
       <c r="AZ10" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>24000</v>
       </c>
       <c r="BA10" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.0439320000000001</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f ca="1">CONCATENATE(J11," - ",O11," - ",P11," - ",S11)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Honorarios Julio</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3398,19 +3469,19 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J11" s="2">
@@ -3439,7 +3510,7 @@
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="1" t="str">
-        <f ca="1">"Honorarios "&amp;PROPER(TEXT(G11,"mmmm"))</f>
+        <f t="shared" ca="1" si="30"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="T11" s="2"/>
@@ -3450,7 +3521,7 @@
         <v>10000</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>13000</v>
       </c>
       <c r="X11" s="11" t="s">
@@ -3463,101 +3534,101 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AF11" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="AG11" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH11" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.3</v>
+      </c>
+      <c r="AI11" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>10000.00</v>
+      </c>
+      <c r="AJ11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00000</v>
+      </c>
+      <c r="AK11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000000</v>
+      </c>
+      <c r="AL11" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="13">
+        <f t="shared" si="6"/>
+        <v>2256.1999999999998</v>
+      </c>
+      <c r="AN11" s="13">
+        <f t="shared" si="7"/>
+        <v>13000</v>
+      </c>
+      <c r="AO11" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>13000.00</v>
+      </c>
+      <c r="AP11" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>0.00</v>
+      </c>
+      <c r="AQ11" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="AR11" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>37473042-11</v>
+      </c>
+      <c r="AS11" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>B</v>
+      </c>
+      <c r="AV11" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AW11" s="13">
+        <f t="shared" si="15"/>
+        <v>13000</v>
+      </c>
+      <c r="AX11" s="13">
+        <f t="shared" si="16"/>
+        <v>10743.8</v>
+      </c>
+      <c r="AY11" s="20">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AF11" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG11" s="14">
-        <f>COUNTIFS(J10:J11,J11,K10:K11,K11,P10:P11,P11)+1</f>
-        <v>2</v>
-      </c>
-      <c r="AH11" s="18" t="str">
-        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="AI11" s="18" t="str">
+      <c r="AZ11" s="13">
         <f t="shared" si="18"/>
-        <v>10000.00</v>
-      </c>
-      <c r="AJ11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00000</v>
-      </c>
-      <c r="AK11" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000000</v>
-      </c>
-      <c r="AL11" s="9">
+        <v>13000</v>
+      </c>
+      <c r="BA11" s="20">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="13">
-        <f t="shared" si="4"/>
-        <v>2256.1999999999998</v>
-      </c>
-      <c r="AN11" s="13">
-        <f t="shared" si="5"/>
-        <v>13000</v>
-      </c>
-      <c r="AO11" s="10" t="str">
-        <f>IF(RIGHT(K11,1)="A",SUBSTITUTE(TEXT(W11,"0,00"),",","."),SUBSTITUTE(TEXT(AN11,"0,00"),",","."))</f>
-        <v>13000.00</v>
-      </c>
-      <c r="AP11" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>0.00</v>
-      </c>
-      <c r="AQ11" s="1">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="AR11" s="15" t="str">
-        <f>O11&amp;"-"&amp;AQ11</f>
-        <v>37473042-11</v>
-      </c>
-      <c r="AS11" s="1">
-        <f>COUNTIFS(J10:J11,J11,K10:K11,K11,P10:P11,P11)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AT11" s="1">
-        <f ca="1">IF(F12="",0,COUNTIFS(J11:J12,J12,K11:K12,K12,P11:P12,P12)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU11" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="AV11" s="1">
-        <f>IF(LEFT(K11,4)="Nota",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="AW11" s="13">
-        <f>IF(RIGHT(K11,1)="A",ROUND(V11*U11*(1+X11),2),AN11)</f>
-        <v>13000</v>
-      </c>
-      <c r="AX11" s="13">
-        <f t="shared" si="8"/>
-        <v>10743.8</v>
-      </c>
-      <c r="AY11" s="20">
-        <f t="shared" si="9"/>
-        <v>1.3</v>
-      </c>
-      <c r="AZ11" s="13">
-        <f t="shared" si="10"/>
-        <v>13000</v>
-      </c>
-      <c r="BA11" s="20">
-        <f t="shared" si="11"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
-        <f ca="1">CONCATENATE(J12," - ",O12," - ",P12," - ",S12)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Honorarios Julio</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3572,19 +3643,19 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J12" s="2">
@@ -3613,7 +3684,7 @@
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="1" t="str">
-        <f ca="1">"Honorarios "&amp;PROPER(TEXT(G12,"mmmm"))</f>
+        <f t="shared" ca="1" si="30"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="T12" s="2"/>
@@ -3624,7 +3695,7 @@
         <v>19000</v>
       </c>
       <c r="W12" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>23000</v>
       </c>
       <c r="X12" s="11" t="s">
@@ -3637,101 +3708,101 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AF12" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="AG12" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH12" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.210526</v>
+      </c>
+      <c r="AI12" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>19000.00</v>
+      </c>
+      <c r="AJ12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00000</v>
+      </c>
+      <c r="AK12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000000</v>
+      </c>
+      <c r="AL12" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="13">
+        <f t="shared" si="6"/>
+        <v>3991.74</v>
+      </c>
+      <c r="AN12" s="13">
+        <f t="shared" si="7"/>
+        <v>23000</v>
+      </c>
+      <c r="AO12" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>23000.00</v>
+      </c>
+      <c r="AP12" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>0.00</v>
+      </c>
+      <c r="AQ12" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AR12" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>30707354719-12</v>
+      </c>
+      <c r="AS12" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>B</v>
+      </c>
+      <c r="AV12" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AW12" s="13">
+        <f t="shared" si="15"/>
+        <v>23000</v>
+      </c>
+      <c r="AX12" s="13">
+        <f t="shared" si="16"/>
+        <v>19008.259999999998</v>
+      </c>
+      <c r="AY12" s="20">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AF12" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG12" s="14">
-        <f>COUNTIFS(J11:J12,J12,K11:K12,K12,P11:P12,P12)+1</f>
-        <v>2</v>
-      </c>
-      <c r="AH12" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>1.210526</v>
-      </c>
-      <c r="AI12" s="18" t="str">
+        <v>1.2105263157894737</v>
+      </c>
+      <c r="AZ12" s="13">
         <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AJ12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00000</v>
-      </c>
-      <c r="AK12" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000000</v>
-      </c>
-      <c r="AL12" s="9">
+        <v>23000</v>
+      </c>
+      <c r="BA12" s="20">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AM12" s="13">
-        <f t="shared" si="4"/>
-        <v>3991.74</v>
-      </c>
-      <c r="AN12" s="13">
-        <f t="shared" si="5"/>
-        <v>23000</v>
-      </c>
-      <c r="AO12" s="10" t="str">
-        <f>IF(RIGHT(K12,1)="A",SUBSTITUTE(TEXT(W12,"0,00"),",","."),SUBSTITUTE(TEXT(AN12,"0,00"),",","."))</f>
-        <v>23000.00</v>
-      </c>
-      <c r="AP12" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>0.00</v>
-      </c>
-      <c r="AQ12" s="1">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="AR12" s="15" t="str">
-        <f>O12&amp;"-"&amp;AQ12</f>
-        <v>30707354719-12</v>
-      </c>
-      <c r="AS12" s="1">
-        <f>COUNTIFS(J11:J12,J12,K11:K12,K12,P11:P12,P12)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AT12" s="1">
-        <f ca="1">IF(F13="",0,COUNTIFS(J12:J13,J13,K12:K13,K13,P12:P13,P13)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU12" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="AV12" s="1">
-        <f>IF(LEFT(K12,4)="Nota",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="AW12" s="13">
-        <f>IF(RIGHT(K12,1)="A",ROUND(V12*U12*(1+X12),2),AN12)</f>
-        <v>23000</v>
-      </c>
-      <c r="AX12" s="13">
-        <f t="shared" si="8"/>
-        <v>19008.259999999998</v>
-      </c>
-      <c r="AY12" s="20">
-        <f t="shared" si="9"/>
-        <v>1.2105263157894737</v>
-      </c>
-      <c r="AZ12" s="13">
-        <f t="shared" si="10"/>
-        <v>23000</v>
-      </c>
-      <c r="BA12" s="20">
-        <f t="shared" si="11"/>
         <v>1.2105263157894737</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
-        <f ca="1">CONCATENATE(J13," - ",O13," - ",P13," - ",S13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1 -  - MARTIN BUSTOS - Honorarios Julio</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3746,19 +3817,19 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J13" s="2">
@@ -3785,7 +3856,7 @@
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="1" t="str">
-        <f ca="1">"Honorarios "&amp;PROPER(TEXT(G13,"mmmm"))</f>
+        <f t="shared" ca="1" si="30"/>
         <v>Honorarios Julio</v>
       </c>
       <c r="T13" s="2"/>
@@ -3796,7 +3867,7 @@
         <v>19000</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>28500</v>
       </c>
       <c r="X13" s="11"/>
@@ -3807,101 +3878,101 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AF13" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="AG13" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH13" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AI13" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>19000.00</v>
+      </c>
+      <c r="AJ13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00000</v>
+      </c>
+      <c r="AK13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000000</v>
+      </c>
+      <c r="AL13" s="9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="13">
+        <f t="shared" si="7"/>
+        <v>28500</v>
+      </c>
+      <c r="AO13" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>28500.00</v>
+      </c>
+      <c r="AP13" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>0.00</v>
+      </c>
+      <c r="AQ13" s="1">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="AR13" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>-13</v>
+      </c>
+      <c r="AS13" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>C</v>
+      </c>
+      <c r="AV13" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AW13" s="13">
+        <f t="shared" si="15"/>
+        <v>28500</v>
+      </c>
+      <c r="AX13" s="13">
+        <f t="shared" si="16"/>
+        <v>28500</v>
+      </c>
+      <c r="AY13" s="20">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AF13" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG13" s="14">
-        <f>COUNTIFS(J12:J13,J13,K12:K13,K13,P12:P13,P13)+1</f>
-        <v>2</v>
-      </c>
-      <c r="AH13" s="18" t="str">
-        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="AI13" s="18" t="str">
+      <c r="AZ13" s="13">
         <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AJ13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00000</v>
-      </c>
-      <c r="AK13" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000000</v>
-      </c>
-      <c r="AL13" s="9">
+        <v>28500</v>
+      </c>
+      <c r="BA13" s="20">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AM13" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AN13" s="13">
-        <f t="shared" si="5"/>
-        <v>28500</v>
-      </c>
-      <c r="AO13" s="10" t="str">
-        <f>IF(RIGHT(K13,1)="A",SUBSTITUTE(TEXT(W13,"0,00"),",","."),SUBSTITUTE(TEXT(AN13,"0,00"),",","."))</f>
-        <v>28500.00</v>
-      </c>
-      <c r="AP13" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>0.00</v>
-      </c>
-      <c r="AQ13" s="1">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="AR13" s="15" t="str">
-        <f>O13&amp;"-"&amp;AQ13</f>
-        <v>-13</v>
-      </c>
-      <c r="AS13" s="1">
-        <f>COUNTIFS(J12:J13,J13,K12:K13,K13,P12:P13,P13)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AT13" s="1">
-        <f ca="1">IF(F14="",0,COUNTIFS(J13:J14,J14,K13:K14,K14,P13:P14,P14)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU13" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>C</v>
-      </c>
-      <c r="AV13" s="1">
-        <f>IF(LEFT(K13,4)="Nota",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="AW13" s="13">
-        <f>IF(RIGHT(K13,1)="A",ROUND(V13*U13*(1+X13),2),AN13)</f>
-        <v>28500</v>
-      </c>
-      <c r="AX13" s="13">
-        <f t="shared" si="8"/>
-        <v>28500</v>
-      </c>
-      <c r="AY13" s="20">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
-      </c>
-      <c r="AZ13" s="13">
-        <f t="shared" si="10"/>
-        <v>28500</v>
-      </c>
-      <c r="BA13" s="20">
-        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
-        <f>CONCATENATE(J14," - ",O14," - ",P14," - ",S14)</f>
+        <f t="shared" si="0"/>
         <v>2 - 30684125792 - SAMSUNG ELECTRONICS ARGENTINA S A - Ajuste Honorarios</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3916,19 +3987,19 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J14" s="2">
@@ -3967,7 +4038,7 @@
         <v>19000</v>
       </c>
       <c r="W14" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>133471.06700000001</v>
       </c>
       <c r="X14" s="11" t="s">
@@ -3988,101 +4059,101 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AF14" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AG14" s="14">
-        <f>COUNTIFS(J13:J14,J14,K13:K14,K14,P13:P14,P14)+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AH14" s="18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.024793</v>
       </c>
       <c r="AI14" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>19000.00</v>
       </c>
       <c r="AJ14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>00002</v>
       </c>
       <c r="AK14" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>00000150</v>
       </c>
       <c r="AL14" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>44816</v>
       </c>
       <c r="AM14" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28028.92</v>
       </c>
       <c r="AN14" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>161499.99</v>
       </c>
       <c r="AO14" s="10" t="str">
-        <f>IF(RIGHT(K14,1)="A",SUBSTITUTE(TEXT(W14,"0,00"),",","."),SUBSTITUTE(TEXT(AN14,"0,00"),",","."))</f>
-        <v>133471.07</v>
-      </c>
-      <c r="AP14" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>0.01</v>
-      </c>
-      <c r="AQ14" s="1">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="AR14" s="15" t="str">
-        <f>O14&amp;"-"&amp;AQ14</f>
-        <v>30684125792-14</v>
-      </c>
-      <c r="AS14" s="1">
-        <f>COUNTIFS(J13:J14,J14,K13:K14,K14,P13:P14,P14)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AT14" s="1">
-        <f ca="1">IF(F15="",0,COUNTIFS(J14:J15,J15,K14:K15,K15,P14:P15,P15)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU14" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="AV14" s="1">
-        <f>IF(LEFT(K14,4)="Nota",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AW14" s="13">
-        <f>IF(RIGHT(K14,1)="A",ROUND(V14*U14*(1+X14),2),AN14)</f>
-        <v>161499.99</v>
-      </c>
-      <c r="AX14" s="13">
         <f t="shared" si="8"/>
         <v>133471.07</v>
       </c>
+      <c r="AP14" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>0.01</v>
+      </c>
+      <c r="AQ14" s="1">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="AR14" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>30684125792-14</v>
+      </c>
+      <c r="AS14" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>A</v>
+      </c>
+      <c r="AV14" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AW14" s="13">
+        <f t="shared" si="15"/>
+        <v>161499.99</v>
+      </c>
+      <c r="AX14" s="13">
+        <f t="shared" si="16"/>
+        <v>133471.07</v>
+      </c>
       <c r="AY14" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>7.0247929999999998</v>
       </c>
       <c r="AZ14" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>161500</v>
       </c>
       <c r="BA14" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>7.0247929999999998</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
-        <f>CONCATENATE(J15," - ",O15," - ",P15," - ",S15)</f>
+        <f t="shared" si="0"/>
         <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Ajuste</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4097,19 +4168,19 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J15" s="2">
@@ -4148,7 +4219,7 @@
         <v>19000</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>28500</v>
       </c>
       <c r="X15" s="11" t="s">
@@ -4169,101 +4240,101 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AF15" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="AG15" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH15" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AI15" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>19000.00</v>
+      </c>
+      <c r="AJ15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00002</v>
+      </c>
+      <c r="AK15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000152</v>
+      </c>
+      <c r="AL15" s="9">
+        <f t="shared" si="27"/>
+        <v>44816</v>
+      </c>
+      <c r="AM15" s="13">
+        <f t="shared" si="6"/>
+        <v>4946.28</v>
+      </c>
+      <c r="AN15" s="13">
+        <f t="shared" si="7"/>
+        <v>28500</v>
+      </c>
+      <c r="AO15" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>28500.00</v>
+      </c>
+      <c r="AP15" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>0.00</v>
+      </c>
+      <c r="AQ15" s="1">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AR15" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>30707354719-15</v>
+      </c>
+      <c r="AS15" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>B</v>
+      </c>
+      <c r="AV15" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="13">
+        <f t="shared" si="15"/>
+        <v>28500</v>
+      </c>
+      <c r="AX15" s="13">
+        <f t="shared" si="16"/>
+        <v>23553.72</v>
+      </c>
+      <c r="AY15" s="20">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AF15" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG15" s="14">
-        <f>COUNTIFS(J14:J15,J15,K14:K15,K15,P14:P15,P15)+1</f>
-        <v>2</v>
-      </c>
-      <c r="AH15" s="18" t="str">
-        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="AI15" s="18" t="str">
+      <c r="AZ15" s="13">
         <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AJ15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00002</v>
-      </c>
-      <c r="AK15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000152</v>
-      </c>
-      <c r="AL15" s="9">
+        <v>28500</v>
+      </c>
+      <c r="BA15" s="20">
         <f t="shared" si="19"/>
-        <v>44816</v>
-      </c>
-      <c r="AM15" s="13">
-        <f t="shared" si="4"/>
-        <v>4946.28</v>
-      </c>
-      <c r="AN15" s="13">
-        <f t="shared" si="5"/>
-        <v>28500</v>
-      </c>
-      <c r="AO15" s="10" t="str">
-        <f>IF(RIGHT(K15,1)="A",SUBSTITUTE(TEXT(W15,"0,00"),",","."),SUBSTITUTE(TEXT(AN15,"0,00"),",","."))</f>
-        <v>28500.00</v>
-      </c>
-      <c r="AP15" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>0.00</v>
-      </c>
-      <c r="AQ15" s="1">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="AR15" s="15" t="str">
-        <f>O15&amp;"-"&amp;AQ15</f>
-        <v>30707354719-15</v>
-      </c>
-      <c r="AS15" s="1">
-        <f>COUNTIFS(J14:J15,J15,K14:K15,K15,P14:P15,P15)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1">
-        <f ca="1">IF(F16="",0,COUNTIFS(J15:J16,J16,K15:K16,K16,P15:P16,P16)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="AV15" s="1">
-        <f>IF(LEFT(K15,4)="Nota",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AW15" s="13">
-        <f>IF(RIGHT(K15,1)="A",ROUND(V15*U15*(1+X15),2),AN15)</f>
-        <v>28500</v>
-      </c>
-      <c r="AX15" s="13">
-        <f t="shared" si="8"/>
-        <v>23553.72</v>
-      </c>
-      <c r="AY15" s="20">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
-      </c>
-      <c r="AZ15" s="13">
-        <f t="shared" si="10"/>
-        <v>28500</v>
-      </c>
-      <c r="BA15" s="20">
-        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f>CONCATENATE(J16," - ",O16," - ",P16," - ",S16)</f>
+        <f t="shared" si="0"/>
         <v>2 - 30684125792 - SAMSUNG ELECTRONICS ARGENTINA S A - Ajuste Honorarios</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4278,19 +4349,19 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J16" s="2">
@@ -4329,7 +4400,7 @@
         <v>19000</v>
       </c>
       <c r="W16" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>133057.83600000001</v>
       </c>
       <c r="X16" s="11" t="s">
@@ -4350,101 +4421,101 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AF16" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="AG16" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH16" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>7.003044</v>
+      </c>
+      <c r="AI16" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>19000.00</v>
+      </c>
+      <c r="AJ16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00002</v>
+      </c>
+      <c r="AK16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000151</v>
+      </c>
+      <c r="AL16" s="9">
+        <f t="shared" si="27"/>
+        <v>44816</v>
+      </c>
+      <c r="AM16" s="13">
+        <f t="shared" si="6"/>
+        <v>27942.15</v>
+      </c>
+      <c r="AN16" s="13">
+        <f t="shared" si="7"/>
+        <v>160999.99</v>
+      </c>
+      <c r="AO16" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>133057.84</v>
+      </c>
+      <c r="AP16" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>0.01</v>
+      </c>
+      <c r="AQ16" s="1">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="AR16" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>30684125792-16</v>
+      </c>
+      <c r="AS16" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>A</v>
+      </c>
+      <c r="AV16" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AW16" s="13">
+        <f t="shared" si="15"/>
+        <v>160999.98000000001</v>
+      </c>
+      <c r="AX16" s="13">
+        <f t="shared" si="16"/>
+        <v>133057.82999999999</v>
+      </c>
+      <c r="AY16" s="20">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AF16" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG16" s="14">
-        <f>COUNTIFS(J15:J16,J16,K15:K16,K16,P15:P16,P16)+1</f>
-        <v>2</v>
-      </c>
-      <c r="AH16" s="18" t="str">
-        <f t="shared" si="1"/>
         <v>7.003044</v>
       </c>
-      <c r="AI16" s="18" t="str">
+      <c r="AZ16" s="13">
         <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AJ16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00002</v>
-      </c>
-      <c r="AK16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000151</v>
-      </c>
-      <c r="AL16" s="9">
+        <v>161000</v>
+      </c>
+      <c r="BA16" s="20">
         <f t="shared" si="19"/>
-        <v>44816</v>
-      </c>
-      <c r="AM16" s="13">
-        <f t="shared" si="4"/>
-        <v>27942.15</v>
-      </c>
-      <c r="AN16" s="13">
-        <f t="shared" si="5"/>
-        <v>160999.99</v>
-      </c>
-      <c r="AO16" s="10" t="str">
-        <f>IF(RIGHT(K16,1)="A",SUBSTITUTE(TEXT(W16,"0,00"),",","."),SUBSTITUTE(TEXT(AN16,"0,00"),",","."))</f>
-        <v>133057.84</v>
-      </c>
-      <c r="AP16" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>0.01</v>
-      </c>
-      <c r="AQ16" s="1">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="AR16" s="15" t="str">
-        <f>O16&amp;"-"&amp;AQ16</f>
-        <v>30684125792-16</v>
-      </c>
-      <c r="AS16" s="1">
-        <f>COUNTIFS(J15:J16,J16,K15:K16,K16,P15:P16,P16)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1">
-        <f ca="1">IF(F17="",0,COUNTIFS(J16:J17,J17,K16:K17,K17,P16:P17,P17)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU16" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>A</v>
-      </c>
-      <c r="AV16" s="1">
-        <f>IF(LEFT(K16,4)="Nota",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AW16" s="13">
-        <f>IF(RIGHT(K16,1)="A",ROUND(V16*U16*(1+X16),2),AN16)</f>
-        <v>160999.98000000001</v>
-      </c>
-      <c r="AX16" s="13">
-        <f t="shared" si="8"/>
-        <v>133057.82999999999</v>
-      </c>
-      <c r="AY16" s="20">
-        <f t="shared" si="9"/>
-        <v>7.003044</v>
-      </c>
-      <c r="AZ16" s="13">
-        <f t="shared" si="10"/>
-        <v>161000</v>
-      </c>
-      <c r="BA16" s="20">
-        <f t="shared" si="11"/>
         <v>7.003044</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f>CONCATENATE(J17," - ",O17," - ",P17," - ",S17)</f>
+        <f t="shared" si="0"/>
         <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Ajuste</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -4459,19 +4530,19 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="8">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45149</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="21"/>
         <v>45108</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="22"/>
         <v>45138</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="23"/>
         <v>45163</v>
       </c>
       <c r="J17" s="2">
@@ -4510,7 +4581,7 @@
         <v>19000</v>
       </c>
       <c r="W17" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>28500</v>
       </c>
       <c r="X17" s="11" t="s">
@@ -4531,95 +4602,95 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AF17" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="AG17" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AH17" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AI17" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>19000.00</v>
+      </c>
+      <c r="AJ17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>00002</v>
+      </c>
+      <c r="AK17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>00000153</v>
+      </c>
+      <c r="AL17" s="9">
+        <f t="shared" si="27"/>
+        <v>44816</v>
+      </c>
+      <c r="AM17" s="13">
+        <f t="shared" si="6"/>
+        <v>4946.28</v>
+      </c>
+      <c r="AN17" s="13">
+        <f t="shared" si="7"/>
+        <v>28500</v>
+      </c>
+      <c r="AO17" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>28500.00</v>
+      </c>
+      <c r="AP17" s="10" t="str">
+        <f t="shared" si="29"/>
+        <v>0.00</v>
+      </c>
+      <c r="AQ17" s="1">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="AR17" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>37473042-17</v>
+      </c>
+      <c r="AS17" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>B</v>
+      </c>
+      <c r="AV17" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="13">
+        <f t="shared" si="15"/>
+        <v>28500</v>
+      </c>
+      <c r="AX17" s="13">
+        <f t="shared" si="16"/>
+        <v>23553.72</v>
+      </c>
+      <c r="AY17" s="20">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AF17" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG17" s="14">
-        <f>COUNTIFS(J16:J17,J17,K16:K17,K17,P16:P17,P17)+1</f>
-        <v>2</v>
-      </c>
-      <c r="AH17" s="18" t="str">
-        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="AI17" s="18" t="str">
+      <c r="AZ17" s="13">
         <f t="shared" si="18"/>
-        <v>19000.00</v>
-      </c>
-      <c r="AJ17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>00002</v>
-      </c>
-      <c r="AK17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>00000153</v>
-      </c>
-      <c r="AL17" s="9">
+        <v>28500</v>
+      </c>
+      <c r="BA17" s="20">
         <f t="shared" si="19"/>
-        <v>44816</v>
-      </c>
-      <c r="AM17" s="13">
-        <f t="shared" si="4"/>
-        <v>4946.28</v>
-      </c>
-      <c r="AN17" s="13">
-        <f t="shared" si="5"/>
-        <v>28500</v>
-      </c>
-      <c r="AO17" s="10" t="str">
-        <f>IF(RIGHT(K17,1)="A",SUBSTITUTE(TEXT(W17,"0,00"),",","."),SUBSTITUTE(TEXT(AN17,"0,00"),",","."))</f>
-        <v>28500.00</v>
-      </c>
-      <c r="AP17" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>0.00</v>
-      </c>
-      <c r="AQ17" s="1">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="AR17" s="15" t="str">
-        <f>O17&amp;"-"&amp;AQ17</f>
-        <v>37473042-17</v>
-      </c>
-      <c r="AS17" s="1">
-        <f>COUNTIFS(J16:J17,J17,K16:K17,K17,P16:P17,P17)-1</f>
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1">
-        <f>IF(F18="",0,COUNTIFS(J17:J18,J18,K17:K18,K18,P17:P18,P18)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>B</v>
-      </c>
-      <c r="AV17" s="1">
-        <f>IF(LEFT(K17,4)="Nota",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AW17" s="13">
-        <f>IF(RIGHT(K17,1)="A",ROUND(V17*U17*(1+X17),2),AN17)</f>
-        <v>28500</v>
-      </c>
-      <c r="AX17" s="13">
-        <f t="shared" si="8"/>
-        <v>23553.72</v>
-      </c>
-      <c r="AY17" s="20">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
-      </c>
-      <c r="AZ17" s="13">
-        <f t="shared" si="10"/>
-        <v>28500</v>
-      </c>
-      <c r="BA17" s="20">
-        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
@@ -4665,37 +4736,37 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" t="s">
         <v>101</v>
       </c>
     </row>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\BOT-Facturador-AFIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B55724-159F-4EBB-88C1-53FE973874F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6494EA77-CA67-4CB4-B434-E5BDAF898F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Acá se pone el nombre a guardar de las facturas. Si se deja vacío se guarda con el nombre que define AFIP.</t>
@@ -77,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -86,10 +86,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Sin ST: SI: ejecutar cuando el bot no guarda los archivos con el nombre/ubicación definida</t>
+ST: NO: ejecutar cuando el bot no guarda los archivos con el nombre/ubicación definida</t>
         </r>
       </text>
     </comment>
@@ -101,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -110,7 +110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Si se desae guardar el Archivo poner SI</t>
@@ -125,7 +125,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -134,7 +134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 la ubicación va desde el disco hasta la \final</t>
@@ -149,7 +149,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -158,7 +158,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Se puede editar a necesidad de la empresa, en este caso factura a mes vencido</t>
@@ -173,7 +173,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -182,7 +182,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Se puede editar a necesidad de la empresa, en este caso factura a mes vencido</t>
@@ -197,7 +197,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -206,7 +206,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Si se deja vacío queda el default de AFIP. Ojo con CF que hay que identificar cuando supera el monto a informar</t>
@@ -221,7 +221,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -230,7 +230,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Acá yo uso formulas porque generalmente facturo a mes vencido. Pero se pueden definir valores</t>
@@ -245,7 +245,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Agustín Bustos:</t>
         </r>
@@ -254,7 +254,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 si es factura C se deja vacío</t>
@@ -547,9 +547,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Sin ST</t>
-  </si>
-  <si>
     <t>Medio de Pago</t>
   </si>
   <si>
@@ -572,6 +569,9 @@
   </si>
   <si>
     <t>Otra</t>
+  </si>
+  <si>
+    <t>ST</t>
   </si>
 </sst>
 </file>
@@ -721,14 +721,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1658,7 +1658,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="K17" sqref="K17"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1706,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>79</v>
@@ -1751,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R1" s="16" t="s">
         <v>87</v>
@@ -1882,19 +1882,19 @@
       </c>
       <c r="F2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G2" s="9">
         <f ca="1">DATE(YEAR(H2),MONTH(H2),1)</f>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H2" s="9">
         <f ca="1">EOMONTH(F2,-1)</f>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I2" s="9">
         <f ca="1">F2+14</f>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J2" s="2">
         <v>2</v>
@@ -1918,7 +1918,7 @@
         <v>52</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="6" t="s">
@@ -2040,7 +2040,7 @@
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30525733870 - PRICE WATERHOUSE &amp; CO SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Julio</v>
+        <v>2 - 30525733870 - PRICE WATERHOUSE &amp; CO SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Noviembre</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>92</v>
@@ -2057,19 +2057,19 @@
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F17" ca="1" si="20">TODAY()</f>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G17" ca="1" si="21">DATE(YEAR(H3),MONTH(H3),1)</f>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H3" s="9">
         <f t="shared" ref="H3:H17" ca="1" si="22">EOMONTH(F3,-1)</f>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I3" s="9">
         <f t="shared" ref="I3:I17" ca="1" si="23">F3+14</f>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
@@ -2093,12 +2093,12 @@
         <v>49</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G3,"mmmm"))</f>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="4">
@@ -2216,7 +2216,7 @@
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30610252334 - ARCOS DORADOS ARGENTINA SOCIEDAD ANONIMA - Honorarios Julio</v>
+        <v>2 - 30610252334 - ARCOS DORADOS ARGENTINA SOCIEDAD ANONIMA - Honorarios Noviembre</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>92</v>
@@ -2233,19 +2233,19 @@
       </c>
       <c r="F4" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
@@ -2269,12 +2269,12 @@
         <v>41</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G4,"mmmm"))</f>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="4">
@@ -2392,7 +2392,7 @@
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30710964277 - LAKAUT S.A. - Honorarios Julio</v>
+        <v>2 - 30710964277 - LAKAUT S.A. - Honorarios Noviembre</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>92</v>
@@ -2409,19 +2409,19 @@
       </c>
       <c r="F5" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -2445,12 +2445,12 @@
         <v>50</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G5,"mmmm"))</f>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="4">
@@ -2568,7 +2568,7 @@
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Julio</v>
+        <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Noviembre</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>92</v>
@@ -2585,19 +2585,19 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J6" s="2">
         <v>2</v>
@@ -2621,12 +2621,12 @@
         <v>36</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G6,"mmmm"))</f>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="4">
@@ -2769,19 +2769,19 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J7" s="2">
         <v>2</v>
@@ -2805,7 +2805,7 @@
         <v>36</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="6" t="s">
@@ -2927,7 +2927,7 @@
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 33615420269 - AUSTRAL LINEAS AEREAS CIELOS DEL SUR S A - Honorarios Julio</v>
+        <v>2 - 33615420269 - AUSTRAL LINEAS AEREAS CIELOS DEL SUR S A - Honorarios Noviembre</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>92</v>
@@ -2944,19 +2944,19 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J8" s="2">
         <v>2</v>
@@ -2980,12 +2980,12 @@
         <v>51</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="1" t="str">
         <f t="shared" ref="S8:S13" ca="1" si="30">"Honorarios "&amp;PROPER(TEXT(G8,"mmmm"))</f>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="4">
@@ -3103,7 +3103,7 @@
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 20147130202 - BUSTOS JOSE MARTIN - Honorarios Julio</v>
+        <v>2 - 20147130202 - BUSTOS JOSE MARTIN - Honorarios Noviembre</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>92</v>
@@ -3120,19 +3120,19 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J9" s="2">
         <v>2</v>
@@ -3156,12 +3156,12 @@
         <v>56</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="1" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="4">
@@ -3279,7 +3279,7 @@
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 20374730429 - BUSTOS PIASENTINI AGUSTIN - Honorarios Julio</v>
+        <v>2 - 20374730429 - BUSTOS PIASENTINI AGUSTIN - Honorarios Noviembre</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>92</v>
@@ -3296,19 +3296,19 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J10" s="2">
         <v>2</v>
@@ -3332,12 +3332,12 @@
         <v>55</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="1" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="4">
@@ -3455,7 +3455,7 @@
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Honorarios Julio</v>
+        <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Honorarios Noviembre</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>92</v>
@@ -3470,19 +3470,19 @@
       <c r="E11" s="2"/>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J11" s="2">
         <v>2</v>
@@ -3506,12 +3506,12 @@
         <v>55</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="1" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="4">
@@ -3629,7 +3629,7 @@
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Honorarios Julio</v>
+        <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Honorarios Noviembre</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>92</v>
@@ -3644,19 +3644,19 @@
       <c r="E12" s="2"/>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J12" s="2">
         <v>2</v>
@@ -3680,12 +3680,12 @@
         <v>59</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="1" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="4">
@@ -3803,7 +3803,7 @@
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1 -  - MARTIN BUSTOS - Honorarios Julio</v>
+        <v>1 -  - MARTIN BUSTOS - Honorarios Noviembre</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>92</v>
@@ -3818,19 +3818,19 @@
       <c r="E13" s="2"/>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -3852,12 +3852,12 @@
         <v>69</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="1" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Julio</v>
+        <v>Honorarios Noviembre</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="4">
@@ -3988,19 +3988,19 @@
       <c r="E14" s="2"/>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J14" s="2">
         <v>2</v>
@@ -4024,7 +4024,7 @@
         <v>43</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="6" t="s">
@@ -4169,19 +4169,19 @@
       <c r="E15" s="2"/>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J15" s="2">
         <v>2</v>
@@ -4205,7 +4205,7 @@
         <v>59</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="6" t="s">
@@ -4350,19 +4350,19 @@
       <c r="E16" s="2"/>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
@@ -4386,7 +4386,7 @@
         <v>43</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="6" t="s">
@@ -4531,19 +4531,19 @@
       <c r="E17" s="2"/>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="20"/>
-        <v>45149</v>
+        <v>45277</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" ca="1" si="21"/>
-        <v>45108</v>
+        <v>45231</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" ca="1" si="22"/>
-        <v>45138</v>
+        <v>45260</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" ca="1" si="23"/>
-        <v>45163</v>
+        <v>45291</v>
       </c>
       <c r="J17" s="2">
         <v>2</v>
@@ -4567,7 +4567,7 @@
         <v>55</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="6" t="s">
@@ -4737,37 +4737,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Archivo para hacer Facturas 3.0.xlsx
+++ b/Archivo para hacer Facturas 3.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\BOT-Facturador-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6494EA77-CA67-4CB4-B434-E5BDAF898F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618387BD-2296-43FD-9F25-D242E28DCBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$BA$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Factura!$A$1:$BA$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="102">
   <si>
     <t>Fecha</t>
   </si>
@@ -1653,7 +1653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA17"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A17" si="0">CONCATENATE(J2," - ",O2," - ",P2," - ",S2)</f>
+        <f t="shared" ref="A2:A18" si="0">CONCATENATE(J2," - ",O2," - ",P2," - ",S2)</f>
         <v>2 - 30525390086 - COCA COLA FEMSA DE BUENOS AIRES S A - Ajustes Marzo/Abril 2022</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1882,19 +1882,19 @@
       </c>
       <c r="F2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45277</v>
+        <v>45306</v>
       </c>
       <c r="G2" s="9">
         <f ca="1">DATE(YEAR(H2),MONTH(H2),1)</f>
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="H2" s="9">
         <f ca="1">EOMONTH(F2,-1)</f>
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="I2" s="9">
         <f ca="1">F2+14</f>
-        <v>45291</v>
+        <v>45320</v>
       </c>
       <c r="J2" s="2">
         <v>2</v>
@@ -1953,11 +1953,11 @@
         <v/>
       </c>
       <c r="AG2" s="14">
-        <f t="shared" ref="AG2:AG17" si="2">COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)+1</f>
+        <f>IF(COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)=1,2,AG1+1)</f>
         <v>2</v>
       </c>
       <c r="AH2" s="18" t="str">
-        <f t="shared" ref="AH2:AH17" si="3">SUBSTITUTE(IF(AU2="A",ROUND(W2/V2,6),ROUND(AN2/V2,6)),",",".")</f>
+        <f>SUBSTITUTE(IF(AU2="A",ROUND(W2/V2,6),ROUND(AN2/V2,6)),",",".")</f>
         <v>7.003044</v>
       </c>
       <c r="AI2" s="18" t="str">
@@ -1965,11 +1965,11 @@
         <v>19000.00</v>
       </c>
       <c r="AJ2" s="1" t="str">
-        <f t="shared" ref="AJ2:AJ17" si="4">TEXT(Z2,"00000")</f>
+        <f>TEXT(Z2,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK2" s="1" t="str">
-        <f t="shared" ref="AK2:AK17" si="5">TEXT(AA2,"00000000")</f>
+        <f>TEXT(AA2,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL2" s="9">
@@ -1977,15 +1977,15 @@
         <v>0</v>
       </c>
       <c r="AM2" s="13">
-        <f t="shared" ref="AM2:AM17" si="6">IF(AU2="A",ROUND(W2*X2,2),ROUND(W2*X2/(1+X2),2))</f>
+        <f>IF(AU2="A",ROUND(W2*X2,2),ROUND(W2*X2/(1+X2),2))</f>
         <v>27942.15</v>
       </c>
       <c r="AN2" s="13">
-        <f t="shared" ref="AN2:AN17" si="7">IF(AU2="A",ROUND(W2+AM2,2),ROUND(W2,2))</f>
+        <f>IF(AU2="A",ROUND(W2+AM2,2),ROUND(W2,2))</f>
         <v>160999.99</v>
       </c>
       <c r="AO2" s="10" t="str">
-        <f t="shared" ref="AO2:AO17" si="8">IF(RIGHT(K2,1)="A",SUBSTITUTE(TEXT(W2,"0,00"),",","."),SUBSTITUTE(TEXT(AN2,"0,00"),",","."))</f>
+        <f>IF(RIGHT(K2,1)="A",SUBSTITUTE(TEXT(W2,"0,00"),",","."),SUBSTITUTE(TEXT(AN2,"0,00"),",","."))</f>
         <v>133057.84</v>
       </c>
       <c r="AP2" s="10" t="str">
@@ -1993,54 +1993,54 @@
         <v>0.01</v>
       </c>
       <c r="AQ2" s="1">
-        <f t="shared" ref="AQ2:AQ17" si="9">ROW(P2)</f>
+        <f>ROW(P2)</f>
         <v>2</v>
       </c>
       <c r="AR2" s="15" t="str">
-        <f t="shared" ref="AR2:AR17" si="10">O2&amp;"-"&amp;AQ2</f>
+        <f>O2&amp;"-"&amp;AQ2</f>
         <v>30525390086-2</v>
       </c>
       <c r="AS2" s="1">
-        <f t="shared" ref="AS2:AS17" si="11">COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)-1</f>
+        <f>COUNTIFS(J1:J2,J2,K1:K2,K2,P1:P2,P2)-1</f>
         <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <f t="shared" ref="AT2:AT17" ca="1" si="12">IF(F3="",0,COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)-1)</f>
+        <f ca="1">IF(F3="",0,COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)-1)</f>
         <v>0</v>
       </c>
       <c r="AU2" s="1" t="str">
-        <f t="shared" ref="AU2:AU17" si="13">RIGHT(K2)</f>
+        <f>RIGHT(K2)</f>
         <v>A</v>
       </c>
       <c r="AV2" s="1">
-        <f t="shared" ref="AV2:AV17" si="14">IF(LEFT(K2,4)="Nota",0,1)</f>
+        <f>IF(LEFT(K2,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW2" s="13">
-        <f t="shared" ref="AW2:AW17" si="15">IF(RIGHT(K2,1)="A",ROUND(V2*U2*(1+X2),2),AN2)</f>
+        <f>IF(RIGHT(K2,1)="A",ROUND(V2*U2*(1+X2),2),AN2)</f>
         <v>160999.98000000001</v>
       </c>
       <c r="AX2" s="13">
-        <f t="shared" ref="AX2:AX17" si="16">ROUND((AW2/(1+X2)),2)</f>
+        <f>ROUND((AW2/(1+X2)),2)</f>
         <v>133057.82999999999</v>
       </c>
       <c r="AY2" s="20">
-        <f t="shared" ref="AY2:AY17" si="17">IF(AU2="A",ROUND(AX2/V2,6),AW2/V2)</f>
+        <f>IF(AU2="A",ROUND(AX2/V2,6),AW2/V2)</f>
         <v>7.003044</v>
       </c>
       <c r="AZ2" s="13">
-        <f t="shared" ref="AZ2:AZ17" si="18">IF(AU2="A",ROUND(CEILING(V2*U2*(1+X2),500),2),ROUND(CEILING(V2*U2,500),2))</f>
+        <f>IF(AU2="A",ROUND(CEILING(V2*U2*(1+X2),500),2),ROUND(CEILING(V2*U2,500),2))</f>
         <v>161000</v>
       </c>
       <c r="BA2" s="20">
-        <f t="shared" ref="BA2:BA17" si="19">IF(AU2="A",ROUND(AX2/V2,6),AZ2/V2)</f>
+        <f>IF(AU2="A",ROUND(AX2/V2,6),AZ2/V2)</f>
         <v>7.003044</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30525733870 - PRICE WATERHOUSE &amp; CO SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Noviembre</v>
+        <v>2 - 30525733870 - PRICE WATERHOUSE &amp; CO SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Diciembre</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>92</v>
@@ -2056,20 +2056,20 @@
         <v>90</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F17" ca="1" si="20">TODAY()</f>
-        <v>45277</v>
+        <f t="shared" ref="F3:F18" ca="1" si="2">TODAY()</f>
+        <v>45306</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G17" ca="1" si="21">DATE(YEAR(H3),MONTH(H3),1)</f>
-        <v>45231</v>
+        <f t="shared" ref="G3:G18" ca="1" si="3">DATE(YEAR(H3),MONTH(H3),1)</f>
+        <v>45261</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H17" ca="1" si="22">EOMONTH(F3,-1)</f>
-        <v>45260</v>
+        <f t="shared" ref="H3:H18" ca="1" si="4">EOMONTH(F3,-1)</f>
+        <v>45291</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" ref="I3:I17" ca="1" si="23">F3+14</f>
-        <v>45291</v>
+        <f t="shared" ref="I3:I18" ca="1" si="5">F3+14</f>
+        <v>45320</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
@@ -2098,7 +2098,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G3,"mmmm"))</f>
-        <v>Honorarios Noviembre</v>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="4">
@@ -2108,7 +2108,7 @@
         <v>19000</v>
       </c>
       <c r="W3" s="5">
-        <f t="shared" ref="W3:W17" si="24">U3*V3</f>
+        <f t="shared" ref="W3:W18" si="6">U3*V3</f>
         <v>152479.33199999999</v>
       </c>
       <c r="X3" s="11" t="s">
@@ -2121,7 +2121,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1" t="str">
-        <f t="shared" ref="AE3:AE17" si="25">SUBSTITUTE(AC3,",",".")</f>
+        <f t="shared" ref="AE3:AE18" si="7">SUBSTITUTE(AC3,",",".")</f>
         <v/>
       </c>
       <c r="AF3" s="1" t="str">
@@ -2129,39 +2129,39 @@
         <v/>
       </c>
       <c r="AG3" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)=1,2,AG2+1)</f>
         <v>2</v>
       </c>
       <c r="AH3" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(IF(AU3="A",ROUND(W3/V3,6),ROUND(AN3/V3,6)),",",".")</f>
         <v>8.025228</v>
       </c>
       <c r="AI3" s="18" t="str">
-        <f t="shared" ref="AI3:AI17" si="26">SUBSTITUTE(TEXT(V3,"0,00"),",",".")</f>
+        <f>SUBSTITUTE(TEXT(V3,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ3" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z3,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK3" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA3,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL3" s="9">
-        <f t="shared" ref="AL3:AL17" si="27">AB3</f>
+        <f>AB3</f>
         <v>0</v>
       </c>
       <c r="AM3" s="13">
-        <f t="shared" si="6"/>
+        <f>IF(AU3="A",ROUND(W3*X3,2),ROUND(W3*X3/(1+X3),2))</f>
         <v>32020.66</v>
       </c>
       <c r="AN3" s="13">
-        <f t="shared" si="7"/>
+        <f>IF(AU3="A",ROUND(W3+AM3,2),ROUND(W3,2))</f>
         <v>184499.99</v>
       </c>
       <c r="AO3" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(RIGHT(K3,1)="A",SUBSTITUTE(TEXT(W3,"0,00"),",","."),SUBSTITUTE(TEXT(AN3,"0,00"),",","."))</f>
         <v>152479.33</v>
       </c>
       <c r="AP3" s="10" t="str">
@@ -2169,54 +2169,54 @@
         <v>0.01</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P3)</f>
         <v>3</v>
       </c>
       <c r="AR3" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f>O3&amp;"-"&amp;AQ3</f>
         <v>30525733870-3</v>
       </c>
       <c r="AS3" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J2:J3,J3,K2:K3,K3,P2:P3,P3)-1</f>
         <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F4="",0,COUNTIFS(J3:J4,J4,K3:K4,K4,P3:P4,P4)-1)</f>
         <v>0</v>
       </c>
       <c r="AU3" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K3)</f>
         <v>A</v>
       </c>
       <c r="AV3" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K3,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW3" s="13">
-        <f t="shared" si="15"/>
+        <f>IF(RIGHT(K3,1)="A",ROUND(V3*U3*(1+X3),2),AN3)</f>
         <v>184499.99</v>
       </c>
       <c r="AX3" s="13">
-        <f t="shared" si="16"/>
+        <f>ROUND((AW3/(1+X3)),2)</f>
         <v>152479.32999999999</v>
       </c>
       <c r="AY3" s="20">
-        <f t="shared" si="17"/>
+        <f>IF(AU3="A",ROUND(AX3/V3,6),AW3/V3)</f>
         <v>8.0252280000000003</v>
       </c>
       <c r="AZ3" s="13">
-        <f t="shared" si="18"/>
+        <f>IF(AU3="A",ROUND(CEILING(V3*U3*(1+X3),500),2),ROUND(CEILING(V3*U3,500),2))</f>
         <v>184500</v>
       </c>
       <c r="BA3" s="20">
-        <f t="shared" si="19"/>
+        <f>IF(AU3="A",ROUND(AX3/V3,6),AZ3/V3)</f>
         <v>8.0252280000000003</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30610252334 - ARCOS DORADOS ARGENTINA SOCIEDAD ANONIMA - Honorarios Noviembre</v>
+        <v>2 - 30610252334 - ARCOS DORADOS ARGENTINA SOCIEDAD ANONIMA - Honorarios Diciembre</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>92</v>
@@ -2232,20 +2232,20 @@
         <v>90</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
@@ -2274,7 +2274,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G4,"mmmm"))</f>
-        <v>Honorarios Noviembre</v>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="4">
@@ -2284,7 +2284,7 @@
         <v>19000</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>190082.63099999999</v>
       </c>
       <c r="X4" s="11" t="s">
@@ -2297,47 +2297,47 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF4" s="1" t="str">
-        <f t="shared" ref="AF4:AF17" si="28">SUBSTITUTE(AD4,",",".")</f>
+        <f t="shared" ref="AF4:AF18" si="8">SUBSTITUTE(AD4,",",".")</f>
         <v/>
       </c>
       <c r="AG4" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J3:J4,J4,K3:K4,K4,P3:P4,P4)=1,2,AG3+1)</f>
         <v>2</v>
       </c>
       <c r="AH4" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(IF(AU4="A",ROUND(W4/V4,6),ROUND(AN4/V4,6)),",",".")</f>
         <v>10.004349</v>
       </c>
       <c r="AI4" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V4,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ4" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z4,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK4" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA4,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL4" s="9">
-        <f t="shared" si="27"/>
+        <f>AB4</f>
         <v>0</v>
       </c>
       <c r="AM4" s="13">
-        <f t="shared" si="6"/>
+        <f>IF(AU4="A",ROUND(W4*X4,2),ROUND(W4*X4/(1+X4),2))</f>
         <v>39917.35</v>
       </c>
       <c r="AN4" s="13">
-        <f t="shared" si="7"/>
+        <f>IF(AU4="A",ROUND(W4+AM4,2),ROUND(W4,2))</f>
         <v>229999.98</v>
       </c>
       <c r="AO4" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(RIGHT(K4,1)="A",SUBSTITUTE(TEXT(W4,"0,00"),",","."),SUBSTITUTE(TEXT(AN4,"0,00"),",","."))</f>
         <v>190082.63</v>
       </c>
       <c r="AP4" s="10" t="str">
@@ -2345,54 +2345,54 @@
         <v>0.02</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P4)</f>
         <v>4</v>
       </c>
       <c r="AR4" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f>O4&amp;"-"&amp;AQ4</f>
         <v>30610252334-4</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J3:J4,J4,K3:K4,K4,P3:P4,P4)-1</f>
         <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F5="",0,COUNTIFS(J4:J5,J5,K4:K5,K5,P4:P5,P5)-1)</f>
         <v>0</v>
       </c>
       <c r="AU4" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K4)</f>
         <v>A</v>
       </c>
       <c r="AV4" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K4,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW4" s="13">
-        <f t="shared" si="15"/>
+        <f>IF(RIGHT(K4,1)="A",ROUND(V4*U4*(1+X4),2),AN4)</f>
         <v>229999.98</v>
       </c>
       <c r="AX4" s="13">
-        <f t="shared" si="16"/>
+        <f>ROUND((AW4/(1+X4)),2)</f>
         <v>190082.63</v>
       </c>
       <c r="AY4" s="20">
-        <f t="shared" si="17"/>
+        <f>IF(AU4="A",ROUND(AX4/V4,6),AW4/V4)</f>
         <v>10.004348999999999</v>
       </c>
       <c r="AZ4" s="13">
-        <f t="shared" si="18"/>
+        <f>IF(AU4="A",ROUND(CEILING(V4*U4*(1+X4),500),2),ROUND(CEILING(V4*U4,500),2))</f>
         <v>230000</v>
       </c>
       <c r="BA4" s="20">
-        <f t="shared" si="19"/>
+        <f>IF(AU4="A",ROUND(AX4/V4,6),AZ4/V4)</f>
         <v>10.004348999999999</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30710964277 - LAKAUT S.A. - Honorarios Noviembre</v>
+        <v>2 - 30710964277 - LAKAUT S.A. - Honorarios Diciembre</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>92</v>
@@ -2408,20 +2408,20 @@
         <v>90</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -2450,7 +2450,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G5,"mmmm"))</f>
-        <v>Honorarios Noviembre</v>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="4">
@@ -2460,7 +2460,7 @@
         <v>19000</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>171487.59700000001</v>
       </c>
       <c r="X5" s="11" t="s">
@@ -2473,47 +2473,47 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF5" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG5" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J4:J5,J5,K4:K5,K5,P4:P5,P5)=1,2,AG4+1)</f>
         <v>2</v>
       </c>
       <c r="AH5" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(IF(AU5="A",ROUND(W5/V5,6),ROUND(AN5/V5,6)),",",".")</f>
         <v>9.025663</v>
       </c>
       <c r="AI5" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V5,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ5" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z5,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK5" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA5,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL5" s="9">
-        <f t="shared" si="27"/>
+        <f>AB5</f>
         <v>0</v>
       </c>
       <c r="AM5" s="13">
-        <f t="shared" si="6"/>
+        <f>IF(AU5="A",ROUND(W5*X5,2),ROUND(W5*X5/(1+X5),2))</f>
         <v>36012.400000000001</v>
       </c>
       <c r="AN5" s="13">
-        <f t="shared" si="7"/>
+        <f>IF(AU5="A",ROUND(W5+AM5,2),ROUND(W5,2))</f>
         <v>207500</v>
       </c>
       <c r="AO5" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(RIGHT(K5,1)="A",SUBSTITUTE(TEXT(W5,"0,00"),",","."),SUBSTITUTE(TEXT(AN5,"0,00"),",","."))</f>
         <v>171487.60</v>
       </c>
       <c r="AP5" s="10" t="str">
@@ -2521,54 +2521,54 @@
         <v>0.00</v>
       </c>
       <c r="AQ5" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P5)</f>
         <v>5</v>
       </c>
       <c r="AR5" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f>O5&amp;"-"&amp;AQ5</f>
         <v>30710964277-5</v>
       </c>
       <c r="AS5" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J4:J5,J5,K4:K5,K5,P4:P5,P5)-1</f>
         <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F6="",0,COUNTIFS(J5:J6,J6,K5:K6,K6,P5:P6,P6)-1)</f>
         <v>0</v>
       </c>
       <c r="AU5" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K5)</f>
         <v>A</v>
       </c>
       <c r="AV5" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K5,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW5" s="13">
-        <f t="shared" si="15"/>
+        <f>IF(RIGHT(K5,1)="A",ROUND(V5*U5*(1+X5),2),AN5)</f>
         <v>207499.99</v>
       </c>
       <c r="AX5" s="13">
-        <f t="shared" si="16"/>
+        <f>ROUND((AW5/(1+X5)),2)</f>
         <v>171487.6</v>
       </c>
       <c r="AY5" s="20">
-        <f t="shared" si="17"/>
+        <f>IF(AU5="A",ROUND(AX5/V5,6),AW5/V5)</f>
         <v>9.0256629999999998</v>
       </c>
       <c r="AZ5" s="13">
-        <f t="shared" si="18"/>
+        <f>IF(AU5="A",ROUND(CEILING(V5*U5*(1+X5),500),2),ROUND(CEILING(V5*U5,500),2))</f>
         <v>207500</v>
       </c>
       <c r="BA5" s="20">
-        <f t="shared" si="19"/>
+        <f>IF(AU5="A",ROUND(AX5/V5,6),AZ5/V5)</f>
         <v>9.0256629999999998</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Noviembre</v>
+        <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Honorarios Diciembre</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>92</v>
@@ -2584,20 +2584,20 @@
         <v>90</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J6" s="2">
         <v>2</v>
@@ -2626,7 +2626,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="1" t="str">
         <f ca="1">"Honorarios "&amp;PROPER(TEXT(G6,"mmmm"))</f>
-        <v>Honorarios Noviembre</v>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="4">
@@ -2636,7 +2636,7 @@
         <v>19000</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>95454.536999999997</v>
       </c>
       <c r="X6" s="11" t="s">
@@ -2657,47 +2657,47 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF6" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG6" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J5:J6,J6,K5:K6,K6,P5:P6,P6)=1,2,AG5+1)</f>
         <v>2</v>
       </c>
       <c r="AH6" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(IF(AU6="A",ROUND(W6/V6,6),ROUND(AN6/V6,6)),",",".")</f>
         <v>5.023923</v>
       </c>
       <c r="AI6" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V6,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ6" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z6,"00000")</f>
         <v>00002</v>
       </c>
       <c r="AK6" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA6,"00000000")</f>
         <v>00000003</v>
       </c>
       <c r="AL6" s="9">
-        <f t="shared" si="27"/>
+        <f>AB6</f>
         <v>44816</v>
       </c>
       <c r="AM6" s="13">
-        <f t="shared" si="6"/>
+        <f>IF(AU6="A",ROUND(W6*X6,2),ROUND(W6*X6/(1+X6),2))</f>
         <v>20045.45</v>
       </c>
       <c r="AN6" s="13">
-        <f t="shared" si="7"/>
+        <f>IF(AU6="A",ROUND(W6+AM6,2),ROUND(W6,2))</f>
         <v>115499.99</v>
       </c>
       <c r="AO6" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(RIGHT(K6,1)="A",SUBSTITUTE(TEXT(W6,"0,00"),",","."),SUBSTITUTE(TEXT(AN6,"0,00"),",","."))</f>
         <v>95454.54</v>
       </c>
       <c r="AP6" s="10" t="str">
@@ -2705,47 +2705,47 @@
         <v>0.01</v>
       </c>
       <c r="AQ6" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P6)</f>
         <v>6</v>
       </c>
       <c r="AR6" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f>O6&amp;"-"&amp;AQ6</f>
         <v>33610006189-6</v>
       </c>
       <c r="AS6" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J5:J6,J6,K5:K6,K6,P5:P6,P6)-1</f>
         <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F7="",0,COUNTIFS(J6:J7,J7,K6:K7,K7,P6:P7,P7)-1)</f>
         <v>1</v>
       </c>
       <c r="AU6" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K6)</f>
         <v>A</v>
       </c>
       <c r="AV6" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K6,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW6" s="13">
-        <f t="shared" si="15"/>
+        <f>IF(RIGHT(K6,1)="A",ROUND(V6*U6*(1+X6),2),AN6)</f>
         <v>115499.99</v>
       </c>
       <c r="AX6" s="13">
-        <f t="shared" si="16"/>
+        <f>ROUND((AW6/(1+X6)),2)</f>
         <v>95454.54</v>
       </c>
       <c r="AY6" s="20">
-        <f t="shared" si="17"/>
+        <f>IF(AU6="A",ROUND(AX6/V6,6),AW6/V6)</f>
         <v>5.0239229999999999</v>
       </c>
       <c r="AZ6" s="13">
-        <f t="shared" si="18"/>
+        <f>IF(AU6="A",ROUND(CEILING(V6*U6*(1+X6),500),2),ROUND(CEILING(V6*U6,500),2))</f>
         <v>115500</v>
       </c>
       <c r="BA6" s="20">
-        <f t="shared" si="19"/>
+        <f>IF(AU6="A",ROUND(AX6/V6,6),AZ6/V6)</f>
         <v>5.0239229999999999</v>
       </c>
     </row>
@@ -2768,20 +2768,20 @@
         <v>90</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J7" s="2">
         <v>2</v>
@@ -2819,7 +2819,7 @@
         <v>19000</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="6"/>
         <v>95041.305999999997</v>
       </c>
       <c r="X7" s="11" t="s">
@@ -2832,102 +2832,102 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF7" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG7" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J6:J7,J7,K6:K7,K7,P6:P7,P7)=1,2,AG6+1)</f>
         <v>3</v>
       </c>
       <c r="AH7" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(IF(AU7="A",ROUND(W7/V7,6),ROUND(AN7/V7,6)),",",".")</f>
         <v>5.002174</v>
       </c>
       <c r="AI7" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V7,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ7" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z7,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK7" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA7,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL7" s="9">
-        <f t="shared" si="27"/>
+        <f>AB7</f>
         <v>0</v>
       </c>
       <c r="AM7" s="13">
-        <f t="shared" si="6"/>
+        <f>IF(AU7="A",ROUND(W7*X7,2),ROUND(W7*X7/(1+X7),2))</f>
         <v>19958.669999999998</v>
       </c>
       <c r="AN7" s="13">
-        <f t="shared" si="7"/>
+        <f>IF(AU7="A",ROUND(W7+AM7,2),ROUND(W7,2))</f>
         <v>114999.98</v>
       </c>
       <c r="AO7" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(RIGHT(K7,1)="A",SUBSTITUTE(TEXT(W7,"0,00"),",","."),SUBSTITUTE(TEXT(AN7,"0,00"),",","."))</f>
         <v>95041.31</v>
       </c>
       <c r="AP7" s="10" t="str">
-        <f t="shared" ref="AP7:AP17" si="29">SUBSTITUTE(TEXT(ROUNDUP(AN7,0)-AN7,"0,00"),",",".")</f>
+        <f t="shared" ref="AP7:AP18" si="9">SUBSTITUTE(TEXT(ROUNDUP(AN7,0)-AN7,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
       <c r="AQ7" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P7)</f>
         <v>7</v>
       </c>
       <c r="AR7" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f>O7&amp;"-"&amp;AQ7</f>
         <v>33610006189-7</v>
       </c>
       <c r="AS7" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J6:J7,J7,K6:K7,K7,P6:P7,P7)-1</f>
         <v>1</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F9="",0,COUNTIFS(J7:J9,J9,K7:K9,K9,P7:P9,P9)-1)</f>
         <v>0</v>
       </c>
       <c r="AU7" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K7)</f>
         <v>A</v>
       </c>
       <c r="AV7" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K7,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW7" s="13">
-        <f t="shared" si="15"/>
+        <f>IF(RIGHT(K7,1)="A",ROUND(V7*U7*(1+X7),2),AN7)</f>
         <v>114999.98</v>
       </c>
       <c r="AX7" s="13">
-        <f t="shared" si="16"/>
+        <f>ROUND((AW7/(1+X7)),2)</f>
         <v>95041.31</v>
       </c>
       <c r="AY7" s="20">
-        <f t="shared" si="17"/>
+        <f>IF(AU7="A",ROUND(AX7/V7,6),AW7/V7)</f>
         <v>5.0021740000000001</v>
       </c>
       <c r="AZ7" s="13">
-        <f t="shared" si="18"/>
+        <f>IF(AU7="A",ROUND(CEILING(V7*U7*(1+X7),500),2),ROUND(CEILING(V7*U7,500),2))</f>
         <v>115000</v>
       </c>
       <c r="BA7" s="20">
-        <f t="shared" si="19"/>
+        <f>IF(AU7="A",ROUND(AX7/V7,6),AZ7/V7)</f>
         <v>5.0021740000000001</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2 - 33615420269 - AUSTRAL LINEAS AEREAS CIELOS DEL SUR S A - Honorarios Noviembre</v>
+        <f t="shared" ref="A8" si="10">CONCATENATE(J8," - ",O8," - ",P8," - ",S8)</f>
+        <v>2 - 33610006189 - ACCENTURE SOCIEDAD DE RESPONSABILIDAD LIMITADA - Horas extra</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>92</v>
@@ -2943,20 +2943,20 @@
         <v>90</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ref="G8" ca="1" si="11">DATE(YEAR(H8),MONTH(H8),1)</f>
+        <v>45261</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ref="H8" ca="1" si="12">EOMONTH(F8,-1)</f>
+        <v>45291</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ref="I8" ca="1" si="13">F8+14</f>
+        <v>45320</v>
       </c>
       <c r="J8" s="2">
         <v>2</v>
@@ -2974,29 +2974,28 @@
         <v>9</v>
       </c>
       <c r="O8" s="3">
-        <v>33615420269</v>
+        <v>33610006189</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="1" t="str">
-        <f t="shared" ref="S8:S13" ca="1" si="30">"Honorarios "&amp;PROPER(TEXT(G8,"mmmm"))</f>
-        <v>Honorarios Noviembre</v>
+      <c r="S8" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="4">
-        <v>10.004348999999999</v>
+        <v>5.0021740000000001</v>
       </c>
       <c r="V8" s="5">
         <v>19000</v>
       </c>
       <c r="W8" s="5">
-        <f t="shared" si="24"/>
-        <v>190082.63099999999</v>
+        <f t="shared" ref="W8" si="14">U8*V8</f>
+        <v>95041.305999999997</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>37</v>
@@ -3008,102 +3007,102 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="AE8" si="15">SUBSTITUTE(AC8,",",".")</f>
         <v/>
       </c>
       <c r="AF8" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AF8" si="16">SUBSTITUTE(AD8,",",".")</f>
         <v/>
       </c>
       <c r="AG8" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>IF(COUNTIFS(J7:J8,J8,K7:K8,K8,P7:P8,P8)=1,2,AG7+1)</f>
+        <v>4</v>
       </c>
       <c r="AH8" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>10.004349</v>
+        <f>SUBSTITUTE(IF(AU8="A",ROUND(W8/V8,6),ROUND(AN8/V8,6)),",",".")</f>
+        <v>5.002174</v>
       </c>
       <c r="AI8" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V8,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ8" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z8,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK8" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA8,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL8" s="9">
-        <f t="shared" si="27"/>
+        <f>AB8</f>
         <v>0</v>
       </c>
       <c r="AM8" s="13">
-        <f t="shared" si="6"/>
-        <v>39917.35</v>
+        <f>IF(AU8="A",ROUND(W8*X8,2),ROUND(W8*X8/(1+X8),2))</f>
+        <v>19958.669999999998</v>
       </c>
       <c r="AN8" s="13">
-        <f t="shared" si="7"/>
-        <v>229999.98</v>
+        <f>IF(AU8="A",ROUND(W8+AM8,2),ROUND(W8,2))</f>
+        <v>114999.98</v>
       </c>
       <c r="AO8" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>190082.63</v>
+        <f>IF(RIGHT(K8,1)="A",SUBSTITUTE(TEXT(W8,"0,00"),",","."),SUBSTITUTE(TEXT(AN8,"0,00"),",","."))</f>
+        <v>95041.31</v>
       </c>
       <c r="AP8" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AP8" si="17">SUBSTITUTE(TEXT(ROUNDUP(AN8,0)-AN8,"0,00"),",",".")</f>
         <v>0.02</v>
       </c>
       <c r="AQ8" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P8)</f>
         <v>8</v>
       </c>
       <c r="AR8" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>33615420269-8</v>
+        <f>O8&amp;"-"&amp;AQ8</f>
+        <v>33610006189-8</v>
       </c>
       <c r="AS8" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J7:J8,J8,K7:K8,K8,P7:P8,P8)-1</f>
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1">
+        <f ca="1">IF(F10="",0,COUNTIFS(J8:J10,J10,K8:K10,K10,P8:P10,P10)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
       <c r="AU8" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K8)</f>
         <v>A</v>
       </c>
       <c r="AV8" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K8,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW8" s="13">
-        <f t="shared" si="15"/>
-        <v>229999.98</v>
+        <f>IF(RIGHT(K8,1)="A",ROUND(V8*U8*(1+X8),2),AN8)</f>
+        <v>114999.98</v>
       </c>
       <c r="AX8" s="13">
-        <f t="shared" si="16"/>
-        <v>190082.63</v>
+        <f>ROUND((AW8/(1+X8)),2)</f>
+        <v>95041.31</v>
       </c>
       <c r="AY8" s="20">
-        <f t="shared" si="17"/>
-        <v>10.004348999999999</v>
+        <f>IF(AU8="A",ROUND(AX8/V8,6),AW8/V8)</f>
+        <v>5.0021740000000001</v>
       </c>
       <c r="AZ8" s="13">
-        <f t="shared" si="18"/>
-        <v>230000</v>
+        <f>IF(AU8="A",ROUND(CEILING(V8*U8*(1+X8),500),2),ROUND(CEILING(V8*U8,500),2))</f>
+        <v>115000</v>
       </c>
       <c r="BA8" s="20">
-        <f t="shared" si="19"/>
-        <v>10.004348999999999</v>
+        <f>IF(AU8="A",ROUND(AX8/V8,6),AZ8/V8)</f>
+        <v>5.0021740000000001</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 20147130202 - BUSTOS JOSE MARTIN - Honorarios Noviembre</v>
+        <v>2 - 33615420269 - AUSTRAL LINEAS AEREAS CIELOS DEL SUR S A - Honorarios Diciembre</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>92</v>
@@ -3119,20 +3118,20 @@
         <v>90</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J9" s="2">
         <v>2</v>
@@ -3144,35 +3143,35 @@
         <v>38</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="2">
-        <v>20147130202</v>
+      <c r="O9" s="3">
+        <v>33615420269</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="1" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Noviembre</v>
+        <f t="shared" ref="S9:S14" ca="1" si="18">"Honorarios "&amp;PROPER(TEXT(G9,"mmmm"))</f>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="4">
-        <v>1.0221830000000001</v>
+        <v>10.004348999999999</v>
       </c>
       <c r="V9" s="5">
         <v>19000</v>
       </c>
       <c r="W9" s="5">
-        <f t="shared" si="24"/>
-        <v>19421.477000000003</v>
+        <f t="shared" si="6"/>
+        <v>190082.63099999999</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>37</v>
@@ -3184,102 +3183,102 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF9" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG9" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J8:J9,J9,K8:K9,K9,P8:P9,P9)=1,2,AG8+1)</f>
         <v>2</v>
       </c>
       <c r="AH9" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>1.022183</v>
+        <f>SUBSTITUTE(IF(AU9="A",ROUND(W9/V9,6),ROUND(AN9/V9,6)),",",".")</f>
+        <v>10.004349</v>
       </c>
       <c r="AI9" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V9,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ9" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z9,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK9" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA9,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL9" s="9">
-        <f t="shared" si="27"/>
+        <f>AB9</f>
         <v>0</v>
       </c>
       <c r="AM9" s="13">
-        <f t="shared" si="6"/>
-        <v>4078.51</v>
+        <f>IF(AU9="A",ROUND(W9*X9,2),ROUND(W9*X9/(1+X9),2))</f>
+        <v>39917.35</v>
       </c>
       <c r="AN9" s="13">
-        <f t="shared" si="7"/>
-        <v>23499.99</v>
+        <f>IF(AU9="A",ROUND(W9+AM9,2),ROUND(W9,2))</f>
+        <v>229999.98</v>
       </c>
       <c r="AO9" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>19421.48</v>
+        <f>IF(RIGHT(K9,1)="A",SUBSTITUTE(TEXT(W9,"0,00"),",","."),SUBSTITUTE(TEXT(AN9,"0,00"),",","."))</f>
+        <v>190082.63</v>
       </c>
       <c r="AP9" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>0.01</v>
+        <f t="shared" si="9"/>
+        <v>0.02</v>
       </c>
       <c r="AQ9" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P9)</f>
         <v>9</v>
       </c>
       <c r="AR9" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>20147130202-9</v>
+        <f>O9&amp;"-"&amp;AQ9</f>
+        <v>33615420269-9</v>
       </c>
       <c r="AS9" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J7:J9,J9,K7:K9,K9,P7:P9,P9)-1</f>
         <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F10="",0,COUNTIFS(J9:J10,J10,K9:K10,K10,P9:P10,P10)-1)</f>
         <v>0</v>
       </c>
       <c r="AU9" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K9)</f>
         <v>A</v>
       </c>
       <c r="AV9" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K9,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW9" s="13">
-        <f t="shared" si="15"/>
-        <v>23499.99</v>
+        <f>IF(RIGHT(K9,1)="A",ROUND(V9*U9*(1+X9),2),AN9)</f>
+        <v>229999.98</v>
       </c>
       <c r="AX9" s="13">
-        <f t="shared" si="16"/>
-        <v>19421.48</v>
+        <f>ROUND((AW9/(1+X9)),2)</f>
+        <v>190082.63</v>
       </c>
       <c r="AY9" s="20">
-        <f t="shared" si="17"/>
-        <v>1.0221830000000001</v>
+        <f>IF(AU9="A",ROUND(AX9/V9,6),AW9/V9)</f>
+        <v>10.004348999999999</v>
       </c>
       <c r="AZ9" s="13">
-        <f t="shared" si="18"/>
-        <v>23500</v>
+        <f>IF(AU9="A",ROUND(CEILING(V9*U9*(1+X9),500),2),ROUND(CEILING(V9*U9,500),2))</f>
+        <v>230000</v>
       </c>
       <c r="BA9" s="20">
-        <f t="shared" si="19"/>
-        <v>1.0221830000000001</v>
+        <f>IF(AU9="A",ROUND(AX9/V9,6),AZ9/V9)</f>
+        <v>10.004348999999999</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 20374730429 - BUSTOS PIASENTINI AGUSTIN - Honorarios Noviembre</v>
+        <v>2 - 20147130202 - BUSTOS JOSE MARTIN - Honorarios Diciembre</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>92</v>
@@ -3295,20 +3294,20 @@
         <v>90</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J10" s="2">
         <v>2</v>
@@ -3326,29 +3325,29 @@
         <v>9</v>
       </c>
       <c r="O10" s="2">
-        <v>20374730429</v>
+        <v>20147130202</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="1" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Noviembre</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="4">
-        <v>1.0439320000000001</v>
+        <v>1.0221830000000001</v>
       </c>
       <c r="V10" s="5">
         <v>19000</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" si="24"/>
-        <v>19834.708000000002</v>
+        <f t="shared" si="6"/>
+        <v>19421.477000000003</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>37</v>
@@ -3360,102 +3359,102 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF10" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG10" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J9:J10,J10,K9:K10,K10,P9:P10,P10)=1,2,AG9+1)</f>
         <v>2</v>
       </c>
       <c r="AH10" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>1.043932</v>
+        <f>SUBSTITUTE(IF(AU10="A",ROUND(W10/V10,6),ROUND(AN10/V10,6)),",",".")</f>
+        <v>1.022183</v>
       </c>
       <c r="AI10" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V10,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ10" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z10,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK10" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA10,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL10" s="9">
-        <f t="shared" si="27"/>
+        <f>AB10</f>
         <v>0</v>
       </c>
       <c r="AM10" s="13">
-        <f t="shared" si="6"/>
-        <v>4165.29</v>
+        <f>IF(AU10="A",ROUND(W10*X10,2),ROUND(W10*X10/(1+X10),2))</f>
+        <v>4078.51</v>
       </c>
       <c r="AN10" s="13">
-        <f t="shared" si="7"/>
-        <v>24000</v>
+        <f>IF(AU10="A",ROUND(W10+AM10,2),ROUND(W10,2))</f>
+        <v>23499.99</v>
       </c>
       <c r="AO10" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>19834.71</v>
+        <f>IF(RIGHT(K10,1)="A",SUBSTITUTE(TEXT(W10,"0,00"),",","."),SUBSTITUTE(TEXT(AN10,"0,00"),",","."))</f>
+        <v>19421.48</v>
       </c>
       <c r="AP10" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>0.00</v>
+        <f t="shared" si="9"/>
+        <v>0.01</v>
       </c>
       <c r="AQ10" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P10)</f>
         <v>10</v>
       </c>
       <c r="AR10" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>20374730429-10</v>
+        <f>O10&amp;"-"&amp;AQ10</f>
+        <v>20147130202-10</v>
       </c>
       <c r="AS10" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J9:J10,J10,K9:K10,K10,P9:P10,P10)-1</f>
         <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F11="",0,COUNTIFS(J10:J11,J11,K10:K11,K11,P10:P11,P11)-1)</f>
         <v>0</v>
       </c>
       <c r="AU10" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K10)</f>
         <v>A</v>
       </c>
       <c r="AV10" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K10,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW10" s="13">
-        <f t="shared" si="15"/>
-        <v>24000</v>
+        <f>IF(RIGHT(K10,1)="A",ROUND(V10*U10*(1+X10),2),AN10)</f>
+        <v>23499.99</v>
       </c>
       <c r="AX10" s="13">
-        <f t="shared" si="16"/>
-        <v>19834.71</v>
+        <f>ROUND((AW10/(1+X10)),2)</f>
+        <v>19421.48</v>
       </c>
       <c r="AY10" s="20">
-        <f t="shared" si="17"/>
-        <v>1.0439320000000001</v>
+        <f>IF(AU10="A",ROUND(AX10/V10,6),AW10/V10)</f>
+        <v>1.0221830000000001</v>
       </c>
       <c r="AZ10" s="13">
-        <f t="shared" si="18"/>
-        <v>24000</v>
+        <f>IF(AU10="A",ROUND(CEILING(V10*U10*(1+X10),500),2),ROUND(CEILING(V10*U10,500),2))</f>
+        <v>23500</v>
       </c>
       <c r="BA10" s="20">
-        <f t="shared" si="19"/>
-        <v>1.0439320000000001</v>
+        <f>IF(AU10="A",ROUND(AX10/V10,6),AZ10/V10)</f>
+        <v>1.0221830000000001</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Honorarios Noviembre</v>
+        <v>2 - 20374730429 - BUSTOS PIASENTINI AGUSTIN - Honorarios Diciembre</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>92</v>
@@ -3465,42 +3464,44 @@
         <v/>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="F11" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J11" s="2">
         <v>2</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="O11" s="2">
-        <v>37473042</v>
+        <v>20374730429</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>55</v>
@@ -3510,19 +3511,19 @@
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="1" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Noviembre</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="4">
-        <v>1.3</v>
+        <v>1.0439320000000001</v>
       </c>
       <c r="V11" s="5">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" si="24"/>
-        <v>13000</v>
+        <f t="shared" si="6"/>
+        <v>19834.708000000002</v>
       </c>
       <c r="X11" s="11" t="s">
         <v>37</v>
@@ -3534,102 +3535,102 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF11" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG11" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J10:J11,J11,K10:K11,K11,P10:P11,P11)=1,2,AG10+1)</f>
         <v>2</v>
       </c>
       <c r="AH11" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>1.3</v>
+        <f>SUBSTITUTE(IF(AU11="A",ROUND(W11/V11,6),ROUND(AN11/V11,6)),",",".")</f>
+        <v>1.043932</v>
       </c>
       <c r="AI11" s="18" t="str">
-        <f t="shared" si="26"/>
-        <v>10000.00</v>
+        <f>SUBSTITUTE(TEXT(V11,"0,00"),",",".")</f>
+        <v>19000.00</v>
       </c>
       <c r="AJ11" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z11,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK11" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA11,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL11" s="9">
-        <f t="shared" si="27"/>
+        <f>AB11</f>
         <v>0</v>
       </c>
       <c r="AM11" s="13">
-        <f t="shared" si="6"/>
-        <v>2256.1999999999998</v>
+        <f>IF(AU11="A",ROUND(W11*X11,2),ROUND(W11*X11/(1+X11),2))</f>
+        <v>4165.29</v>
       </c>
       <c r="AN11" s="13">
-        <f t="shared" si="7"/>
-        <v>13000</v>
+        <f>IF(AU11="A",ROUND(W11+AM11,2),ROUND(W11,2))</f>
+        <v>24000</v>
       </c>
       <c r="AO11" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>13000.00</v>
+        <f>IF(RIGHT(K11,1)="A",SUBSTITUTE(TEXT(W11,"0,00"),",","."),SUBSTITUTE(TEXT(AN11,"0,00"),",","."))</f>
+        <v>19834.71</v>
       </c>
       <c r="AP11" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0.00</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P11)</f>
         <v>11</v>
       </c>
       <c r="AR11" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>37473042-11</v>
+        <f>O11&amp;"-"&amp;AQ11</f>
+        <v>20374730429-11</v>
       </c>
       <c r="AS11" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J10:J11,J11,K10:K11,K11,P10:P11,P11)-1</f>
         <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F12="",0,COUNTIFS(J11:J12,J12,K11:K12,K12,P11:P12,P12)-1)</f>
         <v>0</v>
       </c>
       <c r="AU11" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>B</v>
+        <f>RIGHT(K11)</f>
+        <v>A</v>
       </c>
       <c r="AV11" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K11,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW11" s="13">
-        <f t="shared" si="15"/>
-        <v>13000</v>
+        <f>IF(RIGHT(K11,1)="A",ROUND(V11*U11*(1+X11),2),AN11)</f>
+        <v>24000</v>
       </c>
       <c r="AX11" s="13">
-        <f t="shared" si="16"/>
-        <v>10743.8</v>
+        <f>ROUND((AW11/(1+X11)),2)</f>
+        <v>19834.71</v>
       </c>
       <c r="AY11" s="20">
-        <f t="shared" si="17"/>
-        <v>1.3</v>
+        <f>IF(AU11="A",ROUND(AX11/V11,6),AW11/V11)</f>
+        <v>1.0439320000000001</v>
       </c>
       <c r="AZ11" s="13">
-        <f t="shared" si="18"/>
-        <v>13000</v>
+        <f>IF(AU11="A",ROUND(CEILING(V11*U11*(1+X11),500),2),ROUND(CEILING(V11*U11,500),2))</f>
+        <v>24000</v>
       </c>
       <c r="BA11" s="20">
-        <f t="shared" si="19"/>
-        <v>1.3</v>
+        <f>IF(AU11="A",ROUND(AX11/V11,6),AZ11/V11)</f>
+        <v>1.0439320000000001</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Honorarios Noviembre</v>
+        <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Honorarios Diciembre</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>92</v>
@@ -3643,20 +3644,20 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J12" s="2">
         <v>2</v>
@@ -3668,35 +3669,35 @@
         <v>38</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="O12" s="2">
-        <v>30707354719</v>
+        <v>37473042</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="1" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Noviembre</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="4">
-        <v>1.2105263157894737</v>
+        <v>1.3</v>
       </c>
       <c r="V12" s="5">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="W12" s="5">
-        <f t="shared" si="24"/>
-        <v>23000</v>
+        <f t="shared" si="6"/>
+        <v>13000</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>37</v>
@@ -3708,102 +3709,102 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF12" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG12" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J11:J12,J12,K11:K12,K12,P11:P12,P12)=1,2,AG11+1)</f>
         <v>2</v>
       </c>
       <c r="AH12" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>1.210526</v>
+        <f>SUBSTITUTE(IF(AU12="A",ROUND(W12/V12,6),ROUND(AN12/V12,6)),",",".")</f>
+        <v>1.3</v>
       </c>
       <c r="AI12" s="18" t="str">
-        <f t="shared" si="26"/>
-        <v>19000.00</v>
+        <f>SUBSTITUTE(TEXT(V12,"0,00"),",",".")</f>
+        <v>10000.00</v>
       </c>
       <c r="AJ12" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z12,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK12" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA12,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL12" s="9">
-        <f t="shared" si="27"/>
+        <f>AB12</f>
         <v>0</v>
       </c>
       <c r="AM12" s="13">
-        <f t="shared" si="6"/>
-        <v>3991.74</v>
+        <f>IF(AU12="A",ROUND(W12*X12,2),ROUND(W12*X12/(1+X12),2))</f>
+        <v>2256.1999999999998</v>
       </c>
       <c r="AN12" s="13">
-        <f t="shared" si="7"/>
-        <v>23000</v>
+        <f>IF(AU12="A",ROUND(W12+AM12,2),ROUND(W12,2))</f>
+        <v>13000</v>
       </c>
       <c r="AO12" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>23000.00</v>
+        <f>IF(RIGHT(K12,1)="A",SUBSTITUTE(TEXT(W12,"0,00"),",","."),SUBSTITUTE(TEXT(AN12,"0,00"),",","."))</f>
+        <v>13000.00</v>
       </c>
       <c r="AP12" s="10" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0.00</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P12)</f>
         <v>12</v>
       </c>
       <c r="AR12" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>30707354719-12</v>
+        <f>O12&amp;"-"&amp;AQ12</f>
+        <v>37473042-12</v>
       </c>
       <c r="AS12" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J11:J12,J12,K11:K12,K12,P11:P12,P12)-1</f>
         <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F13="",0,COUNTIFS(J12:J13,J13,K12:K13,K13,P12:P13,P13)-1)</f>
         <v>0</v>
       </c>
       <c r="AU12" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f>RIGHT(K12)</f>
         <v>B</v>
       </c>
       <c r="AV12" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K12,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW12" s="13">
-        <f t="shared" si="15"/>
-        <v>23000</v>
+        <f>IF(RIGHT(K12,1)="A",ROUND(V12*U12*(1+X12),2),AN12)</f>
+        <v>13000</v>
       </c>
       <c r="AX12" s="13">
-        <f t="shared" si="16"/>
-        <v>19008.259999999998</v>
+        <f>ROUND((AW12/(1+X12)),2)</f>
+        <v>10743.8</v>
       </c>
       <c r="AY12" s="20">
-        <f t="shared" si="17"/>
-        <v>1.2105263157894737</v>
+        <f>IF(AU12="A",ROUND(AX12/V12,6),AW12/V12)</f>
+        <v>1.3</v>
       </c>
       <c r="AZ12" s="13">
-        <f t="shared" si="18"/>
-        <v>23000</v>
+        <f>IF(AU12="A",ROUND(CEILING(V12*U12*(1+X12),500),2),ROUND(CEILING(V12*U12,500),2))</f>
+        <v>13000</v>
       </c>
       <c r="BA12" s="20">
-        <f t="shared" si="19"/>
-        <v>1.2105263157894737</v>
+        <f>IF(AU12="A",ROUND(AX12/V12,6),AZ12/V12)</f>
+        <v>1.3</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1 -  - MARTIN BUSTOS - Honorarios Noviembre</v>
+        <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Honorarios Diciembre</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>92</v>
@@ -3817,60 +3818,64 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="O13" s="2">
+        <v>30707354719</v>
+      </c>
       <c r="P13" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="1" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>Honorarios Noviembre</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="4">
-        <v>1.5</v>
+        <v>1.2105263157894737</v>
       </c>
       <c r="V13" s="5">
         <v>19000</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" si="24"/>
-        <v>28500</v>
-      </c>
-      <c r="X13" s="11"/>
+        <f t="shared" si="6"/>
+        <v>23000</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
@@ -3878,102 +3883,102 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF13" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG13" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J12:J13,J13,K12:K13,K13,P12:P13,P13)=1,2,AG12+1)</f>
         <v>2</v>
       </c>
       <c r="AH13" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f>SUBSTITUTE(IF(AU13="A",ROUND(W13/V13,6),ROUND(AN13/V13,6)),",",".")</f>
+        <v>1.210526</v>
       </c>
       <c r="AI13" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V13,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z13,"00000")</f>
         <v>00000</v>
       </c>
       <c r="AK13" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>TEXT(AA13,"00000000")</f>
         <v>00000000</v>
       </c>
       <c r="AL13" s="9">
-        <f t="shared" si="27"/>
+        <f>AB13</f>
         <v>0</v>
       </c>
       <c r="AM13" s="13">
-        <f t="shared" si="6"/>
+        <f>IF(AU13="A",ROUND(W13*X13,2),ROUND(W13*X13/(1+X13),2))</f>
+        <v>3991.74</v>
+      </c>
+      <c r="AN13" s="13">
+        <f>IF(AU13="A",ROUND(W13+AM13,2),ROUND(W13,2))</f>
+        <v>23000</v>
+      </c>
+      <c r="AO13" s="10" t="str">
+        <f>IF(RIGHT(K13,1)="A",SUBSTITUTE(TEXT(W13,"0,00"),",","."),SUBSTITUTE(TEXT(AN13,"0,00"),",","."))</f>
+        <v>23000.00</v>
+      </c>
+      <c r="AP13" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>0.00</v>
+      </c>
+      <c r="AQ13" s="1">
+        <f>ROW(P13)</f>
+        <v>13</v>
+      </c>
+      <c r="AR13" s="15" t="str">
+        <f>O13&amp;"-"&amp;AQ13</f>
+        <v>30707354719-13</v>
+      </c>
+      <c r="AS13" s="1">
+        <f>COUNTIFS(J12:J13,J13,K12:K13,K13,P12:P13,P13)-1</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="13">
-        <f t="shared" si="7"/>
-        <v>28500</v>
-      </c>
-      <c r="AO13" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>28500.00</v>
-      </c>
-      <c r="AP13" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>0.00</v>
-      </c>
-      <c r="AQ13" s="1">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="AR13" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>-13</v>
-      </c>
-      <c r="AS13" s="1">
-        <f t="shared" si="11"/>
+      <c r="AT13" s="1">
+        <f ca="1">IF(F14="",0,COUNTIFS(J13:J14,J14,K13:K14,K14,P13:P14,P14)-1)</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
       <c r="AU13" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>C</v>
+        <f>RIGHT(K13)</f>
+        <v>B</v>
       </c>
       <c r="AV13" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K13,4)="Nota",0,1)</f>
         <v>1</v>
       </c>
       <c r="AW13" s="13">
-        <f t="shared" si="15"/>
-        <v>28500</v>
+        <f>IF(RIGHT(K13,1)="A",ROUND(V13*U13*(1+X13),2),AN13)</f>
+        <v>23000</v>
       </c>
       <c r="AX13" s="13">
-        <f t="shared" si="16"/>
-        <v>28500</v>
+        <f>ROUND((AW13/(1+X13)),2)</f>
+        <v>19008.259999999998</v>
       </c>
       <c r="AY13" s="20">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
+        <f>IF(AU13="A",ROUND(AX13/V13,6),AW13/V13)</f>
+        <v>1.2105263157894737</v>
       </c>
       <c r="AZ13" s="13">
-        <f t="shared" si="18"/>
-        <v>28500</v>
+        <f>IF(AU13="A",ROUND(CEILING(V13*U13*(1+X13),500),2),ROUND(CEILING(V13*U13,500),2))</f>
+        <v>23000</v>
       </c>
       <c r="BA13" s="20">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f>IF(AU13="A",ROUND(AX13/V13,6),AZ13/V13)</f>
+        <v>1.2105263157894737</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2 - 30684125792 - SAMSUNG ELECTRONICS ARGENTINA S A - Ajuste Honorarios</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1 -  - MARTIN BUSTOS - Honorarios Diciembre</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>92</v>
@@ -3987,174 +3992,163 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="3">
-        <v>30684125792</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R14" s="2"/>
-      <c r="S14" s="6" t="s">
-        <v>44</v>
+      <c r="S14" s="1" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>Honorarios Diciembre</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="4">
-        <v>7.0247929999999998</v>
+        <v>1.5</v>
       </c>
       <c r="V14" s="5">
         <v>19000</v>
       </c>
       <c r="W14" s="5">
-        <f t="shared" si="24"/>
-        <v>133471.06700000001</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB14" s="12">
-        <v>44816</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>28500</v>
+      </c>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="12"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF14" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG14" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J13:J14,J14,K13:K14,K14,P13:P14,P14)=1,2,AG13+1)</f>
         <v>2</v>
       </c>
       <c r="AH14" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>7.024793</v>
+        <f>SUBSTITUTE(IF(AU14="A",ROUND(W14/V14,6),ROUND(AN14/V14,6)),",",".")</f>
+        <v>1.5</v>
       </c>
       <c r="AI14" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V14,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>00002</v>
+        <f>TEXT(Z14,"00000")</f>
+        <v>00000</v>
       </c>
       <c r="AK14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000150</v>
+        <f>TEXT(AA14,"00000000")</f>
+        <v>00000000</v>
       </c>
       <c r="AL14" s="9">
-        <f t="shared" si="27"/>
-        <v>44816</v>
+        <f>AB14</f>
+        <v>0</v>
       </c>
       <c r="AM14" s="13">
-        <f t="shared" si="6"/>
-        <v>28028.92</v>
+        <f>IF(AU14="A",ROUND(W14*X14,2),ROUND(W14*X14/(1+X14),2))</f>
+        <v>0</v>
       </c>
       <c r="AN14" s="13">
-        <f t="shared" si="7"/>
-        <v>161499.99</v>
+        <f>IF(AU14="A",ROUND(W14+AM14,2),ROUND(W14,2))</f>
+        <v>28500</v>
       </c>
       <c r="AO14" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>133471.07</v>
+        <f>IF(RIGHT(K14,1)="A",SUBSTITUTE(TEXT(W14,"0,00"),",","."),SUBSTITUTE(TEXT(AN14,"0,00"),",","."))</f>
+        <v>28500.00</v>
       </c>
       <c r="AP14" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>0.01</v>
+        <f t="shared" si="9"/>
+        <v>0.00</v>
       </c>
       <c r="AQ14" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P14)</f>
         <v>14</v>
       </c>
       <c r="AR14" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>30684125792-14</v>
+        <f>O14&amp;"-"&amp;AQ14</f>
+        <v>-14</v>
       </c>
       <c r="AS14" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J13:J14,J14,K13:K14,K14,P13:P14,P14)-1</f>
         <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F15="",0,COUNTIFS(J14:J15,J15,K14:K15,K15,P14:P15,P15)-1)</f>
         <v>0</v>
       </c>
       <c r="AU14" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>A</v>
+        <f>RIGHT(K14)</f>
+        <v>C</v>
       </c>
       <c r="AV14" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>IF(LEFT(K14,4)="Nota",0,1)</f>
+        <v>1</v>
       </c>
       <c r="AW14" s="13">
-        <f t="shared" si="15"/>
-        <v>161499.99</v>
+        <f>IF(RIGHT(K14,1)="A",ROUND(V14*U14*(1+X14),2),AN14)</f>
+        <v>28500</v>
       </c>
       <c r="AX14" s="13">
-        <f t="shared" si="16"/>
-        <v>133471.07</v>
+        <f>ROUND((AW14/(1+X14)),2)</f>
+        <v>28500</v>
       </c>
       <c r="AY14" s="20">
-        <f t="shared" si="17"/>
-        <v>7.0247929999999998</v>
+        <f>IF(AU14="A",ROUND(AX14/V14,6),AW14/V14)</f>
+        <v>1.5</v>
       </c>
       <c r="AZ14" s="13">
-        <f t="shared" si="18"/>
-        <v>161500</v>
+        <f>IF(AU14="A",ROUND(CEILING(V14*U14*(1+X14),500),2),ROUND(CEILING(V14*U14,500),2))</f>
+        <v>28500</v>
       </c>
       <c r="BA14" s="20">
-        <f t="shared" si="19"/>
-        <v>7.0247929999999998</v>
+        <f>IF(AU14="A",ROUND(AX14/V14,6),AZ14/V14)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Ajuste</v>
+        <v>2 - 30684125792 - SAMSUNG ELECTRONICS ARGENTINA S A - Ajuste Honorarios</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>92</v>
@@ -4168,71 +4162,71 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J15" s="2">
         <v>2</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="2">
-        <v>30707354719</v>
+      <c r="O15" s="3">
+        <v>30684125792</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="4">
-        <v>1.5</v>
+        <v>7.0247929999999998</v>
       </c>
       <c r="V15" s="5">
         <v>19000</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" si="24"/>
-        <v>28500</v>
+        <f t="shared" si="6"/>
+        <v>133471.06700000001</v>
       </c>
       <c r="X15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="AB15" s="12">
         <v>44816</v>
@@ -4240,102 +4234,102 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF15" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG15" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J14:J15,J15,K14:K15,K15,P14:P15,P15)=1,2,AG14+1)</f>
         <v>2</v>
       </c>
       <c r="AH15" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f>SUBSTITUTE(IF(AU15="A",ROUND(W15/V15,6),ROUND(AN15/V15,6)),",",".")</f>
+        <v>7.024793</v>
       </c>
       <c r="AI15" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V15,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z15,"00000")</f>
         <v>00002</v>
       </c>
       <c r="AK15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000152</v>
+        <f>TEXT(AA15,"00000000")</f>
+        <v>00000150</v>
       </c>
       <c r="AL15" s="9">
-        <f t="shared" si="27"/>
+        <f>AB15</f>
         <v>44816</v>
       </c>
       <c r="AM15" s="13">
-        <f t="shared" si="6"/>
-        <v>4946.28</v>
+        <f>IF(AU15="A",ROUND(W15*X15,2),ROUND(W15*X15/(1+X15),2))</f>
+        <v>28028.92</v>
       </c>
       <c r="AN15" s="13">
-        <f t="shared" si="7"/>
-        <v>28500</v>
+        <f>IF(AU15="A",ROUND(W15+AM15,2),ROUND(W15,2))</f>
+        <v>161499.99</v>
       </c>
       <c r="AO15" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>28500.00</v>
+        <f>IF(RIGHT(K15,1)="A",SUBSTITUTE(TEXT(W15,"0,00"),",","."),SUBSTITUTE(TEXT(AN15,"0,00"),",","."))</f>
+        <v>133471.07</v>
       </c>
       <c r="AP15" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>0.00</v>
+        <f t="shared" si="9"/>
+        <v>0.01</v>
       </c>
       <c r="AQ15" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P15)</f>
         <v>15</v>
       </c>
       <c r="AR15" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>30707354719-15</v>
+        <f>O15&amp;"-"&amp;AQ15</f>
+        <v>30684125792-15</v>
       </c>
       <c r="AS15" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J14:J15,J15,K14:K15,K15,P14:P15,P15)-1</f>
         <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F16="",0,COUNTIFS(J15:J16,J16,K15:K16,K16,P15:P16,P16)-1)</f>
         <v>0</v>
       </c>
       <c r="AU15" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>B</v>
+        <f>RIGHT(K15)</f>
+        <v>A</v>
       </c>
       <c r="AV15" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K15,4)="Nota",0,1)</f>
         <v>0</v>
       </c>
       <c r="AW15" s="13">
-        <f t="shared" si="15"/>
-        <v>28500</v>
+        <f>IF(RIGHT(K15,1)="A",ROUND(V15*U15*(1+X15),2),AN15)</f>
+        <v>161499.99</v>
       </c>
       <c r="AX15" s="13">
-        <f t="shared" si="16"/>
-        <v>23553.72</v>
+        <f>ROUND((AW15/(1+X15)),2)</f>
+        <v>133471.07</v>
       </c>
       <c r="AY15" s="20">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
+        <f>IF(AU15="A",ROUND(AX15/V15,6),AW15/V15)</f>
+        <v>7.0247929999999998</v>
       </c>
       <c r="AZ15" s="13">
-        <f t="shared" si="18"/>
-        <v>28500</v>
+        <f>IF(AU15="A",ROUND(CEILING(V15*U15*(1+X15),500),2),ROUND(CEILING(V15*U15,500),2))</f>
+        <v>161500</v>
       </c>
       <c r="BA15" s="20">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
+        <f>IF(AU15="A",ROUND(AX15/V15,6),AZ15/V15)</f>
+        <v>7.0247929999999998</v>
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2 - 30684125792 - SAMSUNG ELECTRONICS ARGENTINA S A - Ajuste Honorarios</v>
+        <v>2 - 30707354719 - CAMARA DE ELABORADORES DE TE ARGENTINO C. E. T.A. - Ajuste</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>92</v>
@@ -4349,71 +4343,71 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="3">
-        <v>30684125792</v>
+      <c r="O16" s="2">
+        <v>30707354719</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="6" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="4">
-        <v>7.003044</v>
+        <v>1.5</v>
       </c>
       <c r="V16" s="5">
         <v>19000</v>
       </c>
       <c r="W16" s="5">
-        <f t="shared" si="24"/>
-        <v>133057.83600000001</v>
+        <f t="shared" si="6"/>
+        <v>28500</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="Y16" s="11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Z16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="AB16" s="12">
         <v>44816</v>
@@ -4421,102 +4415,102 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF16" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG16" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J15:J16,J16,K15:K16,K16,P15:P16,P16)=1,2,AG15+1)</f>
         <v>2</v>
       </c>
       <c r="AH16" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>7.003044</v>
+        <f>SUBSTITUTE(IF(AU16="A",ROUND(W16/V16,6),ROUND(AN16/V16,6)),",",".")</f>
+        <v>1.5</v>
       </c>
       <c r="AI16" s="18" t="str">
-        <f t="shared" si="26"/>
+        <f>SUBSTITUTE(TEXT(V16,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
       <c r="AJ16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>TEXT(Z16,"00000")</f>
         <v>00002</v>
       </c>
       <c r="AK16" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>00000151</v>
+        <f>TEXT(AA16,"00000000")</f>
+        <v>00000152</v>
       </c>
       <c r="AL16" s="9">
-        <f t="shared" si="27"/>
+        <f>AB16</f>
         <v>44816</v>
       </c>
       <c r="AM16" s="13">
-        <f t="shared" si="6"/>
-        <v>27942.15</v>
+        <f>IF(AU16="A",ROUND(W16*X16,2),ROUND(W16*X16/(1+X16),2))</f>
+        <v>4946.28</v>
       </c>
       <c r="AN16" s="13">
-        <f t="shared" si="7"/>
-        <v>160999.99</v>
+        <f>IF(AU16="A",ROUND(W16+AM16,2),ROUND(W16,2))</f>
+        <v>28500</v>
       </c>
       <c r="AO16" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>133057.84</v>
+        <f>IF(RIGHT(K16,1)="A",SUBSTITUTE(TEXT(W16,"0,00"),",","."),SUBSTITUTE(TEXT(AN16,"0,00"),",","."))</f>
+        <v>28500.00</v>
       </c>
       <c r="AP16" s="10" t="str">
-        <f t="shared" si="29"/>
-        <v>0.01</v>
+        <f t="shared" si="9"/>
+        <v>0.00</v>
       </c>
       <c r="AQ16" s="1">
-        <f t="shared" si="9"/>
+        <f>ROW(P16)</f>
         <v>16</v>
       </c>
       <c r="AR16" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>30684125792-16</v>
+        <f>O16&amp;"-"&amp;AQ16</f>
+        <v>30707354719-16</v>
       </c>
       <c r="AS16" s="1">
-        <f t="shared" si="11"/>
+        <f>COUNTIFS(J15:J16,J16,K15:K16,K16,P15:P16,P16)-1</f>
         <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f ca="1">IF(F17="",0,COUNTIFS(J16:J17,J17,K16:K17,K17,P16:P17,P17)-1)</f>
         <v>0</v>
       </c>
       <c r="AU16" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>A</v>
+        <f>RIGHT(K16)</f>
+        <v>B</v>
       </c>
       <c r="AV16" s="1">
-        <f t="shared" si="14"/>
+        <f>IF(LEFT(K16,4)="Nota",0,1)</f>
         <v>0</v>
       </c>
       <c r="AW16" s="13">
-        <f t="shared" si="15"/>
-        <v>160999.98000000001</v>
+        <f>IF(RIGHT(K16,1)="A",ROUND(V16*U16*(1+X16),2),AN16)</f>
+        <v>28500</v>
       </c>
       <c r="AX16" s="13">
-        <f t="shared" si="16"/>
-        <v>133057.82999999999</v>
+        <f>ROUND((AW16/(1+X16)),2)</f>
+        <v>23553.72</v>
       </c>
       <c r="AY16" s="20">
-        <f t="shared" si="17"/>
-        <v>7.003044</v>
+        <f>IF(AU16="A",ROUND(AX16/V16,6),AW16/V16)</f>
+        <v>1.5</v>
       </c>
       <c r="AZ16" s="13">
-        <f t="shared" si="18"/>
-        <v>161000</v>
+        <f>IF(AU16="A",ROUND(CEILING(V16*U16*(1+X16),500),2),ROUND(CEILING(V16*U16,500),2))</f>
+        <v>28500</v>
       </c>
       <c r="BA16" s="20">
-        <f t="shared" si="19"/>
-        <v>7.003044</v>
+        <f>IF(AU16="A",ROUND(AX16/V16,6),AZ16/V16)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Ajuste</v>
+        <v>2 - 30684125792 - SAMSUNG ELECTRONICS ARGENTINA S A - Ajuste Honorarios</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>92</v>
@@ -4530,71 +4524,71 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>45277</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" ca="1" si="21"/>
-        <v>45231</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" ca="1" si="22"/>
-        <v>45260</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" ca="1" si="23"/>
-        <v>45291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
       </c>
       <c r="J17" s="2">
         <v>2</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" s="2">
-        <v>37473042</v>
+        <v>9</v>
+      </c>
+      <c r="O17" s="3">
+        <v>30684125792</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>97</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="4">
-        <v>1.5</v>
+        <v>7.003044</v>
       </c>
       <c r="V17" s="5">
         <v>19000</v>
       </c>
       <c r="W17" s="5">
-        <f t="shared" si="24"/>
-        <v>28500</v>
+        <f t="shared" si="6"/>
+        <v>133057.83600000001</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="AB17" s="12">
         <v>44816</v>
@@ -4602,107 +4596,288 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AF17" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG17" s="14">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIFS(J16:J17,J17,K16:K17,K17,P16:P17,P17)=1,2,AG16+1)</f>
         <v>2</v>
       </c>
       <c r="AH17" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f>SUBSTITUTE(IF(AU17="A",ROUND(W17/V17,6),ROUND(AN17/V17,6)),",",".")</f>
+        <v>7.003044</v>
+      </c>
+      <c r="AI17" s="18" t="str">
+        <f>SUBSTITUTE(TEXT(V17,"0,00"),",",".")</f>
+        <v>19000.00</v>
+      </c>
+      <c r="AJ17" s="1" t="str">
+        <f>TEXT(Z17,"00000")</f>
+        <v>00002</v>
+      </c>
+      <c r="AK17" s="1" t="str">
+        <f>TEXT(AA17,"00000000")</f>
+        <v>00000151</v>
+      </c>
+      <c r="AL17" s="9">
+        <f>AB17</f>
+        <v>44816</v>
+      </c>
+      <c r="AM17" s="13">
+        <f>IF(AU17="A",ROUND(W17*X17,2),ROUND(W17*X17/(1+X17),2))</f>
+        <v>27942.15</v>
+      </c>
+      <c r="AN17" s="13">
+        <f>IF(AU17="A",ROUND(W17+AM17,2),ROUND(W17,2))</f>
+        <v>160999.99</v>
+      </c>
+      <c r="AO17" s="10" t="str">
+        <f>IF(RIGHT(K17,1)="A",SUBSTITUTE(TEXT(W17,"0,00"),",","."),SUBSTITUTE(TEXT(AN17,"0,00"),",","."))</f>
+        <v>133057.84</v>
+      </c>
+      <c r="AP17" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+      <c r="AQ17" s="1">
+        <f>ROW(P17)</f>
+        <v>17</v>
+      </c>
+      <c r="AR17" s="15" t="str">
+        <f>O17&amp;"-"&amp;AQ17</f>
+        <v>30684125792-17</v>
+      </c>
+      <c r="AS17" s="1">
+        <f>COUNTIFS(J16:J17,J17,K16:K17,K17,P16:P17,P17)-1</f>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <f ca="1">IF(F18="",0,COUNTIFS(J17:J18,J18,K17:K18,K18,P17:P18,P18)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1" t="str">
+        <f>RIGHT(K17)</f>
+        <v>A</v>
+      </c>
+      <c r="AV17" s="1">
+        <f>IF(LEFT(K17,4)="Nota",0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="13">
+        <f>IF(RIGHT(K17,1)="A",ROUND(V17*U17*(1+X17),2),AN17)</f>
+        <v>160999.98000000001</v>
+      </c>
+      <c r="AX17" s="13">
+        <f>ROUND((AW17/(1+X17)),2)</f>
+        <v>133057.82999999999</v>
+      </c>
+      <c r="AY17" s="20">
+        <f>IF(AU17="A",ROUND(AX17/V17,6),AW17/V17)</f>
+        <v>7.003044</v>
+      </c>
+      <c r="AZ17" s="13">
+        <f>IF(AU17="A",ROUND(CEILING(V17*U17*(1+X17),500),2),ROUND(CEILING(V17*U17,500),2))</f>
+        <v>161000</v>
+      </c>
+      <c r="BA17" s="20">
+        <f>IF(AU17="A",ROUND(AX17/V17,6),AZ17/V17)</f>
+        <v>7.003044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2 - 37473042 - BUSTOS PIASENTINI AGUSTIN - Ajuste</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>IFERROR(VLOOKUP(AR18,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="8">
+        <f t="shared" ca="1" si="2"/>
+        <v>45306</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>45261</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>45291</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>45320</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="2">
+        <v>37473042</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="4">
         <v>1.5</v>
       </c>
-      <c r="AI17" s="18" t="str">
-        <f t="shared" si="26"/>
+      <c r="V18" s="5">
+        <v>19000</v>
+      </c>
+      <c r="W18" s="5">
+        <f t="shared" si="6"/>
+        <v>28500</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>44816</v>
+      </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF18" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG18" s="14">
+        <f>IF(COUNTIFS(J17:J18,J18,K17:K18,K18,P17:P18,P18)=1,2,AG17+1)</f>
+        <v>2</v>
+      </c>
+      <c r="AH18" s="18" t="str">
+        <f>SUBSTITUTE(IF(AU18="A",ROUND(W18/V18,6),ROUND(AN18/V18,6)),",",".")</f>
+        <v>1.5</v>
+      </c>
+      <c r="AI18" s="18" t="str">
+        <f>SUBSTITUTE(TEXT(V18,"0,00"),",",".")</f>
         <v>19000.00</v>
       </c>
-      <c r="AJ17" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="AJ18" s="1" t="str">
+        <f>TEXT(Z18,"00000")</f>
         <v>00002</v>
       </c>
-      <c r="AK17" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="AK18" s="1" t="str">
+        <f>TEXT(AA18,"00000000")</f>
         <v>00000153</v>
       </c>
-      <c r="AL17" s="9">
-        <f t="shared" si="27"/>
+      <c r="AL18" s="9">
+        <f>AB18</f>
         <v>44816</v>
       </c>
-      <c r="AM17" s="13">
-        <f t="shared" si="6"/>
+      <c r="AM18" s="13">
+        <f>IF(AU18="A",ROUND(W18*X18,2),ROUND(W18*X18/(1+X18),2))</f>
         <v>4946.28</v>
       </c>
-      <c r="AN17" s="13">
-        <f t="shared" si="7"/>
+      <c r="AN18" s="13">
+        <f>IF(AU18="A",ROUND(W18+AM18,2),ROUND(W18,2))</f>
         <v>28500</v>
       </c>
-      <c r="AO17" s="10" t="str">
-        <f t="shared" si="8"/>
+      <c r="AO18" s="10" t="str">
+        <f>IF(RIGHT(K18,1)="A",SUBSTITUTE(TEXT(W18,"0,00"),",","."),SUBSTITUTE(TEXT(AN18,"0,00"),",","."))</f>
         <v>28500.00</v>
       </c>
-      <c r="AP17" s="10" t="str">
-        <f t="shared" si="29"/>
+      <c r="AP18" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>0.00</v>
       </c>
-      <c r="AQ17" s="1">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="AR17" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>37473042-17</v>
-      </c>
-      <c r="AS17" s="1">
-        <f t="shared" si="11"/>
+      <c r="AQ18" s="1">
+        <f>ROW(P18)</f>
+        <v>18</v>
+      </c>
+      <c r="AR18" s="15" t="str">
+        <f>O18&amp;"-"&amp;AQ18</f>
+        <v>37473042-18</v>
+      </c>
+      <c r="AS18" s="1">
+        <f>COUNTIFS(J17:J18,J18,K17:K18,K18,P17:P18,P18)-1</f>
         <v>0</v>
       </c>
-      <c r="AT17" s="1">
-        <f t="shared" si="12"/>
+      <c r="AT18" s="1">
+        <f>IF(F19="",0,COUNTIFS(J18:J19,J19,K18:K19,K19,P18:P19,P19)-1)</f>
         <v>0</v>
       </c>
-      <c r="AU17" s="1" t="str">
-        <f t="shared" si="13"/>
+      <c r="AU18" s="1" t="str">
+        <f>RIGHT(K18)</f>
         <v>B</v>
       </c>
-      <c r="AV17" s="1">
-        <f t="shared" si="14"/>
+      <c r="AV18" s="1">
+        <f>IF(LEFT(K18,4)="Nota",0,1)</f>
         <v>0</v>
       </c>
-      <c r="AW17" s="13">
-        <f t="shared" si="15"/>
+      <c r="AW18" s="13">
+        <f>IF(RIGHT(K18,1)="A",ROUND(V18*U18*(1+X18),2),AN18)</f>
         <v>28500</v>
       </c>
-      <c r="AX17" s="13">
-        <f t="shared" si="16"/>
+      <c r="AX18" s="13">
+        <f>ROUND((AW18/(1+X18)),2)</f>
         <v>23553.72</v>
       </c>
-      <c r="AY17" s="20">
-        <f t="shared" si="17"/>
+      <c r="AY18" s="20">
+        <f>IF(AU18="A",ROUND(AX18/V18,6),AW18/V18)</f>
         <v>1.5</v>
       </c>
-      <c r="AZ17" s="13">
-        <f t="shared" si="18"/>
+      <c r="AZ18" s="13">
+        <f>IF(AU18="A",ROUND(CEILING(V18*U18*(1+X18),500),2),ROUND(CEILING(V18*U18,500),2))</f>
         <v>28500</v>
       </c>
-      <c r="BA17" s="20">
-        <f t="shared" si="19"/>
+      <c r="BA18" s="20">
+        <f>IF(AU18="A",ROUND(AX18/V18,6),AZ18/V18)</f>
         <v>1.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BA17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:AY17">
-    <sortCondition ref="K2:K17"/>
-    <sortCondition ref="M2:M17"/>
-    <sortCondition ref="O2:O17"/>
+  <autoFilter ref="A1:BA18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:AY18">
+    <sortCondition ref="K2:K18"/>
+    <sortCondition ref="M2:M18"/>
+    <sortCondition ref="O2:O18"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17 B2:B17" xr:uid="{BFC33D16-50A8-46DB-B879-EC5A925DAA79}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18 D2:D18" xr:uid="{BFC33D16-50A8-46DB-B879-EC5A925DAA79}">
       <formula1>"SI,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4716,7 +4891,7 @@
           <x14:formula1>
             <xm:f>AUX!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q17</xm:sqref>
+          <xm:sqref>Q2:Q18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
